--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
@@ -676,7 +676,7 @@
         <v>1.71</v>
       </c>
       <c r="I2" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -685,7 +685,7 @@
         <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="G3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.4</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.6</v>
-      </c>
       <c r="J3" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>1.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>1.87</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="G6" t="n">
         <v>1.88</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.77</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H12" t="n">
         <v>4.8</v>
@@ -2029,13 +2029,13 @@
         <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
         <v>1.13</v>
@@ -2065,10 +2065,10 @@
         <v>1.73</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="X12" t="n">
         <v>8.800000000000001</v>
@@ -2077,10 +2077,10 @@
         <v>12.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB12" t="n">
         <v>6.4</v>
@@ -2089,7 +2089,7 @@
         <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
         <v>95</v>
@@ -2119,7 +2119,7 @@
         <v>240</v>
       </c>
       <c r="AN12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO12" t="n">
         <v>170</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.84</v>
+        <v>2.5</v>
       </c>
       <c r="G15" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
-        <v>2.16</v>
+        <v>1.97</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J15" t="n">
-        <v>2.22</v>
+        <v>2.7</v>
       </c>
       <c r="K15" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G19" t="n">
         <v>3.8</v>
@@ -2971,13 +2971,13 @@
         <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q19" t="n">
         <v>1.58</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="G20" t="n">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="H20" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.62</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
         <v>3.95</v>
@@ -3235,7 +3235,7 @@
         <v>2.56</v>
       </c>
       <c r="G21" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H21" t="n">
         <v>2.88</v>
@@ -3247,7 +3247,7 @@
         <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="Q21" t="n">
         <v>1.98</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G22" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="H22" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="I22" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="J22" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.25</v>
+        <v>2.26</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>2.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G25" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="H25" t="n">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="I25" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>7.8</v>
+        <v>4.6</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>1.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y26" t="n">
         <v>50</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G27" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="I27" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J27" t="n">
         <v>3.95</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q27" t="n">
         <v>1.69</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G33" t="n">
         <v>2.6</v>
@@ -4861,13 +4861,13 @@
         <v>2.9</v>
       </c>
       <c r="I33" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J33" t="n">
         <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="Q33" t="n">
         <v>1.79</v>
@@ -5002,7 +5002,7 @@
         <v>4.5</v>
       </c>
       <c r="K34" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="G36" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="H36" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="I36" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="J36" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="K36" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.05</v>
+        <v>2.32</v>
       </c>
       <c r="G40" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="H40" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I40" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J40" t="n">
-        <v>1.09</v>
+        <v>3.35</v>
       </c>
       <c r="K40" t="n">
-        <v>950</v>
+        <v>3.75</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -6073,19 +6073,19 @@
         <v>3.65</v>
       </c>
       <c r="H42" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J42" t="n">
         <v>3.6</v>
       </c>
       <c r="K42" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
         <v>1.06</v>
@@ -6115,10 +6115,10 @@
         <v>2.22</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X42" t="n">
         <v>19.5</v>
@@ -6151,10 +6151,10 @@
         <v>18</v>
       </c>
       <c r="AH42" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI42" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ42" t="n">
         <v>75</v>
@@ -6163,7 +6163,7 @@
         <v>48</v>
       </c>
       <c r="AL42" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM42" t="n">
         <v>100</v>
@@ -6172,7 +6172,7 @@
         <v>42</v>
       </c>
       <c r="AO42" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -6208,16 +6208,16 @@
         <v>4.6</v>
       </c>
       <c r="H43" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="I43" t="n">
         <v>2.82</v>
       </c>
       <c r="J43" t="n">
-        <v>2.32</v>
+        <v>2.78</v>
       </c>
       <c r="K43" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G44" t="n">
         <v>2.1</v>
       </c>
       <c r="H44" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I44" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J44" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K44" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6400,7 +6400,7 @@
         <v>28</v>
       </c>
       <c r="AA44" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AB44" t="n">
         <v>11</v>
@@ -6412,10 +6412,10 @@
         <v>16</v>
       </c>
       <c r="AE44" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF44" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG44" t="n">
         <v>10.5</v>
@@ -6430,7 +6430,7 @@
         <v>25</v>
       </c>
       <c r="AK44" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL44" t="n">
         <v>34</v>
@@ -6442,7 +6442,7 @@
         <v>13.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="G45" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="H45" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="I45" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="J45" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="K45" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q45" t="n">
         <v>1.98</v>
@@ -6775,7 +6775,7 @@
         <v>2.32</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R47" t="n">
         <v>1.52</v>
@@ -6784,7 +6784,7 @@
         <v>2.84</v>
       </c>
       <c r="T47" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U47" t="n">
         <v>2.18</v>
@@ -6802,7 +6802,7 @@
         <v>22</v>
       </c>
       <c r="Z47" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA47" t="n">
         <v>150</v>
@@ -6823,7 +6823,7 @@
         <v>10.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH47" t="n">
         <v>21</v>
@@ -6838,7 +6838,7 @@
         <v>15</v>
       </c>
       <c r="AL47" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM47" t="n">
         <v>95</v>
@@ -6847,7 +6847,7 @@
         <v>7.8</v>
       </c>
       <c r="AO47" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
@@ -6949,7 +6949,7 @@
         <v>7.8</v>
       </c>
       <c r="AD48" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE48" t="n">
         <v>50</v>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G50" t="n">
         <v>2.5</v>
@@ -7165,7 +7165,7 @@
         <v>3.45</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M50" t="n">
         <v>1.08</v>
@@ -7189,16 +7189,16 @@
         <v>3.55</v>
       </c>
       <c r="T50" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U50" t="n">
         <v>2.22</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="X50" t="n">
         <v>14</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="G51" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J51" t="n">
         <v>3.85</v>
       </c>
-      <c r="H51" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2.62</v>
-      </c>
       <c r="K51" t="n">
-        <v>7.2</v>
+        <v>4.9</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>2.22</v>
+        <v>2.52</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G52" t="n">
         <v>1.76</v>
@@ -7447,7 +7447,7 @@
         <v>1.22</v>
       </c>
       <c r="P52" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q52" t="n">
         <v>1.66</v>
@@ -7456,7 +7456,7 @@
         <v>1.57</v>
       </c>
       <c r="S52" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T52" t="n">
         <v>1.69</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.97</v>
       </c>
-      <c r="G53" t="n">
-        <v>5</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1.28</v>
-      </c>
       <c r="I53" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.03</v>
+        <v>3.85</v>
       </c>
       <c r="K53" t="n">
-        <v>950</v>
+        <v>4.4</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7696,7 +7696,7 @@
         <v>9.4</v>
       </c>
       <c r="I54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J54" t="n">
         <v>4.3</v>
@@ -7717,10 +7717,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="G55" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H55" t="n">
-        <v>1.05</v>
+        <v>4.8</v>
       </c>
       <c r="I55" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="J55" t="n">
         <v>3.75</v>
       </c>
       <c r="K55" t="n">
-        <v>4.1</v>
+        <v>950</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1.36</v>
       </c>
       <c r="H57" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I57" t="n">
         <v>12</v>
@@ -8116,28 +8116,28 @@
         <v>1.03</v>
       </c>
       <c r="N57" t="n">
-        <v>1.59</v>
+        <v>5.9</v>
       </c>
       <c r="O57" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P57" t="n">
-        <v>1.59</v>
+        <v>2.66</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.15</v>
+        <v>1.51</v>
       </c>
       <c r="R57" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="S57" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="T57" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="U57" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -8146,58 +8146,58 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y57" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z57" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA57" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AB57" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC57" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AD57" t="n">
         <v>980</v>
       </c>
       <c r="AE57" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF57" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG57" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI57" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK57" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL57" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM57" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN57" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="AO57" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58">
@@ -8368,7 +8368,7 @@
         <v>1.9</v>
       </c>
       <c r="H59" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="I59" t="n">
         <v>5.6</v>
@@ -8377,7 +8377,7 @@
         <v>3.65</v>
       </c>
       <c r="K59" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8509,7 +8509,7 @@
         <v>4.9</v>
       </c>
       <c r="J60" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K60" t="n">
         <v>3.8</v>
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G61" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H61" t="n">
         <v>3.65</v>
       </c>
       <c r="I61" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
         <v>3</v>
       </c>
       <c r="K61" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -8662,10 +8662,10 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -8797,10 +8797,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -9037,22 +9037,22 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H64" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I64" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J64" t="n">
         <v>5.1</v>
       </c>
       <c r="K64" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -9067,10 +9067,10 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -9187,7 +9187,7 @@
         <v>3.1</v>
       </c>
       <c r="K65" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -9448,7 +9448,7 @@
         <v>1.99</v>
       </c>
       <c r="H67" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I67" t="n">
         <v>4.3</v>
@@ -9472,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q67" t="n">
         <v>1.67</v>
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G68" t="n">
         <v>1.82</v>
@@ -9589,10 +9589,10 @@
         <v>6</v>
       </c>
       <c r="J68" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K68" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -9601,7 +9601,7 @@
         <v>1.1</v>
       </c>
       <c r="N68" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O68" t="n">
         <v>1.44</v>
@@ -9646,7 +9646,7 @@
         <v>7</v>
       </c>
       <c r="AC68" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD68" t="n">
         <v>24</v>
@@ -9661,7 +9661,7 @@
         <v>11</v>
       </c>
       <c r="AH68" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI68" t="n">
         <v>130</v>
@@ -9670,7 +9670,7 @@
         <v>21</v>
       </c>
       <c r="AK68" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL68" t="n">
         <v>60</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G70" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H70" t="n">
         <v>3.75</v>
       </c>
       <c r="I70" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J70" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K70" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>1.87</v>
       </c>
       <c r="R70" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S70" t="n">
         <v>3.2</v>
@@ -9928,7 +9928,7 @@
         <v>15.5</v>
       </c>
       <c r="AG70" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH70" t="n">
         <v>16</v>
@@ -10045,7 +10045,7 @@
         <v>12</v>
       </c>
       <c r="AA71" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB71" t="n">
         <v>23</v>
@@ -10084,7 +10084,7 @@
         <v>75</v>
       </c>
       <c r="AN71" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO71" t="n">
         <v>7.8</v>
@@ -10123,10 +10123,10 @@
         <v>1.28</v>
       </c>
       <c r="H72" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I72" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="J72" t="n">
         <v>7</v>
@@ -10144,7 +10144,7 @@
         <v>6.6</v>
       </c>
       <c r="O72" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P72" t="n">
         <v>2.96</v>
@@ -10219,7 +10219,7 @@
         <v>160</v>
       </c>
       <c r="AN72" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AO72" t="n">
         <v>250</v>
@@ -10252,22 +10252,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G73" t="n">
         <v>2.98</v>
       </c>
       <c r="H73" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="I73" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J73" t="n">
         <v>2.86</v>
       </c>
       <c r="K73" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>1.89</v>
       </c>
       <c r="G75" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H75" t="n">
         <v>4.7</v>
@@ -10534,7 +10534,7 @@
         <v>5.2</v>
       </c>
       <c r="J75" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K75" t="n">
         <v>3.8</v>
@@ -10555,7 +10555,7 @@
         <v>1.65</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -10675,7 +10675,7 @@
         <v>6.2</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M76" t="n">
         <v>1.04</v>
@@ -10705,10 +10705,10 @@
         <v>1.78</v>
       </c>
       <c r="V76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X76" t="n">
         <v>23</v>
@@ -10717,7 +10717,7 @@
         <v>8.6</v>
       </c>
       <c r="Z76" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA76" t="n">
         <v>10.5</v>
@@ -10957,10 +10957,10 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11068,16 +11068,16 @@
         <v>1.07</v>
       </c>
       <c r="H79" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I79" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="J79" t="n">
         <v>19.5</v>
       </c>
       <c r="K79" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -11092,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11203,7 +11203,7 @@
         <v>2.56</v>
       </c>
       <c r="H80" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I80" t="n">
         <v>3.85</v>
@@ -11227,10 +11227,10 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>1.02</v>
+        <v>1.48</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -11332,22 +11332,22 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G81" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="H81" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="I81" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J81" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K81" t="n">
-        <v>7.4</v>
+        <v>5.3</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -11362,10 +11362,10 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -11479,7 +11479,7 @@
         <v>3.05</v>
       </c>
       <c r="J82" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K82" t="n">
         <v>3</v>
@@ -11506,7 +11506,7 @@
         <v>1.15</v>
       </c>
       <c r="S82" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="T82" t="n">
         <v>2.36</v>
@@ -11602,22 +11602,22 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.09</v>
+        <v>7.8</v>
       </c>
       <c r="G83" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H83" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="I83" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="J83" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K83" t="n">
-        <v>950</v>
+        <v>5.4</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -11632,10 +11632,10 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -11737,22 +11737,22 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="G84" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H84" t="n">
         <v>2.96</v>
       </c>
       <c r="I84" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="J84" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K84" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -11767,10 +11767,10 @@
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -12007,22 +12007,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="H86" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I86" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="J86" t="n">
-        <v>2.46</v>
+        <v>3.4</v>
       </c>
       <c r="K86" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -12037,10 +12037,10 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>1.73</v>
+        <v>2.06</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -12280,7 +12280,7 @@
         <v>1.3</v>
       </c>
       <c r="G88" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H88" t="n">
         <v>11</v>
@@ -12307,10 +12307,10 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -13102,10 +13102,10 @@
         <v>4.6</v>
       </c>
       <c r="K94" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M94" t="n">
         <v>1.07</v>
@@ -13114,10 +13114,10 @@
         <v>3.65</v>
       </c>
       <c r="O94" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P94" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q94" t="n">
         <v>2.02</v>
@@ -13132,16 +13132,16 @@
         <v>2.22</v>
       </c>
       <c r="U94" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V94" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="W94" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X94" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y94" t="n">
         <v>7.2</v>
@@ -13357,22 +13357,22 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G96" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I96" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J96" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="K96" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -13774,7 +13774,7 @@
         <v>3.65</v>
       </c>
       <c r="J99" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K99" t="n">
         <v>3.3</v>
@@ -13786,7 +13786,7 @@
         <v>1.1</v>
       </c>
       <c r="N99" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O99" t="n">
         <v>1.44</v>
@@ -13897,10 +13897,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G100" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H100" t="n">
         <v>2.98</v>
@@ -13927,10 +13927,10 @@
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -14032,10 +14032,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="G101" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="H101" t="n">
         <v>1.23</v>
@@ -14167,22 +14167,22 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="G102" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="H102" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="I102" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="J102" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K102" t="n">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -14197,10 +14197,10 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -14575,10 +14575,10 @@
         <v>1.47</v>
       </c>
       <c r="G105" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H105" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I105" t="n">
         <v>11</v>
@@ -14587,7 +14587,7 @@
         <v>4.1</v>
       </c>
       <c r="K105" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -14605,7 +14605,7 @@
         <v>1.07</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -14707,22 +14707,22 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.98</v>
+        <v>3.45</v>
       </c>
       <c r="G106" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="H106" t="n">
-        <v>1.33</v>
+        <v>2.24</v>
       </c>
       <c r="I106" t="n">
-        <v>2.74</v>
+        <v>2.42</v>
       </c>
       <c r="J106" t="n">
         <v>3.35</v>
       </c>
       <c r="K106" t="n">
-        <v>950</v>
+        <v>3.55</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -14740,7 +14740,7 @@
         <v>1.67</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
@@ -14848,7 +14848,7 @@
         <v>2.08</v>
       </c>
       <c r="H107" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I107" t="n">
         <v>4.4</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
@@ -691,7 +691,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -700,7 +700,7 @@
         <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
         <v>1.49</v>
@@ -730,7 +730,7 @@
         <v>11.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB2" t="n">
         <v>22</v>
@@ -742,7 +742,7 @@
         <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF2" t="n">
         <v>980</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q5" t="n">
         <v>1.92</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q6" t="n">
         <v>2.06</v>
@@ -1477,23 +1477,23 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K8" t="n">
         <v>4.3</v>
       </c>
-      <c r="G8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="Q8" t="n">
         <v>1.47</v>
@@ -1645,7 +1645,7 @@
         <v>1.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="G10" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.24</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2017,37 +2017,37 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G12" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H12" t="n">
         <v>4.8</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.2</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.13</v>
       </c>
       <c r="N12" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.56</v>
       </c>
       <c r="P12" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q12" t="n">
         <v>2.68</v>
@@ -2059,19 +2059,19 @@
         <v>5.6</v>
       </c>
       <c r="T12" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W12" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="X12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y12" t="n">
         <v>12.5</v>
@@ -2083,10 +2083,10 @@
         <v>160</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
         <v>22</v>
@@ -2107,7 +2107,7 @@
         <v>130</v>
       </c>
       <c r="AJ12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK12" t="n">
         <v>29</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="I17" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="J17" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>5.8</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>1.77</v>
       </c>
       <c r="H18" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I18" t="n">
         <v>1000</v>
@@ -2971,10 +2971,10 @@
         <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K19" t="n">
         <v>5</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q20" t="n">
         <v>1.75</v>
@@ -3235,10 +3235,10 @@
         <v>2.56</v>
       </c>
       <c r="G21" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="I21" t="n">
         <v>3.1</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G22" t="n">
         <v>3.45</v>
       </c>
       <c r="H22" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="I22" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
         <v>3.9</v>
@@ -3535,7 +3535,7 @@
         <v>2.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3640,10 +3640,10 @@
         <v>1.62</v>
       </c>
       <c r="G24" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I24" t="n">
         <v>11</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="G25" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="H25" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.25</v>
+        <v>2.22</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="G26" t="n">
         <v>1.3</v>
@@ -3916,7 +3916,7 @@
         <v>13</v>
       </c>
       <c r="I26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J26" t="n">
         <v>6.6</v>
@@ -3940,7 +3940,7 @@
         <v>2.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R26" t="n">
         <v>1.73</v>
@@ -3949,10 +3949,10 @@
         <v>2.3</v>
       </c>
       <c r="T26" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>30</v>
       </c>
       <c r="Y26" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z26" t="n">
         <v>140</v>
@@ -3982,7 +3982,7 @@
         <v>48</v>
       </c>
       <c r="AE26" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="n">
         <v>8.800000000000001</v>
@@ -4003,7 +4003,7 @@
         <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM26" t="n">
         <v>170</v>
@@ -4045,7 +4045,7 @@
         <v>1.69</v>
       </c>
       <c r="G27" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H27" t="n">
         <v>4.9</v>
@@ -4054,7 +4054,7 @@
         <v>5.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K27" t="n">
         <v>4.3</v>
@@ -4075,7 +4075,7 @@
         <v>2.06</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>2.6</v>
       </c>
       <c r="H33" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="I33" t="n">
         <v>3.1</v>
@@ -4867,7 +4867,7 @@
         <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q33" t="n">
         <v>1.79</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G36" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="H36" t="n">
         <v>2.08</v>
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="G37" t="n">
         <v>4.4</v>
       </c>
       <c r="H37" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I37" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="J37" t="n">
         <v>3.15</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q37" t="n">
         <v>2.16</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="G40" t="n">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="H40" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="I40" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J40" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K40" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5830,7 +5830,7 @@
         <v>1.92</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G42" t="n">
         <v>3.65</v>
@@ -6076,10 +6076,10 @@
         <v>2.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J42" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K42" t="n">
         <v>3.8</v>
@@ -6103,19 +6103,19 @@
         <v>1.85</v>
       </c>
       <c r="R42" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S42" t="n">
         <v>3.15</v>
       </c>
       <c r="T42" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U42" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V42" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W42" t="n">
         <v>1.38</v>
@@ -6142,7 +6142,7 @@
         <v>13</v>
       </c>
       <c r="AE42" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF42" t="n">
         <v>30</v>
@@ -6151,10 +6151,10 @@
         <v>18</v>
       </c>
       <c r="AH42" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ42" t="n">
         <v>75</v>
@@ -6163,7 +6163,7 @@
         <v>48</v>
       </c>
       <c r="AL42" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM42" t="n">
         <v>100</v>
@@ -6172,7 +6172,7 @@
         <v>42</v>
       </c>
       <c r="AO42" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G43" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H43" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="I43" t="n">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="J43" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H44" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I44" t="n">
         <v>3.9</v>
       </c>
-      <c r="I44" t="n">
-        <v>3.95</v>
-      </c>
       <c r="J44" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K44" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.8</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6373,13 +6373,13 @@
         <v>1.84</v>
       </c>
       <c r="R44" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S44" t="n">
         <v>3.1</v>
       </c>
       <c r="T44" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U44" t="n">
         <v>2.3</v>
@@ -6394,13 +6394,13 @@
         <v>16.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z44" t="n">
         <v>28</v>
       </c>
       <c r="AA44" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB44" t="n">
         <v>11</v>
@@ -6427,10 +6427,10 @@
         <v>48</v>
       </c>
       <c r="AJ44" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK44" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL44" t="n">
         <v>34</v>
@@ -6439,7 +6439,7 @@
         <v>80</v>
       </c>
       <c r="AN44" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO44" t="n">
         <v>40</v>
@@ -6607,10 +6607,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G46" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>4.1</v>
@@ -6619,13 +6619,13 @@
         <v>4.3</v>
       </c>
       <c r="J46" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K46" t="n">
         <v>3.9</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M46" t="n">
         <v>1.06</v>
@@ -6637,7 +6637,7 @@
         <v>1.28</v>
       </c>
       <c r="P46" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q46" t="n">
         <v>1.84</v>
@@ -6649,16 +6649,16 @@
         <v>3.15</v>
       </c>
       <c r="T46" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U46" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X46" t="n">
         <v>17</v>
@@ -6691,7 +6691,7 @@
         <v>11</v>
       </c>
       <c r="AH46" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI46" t="n">
         <v>55</v>
@@ -6754,10 +6754,10 @@
         <v>5.8</v>
       </c>
       <c r="J47" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K47" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1.24</v>
       </c>
       <c r="P47" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q47" t="n">
         <v>1.73</v>
@@ -6784,10 +6784,10 @@
         <v>2.84</v>
       </c>
       <c r="T47" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U47" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -6826,10 +6826,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI47" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ47" t="n">
         <v>16</v>
@@ -6847,7 +6847,7 @@
         <v>7.8</v>
       </c>
       <c r="AO47" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
@@ -6880,7 +6880,7 @@
         <v>2.06</v>
       </c>
       <c r="G48" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>4</v>
@@ -6889,10 +6889,10 @@
         <v>4.2</v>
       </c>
       <c r="J48" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K48" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -6943,13 +6943,13 @@
         <v>90</v>
       </c>
       <c r="AB48" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC48" t="n">
         <v>7.8</v>
       </c>
       <c r="AD48" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE48" t="n">
         <v>50</v>
@@ -6958,7 +6958,7 @@
         <v>12.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH48" t="n">
         <v>22</v>
@@ -6976,7 +6976,7 @@
         <v>40</v>
       </c>
       <c r="AM48" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN48" t="n">
         <v>17</v>
@@ -7150,19 +7150,19 @@
         <v>2.48</v>
       </c>
       <c r="G50" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H50" t="n">
         <v>3.25</v>
       </c>
       <c r="I50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J50" t="n">
         <v>3.35</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3.45</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7177,10 +7177,10 @@
         <v>1.33</v>
       </c>
       <c r="P50" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
         <v>1.37</v>
@@ -7198,7 +7198,7 @@
         <v>1.43</v>
       </c>
       <c r="W50" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X50" t="n">
         <v>14</v>
@@ -7216,7 +7216,7 @@
         <v>11</v>
       </c>
       <c r="AC50" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD50" t="n">
         <v>14.5</v>
@@ -7423,31 +7423,31 @@
         <v>1.76</v>
       </c>
       <c r="H52" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J52" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K52" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M52" t="n">
         <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O52" t="n">
         <v>1.22</v>
       </c>
       <c r="P52" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q52" t="n">
         <v>1.66</v>
@@ -7462,16 +7462,16 @@
         <v>1.69</v>
       </c>
       <c r="U52" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X52" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y52" t="n">
         <v>23</v>
@@ -7483,10 +7483,10 @@
         <v>130</v>
       </c>
       <c r="AB52" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC52" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD52" t="n">
         <v>19.5</v>
@@ -7495,7 +7495,7 @@
         <v>60</v>
       </c>
       <c r="AF52" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG52" t="n">
         <v>10.5</v>
@@ -7504,7 +7504,7 @@
         <v>17.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ52" t="n">
         <v>18.5</v>
@@ -7516,10 +7516,10 @@
         <v>30</v>
       </c>
       <c r="AM52" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN52" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO52" t="n">
         <v>50</v>
@@ -7552,19 +7552,19 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H53" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="I53" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="J53" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K53" t="n">
         <v>4.4</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H55" t="n">
         <v>4.8</v>
       </c>
       <c r="I55" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="J55" t="n">
-        <v>3.75</v>
+        <v>2.12</v>
       </c>
       <c r="K55" t="n">
-        <v>950</v>
+        <v>6.4</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>1.69</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -8098,25 +8098,25 @@
         <v>1.36</v>
       </c>
       <c r="H57" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I57" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J57" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K57" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M57" t="n">
         <v>1.03</v>
       </c>
       <c r="N57" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O57" t="n">
         <v>1.17</v>
@@ -8125,7 +8125,7 @@
         <v>2.66</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R57" t="n">
         <v>1.67</v>
@@ -8140,22 +8140,22 @@
         <v>1.9</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="X57" t="n">
         <v>980</v>
       </c>
       <c r="Y57" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="Z57" t="n">
         <v>110</v>
       </c>
       <c r="AA57" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AB57" t="n">
         <v>12</v>
@@ -8167,16 +8167,16 @@
         <v>980</v>
       </c>
       <c r="AE57" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF57" t="n">
         <v>10</v>
       </c>
       <c r="AG57" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH57" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI57" t="n">
         <v>130</v>
@@ -8185,13 +8185,13 @@
         <v>11.5</v>
       </c>
       <c r="AK57" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AL57" t="n">
         <v>38</v>
       </c>
       <c r="AM57" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN57" t="n">
         <v>4.5</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="G58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="I58" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="J58" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K58" t="n">
-        <v>6.6</v>
+        <v>4.1</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="G59" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="H59" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="I59" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="J59" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8395,7 +8395,7 @@
         <v>1.82</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>3.65</v>
       </c>
       <c r="K60" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -8575,10 +8575,10 @@
         <v>65</v>
       </c>
       <c r="AF60" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH60" t="n">
         <v>19</v>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G61" t="n">
         <v>2.46</v>
@@ -8644,7 +8644,7 @@
         <v>4</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K61" t="n">
         <v>3.3</v>
@@ -8665,7 +8665,7 @@
         <v>1.58</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.26</v>
+        <v>2.52</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -8779,7 +8779,7 @@
         <v>3.35</v>
       </c>
       <c r="J62" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="K62" t="n">
         <v>4.4</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="Q62" t="n">
         <v>1.45</v>
@@ -9322,7 +9322,7 @@
         <v>3.6</v>
       </c>
       <c r="K66" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -9445,20 +9445,20 @@
         <v>1.9</v>
       </c>
       <c r="G67" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H67" t="n">
         <v>4</v>
       </c>
       <c r="I67" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K67" t="n">
         <v>4.3</v>
       </c>
-      <c r="J67" t="n">
-        <v>4</v>
-      </c>
-      <c r="K67" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q67" t="n">
         <v>1.67</v>
@@ -9580,13 +9580,13 @@
         <v>1.78</v>
       </c>
       <c r="G68" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H68" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I68" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J68" t="n">
         <v>3.7</v>
@@ -9595,7 +9595,7 @@
         <v>3.8</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M68" t="n">
         <v>1.1</v>
@@ -9619,16 +9619,16 @@
         <v>4.5</v>
       </c>
       <c r="T68" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U68" t="n">
         <v>1.81</v>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="X68" t="n">
         <v>11</v>
@@ -9679,7 +9679,7 @@
         <v>210</v>
       </c>
       <c r="AN68" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO68" t="n">
         <v>190</v>
@@ -9724,19 +9724,19 @@
         <v>3.95</v>
       </c>
       <c r="J69" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K69" t="n">
         <v>3.6</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M69" t="n">
         <v>1.09</v>
       </c>
       <c r="N69" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O69" t="n">
         <v>1.39</v>
@@ -9754,16 +9754,16 @@
         <v>4</v>
       </c>
       <c r="T69" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U69" t="n">
         <v>2.02</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="X69" t="n">
         <v>12</v>
@@ -9859,13 +9859,13 @@
         <v>3.9</v>
       </c>
       <c r="J70" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K70" t="n">
         <v>3.65</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M70" t="n">
         <v>1.07</v>
@@ -9895,10 +9895,10 @@
         <v>2.3</v>
       </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W70" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="X70" t="n">
         <v>17</v>
@@ -9925,7 +9925,7 @@
         <v>44</v>
       </c>
       <c r="AF70" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG70" t="n">
         <v>11</v>
@@ -9949,7 +9949,7 @@
         <v>80</v>
       </c>
       <c r="AN70" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO70" t="n">
         <v>40</v>
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G71" t="n">
         <v>5.1</v>
@@ -10006,28 +10006,28 @@
         <v>1.04</v>
       </c>
       <c r="N71" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O71" t="n">
         <v>1.21</v>
       </c>
       <c r="P71" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R71" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S71" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T71" t="n">
         <v>1.69</v>
       </c>
       <c r="U71" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -10045,7 +10045,7 @@
         <v>12</v>
       </c>
       <c r="AA71" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB71" t="n">
         <v>23</v>
@@ -10084,7 +10084,7 @@
         <v>75</v>
       </c>
       <c r="AN71" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO71" t="n">
         <v>7.8</v>
@@ -10126,22 +10126,22 @@
         <v>13.5</v>
       </c>
       <c r="I72" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J72" t="n">
         <v>7</v>
       </c>
       <c r="K72" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M72" t="n">
         <v>1.02</v>
       </c>
       <c r="N72" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O72" t="n">
         <v>1.15</v>
@@ -10162,19 +10162,19 @@
         <v>2</v>
       </c>
       <c r="U72" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V72" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W72" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="X72" t="n">
         <v>34</v>
       </c>
       <c r="Y72" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z72" t="n">
         <v>1000</v>
@@ -10189,7 +10189,7 @@
         <v>16</v>
       </c>
       <c r="AD72" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AE72" t="n">
         <v>220</v>
@@ -10219,7 +10219,7 @@
         <v>160</v>
       </c>
       <c r="AN72" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO72" t="n">
         <v>250</v>
@@ -10687,10 +10687,10 @@
         <v>1.24</v>
       </c>
       <c r="P76" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R76" t="n">
         <v>1.53</v>
@@ -10759,7 +10759,7 @@
         <v>240</v>
       </c>
       <c r="AN76" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="AO76" t="n">
         <v>5.1</v>
@@ -10930,7 +10930,7 @@
         <v>1.15</v>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H78" t="n">
         <v>18</v>
@@ -11068,10 +11068,10 @@
         <v>1.07</v>
       </c>
       <c r="H79" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I79" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J79" t="n">
         <v>19.5</v>
@@ -11092,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11362,10 +11362,10 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G82" t="n">
         <v>3.05</v>
@@ -11479,7 +11479,7 @@
         <v>3.05</v>
       </c>
       <c r="J82" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K82" t="n">
         <v>3</v>
@@ -11491,7 +11491,7 @@
         <v>1.16</v>
       </c>
       <c r="N82" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O82" t="n">
         <v>1.69</v>
@@ -11506,10 +11506,10 @@
         <v>1.15</v>
       </c>
       <c r="S82" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="T82" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="U82" t="n">
         <v>1.69</v>
@@ -11530,10 +11530,10 @@
         <v>18</v>
       </c>
       <c r="AA82" t="n">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="AB82" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC82" t="n">
         <v>7</v>
@@ -11569,7 +11569,7 @@
         <v>290</v>
       </c>
       <c r="AN82" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO82" t="n">
         <v>75</v>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="G83" t="n">
         <v>11</v>
@@ -11611,7 +11611,7 @@
         <v>1.42</v>
       </c>
       <c r="I83" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="J83" t="n">
         <v>4.6</v>
@@ -11632,7 +11632,7 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q83" t="n">
         <v>1.68</v>
@@ -11740,10 +11740,10 @@
         <v>2.24</v>
       </c>
       <c r="G84" t="n">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="H84" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I84" t="n">
         <v>3.65</v>
@@ -11767,10 +11767,10 @@
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -12007,13 +12007,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G86" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I86" t="n">
         <v>4.2</v>
@@ -12022,7 +12022,7 @@
         <v>3.4</v>
       </c>
       <c r="K86" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="G87" t="n">
         <v>1.17</v>
@@ -12280,7 +12280,7 @@
         <v>1.3</v>
       </c>
       <c r="G88" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H88" t="n">
         <v>11</v>
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G92" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H92" t="n">
         <v>2.22</v>
       </c>
       <c r="I92" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="J92" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K92" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -12847,10 +12847,10 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>1.07</v>
+        <v>2.34</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12952,22 +12952,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.09</v>
+        <v>2.72</v>
       </c>
       <c r="G93" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H93" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="I93" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="J93" t="n">
         <v>3.2</v>
       </c>
       <c r="K93" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -13087,19 +13087,19 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="G94" t="n">
         <v>8.6</v>
       </c>
       <c r="H94" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I94" t="n">
         <v>1.5</v>
       </c>
-      <c r="I94" t="n">
-        <v>1.52</v>
-      </c>
       <c r="J94" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K94" t="n">
         <v>4.8</v>
@@ -13111,22 +13111,22 @@
         <v>1.07</v>
       </c>
       <c r="N94" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O94" t="n">
         <v>1.35</v>
       </c>
       <c r="P94" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R94" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S94" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T94" t="n">
         <v>2.22</v>
@@ -13135,7 +13135,7 @@
         <v>1.76</v>
       </c>
       <c r="V94" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="W94" t="n">
         <v>1.13</v>
@@ -13222,25 +13222,25 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G95" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H95" t="n">
         <v>1.64</v>
       </c>
       <c r="I95" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="J95" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K95" t="n">
         <v>4.8</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M95" t="n">
         <v>1.03</v>
@@ -13258,7 +13258,7 @@
         <v>1.59</v>
       </c>
       <c r="R95" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S95" t="n">
         <v>2.46</v>
@@ -13270,10 +13270,10 @@
         <v>2.36</v>
       </c>
       <c r="V95" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W95" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="X95" t="n">
         <v>25</v>
@@ -13357,22 +13357,22 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="G96" t="n">
         <v>3.05</v>
       </c>
       <c r="H96" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I96" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J96" t="n">
         <v>2.64</v>
       </c>
       <c r="K96" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -13390,7 +13390,7 @@
         <v>1.34</v>
       </c>
       <c r="Q96" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>2.56</v>
       </c>
       <c r="H97" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="I97" t="n">
         <v>1000</v>
@@ -13507,7 +13507,7 @@
         <v>1.64</v>
       </c>
       <c r="K97" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -13633,16 +13633,16 @@
         <v>1.7</v>
       </c>
       <c r="H98" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="I98" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="J98" t="n">
-        <v>2.42</v>
+        <v>3.75</v>
       </c>
       <c r="K98" t="n">
-        <v>1000</v>
+        <v>910</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G99" t="n">
         <v>2.42</v>
@@ -13801,7 +13801,7 @@
         <v>1.27</v>
       </c>
       <c r="S99" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T99" t="n">
         <v>2</v>
@@ -13816,7 +13816,7 @@
         <v>0</v>
       </c>
       <c r="X99" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y99" t="n">
         <v>11.5</v>
@@ -13828,7 +13828,7 @@
         <v>70</v>
       </c>
       <c r="AB99" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC99" t="n">
         <v>7.2</v>
@@ -13900,7 +13900,7 @@
         <v>2.44</v>
       </c>
       <c r="G100" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H100" t="n">
         <v>2.98</v>
@@ -13930,7 +13930,7 @@
         <v>2.02</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -14035,10 +14035,10 @@
         <v>14</v>
       </c>
       <c r="G101" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H101" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="I101" t="n">
         <v>1.25</v>
@@ -14317,7 +14317,7 @@
         <v>1.01</v>
       </c>
       <c r="K103" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -14437,22 +14437,22 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="G104" t="n">
         <v>2.04</v>
       </c>
       <c r="H104" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="I104" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="J104" t="n">
-        <v>1.96</v>
+        <v>2.92</v>
       </c>
       <c r="K104" t="n">
-        <v>1000</v>
+        <v>820</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -14467,10 +14467,10 @@
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>1.05</v>
+        <v>1.43</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -14575,19 +14575,19 @@
         <v>1.47</v>
       </c>
       <c r="G105" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H105" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I105" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J105" t="n">
         <v>4.1</v>
       </c>
       <c r="K105" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -14602,10 +14602,10 @@
         <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>1.07</v>
+        <v>1.67</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -14737,10 +14737,10 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
@@ -14848,13 +14848,13 @@
         <v>2.08</v>
       </c>
       <c r="H107" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I107" t="n">
         <v>4.4</v>
       </c>
       <c r="J107" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K107" t="n">
         <v>4</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO107"/>
+  <dimension ref="A1:AO108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,7 +679,7 @@
         <v>1.74</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
         <v>4.5</v>
@@ -697,10 +697,10 @@
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
         <v>1.49</v>
@@ -712,16 +712,16 @@
         <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="W2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
         <v>10.5</v>
@@ -733,7 +733,7 @@
         <v>18</v>
       </c>
       <c r="AB2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
         <v>10</v>
@@ -745,16 +745,16 @@
         <v>17.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH2" t="n">
         <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="n">
         <v>150</v>
@@ -769,7 +769,7 @@
         <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AO2" t="n">
         <v>8.6</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
         <v>2.96</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G4" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
         <v>4.8</v>
@@ -952,97 +952,97 @@
         <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q4" t="n">
         <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G5" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="I5" t="n">
         <v>5.9</v>
@@ -1087,97 +1087,97 @@
         <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.89</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1210,7 +1210,7 @@
         <v>1.7</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H6" t="n">
         <v>5.1</v>
@@ -1219,100 +1219,100 @@
         <v>6.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
         <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="Q6" t="n">
         <v>2.06</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1345,109 +1345,109 @@
         <v>2.74</v>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I7" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,34 +1477,34 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="G8" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H8" t="n">
         <v>1.81</v>
       </c>
       <c r="I8" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="J8" t="n">
         <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
         <v>2.48</v>
@@ -1513,76 +1513,76 @@
         <v>1.47</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.46</v>
+        <v>2.08</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="K9" t="n">
-        <v>5.1</v>
+        <v>950</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>2.14</v>
       </c>
       <c r="Q9" t="n">
         <v>1.61</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
         <v>5.9</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
         <v>2.52</v>
       </c>
       <c r="I11" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J11" t="n">
         <v>2.92</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2020,7 +2020,7 @@
         <v>2.06</v>
       </c>
       <c r="G12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
         <v>4.8</v>
@@ -2032,16 +2032,16 @@
         <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="M12" t="n">
         <v>1.13</v>
       </c>
       <c r="N12" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O12" t="n">
         <v>1.56</v>
@@ -2071,16 +2071,16 @@
         <v>1.93</v>
       </c>
       <c r="X12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y12" t="n">
         <v>12.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB12" t="n">
         <v>6.6</v>
@@ -2089,40 +2089,40 @@
         <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
         <v>27</v>
       </c>
       <c r="AI12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL12" t="n">
         <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN12" t="n">
         <v>25</v>
       </c>
       <c r="AO12" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.01</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2290,109 +2290,109 @@
         <v>2.44</v>
       </c>
       <c r="G14" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="Q14" t="n">
         <v>1.68</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2440,16 +2440,16 @@
         <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P15" t="n">
         <v>1.63</v>
@@ -2458,76 +2458,76 @@
         <v>2.12</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>4.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.16</v>
+        <v>1.77</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>5.9</v>
+        <v>950</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2695,13 +2695,13 @@
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="H17" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J17" t="n">
         <v>3.1</v>
@@ -2710,94 +2710,94 @@
         <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q17" t="n">
         <v>2.08</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2830,31 +2830,31 @@
         <v>1.46</v>
       </c>
       <c r="G18" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n">
-        <v>2.38</v>
+        <v>4.8</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="J18" t="n">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P18" t="n">
         <v>2.04</v>
@@ -2863,76 +2863,76 @@
         <v>1.58</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G19" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I19" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
         <v>2.42</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="G21" t="n">
         <v>2.7</v>
       </c>
       <c r="H21" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J21" t="n">
         <v>3.4</v>
@@ -3250,94 +3250,94 @@
         <v>3.6</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3376,103 +3376,103 @@
         <v>2.28</v>
       </c>
       <c r="I22" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
         <v>3.9</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P22" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="G23" t="n">
         <v>2.66</v>
       </c>
       <c r="H23" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I23" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J23" t="n">
         <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="G24" t="n">
         <v>1.95</v>
@@ -3646,10 +3646,10 @@
         <v>2.12</v>
       </c>
       <c r="I24" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
         <v>800</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3772,112 +3772,112 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G25" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I25" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K25" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3910,19 +3910,19 @@
         <v>1.27</v>
       </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J26" t="n">
         <v>6.6</v>
       </c>
       <c r="K26" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>1.53</v>
       </c>
       <c r="R26" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S26" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U26" t="n">
         <v>1.92</v>
@@ -3970,7 +3970,7 @@
         <v>140</v>
       </c>
       <c r="AA26" t="n">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="AB26" t="n">
         <v>11.5</v>
@@ -4009,7 +4009,7 @@
         <v>170</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
         <v>280</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="G27" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="H27" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="I27" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="J27" t="n">
         <v>3.9</v>
@@ -4075,7 +4075,7 @@
         <v>2.06</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>1.76</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>2.6</v>
       </c>
       <c r="H33" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I33" t="n">
         <v>3.1</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4996,7 +4996,7 @@
         <v>4.3</v>
       </c>
       <c r="I34" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J34" t="n">
         <v>4.5</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
         <v>1.43</v>
@@ -5260,7 +5260,7 @@
         <v>3.7</v>
       </c>
       <c r="G36" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="H36" t="n">
         <v>2.08</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="G37" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
         <v>2.08</v>
       </c>
       <c r="I37" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J37" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K37" t="n">
         <v>3.65</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5695,7 +5695,7 @@
         <v>2.56</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5800,13 +5800,13 @@
         <v>2.26</v>
       </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H40" t="n">
         <v>3.55</v>
       </c>
       <c r="I40" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J40" t="n">
         <v>3.3</v>
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q40" t="n">
         <v>1.83</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q41" t="n">
         <v>1.87</v>
@@ -6073,13 +6073,13 @@
         <v>3.65</v>
       </c>
       <c r="H42" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I42" t="n">
         <v>2.22</v>
       </c>
       <c r="J42" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K42" t="n">
         <v>3.8</v>
@@ -6094,7 +6094,7 @@
         <v>3.95</v>
       </c>
       <c r="O42" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P42" t="n">
         <v>2.04</v>
@@ -6103,22 +6103,22 @@
         <v>1.85</v>
       </c>
       <c r="R42" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S42" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T42" t="n">
         <v>1.71</v>
       </c>
       <c r="U42" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V42" t="n">
         <v>1.81</v>
       </c>
       <c r="W42" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X42" t="n">
         <v>19.5</v>
@@ -6127,7 +6127,7 @@
         <v>11</v>
       </c>
       <c r="Z42" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AA42" t="n">
         <v>36</v>
@@ -6142,7 +6142,7 @@
         <v>13</v>
       </c>
       <c r="AE42" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF42" t="n">
         <v>30</v>
@@ -6151,7 +6151,7 @@
         <v>18</v>
       </c>
       <c r="AH42" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI42" t="n">
         <v>42</v>
@@ -6163,7 +6163,7 @@
         <v>48</v>
       </c>
       <c r="AL42" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM42" t="n">
         <v>100</v>
@@ -6172,7 +6172,7 @@
         <v>42</v>
       </c>
       <c r="AO42" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H43" t="n">
         <v>2.28</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q43" t="n">
         <v>2.46</v>
@@ -6337,49 +6337,49 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G44" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H44" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J44" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K44" t="n">
         <v>3.7</v>
       </c>
-      <c r="K44" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
         <v>4.3</v>
       </c>
       <c r="O44" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P44" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="R44" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S44" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T44" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U44" t="n">
         <v>2.3</v>
@@ -6391,31 +6391,31 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Z44" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA44" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB44" t="n">
         <v>11</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD44" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF44" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG44" t="n">
         <v>10.5</v>
@@ -6424,10 +6424,10 @@
         <v>17</v>
       </c>
       <c r="AI44" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ44" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK44" t="n">
         <v>21</v>
@@ -6439,7 +6439,7 @@
         <v>80</v>
       </c>
       <c r="AN44" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO44" t="n">
         <v>40</v>
@@ -6502,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q45" t="n">
         <v>1.86</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.98</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6607,19 +6607,19 @@
         </is>
       </c>
       <c r="F46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G46" t="n">
         <v>1.97</v>
       </c>
-      <c r="G46" t="n">
-        <v>2</v>
-      </c>
       <c r="H46" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I46" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J46" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K46" t="n">
         <v>3.9</v>
@@ -6649,16 +6649,16 @@
         <v>3.15</v>
       </c>
       <c r="T46" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U46" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V46" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W46" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X46" t="n">
         <v>17</v>
@@ -6709,7 +6709,7 @@
         <v>90</v>
       </c>
       <c r="AN46" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO46" t="n">
         <v>48</v>
@@ -6784,7 +6784,7 @@
         <v>2.84</v>
       </c>
       <c r="T47" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U47" t="n">
         <v>2.2</v>
@@ -6817,7 +6817,7 @@
         <v>21</v>
       </c>
       <c r="AE47" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF47" t="n">
         <v>10.5</v>
@@ -6838,7 +6838,7 @@
         <v>15</v>
       </c>
       <c r="AL47" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM47" t="n">
         <v>95</v>
@@ -6910,7 +6910,7 @@
         <v>1.86</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R48" t="n">
         <v>1.32</v>
@@ -6919,7 +6919,7 @@
         <v>3.85</v>
       </c>
       <c r="T48" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U48" t="n">
         <v>2.04</v>
@@ -6940,7 +6940,7 @@
         <v>29</v>
       </c>
       <c r="AA48" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB48" t="n">
         <v>8.800000000000001</v>
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q49" t="n">
         <v>1.38</v>
@@ -7156,7 +7156,7 @@
         <v>3.25</v>
       </c>
       <c r="I50" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J50" t="n">
         <v>3.35</v>
@@ -7171,7 +7171,7 @@
         <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O50" t="n">
         <v>1.33</v>
@@ -7189,7 +7189,7 @@
         <v>3.55</v>
       </c>
       <c r="T50" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U50" t="n">
         <v>2.22</v>
@@ -7201,7 +7201,7 @@
         <v>1.65</v>
       </c>
       <c r="X50" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y50" t="n">
         <v>13</v>
@@ -7213,16 +7213,16 @@
         <v>60</v>
       </c>
       <c r="AB50" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD50" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE50" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF50" t="n">
         <v>16</v>
@@ -7237,7 +7237,7 @@
         <v>48</v>
       </c>
       <c r="AJ50" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK50" t="n">
         <v>27</v>
@@ -7393,7 +7393,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7408,127 +7408,127 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>MFK Karvina</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.74</v>
+        <v>3.75</v>
       </c>
       <c r="G52" t="n">
-        <v>1.76</v>
+        <v>4.2</v>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>1.91</v>
       </c>
       <c r="I52" t="n">
-        <v>5.3</v>
+        <v>2.04</v>
       </c>
       <c r="J52" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="K52" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="R52" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z52" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AG52" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH52" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AI52" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ52" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AK52" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AL52" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AM52" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AN52" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AO52" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7543,121 +7543,121 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>MFK Karvina</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.75</v>
+        <v>1.73</v>
       </c>
       <c r="G53" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J53" t="n">
         <v>4.2</v>
       </c>
-      <c r="H53" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3.9</v>
-      </c>
       <c r="K53" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P53" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AK53" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL53" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM53" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN53" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AO53" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
@@ -7828,16 +7828,16 @@
         <v>1.89</v>
       </c>
       <c r="H55" t="n">
-        <v>4.8</v>
+        <v>2.12</v>
       </c>
       <c r="I55" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J55" t="n">
-        <v>2.12</v>
+        <v>3.4</v>
       </c>
       <c r="K55" t="n">
-        <v>6.4</v>
+        <v>950</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>1.69</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7957,19 +7957,19 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="G56" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="I56" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="J56" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K56" t="n">
         <v>800</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8098,13 +8098,13 @@
         <v>1.36</v>
       </c>
       <c r="H57" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="I57" t="n">
         <v>11.5</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="K57" t="n">
         <v>6.6</v>
@@ -8119,7 +8119,7 @@
         <v>5.8</v>
       </c>
       <c r="O57" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P57" t="n">
         <v>2.66</v>
@@ -8131,19 +8131,19 @@
         <v>1.67</v>
       </c>
       <c r="S57" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T57" t="n">
         <v>1.89</v>
       </c>
       <c r="U57" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V57" t="n">
         <v>1.1</v>
       </c>
       <c r="W57" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="X57" t="n">
         <v>980</v>
@@ -8155,7 +8155,7 @@
         <v>110</v>
       </c>
       <c r="AA57" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AB57" t="n">
         <v>12</v>
@@ -8230,13 +8230,13 @@
         <v>4.2</v>
       </c>
       <c r="G58" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H58" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="I58" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J58" t="n">
         <v>3.45</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8362,19 +8362,19 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="G59" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H59" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I59" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J59" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K59" t="n">
         <v>3.85</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8500,7 +8500,7 @@
         <v>1.91</v>
       </c>
       <c r="G60" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H60" t="n">
         <v>4.6</v>
@@ -8512,7 +8512,7 @@
         <v>3.65</v>
       </c>
       <c r="K60" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>4</v>
       </c>
       <c r="J61" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K61" t="n">
         <v>3.3</v>
@@ -8662,10 +8662,10 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -8743,7 +8743,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8758,31 +8758,31 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>FC Basel</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.18</v>
+        <v>1.74</v>
       </c>
       <c r="G62" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J62" t="n">
         <v>3</v>
       </c>
-      <c r="I62" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K62" t="n">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -8797,10 +8797,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>2.84</v>
+        <v>2.28</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8893,31 +8893,31 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.72</v>
+        <v>1.33</v>
       </c>
       <c r="G63" t="n">
-        <v>2.14</v>
+        <v>1.39</v>
       </c>
       <c r="H63" t="n">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="I63" t="n">
-        <v>5.5</v>
+        <v>14</v>
       </c>
       <c r="J63" t="n">
-        <v>2.86</v>
+        <v>5.1</v>
       </c>
       <c r="K63" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -8932,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.47</v>
+        <v>1.78</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -9013,7 +9013,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -9028,31 +9028,31 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.33</v>
+        <v>2.8</v>
       </c>
       <c r="G64" t="n">
-        <v>1.39</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
-        <v>11</v>
+        <v>2.84</v>
       </c>
       <c r="I64" t="n">
-        <v>14</v>
+        <v>3.1</v>
       </c>
       <c r="J64" t="n">
-        <v>5.1</v>
+        <v>3.05</v>
       </c>
       <c r="K64" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -9067,10 +9067,10 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>2.06</v>
+        <v>1.65</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.78</v>
+        <v>2.32</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -9148,7 +9148,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -9163,31 +9163,31 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>2.04</v>
       </c>
       <c r="H65" t="n">
-        <v>2.84</v>
+        <v>3.8</v>
       </c>
       <c r="I65" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="J65" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="K65" t="n">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -9202,10 +9202,10 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.32</v>
+        <v>1.41</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -9298,31 +9298,31 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>FC Basel</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="G66" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="H66" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>5.9</v>
+        <v>3.35</v>
       </c>
       <c r="J66" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K66" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>2.5</v>
+        <v>2.82</v>
       </c>
       <c r="Q66" t="n">
         <v>1.41</v>
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G67" t="n">
         <v>1.98</v>
@@ -9457,7 +9457,7 @@
         <v>3.9</v>
       </c>
       <c r="K67" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -9472,10 +9472,10 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -9568,121 +9568,121 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.78</v>
+        <v>2.18</v>
       </c>
       <c r="G68" t="n">
-        <v>1.81</v>
+        <v>2.22</v>
       </c>
       <c r="H68" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="I68" t="n">
-        <v>5.8</v>
+        <v>3.85</v>
       </c>
       <c r="J68" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K68" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L68" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M68" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N68" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="O68" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="P68" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T68" t="n">
         <v>1.71</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="U68" t="n">
         <v>2.3</v>
       </c>
-      <c r="R68" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S68" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T68" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U68" t="n">
-        <v>1.81</v>
-      </c>
       <c r="V68" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="W68" t="n">
-        <v>2.22</v>
+        <v>1.82</v>
       </c>
       <c r="X68" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="Y68" t="n">
         <v>16</v>
       </c>
       <c r="Z68" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AA68" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="AB68" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AC68" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD68" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AE68" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AF68" t="n">
-        <v>9.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AG68" t="n">
         <v>11</v>
       </c>
       <c r="AH68" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AI68" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AJ68" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AK68" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL68" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AM68" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="AN68" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO68" t="n">
-        <v>190</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69">
@@ -9703,121 +9703,121 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.16</v>
+        <v>1.78</v>
       </c>
       <c r="G69" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H69" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T69" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V69" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W69" t="n">
         <v>2.22</v>
       </c>
-      <c r="H69" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L69" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N69" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O69" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P69" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R69" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S69" t="n">
-        <v>4</v>
-      </c>
-      <c r="T69" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U69" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V69" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W69" t="n">
-        <v>1.81</v>
-      </c>
       <c r="X69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y69" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AA69" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="AB69" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AC69" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD69" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AE69" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AF69" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG69" t="n">
         <v>11</v>
       </c>
       <c r="AH69" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AI69" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AJ69" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AK69" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL69" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AM69" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="AN69" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AO69" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70">
@@ -9838,12 +9838,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -9862,37 +9862,37 @@
         <v>3.5</v>
       </c>
       <c r="K70" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L70" t="n">
         <v>1.01</v>
       </c>
       <c r="M70" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N70" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="O70" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="P70" t="n">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.87</v>
+        <v>2.16</v>
       </c>
       <c r="R70" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="S70" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="T70" t="n">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="U70" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="V70" t="n">
         <v>1.35</v>
@@ -9901,58 +9901,58 @@
         <v>1.82</v>
       </c>
       <c r="X70" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Y70" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z70" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA70" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AB70" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC70" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD70" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE70" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AF70" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG70" t="n">
         <v>11</v>
       </c>
       <c r="AH70" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI70" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AJ70" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AK70" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL70" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM70" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AN70" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AO70" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71">
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G71" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H71" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="I71" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="J71" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K71" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K71" t="n">
-        <v>4.5</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -10006,22 +10006,22 @@
         <v>1.04</v>
       </c>
       <c r="N71" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O71" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P71" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R71" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="S71" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="T71" t="n">
         <v>1.69</v>
@@ -10042,16 +10042,16 @@
         <v>11.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA71" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB71" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC71" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD71" t="n">
         <v>9.800000000000001</v>
@@ -10060,22 +10060,22 @@
         <v>16.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG71" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI71" t="n">
         <v>27</v>
       </c>
       <c r="AJ71" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK71" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL71" t="n">
         <v>55</v>
@@ -10084,10 +10084,10 @@
         <v>75</v>
       </c>
       <c r="AN71" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO71" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -10117,16 +10117,16 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="G72" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H72" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I72" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J72" t="n">
         <v>7</v>
@@ -10147,10 +10147,10 @@
         <v>1.15</v>
       </c>
       <c r="P72" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R72" t="n">
         <v>1.79</v>
@@ -10159,16 +10159,16 @@
         <v>2.2</v>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U72" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V72" t="n">
         <v>1.07</v>
       </c>
       <c r="W72" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="X72" t="n">
         <v>34</v>
@@ -10186,7 +10186,7 @@
         <v>12</v>
       </c>
       <c r="AC72" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD72" t="n">
         <v>55</v>
@@ -10195,7 +10195,7 @@
         <v>220</v>
       </c>
       <c r="AF72" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG72" t="n">
         <v>11.5</v>
@@ -10219,7 +10219,7 @@
         <v>160</v>
       </c>
       <c r="AN72" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AO72" t="n">
         <v>250</v>
@@ -10255,7 +10255,7 @@
         <v>2.3</v>
       </c>
       <c r="G73" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H73" t="n">
         <v>2.56</v>
@@ -10264,7 +10264,7 @@
         <v>3.7</v>
       </c>
       <c r="J73" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K73" t="n">
         <v>5.8</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -10525,16 +10525,16 @@
         <v>1.89</v>
       </c>
       <c r="G75" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="H75" t="n">
         <v>4.7</v>
       </c>
       <c r="I75" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J75" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K75" t="n">
         <v>3.8</v>
@@ -10555,7 +10555,7 @@
         <v>1.65</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -10633,7 +10633,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -10648,127 +10648,127 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>A.E.L.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Aris FC Limassol</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>12</v>
+        <v>2.24</v>
       </c>
       <c r="G76" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="H76" t="n">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="I76" t="n">
-        <v>1.33</v>
+        <v>1.86</v>
       </c>
       <c r="J76" t="n">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="K76" t="n">
-        <v>6.2</v>
+        <v>800</v>
       </c>
       <c r="L76" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>2.32</v>
+        <v>1.84</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="R76" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="V76" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W76" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="X76" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Y76" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Z76" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AA76" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AB76" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AC76" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AD76" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE76" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AF76" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AG76" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AH76" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AI76" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AJ76" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK76" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="AL76" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AM76" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AN76" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AO76" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -10783,121 +10783,121 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>A.E.L.</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Aris FC Limassol</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.2</v>
+        <v>12</v>
       </c>
       <c r="G77" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="H77" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J77" t="n">
+        <v>6</v>
+      </c>
+      <c r="K77" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N77" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R77" t="n">
         <v>1.53</v>
       </c>
-      <c r="I77" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J77" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K77" t="n">
-        <v>800</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0</v>
-      </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W77" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X77" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y77" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z77" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AA77" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AB77" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AC77" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD77" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE77" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF77" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AG77" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AH77" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI77" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK77" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AL77" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AM77" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AN77" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AO77" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="78">
@@ -10933,7 +10933,7 @@
         <v>1.19</v>
       </c>
       <c r="H78" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="I78" t="n">
         <v>42</v>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q78" t="n">
         <v>1.29</v>
@@ -11038,7 +11038,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -11053,31 +11053,31 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.06</v>
+        <v>1.49</v>
       </c>
       <c r="G79" t="n">
-        <v>1.07</v>
+        <v>1.55</v>
       </c>
       <c r="H79" t="n">
-        <v>60</v>
+        <v>6.6</v>
       </c>
       <c r="I79" t="n">
-        <v>80</v>
+        <v>8.6</v>
       </c>
       <c r="J79" t="n">
-        <v>19.5</v>
+        <v>4.7</v>
       </c>
       <c r="K79" t="n">
-        <v>23</v>
+        <v>5.3</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -11092,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>3.35</v>
+        <v>2.4</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.32</v>
+        <v>1.63</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -11323,61 +11323,61 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.49</v>
+        <v>2.96</v>
       </c>
       <c r="G81" t="n">
-        <v>1.55</v>
+        <v>3.05</v>
       </c>
       <c r="H81" t="n">
-        <v>6.6</v>
+        <v>2.98</v>
       </c>
       <c r="I81" t="n">
-        <v>8.6</v>
+        <v>3.05</v>
       </c>
       <c r="J81" t="n">
-        <v>4.7</v>
+        <v>2.96</v>
       </c>
       <c r="K81" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="P81" t="n">
-        <v>2.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.63</v>
+        <v>3.1</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="U81" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="V81" t="n">
         <v>0</v>
@@ -11386,64 +11386,64 @@
         <v>0</v>
       </c>
       <c r="X81" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Y81" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Z81" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA81" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AB81" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC81" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD81" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE81" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF81" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG81" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH81" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI81" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ81" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK81" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL81" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM81" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AN81" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AO81" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -11458,61 +11458,61 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>2.24</v>
       </c>
       <c r="G82" t="n">
-        <v>3.05</v>
+        <v>2.62</v>
       </c>
       <c r="H82" t="n">
         <v>2.98</v>
       </c>
       <c r="I82" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="J82" t="n">
-        <v>2.96</v>
+        <v>3.55</v>
       </c>
       <c r="K82" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>1.45</v>
+        <v>2.16</v>
       </c>
       <c r="Q82" t="n">
-        <v>3.1</v>
+        <v>1.68</v>
       </c>
       <c r="R82" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="U82" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="V82" t="n">
         <v>0</v>
@@ -11521,64 +11521,64 @@
         <v>0</v>
       </c>
       <c r="X82" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="Y82" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="Z82" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AA82" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AB82" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AC82" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD82" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE82" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF82" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AG82" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH82" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AI82" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ82" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AK82" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AL82" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AM82" t="n">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="AN82" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO82" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -11593,31 +11593,31 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>8</v>
+        <v>1.06</v>
       </c>
       <c r="G83" t="n">
-        <v>11</v>
+        <v>1.07</v>
       </c>
       <c r="H83" t="n">
-        <v>1.42</v>
+        <v>55</v>
       </c>
       <c r="I83" t="n">
-        <v>1.48</v>
+        <v>75</v>
       </c>
       <c r="J83" t="n">
-        <v>4.6</v>
+        <v>19.5</v>
       </c>
       <c r="K83" t="n">
-        <v>5.4</v>
+        <v>21</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -11632,10 +11632,10 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>2.2</v>
+        <v>3.35</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.68</v>
+        <v>1.32</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -11713,7 +11713,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -11728,49 +11728,49 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F84" t="n">
+        <v>8</v>
+      </c>
+      <c r="G84" t="n">
+        <v>11</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K84" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
         <v>2.24</v>
       </c>
-      <c r="G84" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J84" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K84" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>2.16</v>
-      </c>
       <c r="Q84" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -11884,100 +11884,100 @@
         <v>1000</v>
       </c>
       <c r="J85" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="K85" t="n">
         <v>950</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P85" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="86">
@@ -12010,19 +12010,19 @@
         <v>2.04</v>
       </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H86" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I86" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="J86" t="n">
         <v>3.4</v>
       </c>
       <c r="K86" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -12040,7 +12040,7 @@
         <v>2.06</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -12154,10 +12154,10 @@
         <v>27</v>
       </c>
       <c r="J87" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="K87" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -12412,22 +12412,22 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="G89" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="H89" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I89" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J89" t="n">
-        <v>2.74</v>
+        <v>3.75</v>
       </c>
       <c r="K89" t="n">
-        <v>6.8</v>
+        <v>4.8</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -12442,10 +12442,10 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G90" t="n">
         <v>2.42</v>
@@ -12556,14 +12556,14 @@
         <v>3.35</v>
       </c>
       <c r="I90" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K90" t="n">
         <v>5.5</v>
       </c>
-      <c r="J90" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K90" t="n">
-        <v>5.7</v>
-      </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12682,16 +12682,16 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G91" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H91" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I91" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J91" t="n">
         <v>3.3</v>
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q91" t="n">
         <v>2.16</v>
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G92" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="H92" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="I92" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="J92" t="n">
         <v>3.65</v>
       </c>
       <c r="K92" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -12847,10 +12847,10 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12955,16 +12955,16 @@
         <v>2.72</v>
       </c>
       <c r="G93" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
         <v>3.1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J93" t="n">
-        <v>3.2</v>
       </c>
       <c r="K93" t="n">
         <v>3.5</v>
@@ -13096,13 +13096,13 @@
         <v>1.49</v>
       </c>
       <c r="I94" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="J94" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K94" t="n">
         <v>4.7</v>
-      </c>
-      <c r="K94" t="n">
-        <v>4.8</v>
       </c>
       <c r="L94" t="n">
         <v>1.01</v>
@@ -13114,25 +13114,25 @@
         <v>3.6</v>
       </c>
       <c r="O94" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P94" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R94" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S94" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T94" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="U94" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="V94" t="n">
         <v>2.96</v>
@@ -13144,55 +13144,55 @@
         <v>14.5</v>
       </c>
       <c r="Y94" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z94" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AA94" t="n">
         <v>13</v>
       </c>
       <c r="AB94" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC94" t="n">
         <v>10.5</v>
       </c>
       <c r="AD94" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE94" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF94" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG94" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH94" t="n">
         <v>32</v>
-      </c>
-      <c r="AH94" t="n">
-        <v>29</v>
       </c>
       <c r="AI94" t="n">
         <v>50</v>
       </c>
       <c r="AJ94" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="AK94" t="n">
+        <v>190</v>
+      </c>
+      <c r="AL94" t="n">
         <v>170</v>
-      </c>
-      <c r="AL94" t="n">
-        <v>150</v>
       </c>
       <c r="AM94" t="n">
         <v>230</v>
       </c>
       <c r="AN94" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="AO94" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
@@ -13225,19 +13225,19 @@
         <v>5.5</v>
       </c>
       <c r="G95" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H95" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="I95" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="J95" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="K95" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L95" t="n">
         <v>1.01</v>
@@ -13246,7 +13246,7 @@
         <v>1.03</v>
       </c>
       <c r="N95" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O95" t="n">
         <v>1.19</v>
@@ -13255,22 +13255,22 @@
         <v>2.58</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R95" t="n">
         <v>1.64</v>
       </c>
       <c r="S95" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T95" t="n">
         <v>1.68</v>
       </c>
       <c r="U95" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V95" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="W95" t="n">
         <v>1.21</v>
@@ -13318,7 +13318,7 @@
         <v>60</v>
       </c>
       <c r="AL95" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM95" t="n">
         <v>75</v>
@@ -13357,13 +13357,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G96" t="n">
         <v>3.05</v>
       </c>
       <c r="H96" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I96" t="n">
         <v>3.8</v>
@@ -13387,10 +13387,10 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Q96" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -13657,10 +13657,10 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
@@ -13762,16 +13762,16 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G99" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H99" t="n">
         <v>3.55</v>
       </c>
       <c r="I99" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J99" t="n">
         <v>3.2</v>
@@ -13792,22 +13792,22 @@
         <v>1.44</v>
       </c>
       <c r="P99" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R99" t="n">
         <v>1.27</v>
       </c>
       <c r="S99" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T99" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U99" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V99" t="n">
         <v>0</v>
@@ -13822,13 +13822,13 @@
         <v>11.5</v>
       </c>
       <c r="Z99" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA99" t="n">
         <v>70</v>
       </c>
       <c r="AB99" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC99" t="n">
         <v>7.2</v>
@@ -13852,7 +13852,7 @@
         <v>75</v>
       </c>
       <c r="AJ99" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK99" t="n">
         <v>29</v>
@@ -13900,7 +13900,7 @@
         <v>2.44</v>
       </c>
       <c r="G100" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H100" t="n">
         <v>2.98</v>
@@ -13927,10 +13927,10 @@
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -14032,10 +14032,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="G101" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H101" t="n">
         <v>1.22</v>
@@ -14047,7 +14047,7 @@
         <v>7</v>
       </c>
       <c r="K101" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -14062,10 +14062,10 @@
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -14170,16 +14170,16 @@
         <v>4.3</v>
       </c>
       <c r="G102" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H102" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="I102" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="J102" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K102" t="n">
         <v>3.8</v>
@@ -14197,10 +14197,10 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G105" t="n">
         <v>1.55</v>
@@ -14605,7 +14605,7 @@
         <v>1.67</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -14818,135 +14818,270 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>20:10:00</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Jaguares de Cordoba</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
           <t>Chilean Primera Division</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>2026-02-01</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>Palestino</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>Nublense</t>
         </is>
       </c>
-      <c r="F107" t="n">
+      <c r="F108" t="n">
         <v>1.96</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G108" t="n">
         <v>2.08</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H108" t="n">
         <v>3.9</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I108" t="n">
         <v>4.4</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J108" t="n">
         <v>3.65</v>
       </c>
-      <c r="K107" t="n">
+      <c r="K108" t="n">
         <v>4</v>
       </c>
-      <c r="L107" t="n">
-        <v>0</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O107" t="n">
-        <v>0</v>
-      </c>
-      <c r="P107" t="n">
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
         <v>1.95</v>
       </c>
-      <c r="Q107" t="n">
+      <c r="Q108" t="n">
         <v>1.89</v>
       </c>
-      <c r="R107" t="n">
-        <v>0</v>
-      </c>
-      <c r="S107" t="n">
-        <v>0</v>
-      </c>
-      <c r="T107" t="n">
-        <v>0</v>
-      </c>
-      <c r="U107" t="n">
-        <v>0</v>
-      </c>
-      <c r="V107" t="n">
-        <v>0</v>
-      </c>
-      <c r="W107" t="n">
-        <v>0</v>
-      </c>
-      <c r="X107" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y107" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO107" t="n">
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO108" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
@@ -697,7 +697,7 @@
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q2" t="n">
         <v>1.72</v>
@@ -745,7 +745,7 @@
         <v>17.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="n">
         <v>24</v>
@@ -811,7 +811,7 @@
         <v>2.72</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>2.96</v>
@@ -820,16 +820,16 @@
         <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.03</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
         <v>1.82</v>
@@ -838,76 +838,76 @@
         <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
         <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G4" t="n">
         <v>2.52</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
         <v>2.12</v>
@@ -1102,10 +1102,10 @@
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="R5" t="n">
         <v>1.28</v>
@@ -1114,10 +1114,10 @@
         <v>2.94</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V5" t="n">
         <v>1.2</v>
@@ -1225,13 +1225,13 @@
         <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>1.81</v>
+        <v>3.3</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1243,25 +1243,25 @@
         <v>2.06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>2.06</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="U6" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W6" t="n">
         <v>2.16</v>
       </c>
       <c r="X6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
         <v>23</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AD6" t="n">
         <v>30</v>
@@ -1285,10 +1285,10 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
         <v>30</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="G7" t="n">
         <v>3.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I7" t="n">
         <v>2.82</v>
@@ -1357,7 +1357,7 @@
         <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,7 +1366,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.81</v>
+        <v>2.68</v>
       </c>
       <c r="O7" t="n">
         <v>1.31</v>
@@ -1480,7 +1480,7 @@
         <v>4.5</v>
       </c>
       <c r="G8" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H8" t="n">
         <v>1.81</v>
@@ -1489,7 +1489,7 @@
         <v>1.86</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>4.4</v>
@@ -1501,10 +1501,10 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
         <v>2.48</v>
@@ -1513,16 +1513,16 @@
         <v>1.47</v>
       </c>
       <c r="R8" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="T8" t="n">
         <v>1.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="V8" t="n">
         <v>2.16</v>
@@ -1531,58 +1531,58 @@
         <v>1.26</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AA8" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AD8" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="9">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="G9" t="n">
         <v>3.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="J9" t="n">
-        <v>2.96</v>
+        <v>2.52</v>
       </c>
       <c r="K9" t="n">
         <v>950</v>
@@ -1660,10 +1660,10 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="W9" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1768,10 +1768,10 @@
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>2.38</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
@@ -1780,19 +1780,19 @@
         <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="R10" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="S10" t="n">
-        <v>2.16</v>
+        <v>2.46</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
         <v>1.17</v>
@@ -1888,7 +1888,7 @@
         <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="I11" t="n">
         <v>3.55</v>
@@ -1897,7 +1897,7 @@
         <v>2.92</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -2035,22 +2035,22 @@
         <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="M12" t="n">
         <v>1.13</v>
       </c>
       <c r="N12" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2.72</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.68</v>
       </c>
       <c r="R12" t="n">
         <v>1.2</v>
@@ -2059,7 +2059,7 @@
         <v>5.6</v>
       </c>
       <c r="T12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U12" t="n">
         <v>1.74</v>
@@ -2068,7 +2068,7 @@
         <v>1.24</v>
       </c>
       <c r="W12" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="X12" t="n">
         <v>8.4</v>
@@ -2095,7 +2095,7 @@
         <v>90</v>
       </c>
       <c r="AF12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11.5</v>
@@ -2104,7 +2104,7 @@
         <v>27</v>
       </c>
       <c r="AI12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ12" t="n">
         <v>24</v>
@@ -2116,7 +2116,7 @@
         <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN12" t="n">
         <v>25</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G14" t="n">
         <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I14" t="n">
         <v>3.25</v>
@@ -2302,7 +2302,7 @@
         <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="G15" t="n">
         <v>4.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="I15" t="n">
         <v>2.9</v>
@@ -2440,16 +2440,16 @@
         <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>1.63</v>
+        <v>2.56</v>
       </c>
       <c r="O15" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P15" t="n">
         <v>1.63</v>
@@ -2458,76 +2458,76 @@
         <v>2.12</v>
       </c>
       <c r="R15" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="S15" t="n">
-        <v>2.12</v>
+        <v>3.95</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V15" t="n">
         <v>1.52</v>
       </c>
       <c r="W15" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="G16" t="n">
         <v>4.1</v>
       </c>
       <c r="H16" t="n">
-        <v>1.77</v>
+        <v>2.12</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>2.74</v>
       </c>
       <c r="K16" t="n">
         <v>950</v>
@@ -2596,7 +2596,7 @@
         <v>1.27</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2605,10 +2605,10 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2695,16 +2695,16 @@
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="I17" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="K17" t="n">
         <v>3.95</v>
@@ -2722,16 +2722,16 @@
         <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>1.08</v>
       </c>
       <c r="S17" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2740,7 +2740,7 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W17" t="n">
         <v>1.39</v>
@@ -2836,7 +2836,7 @@
         <v>4.8</v>
       </c>
       <c r="I18" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
         <v>3.75</v>
@@ -2851,19 +2851,19 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="O18" t="n">
         <v>1.23</v>
       </c>
       <c r="P18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R18" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S18" t="n">
         <v>2.36</v>
@@ -2875,7 +2875,7 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="W18" t="n">
         <v>2.32</v>
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G19" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
         <v>2.02</v>
       </c>
       <c r="I19" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
     </row>
     <row r="20">
@@ -3115,16 +3115,16 @@
         <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P20" t="n">
         <v>2.12</v>
@@ -3133,76 +3133,76 @@
         <v>1.78</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
@@ -3241,7 +3241,7 @@
         <v>2.96</v>
       </c>
       <c r="I21" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J21" t="n">
         <v>3.4</v>
@@ -3250,34 +3250,34 @@
         <v>3.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>1.92</v>
+        <v>3.65</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q21" t="n">
         <v>1.98</v>
       </c>
       <c r="R21" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="S21" t="n">
-        <v>1.98</v>
+        <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V21" t="n">
         <v>1.46</v>
@@ -3286,58 +3286,58 @@
         <v>1.59</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -3370,10 +3370,10 @@
         <v>3.25</v>
       </c>
       <c r="G22" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H22" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I22" t="n">
         <v>2.38</v>
@@ -3382,19 +3382,19 @@
         <v>3.7</v>
       </c>
       <c r="K22" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>2.22</v>
+        <v>4.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
         <v>2.22</v>
@@ -3403,76 +3403,76 @@
         <v>1.72</v>
       </c>
       <c r="R22" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="S22" t="n">
-        <v>2.4</v>
+        <v>2.74</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="V22" t="n">
         <v>1.73</v>
       </c>
       <c r="W22" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -3505,13 +3505,13 @@
         <v>2.44</v>
       </c>
       <c r="G23" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="H23" t="n">
         <v>2.66</v>
       </c>
       <c r="I23" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="J23" t="n">
         <v>3.8</v>
@@ -3520,94 +3520,94 @@
         <v>4.3</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
         <v>2.44</v>
       </c>
       <c r="Q23" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.49</v>
       </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3643,106 +3643,106 @@
         <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>2.12</v>
+        <v>4.4</v>
       </c>
       <c r="I24" t="n">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K24" t="n">
-        <v>800</v>
+        <v>6.2</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P24" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q24" t="n">
         <v>1.75</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="G25" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="H25" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J25" t="n">
         <v>4.2</v>
       </c>
       <c r="K25" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3808,22 +3808,22 @@
         <v>1.58</v>
       </c>
       <c r="R25" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S25" t="n">
         <v>2.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W25" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="X25" t="n">
         <v>29</v>
@@ -3841,25 +3841,25 @@
         <v>15</v>
       </c>
       <c r="AC25" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AD25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH25" t="n">
         <v>26</v>
       </c>
       <c r="AI25" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ25" t="n">
         <v>26</v>
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="G26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
+        <v>13</v>
+      </c>
+      <c r="I26" t="n">
         <v>14</v>
-      </c>
-      <c r="I26" t="n">
-        <v>14.5</v>
       </c>
       <c r="J26" t="n">
         <v>6.6</v>
       </c>
       <c r="K26" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M26" t="n">
         <v>1.03</v>
@@ -3937,37 +3937,37 @@
         <v>1.17</v>
       </c>
       <c r="P26" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R26" t="n">
         <v>1.72</v>
       </c>
       <c r="S26" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="T26" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U26" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="X26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y26" t="n">
         <v>48</v>
       </c>
       <c r="Z26" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA26" t="n">
         <v>570</v>
@@ -3979,16 +3979,16 @@
         <v>15</v>
       </c>
       <c r="AD26" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE26" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
         <v>30</v>
@@ -3997,22 +3997,22 @@
         <v>150</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK26" t="n">
         <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN26" t="n">
         <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27">
@@ -4048,7 +4048,7 @@
         <v>1.87</v>
       </c>
       <c r="H27" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I27" t="n">
         <v>5.3</v>
@@ -4060,94 +4060,94 @@
         <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P27" t="n">
         <v>2.06</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -4177,112 +4177,112 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G28" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H28" t="n">
-        <v>2.14</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>19.5</v>
+        <v>8.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K28" t="n">
-        <v>800</v>
+        <v>7.2</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4312,112 +4312,112 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="Q29" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T29" t="n">
         <v>1.01</v>
       </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4447,112 +4447,112 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P30" t="n">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="Q30" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T30" t="n">
         <v>1.01</v>
       </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4582,112 +4582,112 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="Q31" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T31" t="n">
         <v>1.01</v>
       </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P32" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="Q32" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T32" t="n">
         <v>1.01</v>
       </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4861,103 +4861,103 @@
         <v>2.98</v>
       </c>
       <c r="I33" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J33" t="n">
         <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P33" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q33" t="n">
         <v>1.81</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -4993,106 +4993,106 @@
         <v>1.77</v>
       </c>
       <c r="H34" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I34" t="n">
         <v>4.7</v>
       </c>
       <c r="J34" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="Q34" t="n">
         <v>1.43</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -5122,112 +5122,112 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P35" t="n">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="Q35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T35" t="n">
         <v>1.01</v>
       </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5257,112 +5257,112 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G36" t="n">
         <v>4.4</v>
       </c>
       <c r="H36" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K36" t="n">
         <v>3.65</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P36" t="n">
         <v>1.7</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
@@ -5392,112 +5392,112 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="H37" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I37" t="n">
         <v>2.34</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K37" t="n">
         <v>3.65</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P37" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -5527,112 +5527,112 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P38" t="n">
-        <v>1.24</v>
+        <v>2.06</v>
       </c>
       <c r="Q38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T38" t="n">
         <v>1.01</v>
       </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
@@ -5662,112 +5662,112 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.04</v>
+        <v>6.8</v>
       </c>
       <c r="G39" t="n">
         <v>1000</v>
       </c>
       <c r="H39" t="n">
-        <v>1.04</v>
+        <v>1.26</v>
       </c>
       <c r="I39" t="n">
-        <v>1000</v>
+        <v>1.55</v>
       </c>
       <c r="J39" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K39" t="n">
+        <v>16</v>
+      </c>
+      <c r="L39" t="n">
         <v>1.01</v>
       </c>
-      <c r="K39" t="n">
-        <v>60</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P39" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
@@ -5800,13 +5800,13 @@
         <v>2.26</v>
       </c>
       <c r="G40" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H40" t="n">
         <v>3.55</v>
       </c>
       <c r="I40" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J40" t="n">
         <v>3.3</v>
@@ -5815,94 +5815,94 @@
         <v>3.6</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P40" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
@@ -5935,7 +5935,7 @@
         <v>2.72</v>
       </c>
       <c r="G41" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H41" t="n">
         <v>2.08</v>
@@ -5944,22 +5944,22 @@
         <v>2.84</v>
       </c>
       <c r="J41" t="n">
-        <v>2.46</v>
+        <v>2.96</v>
       </c>
       <c r="K41" t="n">
         <v>6.6</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P41" t="n">
         <v>1.65</v>
@@ -5968,76 +5968,76 @@
         <v>1.87</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
@@ -6073,19 +6073,19 @@
         <v>3.65</v>
       </c>
       <c r="H42" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I42" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J42" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K42" t="n">
         <v>3.8</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M42" t="n">
         <v>1.06</v>
@@ -6100,7 +6100,7 @@
         <v>2.04</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R42" t="n">
         <v>1.39</v>
@@ -6112,67 +6112,67 @@
         <v>1.71</v>
       </c>
       <c r="U42" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V42" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W42" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X42" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y42" t="n">
         <v>11</v>
       </c>
       <c r="Z42" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB42" t="n">
         <v>980</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD42" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF42" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG42" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI42" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ42" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK42" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL42" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM42" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN42" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO42" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
@@ -6205,109 +6205,109 @@
         <v>3.5</v>
       </c>
       <c r="G43" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H43" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="I43" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K43" t="n">
         <v>3.25</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P43" t="n">
         <v>1.57</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN43" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
@@ -6337,13 +6337,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G44" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H44" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I44" t="n">
         <v>3.75</v>
@@ -6355,13 +6355,13 @@
         <v>3.7</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O44" t="n">
         <v>1.29</v>
@@ -6370,13 +6370,13 @@
         <v>2.1</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R44" t="n">
         <v>1.43</v>
       </c>
       <c r="S44" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T44" t="n">
         <v>1.73</v>
@@ -6385,19 +6385,19 @@
         <v>2.3</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="X44" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y44" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA44" t="n">
         <v>70</v>
@@ -6406,28 +6406,28 @@
         <v>11</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD44" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF44" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG44" t="n">
         <v>10.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ44" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK44" t="n">
         <v>21</v>
@@ -6439,10 +6439,10 @@
         <v>80</v>
       </c>
       <c r="AN44" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
@@ -6475,7 +6475,7 @@
         <v>1.59</v>
       </c>
       <c r="G45" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H45" t="n">
         <v>6.4</v>
@@ -6490,94 +6490,94 @@
         <v>4.6</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P45" t="n">
         <v>1.85</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK45" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL45" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
@@ -6607,88 +6607,88 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="G46" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="H46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I46" t="n">
         <v>4.2</v>
       </c>
-      <c r="I46" t="n">
-        <v>4.4</v>
-      </c>
       <c r="J46" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K46" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M46" t="n">
         <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O46" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P46" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R46" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S46" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T46" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U46" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V46" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W46" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="X46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA46" t="n">
         <v>85</v>
       </c>
       <c r="AB46" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD46" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE46" t="n">
         <v>50</v>
       </c>
       <c r="AF46" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH46" t="n">
         <v>18</v>
@@ -6697,22 +6697,22 @@
         <v>55</v>
       </c>
       <c r="AJ46" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL46" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM46" t="n">
         <v>90</v>
       </c>
       <c r="AN46" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="F47" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G47" t="n">
         <v>1.63</v>
       </c>
-      <c r="G47" t="n">
-        <v>1.64</v>
-      </c>
       <c r="H47" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I47" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J47" t="n">
         <v>4.7</v>
@@ -6760,7 +6760,7 @@
         <v>4.8</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M47" t="n">
         <v>1.05</v>
@@ -6775,7 +6775,7 @@
         <v>2.34</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R47" t="n">
         <v>1.52</v>
@@ -6784,22 +6784,22 @@
         <v>2.84</v>
       </c>
       <c r="T47" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U47" t="n">
         <v>2.2</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="X47" t="n">
         <v>21</v>
       </c>
       <c r="Y47" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z47" t="n">
         <v>48</v>
@@ -6808,13 +6808,13 @@
         <v>150</v>
       </c>
       <c r="AB47" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC47" t="n">
         <v>10.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE47" t="n">
         <v>70</v>
@@ -6823,16 +6823,16 @@
         <v>10.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AH47" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI47" t="n">
         <v>65</v>
       </c>
       <c r="AJ47" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK47" t="n">
         <v>15</v>
@@ -6841,13 +6841,13 @@
         <v>27</v>
       </c>
       <c r="AM47" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN47" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO47" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48">
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="G48" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I48" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J48" t="n">
         <v>3.65</v>
@@ -6895,7 +6895,7 @@
         <v>3.7</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M48" t="n">
         <v>1.08</v>
@@ -6910,7 +6910,7 @@
         <v>1.86</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R48" t="n">
         <v>1.32</v>
@@ -6919,16 +6919,16 @@
         <v>3.85</v>
       </c>
       <c r="T48" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U48" t="n">
         <v>2.04</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X48" t="n">
         <v>13</v>
@@ -6943,7 +6943,7 @@
         <v>85</v>
       </c>
       <c r="AB48" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC48" t="n">
         <v>7.8</v>
@@ -6955,31 +6955,31 @@
         <v>50</v>
       </c>
       <c r="AF48" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI48" t="n">
         <v>65</v>
       </c>
       <c r="AJ48" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK48" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL48" t="n">
         <v>40</v>
       </c>
       <c r="AM48" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN48" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO48" t="n">
         <v>65</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="G49" t="n">
-        <v>1000</v>
+        <v>1.34</v>
       </c>
       <c r="H49" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="I49" t="n">
         <v>1000</v>
@@ -7030,94 +7030,94 @@
         <v>800</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P49" t="n">
         <v>2.46</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
@@ -7150,7 +7150,7 @@
         <v>2.48</v>
       </c>
       <c r="G50" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H50" t="n">
         <v>3.25</v>
@@ -7165,94 +7165,94 @@
         <v>3.4</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M50" t="n">
         <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O50" t="n">
         <v>1.33</v>
       </c>
       <c r="P50" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q50" t="n">
         <v>2</v>
       </c>
       <c r="R50" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S50" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T50" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U50" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V50" t="n">
         <v>1.43</v>
       </c>
       <c r="W50" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X50" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y50" t="n">
         <v>13</v>
       </c>
       <c r="Z50" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA50" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB50" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC50" t="n">
         <v>7.6</v>
       </c>
       <c r="AD50" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF50" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG50" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ50" t="n">
         <v>34</v>
       </c>
       <c r="AK50" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL50" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM50" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN50" t="n">
         <v>21</v>
       </c>
       <c r="AO50" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
@@ -7300,16 +7300,16 @@
         <v>4.9</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P51" t="n">
         <v>2.52</v>
@@ -7318,76 +7318,76 @@
         <v>1.55</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA51" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM51" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="52">
@@ -7435,16 +7435,16 @@
         <v>4.4</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P52" t="n">
         <v>2.12</v>
@@ -7453,76 +7453,76 @@
         <v>1.56</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM52" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
@@ -7570,7 +7570,7 @@
         <v>4.3</v>
       </c>
       <c r="L53" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M53" t="n">
         <v>1.04</v>
@@ -7588,7 +7588,7 @@
         <v>1.66</v>
       </c>
       <c r="R53" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S53" t="n">
         <v>2.64</v>
@@ -7606,49 +7606,49 @@
         <v>2.34</v>
       </c>
       <c r="X53" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y53" t="n">
         <v>23</v>
       </c>
       <c r="Z53" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA53" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB53" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC53" t="n">
         <v>9.6</v>
       </c>
       <c r="AD53" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE53" t="n">
         <v>60</v>
       </c>
       <c r="AF53" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH53" t="n">
         <v>17.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ53" t="n">
         <v>18</v>
       </c>
       <c r="AK53" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL53" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM53" t="n">
         <v>75</v>
@@ -7657,7 +7657,7 @@
         <v>7.8</v>
       </c>
       <c r="AO53" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54">
@@ -7699,22 +7699,22 @@
         <v>12</v>
       </c>
       <c r="J54" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K54" t="n">
         <v>5.3</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P54" t="n">
         <v>1.89</v>
@@ -7723,76 +7723,76 @@
         <v>1.9</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AI54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL54" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55">
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.59</v>
+        <v>1.09</v>
       </c>
       <c r="G55" t="n">
         <v>1.89</v>
@@ -7831,7 +7831,7 @@
         <v>2.12</v>
       </c>
       <c r="I55" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J55" t="n">
         <v>3.4</v>
@@ -7840,16 +7840,16 @@
         <v>950</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P55" t="n">
         <v>1.69</v>
@@ -7858,76 +7858,76 @@
         <v>1.94</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y55" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z55" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG55" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK55" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL55" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56">
@@ -7963,7 +7963,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="I56" t="n">
         <v>2.08</v>
@@ -8110,7 +8110,7 @@
         <v>6.6</v>
       </c>
       <c r="L57" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M57" t="n">
         <v>1.03</v>
@@ -8149,7 +8149,7 @@
         <v>980</v>
       </c>
       <c r="Y57" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z57" t="n">
         <v>110</v>
@@ -8173,10 +8173,10 @@
         <v>10</v>
       </c>
       <c r="AG57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH57" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI57" t="n">
         <v>130</v>
@@ -8185,7 +8185,7 @@
         <v>11.5</v>
       </c>
       <c r="AK57" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL57" t="n">
         <v>38</v>
@@ -8230,7 +8230,7 @@
         <v>4.2</v>
       </c>
       <c r="G58" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
         <v>1.85</v>
@@ -8239,7 +8239,7 @@
         <v>2.04</v>
       </c>
       <c r="J58" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K58" t="n">
         <v>4.1</v>
@@ -8362,13 +8362,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G59" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H59" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I59" t="n">
         <v>4.8</v>
@@ -8377,7 +8377,7 @@
         <v>3.45</v>
       </c>
       <c r="K59" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8509,7 +8509,7 @@
         <v>4.9</v>
       </c>
       <c r="J60" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K60" t="n">
         <v>3.8</v>
@@ -8527,22 +8527,22 @@
         <v>1.32</v>
       </c>
       <c r="P60" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R60" t="n">
         <v>1.39</v>
       </c>
       <c r="S60" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T60" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="U60" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -8551,16 +8551,16 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y60" t="n">
         <v>17</v>
       </c>
       <c r="Z60" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA60" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB60" t="n">
         <v>9</v>
@@ -8569,40 +8569,40 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD60" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE60" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF60" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG60" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH60" t="n">
         <v>19</v>
       </c>
       <c r="AI60" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ60" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK60" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL60" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM60" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN60" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO60" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G61" t="n">
         <v>2.46</v>
@@ -8641,7 +8641,7 @@
         <v>3.65</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J61" t="n">
         <v>3.1</v>
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q61" t="n">
         <v>2.5</v>
@@ -8779,7 +8779,7 @@
         <v>5.3</v>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K62" t="n">
         <v>6.8</v>
@@ -8935,7 +8935,7 @@
         <v>2.06</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>2.04</v>
       </c>
       <c r="H65" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I65" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J65" t="n">
         <v>3.65</v>
       </c>
       <c r="K65" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -9205,7 +9205,7 @@
         <v>2.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -9307,22 +9307,22 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="I66" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J66" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K66" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -9445,13 +9445,13 @@
         <v>1.91</v>
       </c>
       <c r="G67" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I67" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="J67" t="n">
         <v>3.9</v>
@@ -9619,7 +9619,7 @@
         <v>3.2</v>
       </c>
       <c r="T68" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U68" t="n">
         <v>2.3</v>
@@ -9715,13 +9715,13 @@
         <v>1.78</v>
       </c>
       <c r="G69" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H69" t="n">
         <v>5.5</v>
       </c>
       <c r="I69" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J69" t="n">
         <v>3.7</v>
@@ -9730,7 +9730,7 @@
         <v>3.75</v>
       </c>
       <c r="L69" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M69" t="n">
         <v>1.1</v>
@@ -9742,7 +9742,7 @@
         <v>1.44</v>
       </c>
       <c r="P69" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q69" t="n">
         <v>2.3</v>
@@ -9763,7 +9763,7 @@
         <v>1.2</v>
       </c>
       <c r="W69" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X69" t="n">
         <v>11</v>
@@ -9802,7 +9802,7 @@
         <v>130</v>
       </c>
       <c r="AJ69" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK69" t="n">
         <v>25</v>
@@ -9871,7 +9871,7 @@
         <v>1.09</v>
       </c>
       <c r="N70" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O70" t="n">
         <v>1.39</v>
@@ -9991,7 +9991,7 @@
         <v>1.77</v>
       </c>
       <c r="I71" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J71" t="n">
         <v>4.3</v>
@@ -10006,7 +10006,7 @@
         <v>1.04</v>
       </c>
       <c r="N71" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O71" t="n">
         <v>1.22</v>
@@ -10015,19 +10015,19 @@
         <v>2.42</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R71" t="n">
         <v>1.56</v>
       </c>
       <c r="S71" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T71" t="n">
         <v>1.69</v>
       </c>
       <c r="U71" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -10036,10 +10036,10 @@
         <v>0</v>
       </c>
       <c r="X71" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y71" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z71" t="n">
         <v>12.5</v>
@@ -10048,19 +10048,19 @@
         <v>19</v>
       </c>
       <c r="AB71" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC71" t="n">
         <v>9.6</v>
       </c>
       <c r="AD71" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE71" t="n">
         <v>16.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG71" t="n">
         <v>18.5</v>
@@ -10072,7 +10072,7 @@
         <v>27</v>
       </c>
       <c r="AJ71" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK71" t="n">
         <v>55</v>
@@ -10081,13 +10081,13 @@
         <v>55</v>
       </c>
       <c r="AM71" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN71" t="n">
         <v>46</v>
       </c>
       <c r="AO71" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="72">
@@ -10120,7 +10120,7 @@
         <v>1.25</v>
       </c>
       <c r="G72" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H72" t="n">
         <v>14</v>
@@ -10135,7 +10135,7 @@
         <v>7.4</v>
       </c>
       <c r="L72" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M72" t="n">
         <v>1.02</v>
@@ -10147,7 +10147,7 @@
         <v>1.15</v>
       </c>
       <c r="P72" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="Q72" t="n">
         <v>1.47</v>
@@ -10168,7 +10168,7 @@
         <v>1.07</v>
       </c>
       <c r="W72" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="X72" t="n">
         <v>34</v>
@@ -10195,7 +10195,7 @@
         <v>220</v>
       </c>
       <c r="AF72" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG72" t="n">
         <v>11.5</v>
@@ -10534,7 +10534,7 @@
         <v>5.3</v>
       </c>
       <c r="J75" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K75" t="n">
         <v>3.8</v>
@@ -10795,13 +10795,13 @@
         <v>12</v>
       </c>
       <c r="G77" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="H77" t="n">
         <v>1.32</v>
       </c>
       <c r="I77" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="J77" t="n">
         <v>6</v>
@@ -10834,7 +10834,7 @@
         <v>2.8</v>
       </c>
       <c r="T77" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U77" t="n">
         <v>1.77</v>
@@ -10930,16 +10930,16 @@
         <v>1.15</v>
       </c>
       <c r="G78" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="H78" t="n">
         <v>18.5</v>
       </c>
       <c r="I78" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J78" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K78" t="n">
         <v>11.5</v>
@@ -10957,10 +10957,10 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11200,7 +11200,7 @@
         <v>2.36</v>
       </c>
       <c r="G80" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H80" t="n">
         <v>3.5</v>
@@ -11230,7 +11230,7 @@
         <v>1.48</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -11332,19 +11332,19 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
         <v>3.05</v>
       </c>
       <c r="H81" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
         <v>2.98</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2.96</v>
       </c>
       <c r="K81" t="n">
         <v>3</v>
@@ -11359,13 +11359,13 @@
         <v>2.38</v>
       </c>
       <c r="O81" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="P81" t="n">
         <v>1.45</v>
       </c>
       <c r="Q81" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R81" t="n">
         <v>1.15</v>
@@ -11377,7 +11377,7 @@
         <v>2.4</v>
       </c>
       <c r="U81" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V81" t="n">
         <v>0</v>
@@ -11386,19 +11386,19 @@
         <v>0</v>
       </c>
       <c r="X81" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y81" t="n">
         <v>7.6</v>
       </c>
       <c r="Z81" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA81" t="n">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="AB81" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC81" t="n">
         <v>7</v>
@@ -11407,7 +11407,7 @@
         <v>15</v>
       </c>
       <c r="AE81" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF81" t="n">
         <v>18</v>
@@ -11419,10 +11419,10 @@
         <v>27</v>
       </c>
       <c r="AI81" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ81" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AK81" t="n">
         <v>55</v>
@@ -11437,7 +11437,7 @@
         <v>75</v>
       </c>
       <c r="AO81" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82">
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G82" t="n">
         <v>2.62</v>
@@ -11497,10 +11497,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -11614,10 +11614,10 @@
         <v>75</v>
       </c>
       <c r="J83" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="K83" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -11635,7 +11635,7 @@
         <v>3.35</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -11770,7 +11770,7 @@
         <v>2.24</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -11872,19 +11872,19 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G85" t="n">
-        <v>1000</v>
+        <v>1.24</v>
       </c>
       <c r="H85" t="n">
-        <v>1.04</v>
+        <v>12</v>
       </c>
       <c r="I85" t="n">
         <v>1000</v>
       </c>
       <c r="J85" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K85" t="n">
         <v>950</v>
@@ -11899,7 +11899,7 @@
         <v>3.6</v>
       </c>
       <c r="O85" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P85" t="n">
         <v>3.6</v>
@@ -11908,10 +11908,10 @@
         <v>1.21</v>
       </c>
       <c r="R85" t="n">
-        <v>1.37</v>
+        <v>1.9</v>
       </c>
       <c r="S85" t="n">
-        <v>1.21</v>
+        <v>1.64</v>
       </c>
       <c r="T85" t="n">
         <v>1.01</v>
@@ -11923,7 +11923,7 @@
         <v>1.01</v>
       </c>
       <c r="W85" t="n">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="X85" t="n">
         <v>1000</v>
@@ -12145,16 +12145,16 @@
         <v>1.14</v>
       </c>
       <c r="G87" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H87" t="n">
         <v>23</v>
       </c>
       <c r="I87" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J87" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K87" t="n">
         <v>11.5</v>
@@ -12172,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q87" t="n">
         <v>1.31</v>
@@ -12280,7 +12280,7 @@
         <v>1.3</v>
       </c>
       <c r="G88" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H88" t="n">
         <v>11</v>
@@ -12421,10 +12421,10 @@
         <v>3.85</v>
       </c>
       <c r="I89" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J89" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K89" t="n">
         <v>4.8</v>
@@ -12550,19 +12550,19 @@
         <v>1.94</v>
       </c>
       <c r="G90" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H90" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I90" t="n">
         <v>5.3</v>
       </c>
       <c r="J90" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="K90" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G91" t="n">
         <v>1.93</v>
@@ -12691,10 +12691,10 @@
         <v>2.14</v>
       </c>
       <c r="I91" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="J91" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K91" t="n">
         <v>1000</v>
@@ -12715,7 +12715,7 @@
         <v>1.55</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -12847,10 +12847,10 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12955,19 +12955,19 @@
         <v>2.72</v>
       </c>
       <c r="G93" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H93" t="n">
         <v>2.7</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J93" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K93" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -13093,16 +13093,16 @@
         <v>8.6</v>
       </c>
       <c r="H94" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="I94" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="J94" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K94" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L94" t="n">
         <v>1.01</v>
@@ -13132,7 +13132,7 @@
         <v>2.28</v>
       </c>
       <c r="U94" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V94" t="n">
         <v>2.96</v>
@@ -13150,7 +13150,7 @@
         <v>7.8</v>
       </c>
       <c r="AA94" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB94" t="n">
         <v>24</v>
@@ -13228,16 +13228,16 @@
         <v>5.7</v>
       </c>
       <c r="H95" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="I95" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="J95" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K95" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L95" t="n">
         <v>1.01</v>
@@ -13246,7 +13246,7 @@
         <v>1.03</v>
       </c>
       <c r="N95" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O95" t="n">
         <v>1.19</v>
@@ -13261,7 +13261,7 @@
         <v>1.64</v>
       </c>
       <c r="S95" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="T95" t="n">
         <v>1.68</v>
@@ -13270,7 +13270,7 @@
         <v>2.38</v>
       </c>
       <c r="V95" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="W95" t="n">
         <v>1.21</v>
@@ -13309,7 +13309,7 @@
         <v>18</v>
       </c>
       <c r="AI95" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ95" t="n">
         <v>140</v>
@@ -13363,7 +13363,7 @@
         <v>3.05</v>
       </c>
       <c r="H96" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I96" t="n">
         <v>3.8</v>
@@ -13390,7 +13390,7 @@
         <v>1.33</v>
       </c>
       <c r="Q96" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -13627,13 +13627,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H98" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I98" t="n">
         <v>36</v>
@@ -13762,22 +13762,22 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G99" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H99" t="n">
         <v>3.55</v>
       </c>
       <c r="I99" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J99" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K99" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -13786,7 +13786,7 @@
         <v>1.1</v>
       </c>
       <c r="N99" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O99" t="n">
         <v>1.44</v>
@@ -13831,7 +13831,7 @@
         <v>8.6</v>
       </c>
       <c r="AC99" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD99" t="n">
         <v>15.5</v>
@@ -13846,13 +13846,13 @@
         <v>12</v>
       </c>
       <c r="AH99" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI99" t="n">
         <v>75</v>
       </c>
       <c r="AJ99" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK99" t="n">
         <v>29</v>
@@ -13897,16 +13897,16 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G100" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="H100" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="I100" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J100" t="n">
         <v>3.45</v>
@@ -13927,10 +13927,10 @@
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -14032,22 +14032,22 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="G101" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H101" t="n">
         <v>1.22</v>
       </c>
       <c r="I101" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="J101" t="n">
         <v>7</v>
       </c>
       <c r="K101" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -14170,13 +14170,13 @@
         <v>4.3</v>
       </c>
       <c r="G102" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H102" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="I102" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
         <v>3.55</v>
@@ -14197,10 +14197,10 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -14437,19 +14437,19 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G104" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="H104" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="I104" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="J104" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="K104" t="n">
         <v>820</v>
@@ -14467,10 +14467,10 @@
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -14605,7 +14605,7 @@
         <v>1.67</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -14842,22 +14842,22 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.04</v>
+        <v>1.49</v>
       </c>
       <c r="G107" t="n">
-        <v>1000</v>
+        <v>1.87</v>
       </c>
       <c r="H107" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="I107" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="J107" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="K107" t="n">
-        <v>1000</v>
+        <v>710</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -14872,10 +14872,10 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>1.05</v>
+        <v>1.67</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
@@ -14983,13 +14983,13 @@
         <v>2.08</v>
       </c>
       <c r="H108" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I108" t="n">
         <v>4.4</v>
       </c>
       <c r="J108" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K108" t="n">
         <v>4</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO108"/>
+  <dimension ref="A1:AO109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,7 +715,7 @@
         <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="W2" t="n">
         <v>1.22</v>
@@ -748,7 +748,7 @@
         <v>55</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH2" t="n">
         <v>20</v>
@@ -769,7 +769,7 @@
         <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO2" t="n">
         <v>8.6</v>
@@ -820,7 +820,7 @@
         <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -850,10 +850,10 @@
         <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W3" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="X3" t="n">
         <v>16</v>
@@ -970,7 +970,7 @@
         <v>1.86</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R4" t="n">
         <v>1.29</v>
@@ -1096,7 +1096,7 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.03</v>
+        <v>1.89</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
@@ -1105,7 +1105,7 @@
         <v>1.89</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
         <v>1.28</v>
@@ -1249,7 +1249,7 @@
         <v>3.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="U6" t="n">
         <v>1.77</v>
@@ -1486,7 +1486,7 @@
         <v>1.81</v>
       </c>
       <c r="I8" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1495,7 +1495,7 @@
         <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1525,7 +1525,7 @@
         <v>2.44</v>
       </c>
       <c r="V8" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="W8" t="n">
         <v>1.26</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="J9" t="n">
-        <v>2.52</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1660,10 +1660,10 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W9" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1777,22 +1777,22 @@
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q10" t="n">
         <v>1.58</v>
       </c>
       <c r="R10" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
         <v>1.17</v>
@@ -2020,10 +2020,10 @@
         <v>2.06</v>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I12" t="n">
         <v>5.1</v>
@@ -2035,7 +2035,7 @@
         <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="M12" t="n">
         <v>1.13</v>
@@ -2062,13 +2062,13 @@
         <v>2.26</v>
       </c>
       <c r="U12" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
         <v>1.24</v>
       </c>
       <c r="W12" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X12" t="n">
         <v>8.4</v>
@@ -2092,7 +2092,7 @@
         <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF12" t="n">
         <v>10.5</v>
@@ -2101,7 +2101,7 @@
         <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
         <v>110</v>
@@ -2155,19 +2155,19 @@
         <v>7.2</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="H13" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="I13" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2176,22 +2176,22 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
         <v>1.08</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2200,7 +2200,7 @@
         <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="W13" t="n">
         <v>1.01</v>
@@ -2428,10 +2428,10 @@
         <v>4.2</v>
       </c>
       <c r="H15" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="I15" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
         <v>2.7</v>
@@ -2476,25 +2476,25 @@
         <v>1.35</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AA15" t="n">
         <v>44</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD15" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AE15" t="n">
         <v>40</v>
@@ -2503,7 +2503,7 @@
         <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AH15" t="n">
         <v>25</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G17" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="H17" t="n">
         <v>2.36</v>
@@ -2704,10 +2704,10 @@
         <v>2.7</v>
       </c>
       <c r="J17" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2722,16 +2722,16 @@
         <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="R17" t="n">
         <v>1.08</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2740,7 +2740,7 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="W17" t="n">
         <v>1.39</v>
@@ -2986,25 +2986,25 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O19" t="n">
         <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q19" t="n">
         <v>1.64</v>
       </c>
       <c r="R19" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S19" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U19" t="n">
         <v>2.3</v>
@@ -3121,7 +3121,7 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>2.12</v>
+        <v>4.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.24</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G21" t="n">
         <v>2.7</v>
@@ -3247,7 +3247,7 @@
         <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.41</v>
@@ -3265,7 +3265,7 @@
         <v>1.91</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R21" t="n">
         <v>1.34</v>
@@ -3274,7 +3274,7 @@
         <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="U21" t="n">
         <v>2.16</v>
@@ -3286,10 +3286,10 @@
         <v>1.59</v>
       </c>
       <c r="X21" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Y21" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Z21" t="n">
         <v>21</v>
@@ -3304,19 +3304,19 @@
         <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE21" t="n">
         <v>36</v>
       </c>
       <c r="AF21" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AG21" t="n">
         <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AI21" t="n">
         <v>46</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G22" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H22" t="n">
         <v>2.26</v>
@@ -3409,7 +3409,7 @@
         <v>2.74</v>
       </c>
       <c r="T22" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="U22" t="n">
         <v>2.46</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G23" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="H23" t="n">
         <v>2.66</v>
       </c>
       <c r="I23" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J23" t="n">
         <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,31 +3526,31 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>2.44</v>
+        <v>4.3</v>
       </c>
       <c r="O23" t="n">
         <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R23" t="n">
         <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="T23" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="U23" t="n">
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="W23" t="n">
         <v>1.57</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G25" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
@@ -3820,10 +3820,10 @@
         <v>1.85</v>
       </c>
       <c r="V25" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W25" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="X25" t="n">
         <v>29</v>
@@ -3925,34 +3925,34 @@
         <v>6.8</v>
       </c>
       <c r="L26" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M26" t="n">
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O26" t="n">
         <v>1.17</v>
       </c>
       <c r="P26" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="Q26" t="n">
         <v>1.52</v>
       </c>
       <c r="R26" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S26" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T26" t="n">
         <v>2.02</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="V26" t="n">
         <v>1.07</v>
@@ -3964,19 +3964,19 @@
         <v>29</v>
       </c>
       <c r="Y26" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z26" t="n">
         <v>130</v>
       </c>
       <c r="AA26" t="n">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="AB26" t="n">
         <v>11.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD26" t="n">
         <v>46</v>
@@ -3994,7 +3994,7 @@
         <v>30</v>
       </c>
       <c r="AI26" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ26" t="n">
         <v>10</v>
@@ -4012,7 +4012,7 @@
         <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
@@ -4075,19 +4075,19 @@
         <v>2.06</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R27" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S27" t="n">
         <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U27" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V27" t="n">
         <v>1.23</v>
@@ -4096,7 +4096,7 @@
         <v>2.14</v>
       </c>
       <c r="X27" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y27" t="n">
         <v>22</v>
@@ -4345,13 +4345,13 @@
         <v>1.64</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R29" t="n">
         <v>1.08</v>
       </c>
       <c r="S29" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T29" t="n">
         <v>1.01</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G31" t="n">
         <v>2.04</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G32" t="n">
         <v>2.28</v>
@@ -4741,7 +4741,7 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="O32" t="n">
         <v>1.28</v>
@@ -4858,10 +4858,10 @@
         <v>2.6</v>
       </c>
       <c r="H33" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="I33" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J33" t="n">
         <v>3.6</v>
@@ -4894,13 +4894,13 @@
         <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="U33" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="V33" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W33" t="n">
         <v>1.63</v>
@@ -4939,7 +4939,7 @@
         <v>17</v>
       </c>
       <c r="AI33" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ33" t="n">
         <v>36</v>
@@ -4957,7 +4957,7 @@
         <v>19</v>
       </c>
       <c r="AO33" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
@@ -4987,58 +4987,58 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G34" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="H34" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I34" t="n">
         <v>4.5</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K34" t="n">
         <v>4.7</v>
       </c>
-      <c r="J34" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4.8</v>
-      </c>
       <c r="L34" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M34" t="n">
         <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P34" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="R34" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="S34" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="T34" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="U34" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="V34" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W34" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="X34" t="n">
         <v>32</v>
@@ -5047,52 +5047,52 @@
         <v>36</v>
       </c>
       <c r="Z34" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA34" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD34" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE34" t="n">
         <v>44</v>
       </c>
       <c r="AF34" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG34" t="n">
         <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI34" t="n">
         <v>42</v>
       </c>
       <c r="AJ34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK34" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL34" t="n">
         <v>23</v>
       </c>
       <c r="AM34" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN34" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO34" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
@@ -5290,7 +5290,7 @@
         <v>1.7</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R36" t="n">
         <v>1.26</v>
@@ -5299,10 +5299,10 @@
         <v>4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="V36" t="n">
         <v>1.76</v>
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z36" t="n">
         <v>16</v>
@@ -5413,7 +5413,7 @@
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N37" t="n">
         <v>3.05</v>
@@ -5434,10 +5434,10 @@
         <v>4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U37" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="V37" t="n">
         <v>1.74</v>
@@ -5671,7 +5671,7 @@
         <v>1.26</v>
       </c>
       <c r="I39" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="J39" t="n">
         <v>4.8</v>
@@ -5797,28 +5797,28 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="H40" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I40" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J40" t="n">
         <v>3.3</v>
       </c>
       <c r="K40" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L40" t="n">
         <v>1.42</v>
       </c>
       <c r="M40" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
         <v>3.7</v>
@@ -5827,7 +5827,7 @@
         <v>1.32</v>
       </c>
       <c r="P40" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q40" t="n">
         <v>1.86</v>
@@ -5836,22 +5836,22 @@
         <v>1.36</v>
       </c>
       <c r="S40" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T40" t="n">
         <v>1.64</v>
       </c>
       <c r="U40" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V40" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W40" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="X40" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y40" t="n">
         <v>14.5</v>
@@ -5866,10 +5866,10 @@
         <v>10.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD40" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE40" t="n">
         <v>42</v>
@@ -5887,7 +5887,7 @@
         <v>55</v>
       </c>
       <c r="AJ40" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK40" t="n">
         <v>26</v>
@@ -5902,7 +5902,7 @@
         <v>23</v>
       </c>
       <c r="AO40" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41">
@@ -6100,7 +6100,7 @@
         <v>2.04</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R42" t="n">
         <v>1.39</v>
@@ -6208,13 +6208,13 @@
         <v>4.1</v>
       </c>
       <c r="H43" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="I43" t="n">
         <v>2.52</v>
       </c>
       <c r="J43" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>3.25</v>
@@ -6223,43 +6223,43 @@
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N43" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="O43" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="P43" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R43" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S43" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T43" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="U43" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V43" t="n">
         <v>1.65</v>
       </c>
       <c r="W43" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X43" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z43" t="n">
         <v>15</v>
@@ -6355,25 +6355,25 @@
         <v>3.7</v>
       </c>
       <c r="L44" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P44" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q44" t="n">
         <v>1.88</v>
       </c>
       <c r="R44" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S44" t="n">
         <v>3.15</v>
@@ -6391,7 +6391,7 @@
         <v>1.84</v>
       </c>
       <c r="X44" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y44" t="n">
         <v>15.5</v>
@@ -6400,7 +6400,7 @@
         <v>26</v>
       </c>
       <c r="AA44" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB44" t="n">
         <v>11</v>
@@ -6415,7 +6415,7 @@
         <v>40</v>
       </c>
       <c r="AF44" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG44" t="n">
         <v>10.5</v>
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G45" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H45" t="n">
         <v>6.4</v>
@@ -6514,7 +6514,7 @@
         <v>3.2</v>
       </c>
       <c r="T45" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U45" t="n">
         <v>1.68</v>
@@ -6607,37 +6607,37 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G46" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H46" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I46" t="n">
         <v>4.2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K46" t="n">
         <v>3.85</v>
       </c>
       <c r="L46" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M46" t="n">
         <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O46" t="n">
         <v>1.3</v>
       </c>
       <c r="P46" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q46" t="n">
         <v>1.9</v>
@@ -6646,25 +6646,25 @@
         <v>1.42</v>
       </c>
       <c r="S46" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T46" t="n">
         <v>1.78</v>
       </c>
       <c r="U46" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V46" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W46" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="X46" t="n">
         <v>15</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z46" t="n">
         <v>32</v>
@@ -6685,7 +6685,7 @@
         <v>50</v>
       </c>
       <c r="AF46" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG46" t="n">
         <v>10.5</v>
@@ -6700,7 +6700,7 @@
         <v>24</v>
       </c>
       <c r="AK46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL46" t="n">
         <v>34</v>
@@ -6712,7 +6712,7 @@
         <v>13.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47">
@@ -6760,13 +6760,13 @@
         <v>4.8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M47" t="n">
         <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O47" t="n">
         <v>1.24</v>
@@ -6781,7 +6781,7 @@
         <v>1.52</v>
       </c>
       <c r="S47" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T47" t="n">
         <v>1.79</v>
@@ -6829,7 +6829,7 @@
         <v>19</v>
       </c>
       <c r="AI47" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ47" t="n">
         <v>15.5</v>
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G48" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H48" t="n">
         <v>4.2</v>
@@ -6901,7 +6901,7 @@
         <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O48" t="n">
         <v>1.37</v>
@@ -6916,7 +6916,7 @@
         <v>1.32</v>
       </c>
       <c r="S48" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T48" t="n">
         <v>1.93</v>
@@ -6928,28 +6928,28 @@
         <v>1.3</v>
       </c>
       <c r="W48" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="X48" t="n">
         <v>13</v>
       </c>
       <c r="Y48" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA48" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB48" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC48" t="n">
         <v>7.8</v>
       </c>
       <c r="AD48" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE48" t="n">
         <v>50</v>
@@ -7018,7 +7018,7 @@
         <v>1.34</v>
       </c>
       <c r="H49" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="I49" t="n">
         <v>1000</v>
@@ -7150,7 +7150,7 @@
         <v>2.48</v>
       </c>
       <c r="G50" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H50" t="n">
         <v>3.25</v>
@@ -7165,7 +7165,7 @@
         <v>3.4</v>
       </c>
       <c r="L50" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M50" t="n">
         <v>1.08</v>
@@ -7180,25 +7180,25 @@
         <v>1.95</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R50" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S50" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T50" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U50" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V50" t="n">
         <v>1.43</v>
       </c>
       <c r="W50" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X50" t="n">
         <v>13</v>
@@ -7231,7 +7231,7 @@
         <v>11.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI50" t="n">
         <v>46</v>
@@ -7303,13 +7303,13 @@
         <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N51" t="n">
-        <v>2.52</v>
+        <v>5.4</v>
       </c>
       <c r="O51" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P51" t="n">
         <v>2.52</v>
@@ -7318,16 +7318,16 @@
         <v>1.55</v>
       </c>
       <c r="R51" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="S51" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="T51" t="n">
         <v>1.44</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="V51" t="n">
         <v>1.67</v>
@@ -7336,58 +7336,58 @@
         <v>1.46</v>
       </c>
       <c r="X51" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA51" t="n">
         <v>38</v>
       </c>
-      <c r="Y51" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>46</v>
-      </c>
       <c r="AB51" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AC51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD51" t="n">
         <v>14.5</v>
       </c>
-      <c r="AD51" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AE51" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AF51" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK51" t="n">
         <v>36</v>
       </c>
-      <c r="AG51" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI51" t="n">
+      <c r="AL51" t="n">
         <v>40</v>
       </c>
-      <c r="AJ51" t="n">
+      <c r="AM51" t="n">
         <v>70</v>
       </c>
-      <c r="AK51" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>75</v>
-      </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO51" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="52">
@@ -7417,13 +7417,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="G52" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H52" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="I52" t="n">
         <v>2.04</v>
@@ -7435,7 +7435,7 @@
         <v>4.4</v>
       </c>
       <c r="L52" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M52" t="n">
         <v>1.01</v>
@@ -7453,10 +7453,10 @@
         <v>1.56</v>
       </c>
       <c r="R52" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S52" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T52" t="n">
         <v>1.01</v>
@@ -7471,58 +7471,58 @@
         <v>1.32</v>
       </c>
       <c r="X52" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Y52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG52" t="n">
         <v>17</v>
       </c>
-      <c r="Z52" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF52" t="n">
+      <c r="AH52" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL52" t="n">
         <v>44</v>
       </c>
-      <c r="AG52" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>60</v>
-      </c>
       <c r="AM52" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="53">
@@ -7570,7 +7570,7 @@
         <v>4.3</v>
       </c>
       <c r="L53" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M53" t="n">
         <v>1.04</v>
@@ -7597,7 +7597,7 @@
         <v>1.69</v>
       </c>
       <c r="U53" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V53" t="n">
         <v>1.23</v>
@@ -7726,7 +7726,7 @@
         <v>1.26</v>
       </c>
       <c r="S54" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T54" t="n">
         <v>1.01</v>
@@ -7822,61 +7822,61 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.09</v>
+        <v>1.34</v>
       </c>
       <c r="G55" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="H55" t="n">
-        <v>2.12</v>
+        <v>5.3</v>
       </c>
       <c r="I55" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K55" t="n">
         <v>950</v>
       </c>
       <c r="L55" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M55" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N55" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="O55" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P55" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="R55" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S55" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T55" t="n">
         <v>1.01</v>
       </c>
       <c r="U55" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="V55" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="W55" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="X55" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y55" t="n">
         <v>26</v>
@@ -7903,10 +7903,10 @@
         <v>13</v>
       </c>
       <c r="AG55" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI55" t="n">
         <v>1000</v>
@@ -7915,10 +7915,10 @@
         <v>23</v>
       </c>
       <c r="AK55" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL55" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM55" t="n">
         <v>1000</v>
@@ -7957,10 +7957,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.98</v>
+        <v>3.9</v>
       </c>
       <c r="G56" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="H56" t="n">
         <v>1.73</v>
@@ -7969,22 +7969,22 @@
         <v>2.08</v>
       </c>
       <c r="J56" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K56" t="n">
-        <v>800</v>
+        <v>6.2</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P56" t="n">
         <v>1.61</v>
@@ -7993,76 +7993,76 @@
         <v>1.98</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57">
@@ -8095,16 +8095,16 @@
         <v>1.34</v>
       </c>
       <c r="G57" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H57" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I57" t="n">
         <v>11.5</v>
       </c>
       <c r="J57" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="K57" t="n">
         <v>6.6</v>
@@ -8116,40 +8116,40 @@
         <v>1.03</v>
       </c>
       <c r="N57" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="O57" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P57" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="R57" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="S57" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="T57" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="U57" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="V57" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W57" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X57" t="n">
         <v>980</v>
       </c>
       <c r="Y57" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="Z57" t="n">
         <v>110</v>
@@ -8161,7 +8161,7 @@
         <v>12</v>
       </c>
       <c r="AC57" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD57" t="n">
         <v>980</v>
@@ -8170,7 +8170,7 @@
         <v>170</v>
       </c>
       <c r="AF57" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG57" t="n">
         <v>12</v>
@@ -8188,13 +8188,13 @@
         <v>15</v>
       </c>
       <c r="AL57" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM57" t="n">
         <v>140</v>
       </c>
       <c r="AN57" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AO57" t="n">
         <v>190</v>
@@ -8230,7 +8230,7 @@
         <v>4.2</v>
       </c>
       <c r="G58" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="H58" t="n">
         <v>1.85</v>
@@ -8245,16 +8245,16 @@
         <v>4.1</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P58" t="n">
         <v>1.8</v>
@@ -8263,76 +8263,76 @@
         <v>1.82</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="59">
@@ -8377,97 +8377,97 @@
         <v>3.45</v>
       </c>
       <c r="K59" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P59" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X59" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z59" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA59" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB59" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD59" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE59" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF59" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG59" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI59" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK59" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL59" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM59" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN59" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO59" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
@@ -8497,16 +8497,16 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G60" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H60" t="n">
         <v>4.6</v>
       </c>
       <c r="I60" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J60" t="n">
         <v>3.7</v>
@@ -8515,7 +8515,7 @@
         <v>3.8</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M60" t="n">
         <v>1.07</v>
@@ -8524,7 +8524,7 @@
         <v>3.95</v>
       </c>
       <c r="O60" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -8539,16 +8539,16 @@
         <v>3.45</v>
       </c>
       <c r="T60" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U60" t="n">
         <v>2.14</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X60" t="n">
         <v>14</v>
@@ -8569,19 +8569,19 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD60" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE60" t="n">
         <v>60</v>
       </c>
       <c r="AF60" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG60" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH60" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI60" t="n">
         <v>65</v>
@@ -8596,7 +8596,7 @@
         <v>36</v>
       </c>
       <c r="AM60" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN60" t="n">
         <v>13</v>
@@ -8650,16 +8650,16 @@
         <v>3.3</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P61" t="n">
         <v>1.57</v>
@@ -8668,76 +8668,76 @@
         <v>2.5</v>
       </c>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="X61" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA61" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB61" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD61" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE61" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF61" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG61" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI61" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ61" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK61" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL61" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM61" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN61" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO61" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62">
@@ -8779,22 +8779,22 @@
         <v>5.3</v>
       </c>
       <c r="J62" t="n">
-        <v>2.98</v>
+        <v>3.6</v>
       </c>
       <c r="K62" t="n">
         <v>6.8</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P62" t="n">
         <v>2.28</v>
@@ -8803,76 +8803,76 @@
         <v>1.48</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V62" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W62" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="63">
@@ -8920,94 +8920,94 @@
         <v>6</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P63" t="n">
         <v>2.06</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W63" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="X63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y63" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Z63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB63" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC63" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD63" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AE63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF63" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG63" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH63" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AI63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ63" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AK63" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL63" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64">
@@ -9055,16 +9055,16 @@
         <v>3.3</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P64" t="n">
         <v>1.65</v>
@@ -9073,76 +9073,76 @@
         <v>2.32</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X64" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z64" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB64" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD64" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE64" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF64" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG64" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH64" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI64" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ64" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK64" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL64" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM64" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN64" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AO64" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65">
@@ -9172,112 +9172,112 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="G65" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="H65" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I65" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="J65" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="K65" t="n">
-        <v>5.9</v>
+        <v>4.6</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P65" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X65" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y65" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z65" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA65" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB65" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD65" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE65" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF65" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG65" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH65" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI65" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ65" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK65" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AL65" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AM65" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN65" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO65" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -9307,16 +9307,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G66" t="n">
         <v>2.38</v>
       </c>
       <c r="H66" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J66" t="n">
         <v>3.65</v>
@@ -9325,16 +9325,16 @@
         <v>4.5</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P66" t="n">
         <v>2.82</v>
@@ -9343,76 +9343,76 @@
         <v>1.41</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V66" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W66" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X66" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Y66" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z66" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA66" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB66" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC66" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD66" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE66" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF66" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG66" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI66" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ66" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK66" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL66" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM66" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO66" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="67">
@@ -9445,109 +9445,109 @@
         <v>1.91</v>
       </c>
       <c r="G67" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H67" t="n">
         <v>4.2</v>
       </c>
       <c r="I67" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J67" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K67" t="n">
         <v>4.2</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P67" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="68">
@@ -9577,10 +9577,10 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G68" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H68" t="n">
         <v>3.75</v>
@@ -9589,19 +9589,19 @@
         <v>3.85</v>
       </c>
       <c r="J68" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K68" t="n">
         <v>3.65</v>
       </c>
       <c r="L68" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M68" t="n">
         <v>1.07</v>
       </c>
       <c r="N68" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O68" t="n">
         <v>1.29</v>
@@ -9622,22 +9622,22 @@
         <v>1.72</v>
       </c>
       <c r="U68" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V68" t="n">
         <v>1.35</v>
       </c>
       <c r="W68" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="X68" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y68" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y68" t="n">
-        <v>16</v>
-      </c>
       <c r="Z68" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA68" t="n">
         <v>70</v>
@@ -9649,40 +9649,40 @@
         <v>8</v>
       </c>
       <c r="AD68" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE68" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF68" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG68" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH68" t="n">
         <v>16</v>
       </c>
       <c r="AI68" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ68" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK68" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL68" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM68" t="n">
         <v>80</v>
       </c>
       <c r="AN68" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO68" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69">
@@ -9715,13 +9715,13 @@
         <v>1.78</v>
       </c>
       <c r="G69" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H69" t="n">
         <v>5.5</v>
       </c>
       <c r="I69" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J69" t="n">
         <v>3.7</v>
@@ -9730,10 +9730,10 @@
         <v>3.75</v>
       </c>
       <c r="L69" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M69" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N69" t="n">
         <v>3.15</v>
@@ -9763,10 +9763,10 @@
         <v>1.2</v>
       </c>
       <c r="W69" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X69" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y69" t="n">
         <v>15.5</v>
@@ -9802,10 +9802,10 @@
         <v>130</v>
       </c>
       <c r="AJ69" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK69" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL69" t="n">
         <v>60</v>
@@ -9814,7 +9814,7 @@
         <v>210</v>
       </c>
       <c r="AN69" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO69" t="n">
         <v>190</v>
@@ -9865,13 +9865,13 @@
         <v>3.55</v>
       </c>
       <c r="L70" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M70" t="n">
         <v>1.09</v>
       </c>
       <c r="N70" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O70" t="n">
         <v>1.39</v>
@@ -9982,16 +9982,16 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G71" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H71" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="I71" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="J71" t="n">
         <v>4.3</v>
@@ -10000,40 +10000,40 @@
         <v>4.4</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M71" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N71" t="n">
         <v>5.1</v>
       </c>
       <c r="O71" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P71" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R71" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S71" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="T71" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U71" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X71" t="n">
         <v>22</v>
@@ -10042,25 +10042,25 @@
         <v>11</v>
       </c>
       <c r="Z71" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA71" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC71" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD71" t="n">
         <v>9.6</v>
       </c>
-      <c r="AD71" t="n">
-        <v>10</v>
-      </c>
       <c r="AE71" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF71" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG71" t="n">
         <v>18.5</v>
@@ -10072,7 +10072,7 @@
         <v>27</v>
       </c>
       <c r="AJ71" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK71" t="n">
         <v>55</v>
@@ -10081,13 +10081,13 @@
         <v>55</v>
       </c>
       <c r="AM71" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN71" t="n">
         <v>46</v>
       </c>
       <c r="AO71" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="72">
@@ -10120,22 +10120,22 @@
         <v>1.25</v>
       </c>
       <c r="G72" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H72" t="n">
         <v>14</v>
       </c>
       <c r="I72" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J72" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K72" t="n">
         <v>7.4</v>
       </c>
       <c r="L72" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M72" t="n">
         <v>1.02</v>
@@ -10150,7 +10150,7 @@
         <v>2.96</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R72" t="n">
         <v>1.79</v>
@@ -10168,52 +10168,52 @@
         <v>1.07</v>
       </c>
       <c r="W72" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="X72" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y72" t="n">
         <v>55</v>
       </c>
       <c r="Z72" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA72" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="AB72" t="n">
         <v>12</v>
       </c>
       <c r="AC72" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD72" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE72" t="n">
         <v>220</v>
       </c>
       <c r="AF72" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AG72" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH72" t="n">
         <v>32</v>
       </c>
       <c r="AI72" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ72" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK72" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL72" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM72" t="n">
         <v>160</v>
@@ -10222,7 +10222,7 @@
         <v>3.65</v>
       </c>
       <c r="AO72" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73">
@@ -10255,10 +10255,10 @@
         <v>2.3</v>
       </c>
       <c r="G73" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="H73" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="I73" t="n">
         <v>3.7</v>
@@ -10267,19 +10267,19 @@
         <v>2.9</v>
       </c>
       <c r="K73" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P73" t="n">
         <v>1.68</v>
@@ -10288,76 +10288,76 @@
         <v>1.94</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V73" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X73" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="74">
@@ -10387,112 +10387,112 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P74" t="n">
-        <v>1.02</v>
+        <v>1.58</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U74" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V74" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W74" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="75">
@@ -10525,109 +10525,109 @@
         <v>1.89</v>
       </c>
       <c r="G75" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="H75" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I75" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J75" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K75" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P75" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="R75" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V75" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X75" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y75" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z75" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA75" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB75" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC75" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE75" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF75" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG75" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH75" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI75" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK75" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL75" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM75" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN75" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO75" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="76">
@@ -10660,7 +10660,7 @@
         <v>2.24</v>
       </c>
       <c r="G76" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="H76" t="n">
         <v>1.55</v>
@@ -10669,100 +10669,100 @@
         <v>1.86</v>
       </c>
       <c r="J76" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K76" t="n">
         <v>800</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P76" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q76" t="n">
         <v>1.78</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V76" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="77">
@@ -10795,7 +10795,7 @@
         <v>12</v>
       </c>
       <c r="G77" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="H77" t="n">
         <v>1.32</v>
@@ -10804,37 +10804,37 @@
         <v>1.33</v>
       </c>
       <c r="J77" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K77" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L77" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M77" t="n">
         <v>1.04</v>
       </c>
       <c r="N77" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O77" t="n">
         <v>1.24</v>
       </c>
       <c r="P77" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R77" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S77" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="T77" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U77" t="n">
         <v>1.77</v>
@@ -10846,7 +10846,7 @@
         <v>1.08</v>
       </c>
       <c r="X77" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y77" t="n">
         <v>8.6</v>
@@ -10855,7 +10855,7 @@
         <v>7.6</v>
       </c>
       <c r="AA77" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB77" t="n">
         <v>38</v>
@@ -10864,46 +10864,46 @@
         <v>13.5</v>
       </c>
       <c r="AD77" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE77" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF77" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AG77" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH77" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI77" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ77" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="AK77" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AL77" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AM77" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AN77" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="AO77" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -10913,126 +10913,126 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.15</v>
+        <v>1.49</v>
       </c>
       <c r="G78" t="n">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="H78" t="n">
-        <v>18.5</v>
+        <v>6.6</v>
       </c>
       <c r="I78" t="n">
-        <v>23</v>
+        <v>8.6</v>
       </c>
       <c r="J78" t="n">
-        <v>9.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="K78" t="n">
-        <v>11.5</v>
+        <v>5.3</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P78" t="n">
-        <v>3.35</v>
+        <v>2.4</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.3</v>
+        <v>1.63</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U78" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V78" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W78" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="X78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="79">
@@ -11053,127 +11053,127 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.49</v>
+        <v>2.38</v>
       </c>
       <c r="G79" t="n">
-        <v>1.55</v>
+        <v>2.56</v>
       </c>
       <c r="H79" t="n">
-        <v>6.6</v>
+        <v>3.4</v>
       </c>
       <c r="I79" t="n">
-        <v>8.6</v>
+        <v>3.75</v>
       </c>
       <c r="J79" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="K79" t="n">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P79" t="n">
-        <v>2.4</v>
+        <v>1.48</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.63</v>
+        <v>2.48</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y79" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z79" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA79" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB79" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD79" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE79" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF79" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG79" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH79" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI79" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK79" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL79" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO79" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -11188,127 +11188,127 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>2.58</v>
+        <v>3.05</v>
       </c>
       <c r="H80" t="n">
-        <v>3.5</v>
+        <v>2.96</v>
       </c>
       <c r="I80" t="n">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K80" t="n">
         <v>2.98</v>
       </c>
-      <c r="K80" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="P80" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S80" t="n">
+        <v>7</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W80" t="n">
         <v>1.48</v>
       </c>
-      <c r="Q80" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R80" t="n">
-        <v>0</v>
-      </c>
-      <c r="S80" t="n">
-        <v>0</v>
-      </c>
-      <c r="T80" t="n">
-        <v>0</v>
-      </c>
-      <c r="U80" t="n">
-        <v>0</v>
-      </c>
-      <c r="V80" t="n">
-        <v>0</v>
-      </c>
-      <c r="W80" t="n">
-        <v>0</v>
-      </c>
       <c r="X80" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y80" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Z80" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA80" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB80" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC80" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AD80" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF80" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG80" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH80" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI80" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ80" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK80" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL80" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM80" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AN80" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AO80" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -11323,118 +11323,118 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="G81" t="n">
-        <v>3.05</v>
+        <v>1.22</v>
       </c>
       <c r="H81" t="n">
-        <v>2.96</v>
+        <v>1.04</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="J81" t="n">
-        <v>2.98</v>
+        <v>1.01</v>
       </c>
       <c r="K81" t="n">
-        <v>3</v>
+        <v>950</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M81" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="N81" t="n">
-        <v>2.38</v>
+        <v>3.2</v>
       </c>
       <c r="O81" t="n">
-        <v>1.68</v>
+        <v>1.08</v>
       </c>
       <c r="P81" t="n">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="Q81" t="n">
-        <v>3.15</v>
+        <v>1.24</v>
       </c>
       <c r="R81" t="n">
-        <v>1.15</v>
+        <v>1.9</v>
       </c>
       <c r="S81" t="n">
-        <v>7</v>
+        <v>1.69</v>
       </c>
       <c r="T81" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="U81" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="V81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W81" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X81" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Y81" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z81" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA81" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB81" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC81" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD81" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE81" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF81" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG81" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH81" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI81" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ81" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AK81" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL81" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM81" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN81" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO81" t="n">
         <v>1000</v>
@@ -11443,7 +11443,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -11458,31 +11458,31 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.26</v>
+        <v>1.08</v>
       </c>
       <c r="G82" t="n">
-        <v>2.62</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
-        <v>2.98</v>
+        <v>29</v>
       </c>
       <c r="I82" t="n">
-        <v>3.65</v>
+        <v>65</v>
       </c>
       <c r="J82" t="n">
-        <v>3.55</v>
+        <v>14</v>
       </c>
       <c r="K82" t="n">
-        <v>4.2</v>
+        <v>17.5</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -11497,10 +11497,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>2.18</v>
+        <v>3.05</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.69</v>
+        <v>1.41</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -11578,7 +11578,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -11593,31 +11593,31 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Pardubice</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.06</v>
+        <v>8</v>
       </c>
       <c r="G83" t="n">
-        <v>1.07</v>
+        <v>11</v>
       </c>
       <c r="H83" t="n">
-        <v>55</v>
+        <v>1.42</v>
       </c>
       <c r="I83" t="n">
-        <v>75</v>
+        <v>1.48</v>
       </c>
       <c r="J83" t="n">
-        <v>19</v>
+        <v>4.8</v>
       </c>
       <c r="K83" t="n">
-        <v>22</v>
+        <v>5.4</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -11632,10 +11632,10 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>3.35</v>
+        <v>2.24</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -11713,7 +11713,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -11728,127 +11728,127 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Pardubice</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>8</v>
+        <v>2.24</v>
       </c>
       <c r="G84" t="n">
-        <v>11</v>
+        <v>2.54</v>
       </c>
       <c r="H84" t="n">
-        <v>1.42</v>
+        <v>2.92</v>
       </c>
       <c r="I84" t="n">
-        <v>1.48</v>
+        <v>3.65</v>
       </c>
       <c r="J84" t="n">
-        <v>4.8</v>
+        <v>3.55</v>
       </c>
       <c r="K84" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="O84" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P84" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S84" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="T84" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U84" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V84" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W84" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y84" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z84" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA84" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB84" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC84" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD84" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE84" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF84" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG84" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH84" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI84" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ84" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK84" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL84" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM84" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO84" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -11858,132 +11858,132 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.09</v>
+        <v>2.04</v>
       </c>
       <c r="G85" t="n">
-        <v>1.24</v>
+        <v>2.22</v>
       </c>
       <c r="H85" t="n">
-        <v>12</v>
+        <v>3.65</v>
       </c>
       <c r="I85" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="J85" t="n">
-        <v>9.199999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="K85" t="n">
-        <v>950</v>
+        <v>4.3</v>
       </c>
       <c r="L85" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>3.6</v>
+        <v>2.06</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.21</v>
+        <v>1.87</v>
       </c>
       <c r="R85" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U85" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="X85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO85" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -11998,31 +11998,31 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>CD Nacional Funchal</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.04</v>
+        <v>1.14</v>
       </c>
       <c r="G86" t="n">
-        <v>2.22</v>
+        <v>1.16</v>
       </c>
       <c r="H86" t="n">
-        <v>3.65</v>
+        <v>23</v>
       </c>
       <c r="I86" t="n">
-        <v>4.6</v>
+        <v>26</v>
       </c>
       <c r="J86" t="n">
-        <v>3.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K86" t="n">
-        <v>4.3</v>
+        <v>11.5</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -12037,10 +12037,10 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>2.06</v>
+        <v>3.2</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.87</v>
+        <v>1.32</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -12118,7 +12118,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -12133,31 +12133,31 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>CD Nacional Funchal</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="G87" t="n">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="H87" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I87" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J87" t="n">
-        <v>9.800000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="K87" t="n">
-        <v>11.5</v>
+        <v>6.6</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -12172,10 +12172,10 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.31</v>
+        <v>1.59</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -12253,7 +12253,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -12263,36 +12263,36 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Rot-Weiss Essen</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="G88" t="n">
-        <v>1.36</v>
+        <v>2.14</v>
       </c>
       <c r="H88" t="n">
-        <v>11</v>
+        <v>3.85</v>
       </c>
       <c r="I88" t="n">
-        <v>13</v>
+        <v>4.6</v>
       </c>
       <c r="J88" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="K88" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -12307,10 +12307,10 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -12388,7 +12388,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -12398,36 +12398,36 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Rot-Weiss Essen</t>
+          <t>Zalaegerszeg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Wehen Wiesbaden</t>
+          <t>Nyiregyhaza</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="G89" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="H89" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="I89" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="J89" t="n">
-        <v>3.7</v>
+        <v>2.54</v>
       </c>
       <c r="K89" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -12442,10 +12442,10 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>2.16</v>
+        <v>1.74</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -12523,7 +12523,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -12533,36 +12533,36 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Zalaegerszeg</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Nyiregyhaza</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.94</v>
+        <v>1.61</v>
       </c>
       <c r="G90" t="n">
-        <v>2.38</v>
+        <v>1.93</v>
       </c>
       <c r="H90" t="n">
-        <v>3.5</v>
+        <v>2.14</v>
       </c>
       <c r="I90" t="n">
-        <v>5.3</v>
+        <v>12.5</v>
       </c>
       <c r="J90" t="n">
-        <v>2.54</v>
+        <v>3.4</v>
       </c>
       <c r="K90" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.87</v>
+        <v>2.18</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12658,7 +12658,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -12673,31 +12673,31 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.61</v>
+        <v>3.3</v>
       </c>
       <c r="G91" t="n">
-        <v>1.93</v>
+        <v>3.35</v>
       </c>
       <c r="H91" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="I91" t="n">
-        <v>12.5</v>
+        <v>2.36</v>
       </c>
       <c r="J91" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K91" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -12712,10 +12712,10 @@
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>1.55</v>
+        <v>2.42</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.18</v>
+        <v>1.62</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -12793,7 +12793,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -12808,31 +12808,31 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3.3</v>
+        <v>2.72</v>
       </c>
       <c r="G92" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="H92" t="n">
-        <v>2.26</v>
+        <v>2.74</v>
       </c>
       <c r="I92" t="n">
-        <v>2.38</v>
+        <v>3.05</v>
       </c>
       <c r="J92" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="K92" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -12847,10 +12847,10 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>2.4</v>
+        <v>1.05</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12928,7 +12928,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -12938,126 +12938,126 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.72</v>
+        <v>5.5</v>
       </c>
       <c r="G93" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="H93" t="n">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="I93" t="n">
-        <v>3.05</v>
+        <v>1.67</v>
       </c>
       <c r="J93" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="K93" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P93" t="n">
-        <v>1.05</v>
+        <v>2.6</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="S93" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="U93" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="V93" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="X93" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y93" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z93" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA93" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AB93" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC93" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD93" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE93" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AF93" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AG93" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH93" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI93" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ93" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AK93" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL93" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM93" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN93" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO93" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="94">
@@ -13093,10 +13093,10 @@
         <v>8.6</v>
       </c>
       <c r="H94" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="I94" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="J94" t="n">
         <v>4.7</v>
@@ -13135,7 +13135,7 @@
         <v>1.72</v>
       </c>
       <c r="V94" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="W94" t="n">
         <v>1.13</v>
@@ -13198,7 +13198,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -13208,132 +13208,132 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>5.5</v>
+        <v>2.42</v>
       </c>
       <c r="G95" t="n">
-        <v>5.7</v>
+        <v>2.58</v>
       </c>
       <c r="H95" t="n">
-        <v>1.64</v>
+        <v>3</v>
       </c>
       <c r="I95" t="n">
-        <v>1.67</v>
+        <v>3.35</v>
       </c>
       <c r="J95" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="K95" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="L95" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>2.58</v>
+        <v>2</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="R95" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="U95" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V95" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="W95" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="X95" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y95" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z95" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA95" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AB95" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AC95" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD95" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE95" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AF95" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AG95" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AH95" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI95" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ95" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AK95" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AL95" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM95" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AN95" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AO95" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -13348,61 +13348,61 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.82</v>
+        <v>2.42</v>
       </c>
       <c r="G96" t="n">
-        <v>3.05</v>
+        <v>2.44</v>
       </c>
       <c r="H96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K96" t="n">
         <v>3.25</v>
       </c>
-      <c r="I96" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J96" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K96" t="n">
-        <v>2.82</v>
-      </c>
       <c r="L96" t="n">
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P96" t="n">
-        <v>1.33</v>
+        <v>1.72</v>
       </c>
       <c r="Q96" t="n">
-        <v>3.55</v>
+        <v>2.32</v>
       </c>
       <c r="R96" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S96" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="U96" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V96" t="n">
         <v>0</v>
@@ -13411,64 +13411,64 @@
         <v>0</v>
       </c>
       <c r="X96" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y96" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z96" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA96" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB96" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC96" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD96" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE96" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF96" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG96" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH96" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI96" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ96" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK96" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL96" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM96" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN96" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO96" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -13483,31 +13483,31 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.04</v>
+        <v>2.82</v>
       </c>
       <c r="G97" t="n">
-        <v>2.56</v>
+        <v>3.05</v>
       </c>
       <c r="H97" t="n">
-        <v>1.68</v>
+        <v>3.25</v>
       </c>
       <c r="I97" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="J97" t="n">
-        <v>1.64</v>
+        <v>2.64</v>
       </c>
       <c r="K97" t="n">
-        <v>620</v>
+        <v>2.82</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -13522,10 +13522,10 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -13618,31 +13618,31 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="G98" t="n">
-        <v>1.69</v>
+        <v>2.56</v>
       </c>
       <c r="H98" t="n">
-        <v>2.54</v>
+        <v>1.68</v>
       </c>
       <c r="I98" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="J98" t="n">
-        <v>3.75</v>
+        <v>1.64</v>
       </c>
       <c r="K98" t="n">
-        <v>910</v>
+        <v>620</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -13657,10 +13657,10 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>1.74</v>
+        <v>1.02</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
@@ -13738,7 +13738,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -13753,61 +13753,61 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Leones FC</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.44</v>
+        <v>1.44</v>
       </c>
       <c r="G99" t="n">
-        <v>2.46</v>
+        <v>1.69</v>
       </c>
       <c r="H99" t="n">
-        <v>3.55</v>
+        <v>2.54</v>
       </c>
       <c r="I99" t="n">
-        <v>3.65</v>
+        <v>36</v>
       </c>
       <c r="J99" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="K99" t="n">
-        <v>3.25</v>
+        <v>910</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.32</v>
+        <v>1.92</v>
       </c>
       <c r="R99" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="V99" t="n">
         <v>0</v>
@@ -13816,64 +13816,64 @@
         <v>0</v>
       </c>
       <c r="X99" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y99" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Z99" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA99" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB99" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AC99" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD99" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AE99" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AF99" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG99" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH99" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI99" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AJ99" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AK99" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AL99" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM99" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AN99" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AO99" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -13883,36 +13883,36 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.46</v>
+        <v>17.5</v>
       </c>
       <c r="G100" t="n">
-        <v>2.7</v>
+        <v>23</v>
       </c>
       <c r="H100" t="n">
-        <v>2.86</v>
+        <v>1.23</v>
       </c>
       <c r="I100" t="n">
-        <v>3.2</v>
+        <v>1.25</v>
       </c>
       <c r="J100" t="n">
-        <v>3.45</v>
+        <v>7</v>
       </c>
       <c r="K100" t="n">
-        <v>3.7</v>
+        <v>7.4</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -13927,10 +13927,10 @@
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -14008,7 +14008,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -14018,36 +14018,36 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Univ Catolica (Chile)</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>13.5</v>
+        <v>4.3</v>
       </c>
       <c r="G101" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="H101" t="n">
-        <v>1.22</v>
+        <v>1.9</v>
       </c>
       <c r="I101" t="n">
-        <v>1.24</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>7</v>
+        <v>3.55</v>
       </c>
       <c r="K101" t="n">
-        <v>7.8</v>
+        <v>3.8</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -14062,10 +14062,10 @@
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>2.14</v>
+        <v>1.84</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.63</v>
+        <v>2.04</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -14143,7 +14143,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -14158,31 +14158,31 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Genesis Huracan</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Univ Catolica (Chile)</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>4.3</v>
+        <v>1.04</v>
       </c>
       <c r="G102" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="H102" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="J102" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="K102" t="n">
-        <v>3.8</v>
+        <v>750</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -14197,10 +14197,10 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -14278,7 +14278,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -14293,31 +14293,31 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Genesis Huracan</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Atletico Choloma</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="G103" t="n">
-        <v>1000</v>
+        <v>2.1</v>
       </c>
       <c r="H103" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="I103" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="J103" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="K103" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -14332,10 +14332,10 @@
         <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>1.05</v>
+        <v>1.66</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
@@ -14437,19 +14437,19 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="G104" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="I104" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J104" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K104" t="n">
         <v>820</v>
@@ -14467,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="Q104" t="n">
         <v>2.38</v>
@@ -14572,22 +14572,22 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="G105" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I105" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="J105" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K105" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -14602,10 +14602,10 @@
         <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -14845,16 +14845,16 @@
         <v>1.49</v>
       </c>
       <c r="G107" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="H107" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="I107" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="J107" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K107" t="n">
         <v>710</v>
@@ -14872,7 +14872,7 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>1.67</v>
+        <v>1.05</v>
       </c>
       <c r="Q107" t="n">
         <v>1.96</v>
@@ -14953,135 +14953,270 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Real Espana</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>CD Motagua</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K108" t="n">
+        <v>740</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
           <t>Chilean Primera Division</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>2026-02-01</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>Palestino</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>Nublense</t>
         </is>
       </c>
-      <c r="F108" t="n">
+      <c r="F109" t="n">
         <v>1.96</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G109" t="n">
         <v>2.08</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H109" t="n">
         <v>3.95</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I109" t="n">
         <v>4.4</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J109" t="n">
         <v>3.6</v>
       </c>
-      <c r="K108" t="n">
+      <c r="K109" t="n">
         <v>4</v>
       </c>
-      <c r="L108" t="n">
-        <v>0</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0</v>
-      </c>
-      <c r="O108" t="n">
-        <v>0</v>
-      </c>
-      <c r="P108" t="n">
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
         <v>1.95</v>
       </c>
-      <c r="Q108" t="n">
+      <c r="Q109" t="n">
         <v>1.89</v>
       </c>
-      <c r="R108" t="n">
-        <v>0</v>
-      </c>
-      <c r="S108" t="n">
-        <v>0</v>
-      </c>
-      <c r="T108" t="n">
-        <v>0</v>
-      </c>
-      <c r="U108" t="n">
-        <v>0</v>
-      </c>
-      <c r="V108" t="n">
-        <v>0</v>
-      </c>
-      <c r="W108" t="n">
-        <v>0</v>
-      </c>
-      <c r="X108" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y108" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO108" t="n">
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO109" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
@@ -673,7 +673,7 @@
         <v>5.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="I2" t="n">
         <v>1.73</v>
@@ -691,7 +691,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -706,13 +706,13 @@
         <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T2" t="n">
         <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
         <v>2.36</v>
@@ -721,7 +721,7 @@
         <v>1.22</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>10.5</v>
@@ -745,7 +745,7 @@
         <v>17.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
         <v>22</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
         <v>2.68</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -820,25 +820,25 @@
         <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
         <v>3.2</v>
@@ -853,7 +853,7 @@
         <v>1.46</v>
       </c>
       <c r="W3" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X3" t="n">
         <v>16</v>
@@ -880,10 +880,10 @@
         <v>40</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -895,7 +895,7 @@
         <v>55</v>
       </c>
       <c r="AK3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="n">
         <v>55</v>
@@ -1105,7 +1105,7 @@
         <v>1.89</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
         <v>1.28</v>
@@ -1255,7 +1255,7 @@
         <v>1.77</v>
       </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W6" t="n">
         <v>2.16</v>
@@ -1264,7 +1264,7 @@
         <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
         <v>55</v>
@@ -1309,7 +1309,7 @@
         <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AO6" t="n">
         <v>140</v>
@@ -1351,7 +1351,7 @@
         <v>2.34</v>
       </c>
       <c r="I7" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
@@ -1381,7 +1381,7 @@
         <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T7" t="n">
         <v>1.68</v>
@@ -1390,7 +1390,7 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W7" t="n">
         <v>1.37</v>
@@ -1486,7 +1486,7 @@
         <v>1.81</v>
       </c>
       <c r="I8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1507,7 +1507,7 @@
         <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
         <v>1.47</v>
@@ -1525,7 +1525,7 @@
         <v>2.44</v>
       </c>
       <c r="V8" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="W8" t="n">
         <v>1.26</v>
@@ -1621,7 +1621,7 @@
         <v>2.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="J9" t="n">
         <v>3.7</v>
@@ -1654,7 +1654,7 @@
         <v>2.28</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="U9" t="n">
         <v>1.01</v>
@@ -1846,7 +1846,7 @@
         <v>65</v>
       </c>
       <c r="AM10" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="n">
         <v>25</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="G11" t="n">
         <v>1000</v>
@@ -1891,13 +1891,13 @@
         <v>1.3</v>
       </c>
       <c r="I11" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="J11" t="n">
         <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,22 +1906,22 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="O11" t="n">
         <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="R11" t="n">
         <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
@@ -1930,7 +1930,7 @@
         <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="W11" t="n">
         <v>1.01</v>
@@ -2056,7 +2056,7 @@
         <v>1.55</v>
       </c>
       <c r="S12" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="T12" t="n">
         <v>1.61</v>
@@ -2161,7 +2161,7 @@
         <v>2.56</v>
       </c>
       <c r="I13" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J13" t="n">
         <v>2.92</v>
@@ -2176,7 +2176,7 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>1.97</v>
       </c>
       <c r="O13" t="n">
         <v>1.26</v>
@@ -2185,10 +2185,10 @@
         <v>1.97</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R13" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S13" t="n">
         <v>2.48</v>
@@ -2296,7 +2296,7 @@
         <v>2.42</v>
       </c>
       <c r="I14" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J14" t="n">
         <v>3.3</v>
@@ -2320,7 +2320,7 @@
         <v>1.95</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R14" t="n">
         <v>1.37</v>
@@ -2335,7 +2335,7 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W14" t="n">
         <v>1.43</v>
@@ -2560,13 +2560,13 @@
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="H16" t="n">
         <v>2.36</v>
       </c>
       <c r="I16" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -2590,13 +2590,13 @@
         <v>1.73</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R16" t="n">
         <v>1.08</v>
       </c>
       <c r="S16" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2605,10 +2605,10 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="W16" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2698,7 +2698,7 @@
         <v>3.95</v>
       </c>
       <c r="H17" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="I17" t="n">
         <v>2.74</v>
@@ -2836,7 +2836,7 @@
         <v>2.04</v>
       </c>
       <c r="I18" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="J18" t="n">
         <v>2.82</v>
@@ -2875,7 +2875,7 @@
         <v>1.74</v>
       </c>
       <c r="V18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W18" t="n">
         <v>1.25</v>
@@ -2971,7 +2971,7 @@
         <v>2.04</v>
       </c>
       <c r="I19" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J19" t="n">
         <v>3.55</v>
@@ -3016,7 +3016,7 @@
         <v>1.34</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
         <v>970</v>
@@ -3034,7 +3034,7 @@
         <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
         <v>23</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G20" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
         <v>3.15</v>
@@ -3112,7 +3112,7 @@
         <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
         <v>1.34</v>
@@ -3148,7 +3148,7 @@
         <v>1.42</v>
       </c>
       <c r="W20" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X20" t="n">
         <v>22</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G21" t="n">
         <v>2.7</v>
@@ -3280,7 +3280,7 @@
         <v>2.16</v>
       </c>
       <c r="V21" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W21" t="n">
         <v>1.59</v>
@@ -3505,10 +3505,10 @@
         <v>1.28</v>
       </c>
       <c r="G23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I23" t="n">
         <v>14</v>
@@ -3517,7 +3517,7 @@
         <v>6.6</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.26</v>
@@ -3541,13 +3541,13 @@
         <v>1.74</v>
       </c>
       <c r="S23" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T23" t="n">
         <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V23" t="n">
         <v>1.07</v>
@@ -3586,13 +3586,13 @@
         <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI23" t="n">
         <v>150</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
@@ -3649,7 +3649,7 @@
         <v>5.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K24" t="n">
         <v>4.3</v>
@@ -3658,10 +3658,10 @@
         <v>1.35</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O24" t="n">
         <v>1.27</v>
@@ -3691,19 +3691,19 @@
         <v>2.14</v>
       </c>
       <c r="X24" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y24" t="n">
         <v>19.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA24" t="n">
         <v>130</v>
       </c>
       <c r="AB24" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC24" t="n">
         <v>9.6</v>
@@ -3715,7 +3715,7 @@
         <v>65</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
         <v>11</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G25" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H25" t="n">
         <v>4.4</v>
       </c>
       <c r="I25" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K25" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3823,7 +3823,7 @@
         <v>1.15</v>
       </c>
       <c r="W25" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3910,10 +3910,10 @@
         <v>2.44</v>
       </c>
       <c r="G26" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="H26" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -3922,7 +3922,7 @@
         <v>3.8</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3946,7 +3946,7 @@
         <v>1.57</v>
       </c>
       <c r="S26" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T26" t="n">
         <v>1.54</v>
@@ -3958,7 +3958,7 @@
         <v>1.5</v>
       </c>
       <c r="W26" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X26" t="n">
         <v>28</v>
@@ -4045,7 +4045,7 @@
         <v>1.78</v>
       </c>
       <c r="G27" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H27" t="n">
         <v>4.1</v>
@@ -4114,7 +4114,7 @@
         <v>970</v>
       </c>
       <c r="AD27" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE27" t="n">
         <v>60</v>
@@ -4126,7 +4126,7 @@
         <v>970</v>
       </c>
       <c r="AH27" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AI27" t="n">
         <v>60</v>
@@ -4135,7 +4135,7 @@
         <v>21</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AL27" t="n">
         <v>32</v>
@@ -4144,7 +4144,7 @@
         <v>100</v>
       </c>
       <c r="AN27" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AO27" t="n">
         <v>55</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G28" t="n">
         <v>1.92</v>
@@ -4192,7 +4192,7 @@
         <v>3.35</v>
       </c>
       <c r="K28" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4201,7 +4201,7 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.65</v>
+        <v>2.88</v>
       </c>
       <c r="O28" t="n">
         <v>1.01</v>
@@ -4210,13 +4210,13 @@
         <v>1.65</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R28" t="n">
         <v>1.08</v>
       </c>
       <c r="S28" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4348,7 +4348,7 @@
         <v>2.24</v>
       </c>
       <c r="R29" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S29" t="n">
         <v>2.24</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="G30" t="n">
         <v>2.4</v>
@@ -4462,7 +4462,7 @@
         <v>2.92</v>
       </c>
       <c r="K30" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="L30" t="n">
         <v>1.36</v>
@@ -4471,22 +4471,22 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O30" t="n">
         <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R30" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="T30" t="n">
         <v>1.01</v>
@@ -4495,7 +4495,7 @@
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W30" t="n">
         <v>1.72</v>
@@ -4618,7 +4618,7 @@
         <v>2.18</v>
       </c>
       <c r="R31" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S31" t="n">
         <v>2.2</v>
@@ -4888,7 +4888,7 @@
         <v>2.4</v>
       </c>
       <c r="R33" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="S33" t="n">
         <v>2.42</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="G34" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H34" t="n">
         <v>4.4</v>
       </c>
       <c r="I34" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="J34" t="n">
         <v>4.3</v>
       </c>
       <c r="K34" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L34" t="n">
         <v>1.22</v>
@@ -5011,7 +5011,7 @@
         <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O34" t="n">
         <v>1.16</v>
@@ -5023,7 +5023,7 @@
         <v>1.47</v>
       </c>
       <c r="R34" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S34" t="n">
         <v>2.2</v>
@@ -5035,10 +5035,10 @@
         <v>2.64</v>
       </c>
       <c r="V34" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="W34" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X34" t="n">
         <v>32</v>
@@ -5053,13 +5053,13 @@
         <v>95</v>
       </c>
       <c r="AB34" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC34" t="n">
         <v>11</v>
       </c>
       <c r="AD34" t="n">
-        <v>650</v>
+        <v>970</v>
       </c>
       <c r="AE34" t="n">
         <v>44</v>
@@ -5074,10 +5074,10 @@
         <v>16</v>
       </c>
       <c r="AI34" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK34" t="n">
         <v>15.5</v>
@@ -5086,13 +5086,13 @@
         <v>23</v>
       </c>
       <c r="AM34" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AN34" t="n">
         <v>7.2</v>
       </c>
       <c r="AO34" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -5158,7 +5158,7 @@
         <v>2.12</v>
       </c>
       <c r="R35" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S35" t="n">
         <v>2.12</v>
@@ -5302,13 +5302,13 @@
         <v>1.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="V36" t="n">
         <v>1.79</v>
       </c>
       <c r="W36" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X36" t="n">
         <v>14</v>
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G37" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>3.35</v>
@@ -5407,7 +5407,7 @@
         <v>3.3</v>
       </c>
       <c r="K37" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.42</v>
@@ -5422,10 +5422,10 @@
         <v>1.32</v>
       </c>
       <c r="P37" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R37" t="n">
         <v>1.36</v>
@@ -5476,7 +5476,7 @@
         <v>11.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI37" t="n">
         <v>55</v>
@@ -5488,7 +5488,7 @@
         <v>26</v>
       </c>
       <c r="AL37" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM37" t="n">
         <v>100</v>
@@ -5530,7 +5530,7 @@
         <v>2.7</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="H38" t="n">
         <v>2.2</v>
@@ -5578,7 +5578,7 @@
         <v>1.57</v>
       </c>
       <c r="W38" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="G39" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="H39" t="n">
         <v>1.26</v>
       </c>
       <c r="I39" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="J39" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="K39" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5686,22 +5686,22 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O39" t="n">
         <v>1.12</v>
       </c>
       <c r="P39" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="R39" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S39" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T39" t="n">
         <v>1.01</v>
@@ -5710,7 +5710,7 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="W39" t="n">
         <v>1.01</v>
@@ -5806,7 +5806,7 @@
         <v>2.08</v>
       </c>
       <c r="I40" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J40" t="n">
         <v>2.96</v>
@@ -6025,7 +6025,7 @@
         <v>70</v>
       </c>
       <c r="AK41" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL41" t="n">
         <v>50</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="G42" t="n">
         <v>4.4</v>
@@ -6094,19 +6094,19 @@
         <v>3.05</v>
       </c>
       <c r="O42" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="P42" t="n">
         <v>1.69</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R42" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="T42" t="n">
         <v>1.89</v>
@@ -6205,19 +6205,19 @@
         <v>3.6</v>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H43" t="n">
         <v>2.38</v>
       </c>
       <c r="I43" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K43" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6226,7 +6226,7 @@
         <v>1.12</v>
       </c>
       <c r="N43" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O43" t="n">
         <v>1.55</v>
@@ -6235,10 +6235,10 @@
         <v>1.53</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="R43" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S43" t="n">
         <v>4.8</v>
@@ -6250,7 +6250,7 @@
         <v>1.7</v>
       </c>
       <c r="V43" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="W43" t="n">
         <v>1.33</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="G44" t="n">
         <v>1.7</v>
@@ -6388,7 +6388,7 @@
         <v>1.15</v>
       </c>
       <c r="W44" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X44" t="n">
         <v>13.5</v>
@@ -6475,7 +6475,7 @@
         <v>2.04</v>
       </c>
       <c r="G45" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H45" t="n">
         <v>3.95</v>
@@ -6484,7 +6484,7 @@
         <v>4.2</v>
       </c>
       <c r="J45" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K45" t="n">
         <v>3.8</v>
@@ -6505,7 +6505,7 @@
         <v>2.06</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R45" t="n">
         <v>1.42</v>
@@ -6523,7 +6523,7 @@
         <v>1.32</v>
       </c>
       <c r="W45" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X45" t="n">
         <v>15</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G46" t="n">
         <v>1.64</v>
@@ -6649,13 +6649,13 @@
         <v>2.86</v>
       </c>
       <c r="T46" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U46" t="n">
         <v>2.2</v>
       </c>
       <c r="V46" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W46" t="n">
         <v>2.56</v>
@@ -6694,7 +6694,7 @@
         <v>19</v>
       </c>
       <c r="AI46" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ46" t="n">
         <v>15.5</v>
@@ -6742,10 +6742,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G47" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
         <v>3.7</v>
@@ -6769,7 +6769,7 @@
         <v>4.3</v>
       </c>
       <c r="O47" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P47" t="n">
         <v>2.12</v>
@@ -6793,7 +6793,7 @@
         <v>1.36</v>
       </c>
       <c r="W47" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X47" t="n">
         <v>15.5</v>
@@ -6889,10 +6889,10 @@
         <v>4.2</v>
       </c>
       <c r="J48" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K48" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L48" t="n">
         <v>1.45</v>
@@ -6919,7 +6919,7 @@
         <v>3.9</v>
       </c>
       <c r="T48" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U48" t="n">
         <v>2.04</v>
@@ -6928,10 +6928,10 @@
         <v>1.31</v>
       </c>
       <c r="W48" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="X48" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y48" t="n">
         <v>14</v>
@@ -6946,7 +6946,7 @@
         <v>8.4</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD48" t="n">
         <v>17</v>
@@ -7018,7 +7018,7 @@
         <v>1.34</v>
       </c>
       <c r="H49" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I49" t="n">
         <v>1000</v>
@@ -7147,13 +7147,13 @@
         </is>
       </c>
       <c r="F50" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G50" t="n">
         <v>2.48</v>
       </c>
-      <c r="G50" t="n">
-        <v>2.52</v>
-      </c>
       <c r="H50" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I50" t="n">
         <v>3.35</v>
@@ -7165,7 +7165,7 @@
         <v>3.4</v>
       </c>
       <c r="L50" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M50" t="n">
         <v>1.08</v>
@@ -7174,31 +7174,31 @@
         <v>3.85</v>
       </c>
       <c r="O50" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P50" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q50" t="n">
         <v>2.02</v>
       </c>
       <c r="R50" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S50" t="n">
         <v>3.6</v>
       </c>
       <c r="T50" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U50" t="n">
         <v>2.22</v>
       </c>
       <c r="V50" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W50" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X50" t="n">
         <v>13</v>
@@ -7213,7 +7213,7 @@
         <v>55</v>
       </c>
       <c r="AB50" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC50" t="n">
         <v>7.6</v>
@@ -7246,7 +7246,7 @@
         <v>38</v>
       </c>
       <c r="AM50" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN50" t="n">
         <v>21</v>
@@ -7303,7 +7303,7 @@
         <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N51" t="n">
         <v>5.4</v>
@@ -7321,13 +7321,13 @@
         <v>1.61</v>
       </c>
       <c r="S51" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="T51" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U51" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="V51" t="n">
         <v>1.67</v>
@@ -7420,7 +7420,7 @@
         <v>1.72</v>
       </c>
       <c r="G52" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H52" t="n">
         <v>5.1</v>
@@ -7468,7 +7468,7 @@
         <v>1.23</v>
       </c>
       <c r="W52" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X52" t="n">
         <v>22</v>
@@ -7480,7 +7480,7 @@
         <v>42</v>
       </c>
       <c r="AA52" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB52" t="n">
         <v>11.5</v>
@@ -7555,7 +7555,7 @@
         <v>1.39</v>
       </c>
       <c r="G53" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="H53" t="n">
         <v>9.4</v>
@@ -7594,16 +7594,16 @@
         <v>2.74</v>
       </c>
       <c r="T53" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U53" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="V53" t="n">
         <v>1.09</v>
       </c>
       <c r="W53" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="X53" t="n">
         <v>21</v>
@@ -7654,7 +7654,7 @@
         <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO53" t="n">
         <v>1000</v>
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="G54" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="H54" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="I54" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J54" t="n">
         <v>3.75</v>
@@ -7711,7 +7711,7 @@
         <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>1.78</v>
+        <v>3.5</v>
       </c>
       <c r="O54" t="n">
         <v>1.34</v>
@@ -7729,16 +7729,16 @@
         <v>3.3</v>
       </c>
       <c r="T54" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U54" t="n">
         <v>1.72</v>
       </c>
       <c r="V54" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W54" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X54" t="n">
         <v>17.5</v>
@@ -7789,7 +7789,7 @@
         <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO54" t="n">
         <v>1000</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G55" t="n">
         <v>4.1</v>
@@ -7849,7 +7849,7 @@
         <v>2.12</v>
       </c>
       <c r="O55" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P55" t="n">
         <v>2.12</v>
@@ -7864,10 +7864,10 @@
         <v>2.3</v>
       </c>
       <c r="T55" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U55" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V55" t="n">
         <v>1.94</v>
@@ -7969,10 +7969,10 @@
         <v>12</v>
       </c>
       <c r="J56" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K56" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L56" t="n">
         <v>1.23</v>
@@ -7987,7 +7987,7 @@
         <v>1.18</v>
       </c>
       <c r="P56" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q56" t="n">
         <v>1.54</v>
@@ -8002,7 +8002,7 @@
         <v>1.95</v>
       </c>
       <c r="U56" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V56" t="n">
         <v>1.09</v>
@@ -8020,7 +8020,7 @@
         <v>110</v>
       </c>
       <c r="AA56" t="n">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="AB56" t="n">
         <v>12</v>
@@ -8032,7 +8032,7 @@
         <v>980</v>
       </c>
       <c r="AE56" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AF56" t="n">
         <v>9.800000000000001</v>
@@ -8062,7 +8062,7 @@
         <v>4.8</v>
       </c>
       <c r="AO56" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57">
@@ -8104,7 +8104,7 @@
         <v>2.08</v>
       </c>
       <c r="J57" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K57" t="n">
         <v>6.2</v>
@@ -8230,7 +8230,7 @@
         <v>4.2</v>
       </c>
       <c r="G58" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="H58" t="n">
         <v>1.85</v>
@@ -8278,7 +8278,7 @@
         <v>1.96</v>
       </c>
       <c r="W58" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>
@@ -8404,13 +8404,13 @@
         <v>3.6</v>
       </c>
       <c r="T59" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="U59" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="V59" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W59" t="n">
         <v>1.96</v>
@@ -8506,7 +8506,7 @@
         <v>4.6</v>
       </c>
       <c r="I60" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J60" t="n">
         <v>3.7</v>
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G61" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H61" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J61" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K61" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -8659,7 +8659,7 @@
         <v>1.57</v>
       </c>
       <c r="O61" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="P61" t="n">
         <v>1.57</v>
@@ -8671,25 +8671,25 @@
         <v>1.16</v>
       </c>
       <c r="S61" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T61" t="n">
         <v>1.01</v>
       </c>
       <c r="U61" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="V61" t="n">
         <v>1.34</v>
       </c>
       <c r="W61" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X61" t="n">
         <v>11.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z61" t="n">
         <v>38</v>
@@ -8719,7 +8719,7 @@
         <v>32</v>
       </c>
       <c r="AI61" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="n">
         <v>50</v>
@@ -8728,7 +8728,7 @@
         <v>48</v>
       </c>
       <c r="AL61" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM61" t="n">
         <v>1000</v>
@@ -8770,7 +8770,7 @@
         <v>1.74</v>
       </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H62" t="n">
         <v>3.65</v>
@@ -8818,7 +8818,7 @@
         <v>1.23</v>
       </c>
       <c r="W62" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X62" t="n">
         <v>1000</v>
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G63" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="H63" t="n">
         <v>11</v>
       </c>
       <c r="I63" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="J63" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K63" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L63" t="n">
         <v>1.34</v>
@@ -8932,10 +8932,10 @@
         <v>1.27</v>
       </c>
       <c r="P63" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R63" t="n">
         <v>1.41</v>
@@ -8944,28 +8944,28 @@
         <v>3</v>
       </c>
       <c r="T63" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="U63" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="V63" t="n">
         <v>1.08</v>
       </c>
       <c r="W63" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="X63" t="n">
         <v>21</v>
       </c>
       <c r="Y63" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Z63" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AA63" t="n">
-        <v>560</v>
+        <v>1000</v>
       </c>
       <c r="AB63" t="n">
         <v>8</v>
@@ -8974,10 +8974,10 @@
         <v>13</v>
       </c>
       <c r="AD63" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AE63" t="n">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="AF63" t="n">
         <v>9</v>
@@ -8986,10 +8986,10 @@
         <v>11</v>
       </c>
       <c r="AH63" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AI63" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AJ63" t="n">
         <v>11.5</v>
@@ -9007,7 +9007,7 @@
         <v>7</v>
       </c>
       <c r="AO63" t="n">
-        <v>380</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64">
@@ -9052,7 +9052,7 @@
         <v>3.05</v>
       </c>
       <c r="K64" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L64" t="n">
         <v>1.53</v>
@@ -9061,7 +9061,7 @@
         <v>1.09</v>
       </c>
       <c r="N64" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O64" t="n">
         <v>1.46</v>
@@ -9082,7 +9082,7 @@
         <v>2</v>
       </c>
       <c r="U64" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V64" t="n">
         <v>1.47</v>
@@ -9181,7 +9181,7 @@
         <v>3.95</v>
       </c>
       <c r="I65" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J65" t="n">
         <v>4.2</v>
@@ -9310,16 +9310,16 @@
         <v>2.18</v>
       </c>
       <c r="G66" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H66" t="n">
         <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J66" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K66" t="n">
         <v>4.5</v>
@@ -9343,22 +9343,22 @@
         <v>1.41</v>
       </c>
       <c r="R66" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S66" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T66" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="U66" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V66" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W66" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X66" t="n">
         <v>32</v>
@@ -9463,7 +9463,7 @@
         <v>1.31</v>
       </c>
       <c r="M67" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N67" t="n">
         <v>4.5</v>
@@ -9475,7 +9475,7 @@
         <v>2.24</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="R67" t="n">
         <v>1.41</v>
@@ -9487,7 +9487,7 @@
         <v>1.56</v>
       </c>
       <c r="U67" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="V67" t="n">
         <v>1.29</v>
@@ -9601,7 +9601,7 @@
         <v>1.09</v>
       </c>
       <c r="N68" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O68" t="n">
         <v>1.44</v>
@@ -9619,7 +9619,7 @@
         <v>4.5</v>
       </c>
       <c r="T68" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U68" t="n">
         <v>1.81</v>
@@ -9712,28 +9712,28 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G69" t="n">
         <v>2.2</v>
       </c>
       <c r="H69" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I69" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J69" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K69" t="n">
         <v>3.65</v>
       </c>
       <c r="L69" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M69" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N69" t="n">
         <v>4.1</v>
@@ -9742,7 +9742,7 @@
         <v>1.29</v>
       </c>
       <c r="P69" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q69" t="n">
         <v>1.87</v>
@@ -9751,16 +9751,16 @@
         <v>1.42</v>
       </c>
       <c r="S69" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T69" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U69" t="n">
         <v>2.3</v>
       </c>
       <c r="V69" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W69" t="n">
         <v>1.83</v>
@@ -9895,10 +9895,10 @@
         <v>2.02</v>
       </c>
       <c r="V70" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W70" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="X70" t="n">
         <v>12</v>
@@ -9934,7 +9934,7 @@
         <v>19</v>
       </c>
       <c r="AI70" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ70" t="n">
         <v>32</v>
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G71" t="n">
         <v>4.9</v>
       </c>
-      <c r="G71" t="n">
-        <v>5</v>
-      </c>
       <c r="H71" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="I71" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="J71" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K71" t="n">
         <v>4.3</v>
-      </c>
-      <c r="K71" t="n">
-        <v>4.4</v>
       </c>
       <c r="L71" t="n">
         <v>1.33</v>
@@ -10027,10 +10027,10 @@
         <v>1.71</v>
       </c>
       <c r="U71" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V71" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="W71" t="n">
         <v>1.25</v>
@@ -10042,7 +10042,7 @@
         <v>11</v>
       </c>
       <c r="Z71" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA71" t="n">
         <v>18.5</v>
@@ -10051,7 +10051,7 @@
         <v>21</v>
       </c>
       <c r="AC71" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD71" t="n">
         <v>9.800000000000001</v>
@@ -10087,7 +10087,7 @@
         <v>48</v>
       </c>
       <c r="AO71" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="72">
@@ -10120,7 +10120,7 @@
         <v>1.26</v>
       </c>
       <c r="G72" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H72" t="n">
         <v>13.5</v>
@@ -10153,7 +10153,7 @@
         <v>1.47</v>
       </c>
       <c r="R72" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S72" t="n">
         <v>2.2</v>
@@ -10162,13 +10162,13 @@
         <v>2.02</v>
       </c>
       <c r="U72" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V72" t="n">
         <v>1.07</v>
       </c>
       <c r="W72" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="X72" t="n">
         <v>32</v>
@@ -10189,10 +10189,10 @@
         <v>16</v>
       </c>
       <c r="AD72" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE72" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AF72" t="n">
         <v>8.800000000000001</v>
@@ -10216,7 +10216,7 @@
         <v>34</v>
       </c>
       <c r="AM72" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN72" t="n">
         <v>3.65</v>
@@ -10252,22 +10252,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G73" t="n">
         <v>3.15</v>
       </c>
       <c r="H73" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="I73" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J73" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="K73" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L73" t="n">
         <v>1.01</v>
@@ -10276,22 +10276,22 @@
         <v>1.01</v>
       </c>
       <c r="N73" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="O73" t="n">
         <v>1.01</v>
       </c>
       <c r="P73" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R73" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S73" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T73" t="n">
         <v>1.01</v>
@@ -10300,13 +10300,13 @@
         <v>1.01</v>
       </c>
       <c r="V73" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W73" t="n">
         <v>1.46</v>
       </c>
       <c r="X73" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y73" t="n">
         <v>1000</v>
@@ -10387,52 +10387,52 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G74" t="n">
         <v>2.22</v>
       </c>
       <c r="H74" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="I74" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J74" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K74" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N74" t="n">
         <v>3.05</v>
       </c>
-      <c r="K74" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L74" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N74" t="n">
-        <v>1.58</v>
-      </c>
       <c r="O74" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P74" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="R74" t="n">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="S74" t="n">
-        <v>2.08</v>
+        <v>4.1</v>
       </c>
       <c r="T74" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U74" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V74" t="n">
         <v>1.28</v>
@@ -10441,58 +10441,58 @@
         <v>1.81</v>
       </c>
       <c r="X74" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z74" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA74" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB74" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC74" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD74" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE74" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF74" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG74" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH74" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI74" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ74" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK74" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL74" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM74" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN74" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO74" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
@@ -10666,7 +10666,7 @@
         <v>1.55</v>
       </c>
       <c r="I76" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="J76" t="n">
         <v>3.7</v>
@@ -10681,7 +10681,7 @@
         <v>1.01</v>
       </c>
       <c r="N76" t="n">
-        <v>1.86</v>
+        <v>3.2</v>
       </c>
       <c r="O76" t="n">
         <v>1.01</v>
@@ -10705,7 +10705,7 @@
         <v>1.01</v>
       </c>
       <c r="V76" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="W76" t="n">
         <v>1.12</v>
@@ -10795,13 +10795,13 @@
         <v>12</v>
       </c>
       <c r="G77" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="H77" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="I77" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="J77" t="n">
         <v>6.2</v>
@@ -10834,10 +10834,10 @@
         <v>2.78</v>
       </c>
       <c r="T77" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U77" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V77" t="n">
         <v>4</v>
@@ -10849,7 +10849,7 @@
         <v>22</v>
       </c>
       <c r="Y77" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z77" t="n">
         <v>7.6</v>
@@ -10939,7 +10939,7 @@
         <v>23</v>
       </c>
       <c r="J78" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="K78" t="n">
         <v>11.5</v>
@@ -10972,7 +10972,7 @@
         <v>2.14</v>
       </c>
       <c r="U78" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="V78" t="n">
         <v>1.04</v>
@@ -11026,7 +11026,7 @@
         <v>42</v>
       </c>
       <c r="AM78" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN78" t="n">
         <v>2.94</v>
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G79" t="n">
         <v>1.55</v>
@@ -11071,7 +11071,7 @@
         <v>6.6</v>
       </c>
       <c r="I79" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J79" t="n">
         <v>4.7</v>
@@ -11212,28 +11212,28 @@
         <v>2.96</v>
       </c>
       <c r="K80" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="L80" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="M80" t="n">
         <v>1.16</v>
       </c>
       <c r="N80" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="O80" t="n">
         <v>1.68</v>
       </c>
       <c r="P80" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q80" t="n">
         <v>3.1</v>
       </c>
       <c r="R80" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S80" t="n">
         <v>7</v>
@@ -11248,7 +11248,7 @@
         <v>1.5</v>
       </c>
       <c r="W80" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X80" t="n">
         <v>7</v>
@@ -11296,7 +11296,7 @@
         <v>90</v>
       </c>
       <c r="AM80" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN80" t="n">
         <v>75</v>
@@ -11371,7 +11371,7 @@
         <v>1.9</v>
       </c>
       <c r="S81" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="T81" t="n">
         <v>1.01</v>
@@ -11467,22 +11467,22 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G82" t="n">
         <v>2.6</v>
       </c>
       <c r="H82" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I82" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J82" t="n">
         <v>3</v>
       </c>
       <c r="K82" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L82" t="n">
         <v>1.01</v>
@@ -11491,16 +11491,16 @@
         <v>1.11</v>
       </c>
       <c r="N82" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O82" t="n">
         <v>1.5</v>
       </c>
       <c r="P82" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="R82" t="n">
         <v>1.21</v>
@@ -11518,7 +11518,7 @@
         <v>1.37</v>
       </c>
       <c r="W82" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X82" t="n">
         <v>11.5</v>
@@ -11533,7 +11533,7 @@
         <v>75</v>
       </c>
       <c r="AB82" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC82" t="n">
         <v>7.2</v>
@@ -11566,7 +11566,7 @@
         <v>60</v>
       </c>
       <c r="AM82" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN82" t="n">
         <v>36</v>
@@ -11605,7 +11605,7 @@
         <v>1.07</v>
       </c>
       <c r="G83" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="H83" t="n">
         <v>48</v>
@@ -11614,10 +11614,10 @@
         <v>65</v>
       </c>
       <c r="J83" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="K83" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L83" t="n">
         <v>1.2</v>
@@ -11653,7 +11653,7 @@
         <v>1.01</v>
       </c>
       <c r="W83" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="X83" t="n">
         <v>55</v>
@@ -11770,7 +11770,7 @@
         <v>2.24</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="R84" t="n">
         <v>1.41</v>
@@ -11914,16 +11914,16 @@
         <v>2.38</v>
       </c>
       <c r="T85" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U85" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="V85" t="n">
         <v>1.38</v>
       </c>
       <c r="W85" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="X85" t="n">
         <v>1000</v>
@@ -12010,7 +12010,7 @@
         <v>2.04</v>
       </c>
       <c r="G86" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H86" t="n">
         <v>3.65</v>
@@ -12049,16 +12049,16 @@
         <v>3.3</v>
       </c>
       <c r="T86" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="U86" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="V86" t="n">
         <v>1.3</v>
       </c>
       <c r="W86" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X86" t="n">
         <v>15.5</v>
@@ -12157,7 +12157,7 @@
         <v>10</v>
       </c>
       <c r="K87" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="L87" t="n">
         <v>1.2</v>
@@ -12178,16 +12178,16 @@
         <v>1.37</v>
       </c>
       <c r="R87" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S87" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="T87" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U87" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="V87" t="n">
         <v>1.04</v>
@@ -12211,7 +12211,7 @@
         <v>13</v>
       </c>
       <c r="AC87" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AD87" t="n">
         <v>95</v>
@@ -12232,13 +12232,13 @@
         <v>310</v>
       </c>
       <c r="AJ87" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK87" t="n">
         <v>15</v>
       </c>
       <c r="AL87" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM87" t="n">
         <v>310</v>
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="G88" t="n">
         <v>1.36</v>
@@ -12322,7 +12322,7 @@
         <v>1.75</v>
       </c>
       <c r="U88" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="V88" t="n">
         <v>1.08</v>
@@ -12448,7 +12448,7 @@
         <v>1.69</v>
       </c>
       <c r="R89" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="S89" t="n">
         <v>1.69</v>
@@ -12574,7 +12574,7 @@
         <v>1.74</v>
       </c>
       <c r="O90" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P90" t="n">
         <v>1.74</v>
@@ -12583,7 +12583,7 @@
         <v>1.87</v>
       </c>
       <c r="R90" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S90" t="n">
         <v>1.87</v>
@@ -12682,16 +12682,16 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="G91" t="n">
         <v>1.92</v>
       </c>
       <c r="H91" t="n">
-        <v>2.16</v>
+        <v>4.2</v>
       </c>
       <c r="I91" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J91" t="n">
         <v>3.4</v>
@@ -12730,7 +12730,7 @@
         <v>1.01</v>
       </c>
       <c r="V91" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="W91" t="n">
         <v>2.08</v>
@@ -12859,10 +12859,10 @@
         <v>2.32</v>
       </c>
       <c r="T92" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="U92" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="V92" t="n">
         <v>1.7</v>
@@ -12874,43 +12874,43 @@
         <v>1000</v>
       </c>
       <c r="Y92" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z92" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA92" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB92" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC92" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD92" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE92" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF92" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG92" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH92" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI92" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ92" t="n">
         <v>1000</v>
       </c>
       <c r="AK92" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL92" t="n">
         <v>1000</v>
@@ -12964,7 +12964,7 @@
         <v>3.1</v>
       </c>
       <c r="J93" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K93" t="n">
         <v>3.45</v>
@@ -12982,7 +12982,7 @@
         <v>1.41</v>
       </c>
       <c r="P93" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q93" t="n">
         <v>2.28</v>
@@ -12994,10 +12994,10 @@
         <v>3.75</v>
       </c>
       <c r="T93" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U93" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V93" t="n">
         <v>1.47</v>
@@ -13120,7 +13120,7 @@
         <v>2.6</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R94" t="n">
         <v>1.64</v>
@@ -13165,7 +13165,7 @@
         <v>16</v>
       </c>
       <c r="AF94" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AG94" t="n">
         <v>22</v>
@@ -13225,7 +13225,7 @@
         <v>8</v>
       </c>
       <c r="G95" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H95" t="n">
         <v>1.49</v>
@@ -13258,7 +13258,7 @@
         <v>2.06</v>
       </c>
       <c r="R95" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S95" t="n">
         <v>3.75</v>
@@ -13270,7 +13270,7 @@
         <v>1.72</v>
       </c>
       <c r="V95" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="W95" t="n">
         <v>1.13</v>
@@ -13363,7 +13363,7 @@
         <v>2.56</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I96" t="n">
         <v>3.3</v>
@@ -13393,16 +13393,16 @@
         <v>1.79</v>
       </c>
       <c r="R96" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S96" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T96" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U96" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V96" t="n">
         <v>1.43</v>
@@ -13495,7 +13495,7 @@
         <v>2.42</v>
       </c>
       <c r="G97" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H97" t="n">
         <v>3.6</v>
@@ -13636,103 +13636,103 @@
         <v>3.65</v>
       </c>
       <c r="I98" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="J98" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="K98" t="n">
         <v>3.75</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P98" t="n">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="Q98" t="n">
         <v>2.44</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S98" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V98" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W98" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="99">
@@ -13762,112 +13762,112 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="G99" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="H99" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K99" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S99" t="n">
         <v>3.25</v>
       </c>
-      <c r="I99" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J99" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K99" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0</v>
-      </c>
-      <c r="P99" t="n">
+      <c r="T99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V99" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q99" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="R99" t="n">
-        <v>0</v>
-      </c>
-      <c r="S99" t="n">
-        <v>0</v>
-      </c>
-      <c r="T99" t="n">
-        <v>0</v>
-      </c>
-      <c r="U99" t="n">
-        <v>0</v>
-      </c>
-      <c r="V99" t="n">
-        <v>0</v>
-      </c>
       <c r="W99" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X99" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="Y99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO99" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="100">
@@ -13903,28 +13903,28 @@
         <v>1.69</v>
       </c>
       <c r="H100" t="n">
-        <v>2.54</v>
+        <v>5.7</v>
       </c>
       <c r="I100" t="n">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="J100" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K100" t="n">
-        <v>910</v>
+        <v>8</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P100" t="n">
         <v>1.74</v>
@@ -13933,76 +13933,76 @@
         <v>1.79</v>
       </c>
       <c r="R100" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S100" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="T100" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U100" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V100" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="X100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="101">
@@ -14032,112 +14032,112 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="G101" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="H101" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="I101" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="J101" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K101" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P101" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S101" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="U101" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="V101" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="W101" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X101" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y101" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="Z101" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AA101" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB101" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AC101" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD101" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE101" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AF101" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AG101" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AH101" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AI101" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK101" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="AL101" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="AM101" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="AN101" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AO101" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="102">
@@ -14185,16 +14185,16 @@
         <v>3.8</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M102" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P102" t="n">
         <v>1.84</v>
@@ -14203,76 +14203,76 @@
         <v>2.04</v>
       </c>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S102" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T102" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U102" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W102" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="103">
@@ -14314,100 +14314,100 @@
         <v>1000</v>
       </c>
       <c r="J103" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K103" t="n">
         <v>750</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P103" t="n">
-        <v>1.05</v>
+        <v>1.24</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="R103" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S103" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U103" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V103" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W103" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="104">
@@ -14437,112 +14437,112 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.73</v>
+        <v>1.04</v>
       </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H104" t="n">
-        <v>1.97</v>
+        <v>1.09</v>
       </c>
       <c r="I104" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="J104" t="n">
-        <v>3.2</v>
+        <v>1.96</v>
       </c>
       <c r="K104" t="n">
         <v>1000</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P104" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R104" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S104" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U104" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V104" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W104" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="105">
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.3</v>
+        <v>1.78</v>
       </c>
       <c r="G105" t="n">
         <v>3.55</v>
@@ -14584,22 +14584,22 @@
         <v>4.3</v>
       </c>
       <c r="J105" t="n">
-        <v>2.04</v>
+        <v>2.46</v>
       </c>
       <c r="K105" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P105" t="n">
         <v>1.45</v>
@@ -14608,76 +14608,76 @@
         <v>2.12</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V105" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="106">
@@ -14707,112 +14707,112 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.58</v>
+        <v>1.2</v>
       </c>
       <c r="G106" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H106" t="n">
-        <v>2.18</v>
+        <v>5.7</v>
       </c>
       <c r="I106" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="J106" t="n">
-        <v>3.2</v>
+        <v>1.09</v>
       </c>
       <c r="K106" t="n">
         <v>820</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N106" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O106" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P106" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Q106" t="n">
         <v>2.38</v>
       </c>
       <c r="R106" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S106" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T106" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U106" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V106" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W106" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="X106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO106" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="107">
@@ -14989,7 +14989,7 @@
         <v>2.42</v>
       </c>
       <c r="J108" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K108" t="n">
         <v>3.55</v>
@@ -15112,19 +15112,19 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.04</v>
+        <v>1.48</v>
       </c>
       <c r="G109" t="n">
-        <v>1000</v>
+        <v>1.82</v>
       </c>
       <c r="H109" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="I109" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="J109" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="K109" t="n">
         <v>710</v>
@@ -15142,7 +15142,7 @@
         <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>1.05</v>
+        <v>1.24</v>
       </c>
       <c r="Q109" t="n">
         <v>1.96</v>
@@ -15277,7 +15277,7 @@
         <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>1.05</v>
+        <v>1.24</v>
       </c>
       <c r="Q110" t="n">
         <v>1.01</v>
@@ -15382,7 +15382,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G111" t="n">
         <v>2.08</v>
@@ -15391,7 +15391,7 @@
         <v>3.95</v>
       </c>
       <c r="I111" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J111" t="n">
         <v>3.65</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
@@ -697,7 +697,7 @@
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
         <v>1.74</v>
@@ -712,7 +712,7 @@
         <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
         <v>2.36</v>
@@ -721,7 +721,7 @@
         <v>1.22</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
         <v>10.5</v>
@@ -733,7 +733,7 @@
         <v>18</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="n">
         <v>10</v>
@@ -802,37 +802,37 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G3" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.1</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>3.2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q3" t="n">
         <v>1.98</v>
@@ -841,19 +841,19 @@
         <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T3" t="n">
         <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W3" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X3" t="n">
         <v>16</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
         <v>4.8</v>
@@ -952,7 +952,7 @@
         <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,22 +961,22 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q4" t="n">
         <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -988,7 +988,7 @@
         <v>1.26</v>
       </c>
       <c r="W4" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1099,31 +1099,31 @@
         <v>1.03</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
         <v>1.74</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W5" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1210,7 +1210,7 @@
         <v>1.7</v>
       </c>
       <c r="G6" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="H6" t="n">
         <v>5.1</v>
@@ -1219,7 +1219,7 @@
         <v>6.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>4.1</v>
@@ -1228,7 +1228,7 @@
         <v>1.38</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
         <v>3.3</v>
@@ -1258,7 +1258,7 @@
         <v>1.18</v>
       </c>
       <c r="W6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X6" t="n">
         <v>970</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G7" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.34</v>
+        <v>1.96</v>
       </c>
       <c r="I7" t="n">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.9</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,34 +1366,34 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.31</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.29</v>
       </c>
       <c r="S7" t="n">
         <v>2.88</v>
       </c>
       <c r="T7" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U7" t="n">
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="W7" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>4.4</v>
       </c>
       <c r="G8" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H8" t="n">
         <v>1.81</v>
@@ -1615,10 +1615,10 @@
         <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H9" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I9" t="n">
         <v>2.68</v>
@@ -1627,7 +1627,7 @@
         <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1639,7 +1639,7 @@
         <v>1.02</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
         <v>2.26</v>
@@ -1651,10 +1651,10 @@
         <v>1.21</v>
       </c>
       <c r="S9" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="T9" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
         <v>1.01</v>
@@ -1777,7 +1777,7 @@
         <v>1.55</v>
       </c>
       <c r="P10" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q10" t="n">
         <v>2.72</v>
@@ -1789,7 +1789,7 @@
         <v>5.6</v>
       </c>
       <c r="T10" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U10" t="n">
         <v>1.74</v>
@@ -1798,7 +1798,7 @@
         <v>1.24</v>
       </c>
       <c r="W10" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="X10" t="n">
         <v>8</v>
@@ -1846,7 +1846,7 @@
         <v>65</v>
       </c>
       <c r="AM10" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN10" t="n">
         <v>25</v>
@@ -1909,7 +1909,7 @@
         <v>1.74</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P11" t="n">
         <v>1.74</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="H12" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J12" t="n">
         <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>5.8</v>
+        <v>7.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2041,34 +2041,34 @@
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="R12" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T12" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W12" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="X12" t="n">
         <v>28</v>
@@ -2089,7 +2089,7 @@
         <v>970</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE12" t="n">
         <v>75</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I13" t="n">
         <v>3.45</v>
@@ -2167,7 +2167,7 @@
         <v>2.92</v>
       </c>
       <c r="K13" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2176,22 +2176,22 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.97</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
         <v>1.38</v>
       </c>
       <c r="S13" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2200,10 +2200,10 @@
         <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G14" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H14" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I14" t="n">
         <v>3.15</v>
@@ -2302,7 +2302,7 @@
         <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,22 +2311,22 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="Q14" t="n">
         <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2335,10 +2335,10 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W14" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G15" t="n">
         <v>1.75</v>
@@ -2434,10 +2434,10 @@
         <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2449,7 +2449,7 @@
         <v>2.06</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
         <v>2.06</v>
@@ -2458,10 +2458,10 @@
         <v>1.61</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G16" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I16" t="n">
         <v>2.7</v>
@@ -2572,7 +2572,7 @@
         <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2584,7 +2584,7 @@
         <v>1.73</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P16" t="n">
         <v>1.73</v>
@@ -2596,7 +2596,7 @@
         <v>1.08</v>
       </c>
       <c r="S16" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2605,10 +2605,10 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="W16" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2698,10 +2698,10 @@
         <v>3.95</v>
       </c>
       <c r="H17" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I17" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="J17" t="n">
         <v>3.25</v>
@@ -2716,34 +2716,34 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="O17" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S17" t="n">
         <v>3.05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U17" t="n">
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W17" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G18" t="n">
         <v>4.9</v>
@@ -2836,7 +2836,7 @@
         <v>2.04</v>
       </c>
       <c r="I18" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
         <v>2.82</v>
@@ -2875,7 +2875,7 @@
         <v>1.74</v>
       </c>
       <c r="V18" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W18" t="n">
         <v>1.25</v>
@@ -2977,7 +2977,7 @@
         <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -2998,13 +2998,13 @@
         <v>1.76</v>
       </c>
       <c r="R19" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S19" t="n">
         <v>2.92</v>
       </c>
       <c r="T19" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U19" t="n">
         <v>2.2</v>
@@ -3031,7 +3031,7 @@
         <v>970</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AD19" t="n">
         <v>13</v>
@@ -3199,7 +3199,7 @@
         <v>90</v>
       </c>
       <c r="AN20" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO20" t="n">
         <v>34</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H21" t="n">
         <v>2.96</v>
@@ -3262,10 +3262,10 @@
         <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
         <v>1.34</v>
@@ -3274,13 +3274,13 @@
         <v>3.55</v>
       </c>
       <c r="T21" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U21" t="n">
         <v>2.16</v>
       </c>
       <c r="V21" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W21" t="n">
         <v>1.59</v>
@@ -3370,7 +3370,7 @@
         <v>3.2</v>
       </c>
       <c r="G22" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
         <v>2.26</v>
@@ -3415,10 +3415,10 @@
         <v>2.46</v>
       </c>
       <c r="V22" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W22" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X22" t="n">
         <v>19.5</v>
@@ -3517,7 +3517,7 @@
         <v>6.6</v>
       </c>
       <c r="K23" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
         <v>1.26</v>
@@ -3532,7 +3532,7 @@
         <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="Q23" t="n">
         <v>1.52</v>
@@ -3556,7 +3556,7 @@
         <v>4.4</v>
       </c>
       <c r="X23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y23" t="n">
         <v>50</v>
@@ -3565,7 +3565,7 @@
         <v>130</v>
       </c>
       <c r="AA23" t="n">
-        <v>490</v>
+        <v>580</v>
       </c>
       <c r="AB23" t="n">
         <v>11.5</v>
@@ -3604,7 +3604,7 @@
         <v>150</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO23" t="n">
         <v>200</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G25" t="n">
         <v>1.93</v>
@@ -3781,13 +3781,13 @@
         <v>4.4</v>
       </c>
       <c r="I25" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,16 +3796,16 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="O25" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P25" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R25" t="n">
         <v>1.31</v>
@@ -3820,7 +3820,7 @@
         <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W25" t="n">
         <v>2.06</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="G26" t="n">
         <v>2.66</v>
@@ -3916,7 +3916,7 @@
         <v>2.68</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J26" t="n">
         <v>3.8</v>
@@ -3931,7 +3931,7 @@
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O26" t="n">
         <v>1.2</v>
@@ -3955,7 +3955,7 @@
         <v>2.28</v>
       </c>
       <c r="V26" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W26" t="n">
         <v>1.6</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G27" t="n">
         <v>1.91</v>
@@ -4075,7 +4075,7 @@
         <v>2.26</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R27" t="n">
         <v>1.48</v>
@@ -4090,7 +4090,7 @@
         <v>2.22</v>
       </c>
       <c r="V27" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W27" t="n">
         <v>2.08</v>
@@ -4186,7 +4186,7 @@
         <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J28" t="n">
         <v>3.35</v>
@@ -4201,10 +4201,10 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>2.88</v>
+        <v>1.65</v>
       </c>
       <c r="O28" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P28" t="n">
         <v>1.65</v>
@@ -4450,7 +4450,7 @@
         <v>1.86</v>
       </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
@@ -4474,7 +4474,7 @@
         <v>1.67</v>
       </c>
       <c r="O30" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P30" t="n">
         <v>1.67</v>
@@ -4498,7 +4498,7 @@
         <v>1.22</v>
       </c>
       <c r="W30" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G31" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H31" t="n">
         <v>2.8</v>
@@ -4597,7 +4597,7 @@
         <v>2.68</v>
       </c>
       <c r="K31" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4633,7 +4633,7 @@
         <v>1.3</v>
       </c>
       <c r="W31" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G32" t="n">
         <v>2.62</v>
@@ -4732,7 +4732,7 @@
         <v>3.6</v>
       </c>
       <c r="K32" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L32" t="n">
         <v>1.34</v>
@@ -4747,7 +4747,7 @@
         <v>1.26</v>
       </c>
       <c r="P32" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q32" t="n">
         <v>1.81</v>
@@ -4768,7 +4768,7 @@
         <v>1.48</v>
       </c>
       <c r="W32" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X32" t="n">
         <v>21</v>
@@ -4792,7 +4792,7 @@
         <v>14</v>
       </c>
       <c r="AE32" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF32" t="n">
         <v>18.5</v>
@@ -5020,10 +5020,10 @@
         <v>2.8</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R34" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="S34" t="n">
         <v>2.2</v>
@@ -5035,7 +5035,7 @@
         <v>2.64</v>
       </c>
       <c r="V34" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W34" t="n">
         <v>2.18</v>
@@ -5050,7 +5050,7 @@
         <v>42</v>
       </c>
       <c r="AA34" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB34" t="n">
         <v>15</v>
@@ -5062,7 +5062,7 @@
         <v>970</v>
       </c>
       <c r="AE34" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF34" t="n">
         <v>16</v>
@@ -5284,7 +5284,7 @@
         <v>3.05</v>
       </c>
       <c r="O36" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P36" t="n">
         <v>1.7</v>
@@ -5299,16 +5299,16 @@
         <v>4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="U36" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="V36" t="n">
         <v>1.79</v>
       </c>
       <c r="W36" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X36" t="n">
         <v>14</v>
@@ -5422,7 +5422,7 @@
         <v>1.32</v>
       </c>
       <c r="P37" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q37" t="n">
         <v>1.85</v>
@@ -5554,7 +5554,7 @@
         <v>2.06</v>
       </c>
       <c r="O38" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P38" t="n">
         <v>2.06</v>
@@ -5689,13 +5689,13 @@
         <v>2.6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P39" t="n">
         <v>2.6</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="R39" t="n">
         <v>1.66</v>
@@ -5824,7 +5824,7 @@
         <v>1.65</v>
       </c>
       <c r="O40" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P40" t="n">
         <v>1.65</v>
@@ -6091,7 +6091,7 @@
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O42" t="n">
         <v>1.34</v>
@@ -6229,7 +6229,7 @@
         <v>2.6</v>
       </c>
       <c r="O43" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P43" t="n">
         <v>1.53</v>
@@ -6250,7 +6250,7 @@
         <v>1.7</v>
       </c>
       <c r="V43" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W43" t="n">
         <v>1.33</v>
@@ -6385,10 +6385,10 @@
         <v>1.77</v>
       </c>
       <c r="V44" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W44" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X44" t="n">
         <v>13.5</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G45" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H45" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I45" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J45" t="n">
         <v>3.75</v>
@@ -6520,10 +6520,10 @@
         <v>2.2</v>
       </c>
       <c r="V45" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W45" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X45" t="n">
         <v>15</v>
@@ -6532,13 +6532,13 @@
         <v>15.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA45" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB45" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC45" t="n">
         <v>8.199999999999999</v>
@@ -6547,7 +6547,7 @@
         <v>17</v>
       </c>
       <c r="AE45" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF45" t="n">
         <v>13</v>
@@ -6574,7 +6574,7 @@
         <v>90</v>
       </c>
       <c r="AN45" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO45" t="n">
         <v>46</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G46" t="n">
         <v>1.64</v>
@@ -6646,16 +6646,16 @@
         <v>1.52</v>
       </c>
       <c r="S46" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T46" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U46" t="n">
         <v>2.2</v>
       </c>
       <c r="V46" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W46" t="n">
         <v>2.56</v>
@@ -6670,7 +6670,7 @@
         <v>48</v>
       </c>
       <c r="AA46" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB46" t="n">
         <v>10</v>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G47" t="n">
         <v>2.2</v>
@@ -6760,7 +6760,7 @@
         <v>3.7</v>
       </c>
       <c r="L47" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M47" t="n">
         <v>1.06</v>
@@ -6772,16 +6772,16 @@
         <v>1.29</v>
       </c>
       <c r="P47" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q47" t="n">
         <v>1.88</v>
       </c>
       <c r="R47" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S47" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T47" t="n">
         <v>1.73</v>
@@ -6832,7 +6832,7 @@
         <v>44</v>
       </c>
       <c r="AJ47" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK47" t="n">
         <v>21</v>
@@ -6931,7 +6931,7 @@
         <v>1.93</v>
       </c>
       <c r="X48" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y48" t="n">
         <v>14</v>
@@ -6949,7 +6949,7 @@
         <v>7.6</v>
       </c>
       <c r="AD48" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE48" t="n">
         <v>50</v>
@@ -6979,7 +6979,7 @@
         <v>110</v>
       </c>
       <c r="AN48" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO48" t="n">
         <v>65</v>
@@ -7024,7 +7024,7 @@
         <v>1000</v>
       </c>
       <c r="J49" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K49" t="n">
         <v>800</v>
@@ -7036,16 +7036,16 @@
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="O49" t="n">
         <v>1.14</v>
       </c>
       <c r="P49" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="R49" t="n">
         <v>1.58</v>
@@ -7063,7 +7063,7 @@
         <v>1.01</v>
       </c>
       <c r="W49" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -7150,19 +7150,19 @@
         <v>2.44</v>
       </c>
       <c r="G50" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H50" t="n">
         <v>3.3</v>
       </c>
       <c r="I50" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J50" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K50" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L50" t="n">
         <v>1.44</v>
@@ -7171,7 +7171,7 @@
         <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O50" t="n">
         <v>1.34</v>
@@ -7198,7 +7198,7 @@
         <v>1.42</v>
       </c>
       <c r="W50" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X50" t="n">
         <v>13</v>
@@ -7210,7 +7210,7 @@
         <v>22</v>
       </c>
       <c r="AA50" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB50" t="n">
         <v>10.5</v>
@@ -7222,7 +7222,7 @@
         <v>13.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF50" t="n">
         <v>15.5</v>
@@ -7231,7 +7231,7 @@
         <v>11.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI50" t="n">
         <v>46</v>
@@ -7321,10 +7321,10 @@
         <v>1.61</v>
       </c>
       <c r="S51" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="T51" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U51" t="n">
         <v>2.6</v>
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G52" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H52" t="n">
         <v>5.1</v>
@@ -7462,16 +7462,16 @@
         <v>1.69</v>
       </c>
       <c r="U52" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V52" t="n">
         <v>1.23</v>
       </c>
       <c r="W52" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X52" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y52" t="n">
         <v>23</v>
@@ -7579,7 +7579,7 @@
         <v>1.89</v>
       </c>
       <c r="O53" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P53" t="n">
         <v>1.89</v>
@@ -7846,16 +7846,16 @@
         <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="O55" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P55" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R55" t="n">
         <v>1.45</v>
@@ -7966,10 +7966,10 @@
         <v>10</v>
       </c>
       <c r="I56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J56" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K56" t="n">
         <v>6.4</v>
@@ -7987,7 +7987,7 @@
         <v>1.18</v>
       </c>
       <c r="P56" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q56" t="n">
         <v>1.54</v>
@@ -7996,7 +7996,7 @@
         <v>1.6</v>
       </c>
       <c r="S56" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T56" t="n">
         <v>1.95</v>
@@ -8005,7 +8005,7 @@
         <v>1.89</v>
       </c>
       <c r="V56" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W56" t="n">
         <v>3.85</v>
@@ -8101,13 +8101,13 @@
         <v>1.73</v>
       </c>
       <c r="I57" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="J57" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K57" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8116,16 +8116,16 @@
         <v>1.01</v>
       </c>
       <c r="N57" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="O57" t="n">
         <v>1.01</v>
       </c>
       <c r="P57" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R57" t="n">
         <v>1.21</v>
@@ -8140,7 +8140,7 @@
         <v>1.01</v>
       </c>
       <c r="V57" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="W57" t="n">
         <v>1.17</v>
@@ -8251,16 +8251,16 @@
         <v>1.01</v>
       </c>
       <c r="N58" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="O58" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P58" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R58" t="n">
         <v>1.28</v>
@@ -8362,34 +8362,34 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="G59" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J59" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K59" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L59" t="n">
         <v>1.01</v>
       </c>
       <c r="M59" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N59" t="n">
         <v>3.35</v>
       </c>
       <c r="O59" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P59" t="n">
         <v>1.82</v>
@@ -8407,19 +8407,19 @@
         <v>1.83</v>
       </c>
       <c r="U59" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V59" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W59" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="X59" t="n">
         <v>13.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z59" t="n">
         <v>34</v>
@@ -8434,7 +8434,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD59" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE59" t="n">
         <v>65</v>
@@ -8452,10 +8452,10 @@
         <v>80</v>
       </c>
       <c r="AJ59" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK59" t="n">
         <v>23</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>22</v>
       </c>
       <c r="AL59" t="n">
         <v>42</v>
@@ -8464,10 +8464,10 @@
         <v>130</v>
       </c>
       <c r="AN59" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO59" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60">
@@ -8503,16 +8503,16 @@
         <v>1.94</v>
       </c>
       <c r="H60" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I60" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J60" t="n">
         <v>3.7</v>
       </c>
       <c r="K60" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L60" t="n">
         <v>1.41</v>
@@ -8527,22 +8527,22 @@
         <v>1.32</v>
       </c>
       <c r="P60" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R60" t="n">
         <v>1.39</v>
       </c>
       <c r="S60" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T60" t="n">
         <v>1.84</v>
       </c>
       <c r="U60" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V60" t="n">
         <v>1.26</v>
@@ -8560,7 +8560,7 @@
         <v>34</v>
       </c>
       <c r="AA60" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB60" t="n">
         <v>9</v>
@@ -8590,7 +8590,7 @@
         <v>21</v>
       </c>
       <c r="AK60" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL60" t="n">
         <v>36</v>
@@ -8599,7 +8599,7 @@
         <v>100</v>
       </c>
       <c r="AN60" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO60" t="n">
         <v>65</v>
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G61" t="n">
         <v>2.42</v>
       </c>
       <c r="H61" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I61" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J61" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K61" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -8656,13 +8656,13 @@
         <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O61" t="n">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="P61" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q61" t="n">
         <v>2.5</v>
@@ -8677,7 +8677,7 @@
         <v>1.01</v>
       </c>
       <c r="U61" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="V61" t="n">
         <v>1.34</v>
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G62" t="n">
         <v>2.06</v>
       </c>
       <c r="H62" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I62" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J62" t="n">
         <v>3.6</v>
       </c>
       <c r="K62" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -8791,16 +8791,16 @@
         <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="O62" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P62" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="R62" t="n">
         <v>1.51</v>
@@ -8815,7 +8815,7 @@
         <v>1.01</v>
       </c>
       <c r="V62" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W62" t="n">
         <v>1.94</v>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="G63" t="n">
         <v>1.37</v>
@@ -8914,7 +8914,7 @@
         <v>14.5</v>
       </c>
       <c r="J63" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K63" t="n">
         <v>6.2</v>
@@ -8932,7 +8932,7 @@
         <v>1.27</v>
       </c>
       <c r="P63" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q63" t="n">
         <v>1.76</v>
@@ -8950,7 +8950,7 @@
         <v>1.6</v>
       </c>
       <c r="V63" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W63" t="n">
         <v>3.7</v>
@@ -9043,13 +9043,13 @@
         <v>3</v>
       </c>
       <c r="H64" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I64" t="n">
         <v>3.1</v>
       </c>
       <c r="J64" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
         <v>3.25</v>
@@ -9067,7 +9067,7 @@
         <v>1.46</v>
       </c>
       <c r="P64" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q64" t="n">
         <v>2.42</v>
@@ -9076,7 +9076,7 @@
         <v>1.23</v>
       </c>
       <c r="S64" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T64" t="n">
         <v>2</v>
@@ -9091,10 +9091,10 @@
         <v>1.5</v>
       </c>
       <c r="X64" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y64" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z64" t="n">
         <v>19.5</v>
@@ -9103,10 +9103,10 @@
         <v>55</v>
       </c>
       <c r="AB64" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC64" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD64" t="n">
         <v>14</v>
@@ -9313,13 +9313,13 @@
         <v>2.36</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I66" t="n">
         <v>3.3</v>
       </c>
       <c r="J66" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K66" t="n">
         <v>4.5</v>
@@ -9331,28 +9331,28 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="O66" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P66" t="n">
         <v>2.82</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R66" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="S66" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="T66" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="U66" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="V66" t="n">
         <v>1.44</v>
@@ -9394,7 +9394,7 @@
         <v>15.5</v>
       </c>
       <c r="AI66" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ66" t="n">
         <v>30</v>
@@ -9442,10 +9442,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="G67" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H67" t="n">
         <v>4.2</v>
@@ -9454,7 +9454,7 @@
         <v>4.4</v>
       </c>
       <c r="J67" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K67" t="n">
         <v>4.2</v>
@@ -9472,7 +9472,7 @@
         <v>1.24</v>
       </c>
       <c r="P67" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q67" t="n">
         <v>1.71</v>
@@ -9484,7 +9484,7 @@
         <v>2.5</v>
       </c>
       <c r="T67" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U67" t="n">
         <v>2.1</v>
@@ -9610,7 +9610,7 @@
         <v>1.72</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R68" t="n">
         <v>1.26</v>
@@ -9727,7 +9727,7 @@
         <v>3.5</v>
       </c>
       <c r="K69" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L69" t="n">
         <v>1.38</v>
@@ -9745,7 +9745,7 @@
         <v>2.06</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R69" t="n">
         <v>1.42</v>
@@ -9766,7 +9766,7 @@
         <v>1.83</v>
       </c>
       <c r="X69" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y69" t="n">
         <v>15.5</v>
@@ -10036,7 +10036,7 @@
         <v>1.25</v>
       </c>
       <c r="X71" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y71" t="n">
         <v>11</v>
@@ -10123,7 +10123,7 @@
         <v>1.28</v>
       </c>
       <c r="H72" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="I72" t="n">
         <v>15</v>
@@ -10174,7 +10174,7 @@
         <v>32</v>
       </c>
       <c r="Y72" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z72" t="n">
         <v>150</v>
@@ -10195,7 +10195,7 @@
         <v>200</v>
       </c>
       <c r="AF72" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG72" t="n">
         <v>11</v>
@@ -10210,7 +10210,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK72" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL72" t="n">
         <v>34</v>
@@ -10276,13 +10276,13 @@
         <v>1.01</v>
       </c>
       <c r="N73" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="O73" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P73" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q73" t="n">
         <v>1.96</v>
@@ -10291,7 +10291,7 @@
         <v>1.18</v>
       </c>
       <c r="S73" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="T73" t="n">
         <v>1.01</v>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="G74" t="n">
         <v>2.22</v>
@@ -10396,13 +10396,13 @@
         <v>3.8</v>
       </c>
       <c r="I74" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="J74" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K74" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="L74" t="n">
         <v>1.01</v>
@@ -10417,7 +10417,7 @@
         <v>1.42</v>
       </c>
       <c r="P74" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q74" t="n">
         <v>2.2</v>
@@ -10429,13 +10429,13 @@
         <v>4.1</v>
       </c>
       <c r="T74" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="U74" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V74" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W74" t="n">
         <v>1.81</v>
@@ -10549,7 +10549,7 @@
         <v>1.74</v>
       </c>
       <c r="O75" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P75" t="n">
         <v>1.74</v>
@@ -10603,7 +10603,7 @@
         <v>15.5</v>
       </c>
       <c r="AG75" t="n">
-        <v>15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH75" t="n">
         <v>30</v>
@@ -10663,7 +10663,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H76" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="I76" t="n">
         <v>1.84</v>
@@ -10672,7 +10672,7 @@
         <v>3.7</v>
       </c>
       <c r="K76" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="L76" t="n">
         <v>1.01</v>
@@ -10681,7 +10681,7 @@
         <v>1.01</v>
       </c>
       <c r="N76" t="n">
-        <v>3.2</v>
+        <v>1.86</v>
       </c>
       <c r="O76" t="n">
         <v>1.01</v>
@@ -10690,7 +10690,7 @@
         <v>1.86</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R76" t="n">
         <v>1.29</v>
@@ -10972,7 +10972,7 @@
         <v>2.14</v>
       </c>
       <c r="U78" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V78" t="n">
         <v>1.04</v>
@@ -11215,7 +11215,7 @@
         <v>3</v>
       </c>
       <c r="L80" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="M80" t="n">
         <v>1.16</v>
@@ -11359,7 +11359,7 @@
         <v>3.25</v>
       </c>
       <c r="O81" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P81" t="n">
         <v>3.25</v>
@@ -11368,7 +11368,7 @@
         <v>1.24</v>
       </c>
       <c r="R81" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S81" t="n">
         <v>1.71</v>
@@ -11608,13 +11608,13 @@
         <v>1.08</v>
       </c>
       <c r="H83" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I83" t="n">
         <v>65</v>
       </c>
       <c r="J83" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="K83" t="n">
         <v>18</v>
@@ -11641,10 +11641,10 @@
         <v>1.84</v>
       </c>
       <c r="S83" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T83" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="U83" t="n">
         <v>1.4</v>
@@ -11764,13 +11764,13 @@
         <v>1.04</v>
       </c>
       <c r="O84" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P84" t="n">
         <v>2.24</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="R84" t="n">
         <v>1.41</v>
@@ -11884,7 +11884,7 @@
         <v>3.65</v>
       </c>
       <c r="J85" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K85" t="n">
         <v>4.2</v>
@@ -11899,7 +11899,7 @@
         <v>2.18</v>
       </c>
       <c r="O85" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P85" t="n">
         <v>2.16</v>
@@ -11917,13 +11917,13 @@
         <v>1.5</v>
       </c>
       <c r="U85" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V85" t="n">
         <v>1.38</v>
       </c>
       <c r="W85" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="X85" t="n">
         <v>1000</v>
@@ -12166,7 +12166,7 @@
         <v>1.02</v>
       </c>
       <c r="N87" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O87" t="n">
         <v>1.12</v>
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G88" t="n">
         <v>1.36</v>
@@ -12421,7 +12421,7 @@
         <v>3.85</v>
       </c>
       <c r="I89" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J89" t="n">
         <v>3.7</v>
@@ -12439,7 +12439,7 @@
         <v>2.16</v>
       </c>
       <c r="O89" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P89" t="n">
         <v>2.16</v>
@@ -12460,7 +12460,7 @@
         <v>1.01</v>
       </c>
       <c r="V89" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W89" t="n">
         <v>1.88</v>
@@ -12547,22 +12547,22 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G90" t="n">
         <v>2.38</v>
       </c>
       <c r="H90" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I90" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J90" t="n">
         <v>3.05</v>
       </c>
       <c r="K90" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="L90" t="n">
         <v>1.01</v>
@@ -12571,22 +12571,22 @@
         <v>1.01</v>
       </c>
       <c r="N90" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="O90" t="n">
         <v>1.33</v>
       </c>
       <c r="P90" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R90" t="n">
         <v>1.18</v>
       </c>
       <c r="S90" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="T90" t="n">
         <v>1.01</v>
@@ -12595,7 +12595,7 @@
         <v>1.01</v>
       </c>
       <c r="V90" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W90" t="n">
         <v>1.72</v>
@@ -12685,7 +12685,7 @@
         <v>1.52</v>
       </c>
       <c r="G91" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="H91" t="n">
         <v>4.2</v>
@@ -12694,7 +12694,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J91" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K91" t="n">
         <v>1000</v>
@@ -12706,13 +12706,13 @@
         <v>1.01</v>
       </c>
       <c r="N91" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="O91" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P91" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q91" t="n">
         <v>2.18</v>
@@ -12733,7 +12733,7 @@
         <v>1.14</v>
       </c>
       <c r="W91" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="X91" t="n">
         <v>1000</v>
@@ -12976,7 +12976,7 @@
         <v>1.01</v>
       </c>
       <c r="N93" t="n">
-        <v>2.78</v>
+        <v>1.03</v>
       </c>
       <c r="O93" t="n">
         <v>1.41</v>
@@ -13093,7 +13093,7 @@
         <v>5.7</v>
       </c>
       <c r="H94" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="I94" t="n">
         <v>1.67</v>
@@ -13102,7 +13102,7 @@
         <v>4.5</v>
       </c>
       <c r="K94" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L94" t="n">
         <v>1.28</v>
@@ -13111,7 +13111,7 @@
         <v>1.03</v>
       </c>
       <c r="N94" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O94" t="n">
         <v>1.19</v>
@@ -13120,7 +13120,7 @@
         <v>2.6</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R94" t="n">
         <v>1.64</v>
@@ -13174,7 +13174,7 @@
         <v>17.5</v>
       </c>
       <c r="AI94" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ94" t="n">
         <v>140</v>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G95" t="n">
         <v>8.6</v>
@@ -13231,7 +13231,7 @@
         <v>1.49</v>
       </c>
       <c r="I95" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="J95" t="n">
         <v>4.7</v>
@@ -13240,19 +13240,19 @@
         <v>4.9</v>
       </c>
       <c r="L95" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="M95" t="n">
         <v>1.07</v>
       </c>
       <c r="N95" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O95" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P95" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Q95" t="n">
         <v>2.06</v>
@@ -13324,7 +13324,7 @@
         <v>220</v>
       </c>
       <c r="AN95" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AO95" t="n">
         <v>8.800000000000001</v>
@@ -13360,10 +13360,10 @@
         <v>2.36</v>
       </c>
       <c r="G96" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H96" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I96" t="n">
         <v>3.3</v>
@@ -13378,10 +13378,10 @@
         <v>1.36</v>
       </c>
       <c r="M96" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N96" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="O96" t="n">
         <v>1.28</v>
@@ -13393,7 +13393,7 @@
         <v>1.79</v>
       </c>
       <c r="R96" t="n">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="S96" t="n">
         <v>2.78</v>
@@ -13408,7 +13408,7 @@
         <v>1.43</v>
       </c>
       <c r="W96" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X96" t="n">
         <v>19.5</v>
@@ -13492,10 +13492,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G97" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H97" t="n">
         <v>3.6</v>
@@ -13510,7 +13510,7 @@
         <v>3.25</v>
       </c>
       <c r="L97" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M97" t="n">
         <v>1.1</v>
@@ -13543,7 +13543,7 @@
         <v>1.37</v>
       </c>
       <c r="W97" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X97" t="n">
         <v>10</v>
@@ -13555,7 +13555,7 @@
         <v>23</v>
       </c>
       <c r="AA97" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB97" t="n">
         <v>8.6</v>
@@ -13567,7 +13567,7 @@
         <v>15</v>
       </c>
       <c r="AE97" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF97" t="n">
         <v>13.5</v>
@@ -13654,7 +13654,7 @@
         <v>1.25</v>
       </c>
       <c r="O98" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="P98" t="n">
         <v>1.25</v>
@@ -13795,7 +13795,7 @@
         <v>1.25</v>
       </c>
       <c r="Q99" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R99" t="n">
         <v>1.12</v>
@@ -13807,7 +13807,7 @@
         <v>1.01</v>
       </c>
       <c r="U99" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="V99" t="n">
         <v>1.33</v>
@@ -13924,7 +13924,7 @@
         <v>1.74</v>
       </c>
       <c r="O100" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P100" t="n">
         <v>1.74</v>
@@ -14035,7 +14035,7 @@
         <v>14.5</v>
       </c>
       <c r="G101" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="H101" t="n">
         <v>1.25</v>
@@ -14095,7 +14095,7 @@
         <v>6.6</v>
       </c>
       <c r="AA101" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AB101" t="n">
         <v>44</v>
@@ -14131,7 +14131,7 @@
         <v>540</v>
       </c>
       <c r="AM101" t="n">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AN101" t="n">
         <v>990</v>
@@ -14194,7 +14194,7 @@
         <v>1.84</v>
       </c>
       <c r="O102" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P102" t="n">
         <v>1.84</v>
@@ -14329,19 +14329,19 @@
         <v>1.24</v>
       </c>
       <c r="O103" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P103" t="n">
         <v>1.24</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="R103" t="n">
         <v>1.18</v>
       </c>
       <c r="S103" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="T103" t="n">
         <v>1.01</v>
@@ -14440,7 +14440,7 @@
         <v>1.04</v>
       </c>
       <c r="G104" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="H104" t="n">
         <v>1.09</v>
@@ -14449,7 +14449,7 @@
         <v>1000</v>
       </c>
       <c r="J104" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="K104" t="n">
         <v>1000</v>
@@ -14464,7 +14464,7 @@
         <v>1.72</v>
       </c>
       <c r="O104" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P104" t="n">
         <v>1.72</v>
@@ -14485,10 +14485,10 @@
         <v>1.01</v>
       </c>
       <c r="V104" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W104" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="X104" t="n">
         <v>1000</v>
@@ -14572,22 +14572,22 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.78</v>
+        <v>2.36</v>
       </c>
       <c r="G105" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H105" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I105" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J105" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="K105" t="n">
-        <v>110</v>
+        <v>4.9</v>
       </c>
       <c r="L105" t="n">
         <v>1.01</v>
@@ -14596,13 +14596,13 @@
         <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O105" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="P105" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q105" t="n">
         <v>2.12</v>
@@ -14620,10 +14620,10 @@
         <v>1.01</v>
       </c>
       <c r="V105" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W105" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="X105" t="n">
         <v>1000</v>
@@ -14707,19 +14707,19 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.2</v>
+        <v>1.58</v>
       </c>
       <c r="G106" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="H106" t="n">
         <v>5.7</v>
       </c>
       <c r="I106" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J106" t="n">
-        <v>1.09</v>
+        <v>2.7</v>
       </c>
       <c r="K106" t="n">
         <v>820</v>
@@ -14734,7 +14734,7 @@
         <v>1.53</v>
       </c>
       <c r="O106" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="P106" t="n">
         <v>1.53</v>
@@ -14758,7 +14758,7 @@
         <v>1.12</v>
       </c>
       <c r="W106" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="X106" t="n">
         <v>1000</v>
@@ -14842,10 +14842,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G107" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H107" t="n">
         <v>8.199999999999999</v>
@@ -14860,16 +14860,16 @@
         <v>4.2</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N107" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P107" t="n">
         <v>1.6</v>
@@ -14878,76 +14878,76 @@
         <v>2.4</v>
       </c>
       <c r="R107" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S107" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T107" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="U107" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="V107" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W107" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="X107" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y107" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z107" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB107" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC107" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD107" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AE107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF107" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG107" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH107" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AI107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ107" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK107" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL107" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="108">
@@ -14986,25 +14986,25 @@
         <v>2.24</v>
       </c>
       <c r="I108" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J108" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K108" t="n">
         <v>3.55</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="O108" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P108" t="n">
         <v>1.78</v>
@@ -15013,76 +15013,76 @@
         <v>2.12</v>
       </c>
       <c r="R108" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S108" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T108" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U108" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V108" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="W108" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X108" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y108" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z108" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA108" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB108" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC108" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD108" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE108" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF108" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG108" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH108" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI108" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ108" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK108" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL108" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO108" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="109">
@@ -15112,112 +15112,112 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="G109" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="H109" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="I109" t="n">
-        <v>16.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J109" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K109" t="n">
         <v>710</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P109" t="n">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="Q109" t="n">
         <v>1.96</v>
       </c>
       <c r="R109" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T109" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U109" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V109" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W109" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="X109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO109" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="110">
@@ -15259,100 +15259,100 @@
         <v>1000</v>
       </c>
       <c r="J110" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K110" t="n">
         <v>740</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N110" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O110" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P110" t="n">
         <v>1.24</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="R110" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S110" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="T110" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U110" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V110" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W110" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO110" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="111">
@@ -15400,94 +15400,94 @@
         <v>4</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P111" t="n">
         <v>1.95</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R111" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S111" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T111" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="U111" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V111" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W111" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X111" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y111" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z111" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA111" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB111" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC111" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD111" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE111" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF111" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG111" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH111" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI111" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ111" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK111" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL111" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM111" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN111" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AO111" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
@@ -691,7 +691,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -706,7 +706,7 @@
         <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="T2" t="n">
         <v>1.78</v>
@@ -805,10 +805,10 @@
         <v>1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>1.14</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>21</v>
+        <v>1.02</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
@@ -826,19 +826,19 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="O3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="R3" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -853,7 +853,7 @@
         <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>8.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G4" t="n">
         <v>2.98</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I4" t="n">
         <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="K4" t="n">
         <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -994,55 +994,55 @@
         <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ4" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AK4" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
         <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1237,28 +1237,28 @@
         <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="T6" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U6" t="n">
         <v>1.74</v>
       </c>
       <c r="V6" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1348,7 +1348,7 @@
         <v>1.84</v>
       </c>
       <c r="H7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I7" t="n">
         <v>6.4</v>
@@ -1357,22 +1357,22 @@
         <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q7" t="n">
         <v>2.06</v>
@@ -1381,22 +1381,22 @@
         <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T7" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V7" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W7" t="n">
         <v>2.18</v>
       </c>
       <c r="X7" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
         <v>970</v>
@@ -1441,10 +1441,10 @@
         <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AO7" t="n">
         <v>140</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="I8" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,34 +1501,34 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O8" t="n">
         <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T8" t="n">
         <v>1.69</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
         <v>1.51</v>
       </c>
       <c r="W8" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1630,7 +1630,7 @@
         <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1642,13 +1642,13 @@
         <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S9" t="n">
         <v>2.5</v>
@@ -1684,7 +1684,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
@@ -1702,7 +1702,7 @@
         <v>27</v>
       </c>
       <c r="AJ9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK9" t="n">
         <v>48</v>
@@ -1747,49 +1747,49 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="G10" t="n">
         <v>2.98</v>
       </c>
       <c r="H10" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="R10" t="n">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="S10" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="U10" t="n">
         <v>1.01</v>
@@ -1807,10 +1807,10 @@
         <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="n">
         <v>18</v>
@@ -1819,10 +1819,10 @@
         <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF10" t="n">
         <v>25</v>
@@ -1852,7 +1852,7 @@
         <v>21</v>
       </c>
       <c r="AO10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1912,7 +1912,7 @@
         <v>1.55</v>
       </c>
       <c r="P11" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q11" t="n">
         <v>2.72</v>
@@ -1924,7 +1924,7 @@
         <v>5.6</v>
       </c>
       <c r="T11" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U11" t="n">
         <v>1.74</v>
@@ -1978,10 +1978,10 @@
         <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN11" t="n">
         <v>25</v>
@@ -2029,13 +2029,13 @@
         <v>1.43</v>
       </c>
       <c r="J12" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2065,7 +2065,7 @@
         <v>1.54</v>
       </c>
       <c r="V12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W12" t="n">
         <v>1.06</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="G13" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="H13" t="n">
         <v>5.1</v>
@@ -2176,16 +2176,16 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="R13" t="n">
         <v>1.52</v>
@@ -2194,16 +2194,16 @@
         <v>2.34</v>
       </c>
       <c r="T13" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="V13" t="n">
         <v>1.17</v>
       </c>
       <c r="W13" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="X13" t="n">
         <v>28</v>
@@ -2212,10 +2212,10 @@
         <v>29</v>
       </c>
       <c r="Z13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB13" t="n">
         <v>970</v>
@@ -2224,10 +2224,10 @@
         <v>970</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="n">
         <v>970</v>
@@ -2254,7 +2254,7 @@
         <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO13" t="n">
         <v>70</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="G14" t="n">
-        <v>2.84</v>
+        <v>3.45</v>
       </c>
       <c r="H14" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="I14" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>2.92</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>5.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2317,28 +2317,28 @@
         <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S14" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2425,16 +2425,16 @@
         <v>2.6</v>
       </c>
       <c r="G15" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="H15" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I15" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
@@ -2443,10 +2443,10 @@
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
@@ -2458,10 +2458,10 @@
         <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="T15" t="n">
         <v>1.62</v>
@@ -2470,10 +2470,10 @@
         <v>2.3</v>
       </c>
       <c r="V15" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="X15" t="n">
         <v>22</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="G16" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
         <v>3.85</v>
       </c>
       <c r="K16" t="n">
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2587,10 +2587,10 @@
         <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="R16" t="n">
         <v>1.43</v>
@@ -2605,10 +2605,10 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W16" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2695,19 +2695,19 @@
         <v>3.1</v>
       </c>
       <c r="G17" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H17" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I17" t="n">
         <v>2.7</v>
       </c>
       <c r="J17" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K17" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2716,10 +2716,10 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="P17" t="n">
         <v>1.76</v>
@@ -2731,22 +2731,22 @@
         <v>1.29</v>
       </c>
       <c r="S17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U17" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>1.59</v>
       </c>
       <c r="W17" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="X17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
         <v>11</v>
@@ -2845,7 +2845,7 @@
         <v>3.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -2857,10 +2857,10 @@
         <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="R18" t="n">
         <v>1.33</v>
@@ -2869,70 +2869,70 @@
         <v>3.35</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U18" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W18" t="n">
         <v>1.4</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="G19" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H19" t="n">
         <v>2.04</v>
       </c>
       <c r="I19" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="J19" t="n">
         <v>2.82</v>
@@ -2995,7 +2995,7 @@
         <v>1.55</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R19" t="n">
         <v>1.24</v>
@@ -3010,10 +3010,10 @@
         <v>1.74</v>
       </c>
       <c r="V19" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="W19" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X19" t="n">
         <v>970</v>
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G20" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="H20" t="n">
         <v>2.06</v>
       </c>
       <c r="I20" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -3127,7 +3127,7 @@
         <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q20" t="n">
         <v>1.76</v>
@@ -3136,10 +3136,10 @@
         <v>1.43</v>
       </c>
       <c r="S20" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="T20" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="U20" t="n">
         <v>2.24</v>
@@ -3148,7 +3148,7 @@
         <v>1.78</v>
       </c>
       <c r="W20" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X20" t="n">
         <v>970</v>
@@ -3262,7 +3262,7 @@
         <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q21" t="n">
         <v>1.78</v>
@@ -3271,7 +3271,7 @@
         <v>1.45</v>
       </c>
       <c r="S21" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="T21" t="n">
         <v>1.54</v>
@@ -3322,10 +3322,10 @@
         <v>50</v>
       </c>
       <c r="AJ21" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>40</v>
@@ -3334,7 +3334,7 @@
         <v>90</v>
       </c>
       <c r="AN21" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO21" t="n">
         <v>34</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G22" t="n">
         <v>2.66</v>
       </c>
       <c r="H22" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I22" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
         <v>3.4</v>
@@ -3394,16 +3394,16 @@
         <v>3.65</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P22" t="n">
         <v>1.92</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R22" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S22" t="n">
         <v>3.55</v>
@@ -3415,7 +3415,7 @@
         <v>2.16</v>
       </c>
       <c r="V22" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W22" t="n">
         <v>1.6</v>
@@ -3436,7 +3436,7 @@
         <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD22" t="n">
         <v>970</v>
@@ -3508,19 +3508,19 @@
         <v>3.4</v>
       </c>
       <c r="H23" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I23" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J23" t="n">
         <v>3.7</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -3532,7 +3532,7 @@
         <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q23" t="n">
         <v>1.72</v>
@@ -3541,22 +3541,22 @@
         <v>1.51</v>
       </c>
       <c r="S23" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T23" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="U23" t="n">
         <v>2.46</v>
       </c>
       <c r="V23" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W23" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X23" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
         <v>14</v>
@@ -3568,10 +3568,10 @@
         <v>32</v>
       </c>
       <c r="AB23" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
         <v>12.5</v>
@@ -3592,7 +3592,7 @@
         <v>34</v>
       </c>
       <c r="AJ23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK23" t="n">
         <v>36</v>
@@ -3601,13 +3601,13 @@
         <v>42</v>
       </c>
       <c r="AM23" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="24">
@@ -3652,7 +3652,7 @@
         <v>6.6</v>
       </c>
       <c r="K24" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L24" t="n">
         <v>1.26</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G25" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="H25" t="n">
         <v>4.7</v>
       </c>
       <c r="I25" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L25" t="n">
         <v>1.37</v>
@@ -3796,37 +3796,37 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="R25" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U25" t="n">
         <v>2.08</v>
       </c>
       <c r="V25" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W25" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X25" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y25" t="n">
         <v>19.5</v>
@@ -3838,13 +3838,13 @@
         <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
         <v>65</v>
@@ -3874,7 +3874,7 @@
         <v>110</v>
       </c>
       <c r="AN25" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO25" t="n">
         <v>70</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G26" t="n">
         <v>1.83</v>
@@ -3937,10 +3937,10 @@
         <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R26" t="n">
         <v>1.33</v>
@@ -3961,16 +3961,16 @@
         <v>2.2</v>
       </c>
       <c r="X26" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y26" t="n">
         <v>22</v>
       </c>
       <c r="Z26" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA26" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB26" t="n">
         <v>10.5</v>
@@ -3997,10 +3997,10 @@
         <v>85</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL26" t="n">
         <v>40</v>
@@ -4060,7 +4060,7 @@
         <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
@@ -4075,7 +4075,7 @@
         <v>2.42</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="R27" t="n">
         <v>1.57</v>
@@ -4084,7 +4084,7 @@
         <v>2.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U27" t="n">
         <v>2.48</v>
@@ -4096,7 +4096,7 @@
         <v>1.6</v>
       </c>
       <c r="X27" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="n">
         <v>17</v>
@@ -4105,7 +4105,7 @@
         <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB27" t="n">
         <v>16</v>
@@ -4114,7 +4114,7 @@
         <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE27" t="n">
         <v>28</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G28" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="H28" t="n">
         <v>4.1</v>
       </c>
       <c r="I28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K28" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4207,10 +4207,10 @@
         <v>1.23</v>
       </c>
       <c r="P28" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="R28" t="n">
         <v>1.48</v>
@@ -4228,16 +4228,16 @@
         <v>1.27</v>
       </c>
       <c r="W28" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y28" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Z28" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="n">
         <v>120</v>
@@ -4273,16 +4273,16 @@
         <v>970</v>
       </c>
       <c r="AL28" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AM28" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN28" t="n">
         <v>970</v>
       </c>
       <c r="AO28" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -4321,37 +4321,37 @@
         <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J29" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
         <v>7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M29" t="n">
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="O29" t="n">
         <v>1.35</v>
       </c>
       <c r="P29" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R29" t="n">
         <v>1.08</v>
       </c>
       <c r="S29" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="T29" t="n">
         <v>1.01</v>
@@ -4447,40 +4447,40 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G30" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H30" t="n">
         <v>5.7</v>
       </c>
       <c r="I30" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M30" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N30" t="n">
         <v>2.7</v>
       </c>
       <c r="O30" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P30" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="R30" t="n">
         <v>1.2</v>
@@ -4495,10 +4495,10 @@
         <v>1.66</v>
       </c>
       <c r="V30" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W30" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X30" t="n">
         <v>11.5</v>
@@ -4582,28 +4582,28 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="G31" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H31" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I31" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="J31" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
         <v>1.4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
         <v>3.2</v>
@@ -4612,25 +4612,25 @@
         <v>1.38</v>
       </c>
       <c r="P31" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q31" t="n">
         <v>2.08</v>
       </c>
       <c r="R31" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S31" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="T31" t="n">
         <v>1.78</v>
       </c>
       <c r="U31" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="V31" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W31" t="n">
         <v>1.8</v>
@@ -4639,10 +4639,10 @@
         <v>14</v>
       </c>
       <c r="Y31" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA31" t="n">
         <v>110</v>
@@ -4654,10 +4654,10 @@
         <v>9</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF31" t="n">
         <v>14.5</v>
@@ -4681,13 +4681,13 @@
         <v>50</v>
       </c>
       <c r="AM31" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN31" t="n">
         <v>22</v>
       </c>
       <c r="AO31" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
@@ -4723,7 +4723,7 @@
         <v>2.98</v>
       </c>
       <c r="H32" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I32" t="n">
         <v>4.3</v>
@@ -4732,7 +4732,7 @@
         <v>2.68</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G33" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H33" t="n">
         <v>4.8</v>
       </c>
       <c r="I33" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K33" t="n">
         <v>3.7</v>
@@ -4873,7 +4873,7 @@
         <v>1.49</v>
       </c>
       <c r="M33" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
         <v>2.5</v>
@@ -4882,10 +4882,10 @@
         <v>1.54</v>
       </c>
       <c r="P33" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="R33" t="n">
         <v>1.18</v>
@@ -4894,16 +4894,16 @@
         <v>4.9</v>
       </c>
       <c r="T33" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="U33" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="V33" t="n">
         <v>1.21</v>
       </c>
       <c r="W33" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X33" t="n">
         <v>10</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G34" t="n">
         <v>2.58</v>
@@ -4996,7 +4996,7 @@
         <v>2.98</v>
       </c>
       <c r="I34" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J34" t="n">
         <v>3.6</v>
@@ -5017,7 +5017,7 @@
         <v>1.26</v>
       </c>
       <c r="P34" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q34" t="n">
         <v>1.81</v>
@@ -5029,10 +5029,10 @@
         <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U34" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V34" t="n">
         <v>1.47</v>
@@ -5146,7 +5146,7 @@
         <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O35" t="n">
         <v>1.16</v>
@@ -5161,10 +5161,10 @@
         <v>1.75</v>
       </c>
       <c r="S35" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="T35" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="U35" t="n">
         <v>2.8</v>
@@ -5224,10 +5224,10 @@
         <v>60</v>
       </c>
       <c r="AN35" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO35" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="G36" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="H36" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J36" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="K36" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5281,7 +5281,7 @@
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O36" t="n">
         <v>1.01</v>
@@ -5308,7 +5308,7 @@
         <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G37" t="n">
         <v>4.3</v>
       </c>
       <c r="H37" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I37" t="n">
         <v>2.26</v>
@@ -5434,7 +5434,7 @@
         <v>4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U37" t="n">
         <v>1.93</v>
@@ -5452,10 +5452,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z37" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB37" t="n">
         <v>15.5</v>
@@ -5497,7 +5497,7 @@
         <v>85</v>
       </c>
       <c r="AO37" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -5593,7 +5593,7 @@
         <v>29</v>
       </c>
       <c r="AB38" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC38" t="n">
         <v>8.199999999999999</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="G39" t="n">
         <v>2.5</v>
@@ -5671,7 +5671,7 @@
         <v>3.35</v>
       </c>
       <c r="I39" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J39" t="n">
         <v>3.3</v>
@@ -5686,88 +5686,88 @@
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O39" t="n">
         <v>1.32</v>
       </c>
       <c r="P39" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R39" t="n">
         <v>1.36</v>
       </c>
       <c r="S39" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T39" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U39" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V39" t="n">
         <v>1.38</v>
       </c>
       <c r="W39" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X39" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y39" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Z39" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AA39" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB39" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AD39" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AF39" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AI39" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ39" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AK39" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AL39" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM39" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
@@ -5800,7 +5800,7 @@
         <v>2.7</v>
       </c>
       <c r="G40" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H40" t="n">
         <v>2.04</v>
@@ -5827,7 +5827,7 @@
         <v>1.2</v>
       </c>
       <c r="P40" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="Q40" t="n">
         <v>1.62</v>
@@ -5836,7 +5836,7 @@
         <v>1.43</v>
       </c>
       <c r="S40" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="T40" t="n">
         <v>1.51</v>
@@ -5848,7 +5848,7 @@
         <v>1.56</v>
       </c>
       <c r="W40" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="G41" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="H41" t="n">
         <v>1.28</v>
@@ -5947,7 +5947,7 @@
         <v>5.4</v>
       </c>
       <c r="K41" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L41" t="n">
         <v>1.19</v>
@@ -5956,22 +5956,22 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>5.4</v>
+        <v>2.84</v>
       </c>
       <c r="O41" t="n">
         <v>1.11</v>
       </c>
       <c r="P41" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R41" t="n">
         <v>1.66</v>
       </c>
       <c r="S41" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T41" t="n">
         <v>1.01</v>
@@ -5980,7 +5980,7 @@
         <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="W41" t="n">
         <v>1.07</v>
@@ -5989,34 +5989,34 @@
         <v>44</v>
       </c>
       <c r="Y41" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Z41" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AA41" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AB41" t="n">
         <v>60</v>
       </c>
       <c r="AC41" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AD41" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AE41" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AF41" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AG41" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AH41" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI41" t="n">
         <v>38</v>
@@ -6025,19 +6025,19 @@
         <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AL41" t="n">
         <v>130</v>
       </c>
       <c r="AM41" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN41" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AO41" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="42">
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H42" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="I42" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="J42" t="n">
         <v>2.98</v>
@@ -6091,22 +6091,22 @@
         <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O42" t="n">
         <v>1.36</v>
       </c>
       <c r="P42" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q42" t="n">
         <v>1.9</v>
       </c>
       <c r="R42" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S42" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T42" t="n">
         <v>1.68</v>
@@ -6115,40 +6115,40 @@
         <v>1.87</v>
       </c>
       <c r="V42" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="W42" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X42" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Y42" t="n">
         <v>11.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AA42" t="n">
         <v>42</v>
       </c>
       <c r="AB42" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC42" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD42" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AE42" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF42" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG42" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AH42" t="n">
         <v>22</v>
@@ -6160,7 +6160,7 @@
         <v>75</v>
       </c>
       <c r="AK42" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL42" t="n">
         <v>65</v>
@@ -6172,7 +6172,7 @@
         <v>55</v>
       </c>
       <c r="AO42" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
@@ -6205,37 +6205,37 @@
         <v>3.6</v>
       </c>
       <c r="G43" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="H43" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I43" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="J43" t="n">
         <v>2.98</v>
       </c>
       <c r="K43" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N43" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O43" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="P43" t="n">
         <v>1.53</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R43" t="n">
         <v>1.19</v>
@@ -6244,22 +6244,22 @@
         <v>5.3</v>
       </c>
       <c r="T43" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="U43" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="V43" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W43" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X43" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="Z43" t="n">
         <v>15</v>
@@ -6271,7 +6271,7 @@
         <v>11</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD43" t="n">
         <v>13</v>
@@ -6307,7 +6307,7 @@
         <v>85</v>
       </c>
       <c r="AO43" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
@@ -6346,16 +6346,16 @@
         <v>2.1</v>
       </c>
       <c r="I44" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J44" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K44" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M44" t="n">
         <v>1.09</v>
@@ -6364,13 +6364,13 @@
         <v>3.05</v>
       </c>
       <c r="O44" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P44" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R44" t="n">
         <v>1.26</v>
@@ -6379,16 +6379,16 @@
         <v>4</v>
       </c>
       <c r="T44" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U44" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V44" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W44" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X44" t="n">
         <v>970</v>
@@ -6400,7 +6400,7 @@
         <v>970</v>
       </c>
       <c r="AA44" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB44" t="n">
         <v>970</v>
@@ -6412,7 +6412,7 @@
         <v>970</v>
       </c>
       <c r="AE44" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF44" t="n">
         <v>29</v>
@@ -6421,10 +6421,10 @@
         <v>970</v>
       </c>
       <c r="AH44" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI44" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ44" t="n">
         <v>110</v>
@@ -6442,7 +6442,7 @@
         <v>85</v>
       </c>
       <c r="AO44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
@@ -6487,7 +6487,7 @@
         <v>3.9</v>
       </c>
       <c r="K45" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L45" t="n">
         <v>1.44</v>
@@ -6511,10 +6511,10 @@
         <v>1.29</v>
       </c>
       <c r="S45" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T45" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U45" t="n">
         <v>1.77</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G46" t="n">
         <v>2.08</v>
@@ -6658,7 +6658,7 @@
         <v>1.33</v>
       </c>
       <c r="W46" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X46" t="n">
         <v>15</v>
@@ -6685,7 +6685,7 @@
         <v>46</v>
       </c>
       <c r="AF46" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG46" t="n">
         <v>10.5</v>
@@ -6754,10 +6754,10 @@
         <v>5.8</v>
       </c>
       <c r="J47" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K47" t="n">
         <v>4.7</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4.8</v>
       </c>
       <c r="L47" t="n">
         <v>1.34</v>
@@ -6775,7 +6775,7 @@
         <v>2.36</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R47" t="n">
         <v>1.52</v>
@@ -6805,7 +6805,7 @@
         <v>48</v>
       </c>
       <c r="AA47" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB47" t="n">
         <v>10</v>
@@ -6826,10 +6826,10 @@
         <v>9.4</v>
       </c>
       <c r="AH47" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ47" t="n">
         <v>16</v>
@@ -6841,7 +6841,7 @@
         <v>28</v>
       </c>
       <c r="AM47" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN47" t="n">
         <v>7.6</v>
@@ -6904,7 +6904,7 @@
         <v>4.3</v>
       </c>
       <c r="O48" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P48" t="n">
         <v>2.1</v>
@@ -6916,7 +6916,7 @@
         <v>1.43</v>
       </c>
       <c r="S48" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T48" t="n">
         <v>1.73</v>
@@ -7030,7 +7030,7 @@
         <v>3.7</v>
       </c>
       <c r="L49" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M49" t="n">
         <v>1.08</v>
@@ -7066,7 +7066,7 @@
         <v>1.93</v>
       </c>
       <c r="X49" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y49" t="n">
         <v>14</v>
@@ -7075,7 +7075,7 @@
         <v>28</v>
       </c>
       <c r="AA49" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB49" t="n">
         <v>8.4</v>
@@ -7087,7 +7087,7 @@
         <v>16.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF49" t="n">
         <v>12</v>
@@ -7111,10 +7111,10 @@
         <v>40</v>
       </c>
       <c r="AM49" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN49" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO49" t="n">
         <v>65</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="G50" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="H50" t="n">
-        <v>1.04</v>
+        <v>15</v>
       </c>
       <c r="I50" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="J50" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="K50" t="n">
-        <v>800</v>
+        <v>9.4</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7171,22 +7171,22 @@
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="O50" t="n">
         <v>1.14</v>
       </c>
       <c r="P50" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="R50" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="T50" t="n">
         <v>1.01</v>
@@ -7195,10 +7195,10 @@
         <v>1.01</v>
       </c>
       <c r="V50" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="W50" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G51" t="n">
         <v>2.46</v>
@@ -7294,7 +7294,7 @@
         <v>3.4</v>
       </c>
       <c r="J51" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K51" t="n">
         <v>3.45</v>
@@ -7420,13 +7420,13 @@
         <v>2.84</v>
       </c>
       <c r="G52" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H52" t="n">
         <v>2.26</v>
       </c>
       <c r="I52" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J52" t="n">
         <v>3.85</v>
@@ -7438,19 +7438,19 @@
         <v>1.01</v>
       </c>
       <c r="M52" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="O52" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="P52" t="n">
-        <v>2.52</v>
+        <v>2.22</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.56</v>
+        <v>1.16</v>
       </c>
       <c r="R52" t="n">
         <v>1.62</v>
@@ -7459,70 +7459,70 @@
         <v>2.38</v>
       </c>
       <c r="T52" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="U52" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="V52" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W52" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X52" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE52" t="n">
         <v>32</v>
       </c>
-      <c r="Y52" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>27</v>
-      </c>
       <c r="AF52" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AG52" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AH52" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI52" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AJ52" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK52" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AL52" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AM52" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AN52" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
@@ -7567,7 +7567,7 @@
         <v>4.4</v>
       </c>
       <c r="K53" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
@@ -7687,112 +7687,112 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G54" t="n">
         <v>1.76</v>
       </c>
       <c r="H54" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="I54" t="n">
         <v>7.8</v>
       </c>
       <c r="J54" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K54" t="n">
-        <v>4.3</v>
+        <v>950</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O54" t="n">
         <v>1.34</v>
       </c>
       <c r="P54" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="R54" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="S54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T54" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="U54" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V54" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W54" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X54" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ54" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y54" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>23</v>
-      </c>
       <c r="AK54" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AL54" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN54" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55">
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G55" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H55" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="I55" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="J55" t="n">
         <v>3.9</v>
@@ -7843,34 +7843,34 @@
         <v>1.01</v>
       </c>
       <c r="M55" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N55" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="O55" t="n">
         <v>1.19</v>
       </c>
       <c r="P55" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="R55" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S55" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="T55" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="U55" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="V55" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="W55" t="n">
         <v>1.32</v>
@@ -8041,7 +8041,7 @@
         <v>10</v>
       </c>
       <c r="AH56" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI56" t="n">
         <v>55</v>
@@ -8092,112 +8092,112 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="G57" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="H57" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="I57" t="n">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="J57" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K57" t="n">
-        <v>5.9</v>
+        <v>4.1</v>
       </c>
       <c r="L57" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M57" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>1.63</v>
+        <v>3.1</v>
       </c>
       <c r="O57" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P57" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="R57" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="W57" t="n">
         <v>1.21</v>
       </c>
-      <c r="S57" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T57" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V57" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1.17</v>
-      </c>
       <c r="X57" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y57" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z57" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA57" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB57" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC57" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD57" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF57" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG57" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH57" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI57" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK57" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL57" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM57" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN57" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AO57" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="58">
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="G58" t="n">
         <v>1.35</v>
@@ -8254,22 +8254,22 @@
         <v>5.5</v>
       </c>
       <c r="O58" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P58" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q58" t="n">
         <v>1.55</v>
       </c>
       <c r="R58" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S58" t="n">
         <v>2.38</v>
       </c>
       <c r="T58" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U58" t="n">
         <v>1.89</v>
@@ -8281,7 +8281,7 @@
         <v>3.85</v>
       </c>
       <c r="X58" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Y58" t="n">
         <v>980</v>
@@ -8305,31 +8305,31 @@
         <v>190</v>
       </c>
       <c r="AF58" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG58" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI58" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ58" t="n">
         <v>11</v>
       </c>
       <c r="AK58" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL58" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM58" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN58" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AO58" t="n">
         <v>220</v>
@@ -8362,16 +8362,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G59" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H59" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I59" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J59" t="n">
         <v>3.15</v>
@@ -8398,7 +8398,7 @@
         <v>2.5</v>
       </c>
       <c r="R59" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S59" t="n">
         <v>5.1</v>
@@ -8410,19 +8410,19 @@
         <v>1.81</v>
       </c>
       <c r="V59" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W59" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X59" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y59" t="n">
         <v>10.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA59" t="n">
         <v>110</v>
@@ -8431,7 +8431,7 @@
         <v>7.6</v>
       </c>
       <c r="AC59" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD59" t="n">
         <v>16.5</v>
@@ -8446,7 +8446,7 @@
         <v>12</v>
       </c>
       <c r="AH59" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI59" t="n">
         <v>80</v>
@@ -8560,7 +8560,7 @@
         <v>34</v>
       </c>
       <c r="AA60" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB60" t="n">
         <v>9</v>
@@ -8581,7 +8581,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH60" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI60" t="n">
         <v>65</v>
@@ -8593,10 +8593,10 @@
         <v>19</v>
       </c>
       <c r="AL60" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM60" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN60" t="n">
         <v>12.5</v>
@@ -8632,31 +8632,31 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="G61" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H61" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="I61" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="J61" t="n">
         <v>3.55</v>
       </c>
       <c r="K61" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
       </c>
       <c r="M61" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>1.83</v>
+        <v>3.3</v>
       </c>
       <c r="O61" t="n">
         <v>1.28</v>
@@ -8665,25 +8665,25 @@
         <v>1.82</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R61" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S61" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="T61" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U61" t="n">
         <v>1.01</v>
       </c>
       <c r="V61" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="W61" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X61" t="n">
         <v>1000</v>
@@ -8773,7 +8773,7 @@
         <v>2.1</v>
       </c>
       <c r="H62" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I62" t="n">
         <v>4.6</v>
@@ -8782,7 +8782,7 @@
         <v>3.55</v>
       </c>
       <c r="K62" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -8791,28 +8791,28 @@
         <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O62" t="n">
         <v>1.37</v>
       </c>
       <c r="P62" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R62" t="n">
         <v>1.3</v>
       </c>
       <c r="S62" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T62" t="n">
         <v>1.85</v>
       </c>
       <c r="U62" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V62" t="n">
         <v>1.28</v>
@@ -8821,7 +8821,7 @@
         <v>1.91</v>
       </c>
       <c r="X62" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y62" t="n">
         <v>15</v>
@@ -8830,31 +8830,31 @@
         <v>34</v>
       </c>
       <c r="AA62" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB62" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC62" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD62" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE62" t="n">
         <v>60</v>
       </c>
       <c r="AF62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG62" t="n">
         <v>10.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI62" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ62" t="n">
         <v>25</v>
@@ -8869,7 +8869,7 @@
         <v>130</v>
       </c>
       <c r="AN62" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AO62" t="n">
         <v>75</v>
@@ -8902,13 +8902,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G63" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="H63" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I63" t="n">
         <v>5.5</v>
@@ -8917,7 +8917,7 @@
         <v>3.6</v>
       </c>
       <c r="K63" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="L63" t="n">
         <v>1.01</v>
@@ -8935,10 +8935,10 @@
         <v>2.24</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="R63" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="S63" t="n">
         <v>2.16</v>
@@ -8953,7 +8953,7 @@
         <v>1.22</v>
       </c>
       <c r="W63" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="X63" t="n">
         <v>1000</v>
@@ -9040,7 +9040,7 @@
         <v>1.31</v>
       </c>
       <c r="G64" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H64" t="n">
         <v>12</v>
@@ -9049,7 +9049,7 @@
         <v>14.5</v>
       </c>
       <c r="J64" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K64" t="n">
         <v>6.2</v>
@@ -9088,10 +9088,10 @@
         <v>1.07</v>
       </c>
       <c r="W64" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="X64" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y64" t="n">
         <v>42</v>
@@ -9103,22 +9103,22 @@
         <v>1000</v>
       </c>
       <c r="AB64" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC64" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AE64" t="n">
         <v>290</v>
       </c>
       <c r="AF64" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AG64" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH64" t="n">
         <v>36</v>
@@ -9130,16 +9130,16 @@
         <v>11</v>
       </c>
       <c r="AK64" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL64" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM64" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AN64" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO64" t="n">
         <v>480</v>
@@ -9175,7 +9175,7 @@
         <v>2.8</v>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H65" t="n">
         <v>2.86</v>
@@ -9193,7 +9193,7 @@
         <v>1.53</v>
       </c>
       <c r="M65" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N65" t="n">
         <v>2.84</v>
@@ -9205,13 +9205,13 @@
         <v>1.62</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R65" t="n">
         <v>1.23</v>
       </c>
       <c r="S65" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T65" t="n">
         <v>2</v>
@@ -9223,13 +9223,13 @@
         <v>1.47</v>
       </c>
       <c r="W65" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X65" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z65" t="n">
         <v>19.5</v>
@@ -9244,10 +9244,10 @@
         <v>7.4</v>
       </c>
       <c r="AD65" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF65" t="n">
         <v>19</v>
@@ -9256,28 +9256,28 @@
         <v>14</v>
       </c>
       <c r="AH65" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI65" t="n">
         <v>65</v>
       </c>
       <c r="AJ65" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK65" t="n">
         <v>42</v>
       </c>
       <c r="AL65" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM65" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN65" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AO65" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66">
@@ -9310,7 +9310,7 @@
         <v>1.88</v>
       </c>
       <c r="G66" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="H66" t="n">
         <v>4</v>
@@ -9319,13 +9319,13 @@
         <v>4.2</v>
       </c>
       <c r="J66" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K66" t="n">
         <v>4.6</v>
       </c>
       <c r="L66" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M66" t="n">
         <v>1.03</v>
@@ -9340,16 +9340,16 @@
         <v>2.7</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="R66" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="S66" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="T66" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U66" t="n">
         <v>2.58</v>
@@ -9358,13 +9358,13 @@
         <v>1.31</v>
       </c>
       <c r="W66" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="X66" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y66" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z66" t="n">
         <v>36</v>
@@ -9373,46 +9373,46 @@
         <v>75</v>
       </c>
       <c r="AB66" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AC66" t="n">
         <v>11</v>
       </c>
       <c r="AD66" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AE66" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF66" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AG66" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI66" t="n">
         <v>40</v>
       </c>
       <c r="AJ66" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK66" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AL66" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AM66" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN66" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AO66" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
@@ -9442,10 +9442,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G67" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H67" t="n">
         <v>2.98</v>
@@ -9460,10 +9460,10 @@
         <v>4.5</v>
       </c>
       <c r="L67" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M67" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N67" t="n">
         <v>6.2</v>
@@ -9472,25 +9472,25 @@
         <v>1.15</v>
       </c>
       <c r="P67" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="R67" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S67" t="n">
         <v>2.16</v>
       </c>
       <c r="T67" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="U67" t="n">
         <v>2.72</v>
       </c>
       <c r="V67" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W67" t="n">
         <v>1.74</v>
@@ -9514,34 +9514,34 @@
         <v>11.5</v>
       </c>
       <c r="AD67" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AE67" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG67" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH67" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AI67" t="n">
         <v>32</v>
       </c>
       <c r="AJ67" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AK67" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL67" t="n">
         <v>27</v>
       </c>
       <c r="AM67" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AN67" t="n">
         <v>10</v>
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G68" t="n">
         <v>1.97</v>
@@ -9586,7 +9586,7 @@
         <v>4.2</v>
       </c>
       <c r="I68" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J68" t="n">
         <v>3.9</v>
@@ -9595,7 +9595,7 @@
         <v>4.2</v>
       </c>
       <c r="L68" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M68" t="n">
         <v>1.05</v>
@@ -9610,10 +9610,10 @@
         <v>2.22</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R68" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S68" t="n">
         <v>2.82</v>
@@ -9625,22 +9625,22 @@
         <v>2.28</v>
       </c>
       <c r="V68" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W68" t="n">
         <v>2.02</v>
       </c>
       <c r="X68" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="Y68" t="n">
         <v>970</v>
       </c>
       <c r="Z68" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA68" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB68" t="n">
         <v>11.5</v>
@@ -9649,13 +9649,13 @@
         <v>9.4</v>
       </c>
       <c r="AD68" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AE68" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF68" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG68" t="n">
         <v>11</v>
@@ -9664,22 +9664,22 @@
         <v>970</v>
       </c>
       <c r="AI68" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ68" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK68" t="n">
         <v>970</v>
       </c>
       <c r="AL68" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM68" t="n">
         <v>80</v>
       </c>
       <c r="AN68" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO68" t="n">
         <v>42</v>
@@ -9736,7 +9736,7 @@
         <v>1.09</v>
       </c>
       <c r="N69" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O69" t="n">
         <v>1.39</v>
@@ -9757,7 +9757,7 @@
         <v>1.89</v>
       </c>
       <c r="U69" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="V69" t="n">
         <v>1.34</v>
@@ -9766,7 +9766,7 @@
         <v>1.81</v>
       </c>
       <c r="X69" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y69" t="n">
         <v>13</v>
@@ -9775,7 +9775,7 @@
         <v>28</v>
       </c>
       <c r="AA69" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AB69" t="n">
         <v>8.800000000000001</v>
@@ -9784,7 +9784,7 @@
         <v>7.8</v>
       </c>
       <c r="AD69" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE69" t="n">
         <v>55</v>
@@ -9802,7 +9802,7 @@
         <v>65</v>
       </c>
       <c r="AJ69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK69" t="n">
         <v>26</v>
@@ -9817,7 +9817,7 @@
         <v>21</v>
       </c>
       <c r="AO69" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70">
@@ -9871,7 +9871,7 @@
         <v>1.06</v>
       </c>
       <c r="N70" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O70" t="n">
         <v>1.29</v>
@@ -9880,19 +9880,19 @@
         <v>2.06</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R70" t="n">
         <v>1.42</v>
       </c>
       <c r="S70" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T70" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U70" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V70" t="n">
         <v>1.35</v>
@@ -9916,7 +9916,7 @@
         <v>11</v>
       </c>
       <c r="AC70" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD70" t="n">
         <v>15.5</v>
@@ -9925,7 +9925,7 @@
         <v>42</v>
       </c>
       <c r="AF70" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG70" t="n">
         <v>10.5</v>
@@ -9949,7 +9949,7 @@
         <v>80</v>
       </c>
       <c r="AN70" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO70" t="n">
         <v>38</v>
@@ -9988,10 +9988,10 @@
         <v>1.82</v>
       </c>
       <c r="H71" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I71" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J71" t="n">
         <v>3.7</v>
@@ -10021,7 +10021,7 @@
         <v>1.26</v>
       </c>
       <c r="S71" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T71" t="n">
         <v>2.12</v>
@@ -10039,28 +10039,28 @@
         <v>11.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z71" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA71" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB71" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC71" t="n">
         <v>8.4</v>
       </c>
       <c r="AD71" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE71" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF71" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG71" t="n">
         <v>11</v>
@@ -10072,19 +10072,19 @@
         <v>130</v>
       </c>
       <c r="AJ71" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AK71" t="n">
         <v>23</v>
       </c>
       <c r="AL71" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM71" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN71" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO71" t="n">
         <v>190</v>
@@ -10120,19 +10120,19 @@
         <v>1.89</v>
       </c>
       <c r="G72" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H72" t="n">
         <v>4.8</v>
       </c>
       <c r="I72" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J72" t="n">
         <v>3.55</v>
       </c>
       <c r="K72" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L72" t="n">
         <v>1.01</v>
@@ -10141,19 +10141,19 @@
         <v>1.08</v>
       </c>
       <c r="N72" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O72" t="n">
         <v>1.36</v>
       </c>
       <c r="P72" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R72" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S72" t="n">
         <v>3.75</v>
@@ -10162,22 +10162,22 @@
         <v>1.92</v>
       </c>
       <c r="U72" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V72" t="n">
         <v>1.25</v>
       </c>
       <c r="W72" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X72" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y72" t="n">
         <v>16</v>
       </c>
-      <c r="Y72" t="n">
-        <v>16.5</v>
-      </c>
       <c r="Z72" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA72" t="n">
         <v>160</v>
@@ -10189,7 +10189,7 @@
         <v>8.4</v>
       </c>
       <c r="AD72" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE72" t="n">
         <v>75</v>
@@ -10210,19 +10210,19 @@
         <v>21</v>
       </c>
       <c r="AK72" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL72" t="n">
         <v>42</v>
       </c>
       <c r="AM72" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN72" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AO72" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73">
@@ -10261,13 +10261,13 @@
         <v>3.8</v>
       </c>
       <c r="I73" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J73" t="n">
         <v>3.2</v>
       </c>
       <c r="K73" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L73" t="n">
         <v>1.47</v>
@@ -10288,7 +10288,7 @@
         <v>2.2</v>
       </c>
       <c r="R73" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S73" t="n">
         <v>4.1</v>
@@ -10306,7 +10306,7 @@
         <v>1.81</v>
       </c>
       <c r="X73" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y73" t="n">
         <v>13</v>
@@ -10336,7 +10336,7 @@
         <v>12</v>
       </c>
       <c r="AH73" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI73" t="n">
         <v>75</v>
@@ -10351,13 +10351,13 @@
         <v>48</v>
       </c>
       <c r="AM73" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN73" t="n">
         <v>25</v>
       </c>
       <c r="AO73" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74">
@@ -10387,22 +10387,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="G74" t="n">
+        <v>3</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J74" t="n">
         <v>3.15</v>
       </c>
-      <c r="H74" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I74" t="n">
+      <c r="K74" t="n">
         <v>3.7</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K74" t="n">
-        <v>5</v>
       </c>
       <c r="L74" t="n">
         <v>1.01</v>
@@ -10411,22 +10411,22 @@
         <v>1.01</v>
       </c>
       <c r="N74" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="O74" t="n">
         <v>1.35</v>
       </c>
       <c r="P74" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="R74" t="n">
         <v>1.18</v>
       </c>
       <c r="S74" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="T74" t="n">
         <v>1.01</v>
@@ -10435,10 +10435,10 @@
         <v>1.01</v>
       </c>
       <c r="V74" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="W74" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="X74" t="n">
         <v>17.5</v>
@@ -10528,7 +10528,7 @@
         <v>1.27</v>
       </c>
       <c r="H75" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="I75" t="n">
         <v>15</v>
@@ -10573,7 +10573,7 @@
         <v>1.07</v>
       </c>
       <c r="W75" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="X75" t="n">
         <v>32</v>
@@ -10582,7 +10582,7 @@
         <v>50</v>
       </c>
       <c r="Z75" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA75" t="n">
         <v>590</v>
@@ -10669,10 +10669,10 @@
         <v>1.81</v>
       </c>
       <c r="J76" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K76" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K76" t="n">
-        <v>4.3</v>
       </c>
       <c r="L76" t="n">
         <v>1.33</v>
@@ -10699,19 +10699,19 @@
         <v>2.78</v>
       </c>
       <c r="T76" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U76" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V76" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="W76" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X76" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y76" t="n">
         <v>11</v>
@@ -10720,13 +10720,13 @@
         <v>12</v>
       </c>
       <c r="AA76" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB76" t="n">
         <v>21</v>
       </c>
       <c r="AC76" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD76" t="n">
         <v>9.800000000000001</v>
@@ -10735,7 +10735,7 @@
         <v>16</v>
       </c>
       <c r="AF76" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG76" t="n">
         <v>18.5</v>
@@ -10744,7 +10744,7 @@
         <v>16.5</v>
       </c>
       <c r="AI76" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ76" t="n">
         <v>110</v>
@@ -10795,19 +10795,19 @@
         <v>4.8</v>
       </c>
       <c r="G77" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="H77" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="I77" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="J77" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K77" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
@@ -10816,22 +10816,22 @@
         <v>1.01</v>
       </c>
       <c r="N77" t="n">
-        <v>1.86</v>
+        <v>3.65</v>
       </c>
       <c r="O77" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P77" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R77" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S77" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T77" t="n">
         <v>1.01</v>
@@ -10840,7 +10840,7 @@
         <v>1.01</v>
       </c>
       <c r="V77" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="W77" t="n">
         <v>1.12</v>
@@ -11062,22 +11062,22 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="G79" t="n">
         <v>1.18</v>
       </c>
       <c r="H79" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="I79" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J79" t="n">
         <v>9.6</v>
       </c>
       <c r="K79" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="L79" t="n">
         <v>1.2</v>
@@ -11089,7 +11089,7 @@
         <v>8</v>
       </c>
       <c r="O79" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P79" t="n">
         <v>3.4</v>
@@ -11098,7 +11098,7 @@
         <v>1.35</v>
       </c>
       <c r="R79" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="S79" t="n">
         <v>1.9</v>
@@ -11107,7 +11107,7 @@
         <v>2.12</v>
       </c>
       <c r="U79" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="V79" t="n">
         <v>1.04</v>
@@ -11122,52 +11122,52 @@
         <v>75</v>
       </c>
       <c r="Z79" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AA79" t="n">
         <v>1000</v>
       </c>
       <c r="AB79" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC79" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD79" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AE79" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AF79" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AG79" t="n">
         <v>14</v>
       </c>
       <c r="AH79" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AI79" t="n">
         <v>250</v>
       </c>
       <c r="AJ79" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AK79" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL79" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM79" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN79" t="n">
         <v>2.94</v>
       </c>
       <c r="AO79" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="80">
@@ -11197,22 +11197,22 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>8</v>
+        <v>1.04</v>
       </c>
       <c r="G80" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="H80" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="I80" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="J80" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K80" t="n">
-        <v>5.4</v>
+        <v>950</v>
       </c>
       <c r="L80" t="n">
         <v>1.01</v>
@@ -11221,22 +11221,22 @@
         <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>1.04</v>
+        <v>4.6</v>
       </c>
       <c r="O80" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P80" t="n">
         <v>2.24</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="R80" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S80" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="T80" t="n">
         <v>1.01</v>
@@ -11245,10 +11245,10 @@
         <v>1.01</v>
       </c>
       <c r="V80" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="W80" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="X80" t="n">
         <v>1000</v>
@@ -11338,7 +11338,7 @@
         <v>1.08</v>
       </c>
       <c r="H81" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I81" t="n">
         <v>65</v>
@@ -11359,25 +11359,25 @@
         <v>7.2</v>
       </c>
       <c r="O81" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P81" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R81" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="S81" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="T81" t="n">
         <v>3.25</v>
       </c>
       <c r="U81" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="V81" t="n">
         <v>1.01</v>
@@ -11389,7 +11389,7 @@
         <v>55</v>
       </c>
       <c r="Y81" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="Z81" t="n">
         <v>1000</v>
@@ -11398,25 +11398,25 @@
         <v>1000</v>
       </c>
       <c r="AB81" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC81" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AD81" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AE81" t="n">
         <v>1000</v>
       </c>
       <c r="AF81" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AG81" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AH81" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AI81" t="n">
         <v>1000</v>
@@ -11425,16 +11425,16 @@
         <v>6.8</v>
       </c>
       <c r="AK81" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL81" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AM81" t="n">
         <v>1000</v>
       </c>
       <c r="AN81" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="AO81" t="n">
         <v>1000</v>
@@ -11470,7 +11470,7 @@
         <v>2.24</v>
       </c>
       <c r="G82" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H82" t="n">
         <v>2.92</v>
@@ -11497,7 +11497,7 @@
         <v>1.23</v>
       </c>
       <c r="P82" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q82" t="n">
         <v>1.68</v>
@@ -11515,10 +11515,10 @@
         <v>2.34</v>
       </c>
       <c r="V82" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W82" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X82" t="n">
         <v>23</v>
@@ -11557,7 +11557,7 @@
         <v>44</v>
       </c>
       <c r="AJ82" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK82" t="n">
         <v>27</v>
@@ -11626,22 +11626,22 @@
         <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O83" t="n">
         <v>1.07</v>
       </c>
       <c r="P83" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="R83" t="n">
-        <v>1.93</v>
+        <v>1.47</v>
       </c>
       <c r="S83" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="T83" t="n">
         <v>1.01</v>
@@ -11755,7 +11755,7 @@
         <v>3</v>
       </c>
       <c r="L84" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="M84" t="n">
         <v>1.16</v>
@@ -11764,13 +11764,13 @@
         <v>2.4</v>
       </c>
       <c r="O84" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="P84" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q84" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R84" t="n">
         <v>1.16</v>
@@ -11782,7 +11782,7 @@
         <v>2.4</v>
       </c>
       <c r="U84" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V84" t="n">
         <v>1.5</v>
@@ -11872,58 +11872,58 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G85" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H85" t="n">
         <v>3.3</v>
       </c>
       <c r="I85" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J85" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K85" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L85" t="n">
         <v>1.56</v>
       </c>
       <c r="M85" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N85" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O85" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P85" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q85" t="n">
         <v>2.44</v>
       </c>
       <c r="R85" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S85" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T85" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U85" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V85" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W85" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X85" t="n">
         <v>11.5</v>
@@ -11962,10 +11962,10 @@
         <v>75</v>
       </c>
       <c r="AJ85" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK85" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL85" t="n">
         <v>60</v>
@@ -12007,28 +12007,28 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="G86" t="n">
         <v>1.55</v>
       </c>
       <c r="H86" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="I86" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J86" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="K86" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L86" t="n">
         <v>1.29</v>
       </c>
       <c r="M86" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N86" t="n">
         <v>5.1</v>
@@ -12037,13 +12037,13 @@
         <v>1.21</v>
       </c>
       <c r="P86" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R86" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S86" t="n">
         <v>2.54</v>
@@ -12058,61 +12058,61 @@
         <v>1.13</v>
       </c>
       <c r="W86" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="X86" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y86" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Z86" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AA86" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB86" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD86" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AE86" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF86" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG86" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH86" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AI86" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ86" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AK86" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AL86" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AM86" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN86" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO86" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87">
@@ -12169,7 +12169,7 @@
         <v>4.9</v>
       </c>
       <c r="O87" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P87" t="n">
         <v>2.38</v>
@@ -12181,7 +12181,7 @@
         <v>1.55</v>
       </c>
       <c r="S87" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T87" t="n">
         <v>2.04</v>
@@ -12202,10 +12202,10 @@
         <v>46</v>
       </c>
       <c r="Z87" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA87" t="n">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="AB87" t="n">
         <v>9.800000000000001</v>
@@ -12217,7 +12217,7 @@
         <v>50</v>
       </c>
       <c r="AE87" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AF87" t="n">
         <v>9.6</v>
@@ -12247,7 +12247,7 @@
         <v>5.5</v>
       </c>
       <c r="AO87" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88">
@@ -12286,7 +12286,7 @@
         <v>3.65</v>
       </c>
       <c r="I88" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J88" t="n">
         <v>3.4</v>
@@ -12295,25 +12295,25 @@
         <v>4.3</v>
       </c>
       <c r="L88" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M88" t="n">
         <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O88" t="n">
         <v>1.3</v>
       </c>
       <c r="P88" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="R88" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S88" t="n">
         <v>3.3</v>
@@ -12451,7 +12451,7 @@
         <v>1.9</v>
       </c>
       <c r="S89" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T89" t="n">
         <v>2.28</v>
@@ -12469,7 +12469,7 @@
         <v>55</v>
       </c>
       <c r="Y89" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Z89" t="n">
         <v>300</v>
@@ -12484,16 +12484,16 @@
         <v>28</v>
       </c>
       <c r="AD89" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AE89" t="n">
         <v>480</v>
       </c>
       <c r="AF89" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG89" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH89" t="n">
         <v>55</v>
@@ -12550,7 +12550,7 @@
         <v>1.85</v>
       </c>
       <c r="G90" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H90" t="n">
         <v>3.85</v>
@@ -12559,7 +12559,7 @@
         <v>4.6</v>
       </c>
       <c r="J90" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K90" t="n">
         <v>4.8</v>
@@ -12568,13 +12568,13 @@
         <v>1.29</v>
       </c>
       <c r="M90" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N90" t="n">
-        <v>2.16</v>
+        <v>4.4</v>
       </c>
       <c r="O90" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P90" t="n">
         <v>2.16</v>
@@ -12583,10 +12583,10 @@
         <v>1.69</v>
       </c>
       <c r="R90" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="S90" t="n">
-        <v>1.69</v>
+        <v>2.56</v>
       </c>
       <c r="T90" t="n">
         <v>1.58</v>
@@ -12598,61 +12598,61 @@
         <v>1.27</v>
       </c>
       <c r="W90" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="X90" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y90" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z90" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA90" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB90" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC90" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD90" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE90" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF90" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG90" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH90" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI90" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ90" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK90" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL90" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM90" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN90" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO90" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91">
@@ -12709,7 +12709,7 @@
         <v>1.76</v>
       </c>
       <c r="O91" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P91" t="n">
         <v>1.76</v>
@@ -12817,58 +12817,58 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="G92" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H92" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="I92" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J92" t="n">
         <v>3.55</v>
       </c>
       <c r="K92" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="L92" t="n">
         <v>1.01</v>
       </c>
       <c r="M92" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N92" t="n">
-        <v>1.56</v>
+        <v>2.78</v>
       </c>
       <c r="O92" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P92" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q92" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V92" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W92" t="n">
         <v>2.22</v>
-      </c>
-      <c r="R92" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S92" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T92" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U92" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V92" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W92" t="n">
-        <v>2.16</v>
       </c>
       <c r="X92" t="n">
         <v>1000</v>
@@ -12958,7 +12958,7 @@
         <v>3.35</v>
       </c>
       <c r="H93" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I93" t="n">
         <v>2.42</v>
@@ -12982,10 +12982,10 @@
         <v>1.2</v>
       </c>
       <c r="P93" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R93" t="n">
         <v>1.59</v>
@@ -13003,7 +13003,7 @@
         <v>1.7</v>
       </c>
       <c r="W93" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X93" t="n">
         <v>26</v>
@@ -13093,13 +13093,13 @@
         <v>3.1</v>
       </c>
       <c r="H94" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I94" t="n">
         <v>3.1</v>
       </c>
       <c r="J94" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K94" t="n">
         <v>3.45</v>
@@ -13114,7 +13114,7 @@
         <v>2.92</v>
       </c>
       <c r="O94" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P94" t="n">
         <v>1.25</v>
@@ -13126,7 +13126,7 @@
         <v>1.19</v>
       </c>
       <c r="S94" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T94" t="n">
         <v>1.89</v>
@@ -13141,58 +13141,58 @@
         <v>1.48</v>
       </c>
       <c r="X94" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="Y94" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AA94" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AB94" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC94" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD94" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AE94" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AF94" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AG94" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AH94" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI94" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ94" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AK94" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AL94" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AM94" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN94" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO94" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95">
@@ -13249,7 +13249,7 @@
         <v>5.6</v>
       </c>
       <c r="O95" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P95" t="n">
         <v>2.58</v>
@@ -13258,13 +13258,13 @@
         <v>1.59</v>
       </c>
       <c r="R95" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S95" t="n">
         <v>2.44</v>
       </c>
       <c r="T95" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U95" t="n">
         <v>2.36</v>
@@ -13285,7 +13285,7 @@
         <v>11.5</v>
       </c>
       <c r="AA95" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB95" t="n">
         <v>26</v>
@@ -13312,7 +13312,7 @@
         <v>27</v>
       </c>
       <c r="AJ95" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK95" t="n">
         <v>60</v>
@@ -13327,7 +13327,7 @@
         <v>55</v>
       </c>
       <c r="AO95" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="96">
@@ -13375,7 +13375,7 @@
         <v>4.9</v>
       </c>
       <c r="L96" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M96" t="n">
         <v>1.07</v>
@@ -13399,10 +13399,10 @@
         <v>3.75</v>
       </c>
       <c r="T96" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U96" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V96" t="n">
         <v>2.98</v>
@@ -13423,7 +13423,7 @@
         <v>12.5</v>
       </c>
       <c r="AB96" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC96" t="n">
         <v>10</v>
@@ -13438,7 +13438,7 @@
         <v>75</v>
       </c>
       <c r="AG96" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH96" t="n">
         <v>30</v>
@@ -13453,10 +13453,10 @@
         <v>160</v>
       </c>
       <c r="AL96" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AM96" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN96" t="n">
         <v>250</v>
@@ -13492,16 +13492,16 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G97" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H97" t="n">
         <v>3.05</v>
       </c>
       <c r="I97" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J97" t="n">
         <v>3.45</v>
@@ -13546,7 +13546,7 @@
         <v>1.66</v>
       </c>
       <c r="X97" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Y97" t="n">
         <v>14.5</v>
@@ -13558,10 +13558,10 @@
         <v>55</v>
       </c>
       <c r="AB97" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC97" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AD97" t="n">
         <v>14</v>
@@ -13576,7 +13576,7 @@
         <v>12</v>
       </c>
       <c r="AH97" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI97" t="n">
         <v>42</v>
@@ -13627,109 +13627,109 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="G98" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="H98" t="n">
         <v>5.7</v>
       </c>
       <c r="I98" t="n">
-        <v>170</v>
+        <v>970</v>
       </c>
       <c r="J98" t="n">
         <v>3.7</v>
       </c>
       <c r="K98" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="L98" t="n">
         <v>1.01</v>
       </c>
       <c r="M98" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N98" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="O98" t="n">
         <v>1.29</v>
       </c>
       <c r="P98" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="R98" t="n">
         <v>1.13</v>
       </c>
       <c r="S98" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="T98" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="U98" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V98" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W98" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="X98" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y98" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z98" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA98" t="n">
         <v>1000</v>
       </c>
       <c r="AB98" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC98" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD98" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE98" t="n">
         <v>1000</v>
       </c>
       <c r="AF98" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG98" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH98" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI98" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ98" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK98" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL98" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM98" t="n">
         <v>1000</v>
       </c>
       <c r="AN98" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO98" t="n">
         <v>1000</v>
@@ -13780,7 +13780,7 @@
         <v>3.3</v>
       </c>
       <c r="L99" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M99" t="n">
         <v>1.1</v>
@@ -13801,7 +13801,7 @@
         <v>1.27</v>
       </c>
       <c r="S99" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T99" t="n">
         <v>1.98</v>
@@ -13813,7 +13813,7 @@
         <v>1.37</v>
       </c>
       <c r="W99" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X99" t="n">
         <v>10</v>
@@ -13846,7 +13846,7 @@
         <v>11.5</v>
       </c>
       <c r="AH99" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI99" t="n">
         <v>65</v>
@@ -14065,13 +14065,13 @@
         <v>1.25</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="R101" t="n">
         <v>1.13</v>
       </c>
       <c r="S101" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="T101" t="n">
         <v>1.01</v>
@@ -14173,7 +14173,7 @@
         <v>19.5</v>
       </c>
       <c r="H102" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="I102" t="n">
         <v>1.27</v>
@@ -14185,46 +14185,46 @@
         <v>7.2</v>
       </c>
       <c r="L102" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M102" t="n">
         <v>1.05</v>
       </c>
       <c r="N102" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O102" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P102" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="R102" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S102" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T102" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="U102" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="V102" t="n">
         <v>4.6</v>
       </c>
       <c r="W102" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="X102" t="n">
         <v>18.5</v>
       </c>
       <c r="Y102" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Z102" t="n">
         <v>6.6</v>
@@ -14233,7 +14233,7 @@
         <v>8.6</v>
       </c>
       <c r="AB102" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AC102" t="n">
         <v>15.5</v>
@@ -14245,16 +14245,16 @@
         <v>17</v>
       </c>
       <c r="AF102" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AG102" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AH102" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI102" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ102" t="n">
         <v>1000</v>
@@ -14266,13 +14266,13 @@
         <v>540</v>
       </c>
       <c r="AM102" t="n">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="AN102" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AO102" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="103">
@@ -14302,22 +14302,22 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="G103" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K103" t="n">
         <v>5</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="I103" t="n">
-        <v>2</v>
-      </c>
-      <c r="J103" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K103" t="n">
-        <v>3.8</v>
       </c>
       <c r="L103" t="n">
         <v>1.01</v>
@@ -14338,22 +14338,22 @@
         <v>2.04</v>
       </c>
       <c r="R103" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S103" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T103" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="U103" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="V103" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W103" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="X103" t="n">
         <v>1000</v>
@@ -14581,10 +14581,10 @@
         <v>1.09</v>
       </c>
       <c r="I105" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="J105" t="n">
-        <v>2.74</v>
+        <v>2.06</v>
       </c>
       <c r="K105" t="n">
         <v>1000</v>
@@ -14707,13 +14707,13 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G106" t="n">
         <v>3.15</v>
       </c>
       <c r="H106" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I106" t="n">
         <v>3.7</v>
@@ -14728,13 +14728,13 @@
         <v>1.45</v>
       </c>
       <c r="M106" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N106" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O106" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P106" t="n">
         <v>1.61</v>
@@ -14845,19 +14845,19 @@
         <v>1.62</v>
       </c>
       <c r="G107" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H107" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I107" t="n">
         <v>8.4</v>
       </c>
       <c r="J107" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K107" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L107" t="n">
         <v>1.01</v>
@@ -14866,34 +14866,34 @@
         <v>1.1</v>
       </c>
       <c r="N107" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O107" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P107" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="R107" t="n">
         <v>1.2</v>
       </c>
       <c r="S107" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T107" t="n">
         <v>2.28</v>
       </c>
       <c r="U107" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V107" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W107" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X107" t="n">
         <v>12</v>
@@ -14905,10 +14905,10 @@
         <v>75</v>
       </c>
       <c r="AA107" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="AB107" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC107" t="n">
         <v>10.5</v>
@@ -14923,13 +14923,13 @@
         <v>10.5</v>
       </c>
       <c r="AG107" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH107" t="n">
         <v>38</v>
       </c>
       <c r="AI107" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AJ107" t="n">
         <v>21</v>
@@ -14938,16 +14938,16 @@
         <v>28</v>
       </c>
       <c r="AL107" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM107" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AN107" t="n">
         <v>19.5</v>
       </c>
       <c r="AO107" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
     </row>
     <row r="108">
@@ -14977,10 +14977,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H108" t="n">
         <v>8.199999999999999</v>
@@ -15001,19 +15001,19 @@
         <v>1.1</v>
       </c>
       <c r="N108" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="O108" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P108" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q108" t="n">
         <v>2.4</v>
       </c>
       <c r="R108" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S108" t="n">
         <v>4.8</v>
@@ -15022,16 +15022,16 @@
         <v>2.44</v>
       </c>
       <c r="U108" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="V108" t="n">
         <v>1.11</v>
       </c>
       <c r="W108" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="X108" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y108" t="n">
         <v>21</v>
@@ -15040,49 +15040,49 @@
         <v>80</v>
       </c>
       <c r="AA108" t="n">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="AB108" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AC108" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD108" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE108" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AF108" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG108" t="n">
         <v>11.5</v>
       </c>
       <c r="AH108" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI108" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AJ108" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK108" t="n">
         <v>23</v>
       </c>
       <c r="AL108" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM108" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="AN108" t="n">
         <v>14.5</v>
       </c>
       <c r="AO108" t="n">
-        <v>550</v>
+        <v>480</v>
       </c>
     </row>
     <row r="109">
@@ -15112,7 +15112,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G109" t="n">
         <v>3.75</v>
@@ -15121,10 +15121,10 @@
         <v>2.24</v>
       </c>
       <c r="I109" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J109" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K109" t="n">
         <v>3.55</v>
@@ -15136,7 +15136,7 @@
         <v>1.08</v>
       </c>
       <c r="N109" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O109" t="n">
         <v>1.38</v>
@@ -15151,19 +15151,19 @@
         <v>1.29</v>
       </c>
       <c r="S109" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T109" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U109" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="V109" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W109" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X109" t="n">
         <v>14</v>
@@ -15247,22 +15247,22 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G110" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="H110" t="n">
         <v>6</v>
       </c>
       <c r="I110" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J110" t="n">
         <v>3.85</v>
       </c>
       <c r="K110" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="L110" t="n">
         <v>1.01</v>
@@ -15271,34 +15271,34 @@
         <v>1.07</v>
       </c>
       <c r="N110" t="n">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="O110" t="n">
         <v>1.34</v>
       </c>
       <c r="P110" t="n">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="Q110" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R110" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S110" t="n">
-        <v>3.4</v>
+        <v>2.04</v>
       </c>
       <c r="T110" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="U110" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="V110" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W110" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="X110" t="n">
         <v>1000</v>
@@ -15520,10 +15520,10 @@
         <v>1.98</v>
       </c>
       <c r="G112" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H112" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I112" t="n">
         <v>4.3</v>
@@ -15535,10 +15535,10 @@
         <v>4</v>
       </c>
       <c r="L112" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M112" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N112" t="n">
         <v>3.75</v>
@@ -15550,7 +15550,7 @@
         <v>1.95</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R112" t="n">
         <v>1.36</v>
@@ -15568,10 +15568,10 @@
         <v>1.31</v>
       </c>
       <c r="W112" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X112" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y112" t="n">
         <v>15</v>
@@ -15586,7 +15586,7 @@
         <v>9.6</v>
       </c>
       <c r="AC112" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD112" t="n">
         <v>16.5</v>
@@ -15601,7 +15601,7 @@
         <v>11</v>
       </c>
       <c r="AH112" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AI112" t="n">
         <v>60</v>
@@ -15610,19 +15610,19 @@
         <v>24</v>
       </c>
       <c r="AK112" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL112" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM112" t="n">
         <v>120</v>
       </c>
       <c r="AN112" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO112" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113">
@@ -15655,13 +15655,13 @@
         <v>3.05</v>
       </c>
       <c r="G113" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H113" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="J113" t="n">
         <v>2.88</v>
@@ -15670,16 +15670,16 @@
         <v>3.15</v>
       </c>
       <c r="L113" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="M113" t="n">
         <v>1.14</v>
       </c>
       <c r="N113" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="O113" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P113" t="n">
         <v>1.49</v>
@@ -15700,10 +15700,10 @@
         <v>1.74</v>
       </c>
       <c r="V113" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W113" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X113" t="n">
         <v>8</v>
@@ -15712,10 +15712,10 @@
         <v>8</v>
       </c>
       <c r="Z113" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AA113" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB113" t="n">
         <v>8.6</v>
@@ -15724,7 +15724,7 @@
         <v>7.2</v>
       </c>
       <c r="AD113" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AE113" t="n">
         <v>50</v>
@@ -15745,7 +15745,7 @@
         <v>65</v>
       </c>
       <c r="AK113" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL113" t="n">
         <v>90</v>
@@ -15754,10 +15754,10 @@
         <v>250</v>
       </c>
       <c r="AN113" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AO113" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114">
@@ -15787,22 +15787,22 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="G114" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="H114" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="I114" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J114" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K114" t="n">
-        <v>110</v>
+        <v>3.6</v>
       </c>
       <c r="L114" t="n">
         <v>1.01</v>
@@ -15811,16 +15811,16 @@
         <v>1.01</v>
       </c>
       <c r="N114" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="O114" t="n">
         <v>1.01</v>
       </c>
       <c r="P114" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="R114" t="n">
         <v>1.14</v>
@@ -15835,10 +15835,10 @@
         <v>1.57</v>
       </c>
       <c r="V114" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W114" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="X114" t="n">
         <v>12</v>
@@ -15925,109 +15925,109 @@
         <v>2.34</v>
       </c>
       <c r="G115" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="H115" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I115" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J115" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="K115" t="n">
         <v>3.5</v>
       </c>
       <c r="L115" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M115" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N115" t="n">
-        <v>1.66</v>
+        <v>2.92</v>
       </c>
       <c r="O115" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P115" t="n">
         <v>1.66</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="R115" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S115" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T115" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U115" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V115" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W115" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="X115" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y115" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z115" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA115" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB115" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC115" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD115" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE115" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF115" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG115" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH115" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI115" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ115" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK115" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL115" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM115" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN115" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO115" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO118"/>
+  <dimension ref="A1:AO119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G2" t="n">
         <v>5.5</v>
@@ -679,7 +679,7 @@
         <v>1.71</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
         <v>4.5</v>
@@ -700,7 +700,7 @@
         <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R2" t="n">
         <v>1.49</v>
@@ -805,10 +805,10 @@
         <v>1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="H3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
@@ -826,10 +826,10 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.3</v>
+        <v>1.02</v>
       </c>
       <c r="O3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P3" t="n">
         <v>2.3</v>
@@ -847,7 +847,7 @@
         <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
@@ -940,109 +940,109 @@
         <v>6.8</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="I4" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
-        <v>24</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.81</v>
+        <v>1.03</v>
       </c>
       <c r="O4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.09</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.01</v>
-      </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="5">
@@ -1075,22 +1075,22 @@
         <v>2.6</v>
       </c>
       <c r="G5" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H5" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I5" t="n">
         <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1099,25 +1099,25 @@
         <v>3.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P5" t="n">
         <v>1.83</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V5" t="n">
         <v>1.48</v>
@@ -1210,7 +1210,7 @@
         <v>2.1</v>
       </c>
       <c r="G6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
@@ -1231,16 +1231,16 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="O6" t="n">
         <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R6" t="n">
         <v>1.31</v>
@@ -1351,7 +1351,7 @@
         <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
         <v>3.45</v>
@@ -1366,10 +1366,10 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>1.03</v>
+        <v>3.65</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
         <v>1.88</v>
@@ -1378,76 +1378,76 @@
         <v>1.94</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
         <v>1.96</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -1519,10 +1519,10 @@
         <v>3.75</v>
       </c>
       <c r="T8" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="U8" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V8" t="n">
         <v>1.19</v>
@@ -1621,10 +1621,10 @@
         <v>2.16</v>
       </c>
       <c r="I9" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>5.3</v>
@@ -1660,7 +1660,7 @@
         <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
         <v>1.36</v>
@@ -1750,19 +1750,19 @@
         <v>2.7</v>
       </c>
       <c r="G10" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H10" t="n">
         <v>2.38</v>
       </c>
       <c r="I10" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>950</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,16 +1771,16 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>2.36</v>
+        <v>1.03</v>
       </c>
       <c r="O10" t="n">
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.36</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="R10" t="n">
         <v>1.21</v>
@@ -1795,7 +1795,7 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="W10" t="n">
         <v>1.5</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G11" t="n">
         <v>4.7</v>
@@ -1900,34 +1900,34 @@
         <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.4</v>
+        <v>2.48</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="S11" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="T11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V11" t="n">
         <v>2.16</v>
@@ -1954,7 +1954,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -1969,7 +1969,7 @@
         <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ11" t="n">
         <v>110</v>
@@ -2020,16 +2020,16 @@
         <v>2.06</v>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
         <v>5.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
         <v>3.2</v>
@@ -2068,7 +2068,7 @@
         <v>1.24</v>
       </c>
       <c r="W12" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="X12" t="n">
         <v>8.199999999999999</v>
@@ -2107,13 +2107,13 @@
         <v>110</v>
       </c>
       <c r="AJ12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK12" t="n">
         <v>28</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM12" t="n">
         <v>220</v>
@@ -2161,13 +2161,13 @@
         <v>1.35</v>
       </c>
       <c r="I13" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="J13" t="n">
         <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.42</v>
@@ -2185,19 +2185,19 @@
         <v>1.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
         <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="T13" t="n">
-        <v>2.52</v>
+        <v>2.28</v>
       </c>
       <c r="U13" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="V13" t="n">
         <v>3.3</v>
@@ -2293,7 +2293,7 @@
         <v>1.69</v>
       </c>
       <c r="H14" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I14" t="n">
         <v>6.8</v>
@@ -2320,10 +2320,10 @@
         <v>2.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
         <v>2.34</v>
@@ -2425,10 +2425,10 @@
         <v>2.58</v>
       </c>
       <c r="G15" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H15" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I15" t="n">
         <v>2.9</v>
@@ -2437,7 +2437,7 @@
         <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2560,7 +2560,7 @@
         <v>2.6</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H16" t="n">
         <v>2.54</v>
@@ -2575,7 +2575,7 @@
         <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2596,7 +2596,7 @@
         <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="T16" t="n">
         <v>1.62</v>
@@ -2605,10 +2605,10 @@
         <v>2.3</v>
       </c>
       <c r="V16" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W16" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X16" t="n">
         <v>22</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G17" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I17" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J17" t="n">
         <v>3.85</v>
@@ -2713,7 +2713,7 @@
         <v>1.27</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
         <v>4.4</v>
@@ -2725,25 +2725,25 @@
         <v>2.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R17" t="n">
         <v>1.43</v>
       </c>
       <c r="S17" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="U17" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W17" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2839,7 +2839,7 @@
         <v>2.7</v>
       </c>
       <c r="J18" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
         <v>3.65</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G19" t="n">
         <v>5.1</v>
@@ -2971,7 +2971,7 @@
         <v>2.04</v>
       </c>
       <c r="I19" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="J19" t="n">
         <v>2.82</v>
@@ -3010,7 +3010,7 @@
         <v>1.74</v>
       </c>
       <c r="V19" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="W19" t="n">
         <v>1.24</v>
@@ -3127,22 +3127,22 @@
         <v>1.32</v>
       </c>
       <c r="P20" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="R20" t="n">
         <v>1.33</v>
       </c>
       <c r="S20" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T20" t="n">
         <v>1.67</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
         <v>1.63</v>
@@ -3241,7 +3241,7 @@
         <v>2.06</v>
       </c>
       <c r="I21" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J21" t="n">
         <v>3.55</v>
@@ -3385,7 +3385,7 @@
         <v>3.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
@@ -3415,7 +3415,7 @@
         <v>2.34</v>
       </c>
       <c r="V22" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W22" t="n">
         <v>1.72</v>
@@ -3514,13 +3514,13 @@
         <v>3.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K23" t="n">
         <v>3.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
@@ -3646,7 +3646,7 @@
         <v>2.28</v>
       </c>
       <c r="I24" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J24" t="n">
         <v>3.7</v>
@@ -3655,28 +3655,28 @@
         <v>3.85</v>
       </c>
       <c r="L24" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R24" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="S24" t="n">
-        <v>2.84</v>
+        <v>2.64</v>
       </c>
       <c r="T24" t="n">
         <v>1.63</v>
@@ -3685,13 +3685,13 @@
         <v>2.44</v>
       </c>
       <c r="V24" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W24" t="n">
         <v>1.41</v>
       </c>
       <c r="X24" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y24" t="n">
         <v>14</v>
@@ -3778,16 +3778,16 @@
         <v>1.29</v>
       </c>
       <c r="H25" t="n">
+        <v>13</v>
+      </c>
+      <c r="I25" t="n">
         <v>13.5</v>
       </c>
-      <c r="I25" t="n">
-        <v>14</v>
-      </c>
       <c r="J25" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K25" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L25" t="n">
         <v>1.26</v>
@@ -3808,10 +3808,10 @@
         <v>1.51</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S25" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T25" t="n">
         <v>2.02</v>
@@ -3820,7 +3820,7 @@
         <v>1.96</v>
       </c>
       <c r="V25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W25" t="n">
         <v>4.4</v>
@@ -3829,13 +3829,13 @@
         <v>29</v>
       </c>
       <c r="Y25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z25" t="n">
         <v>130</v>
       </c>
       <c r="AA25" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="AB25" t="n">
         <v>11.5</v>
@@ -3859,7 +3859,7 @@
         <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ25" t="n">
         <v>9.800000000000001</v>
@@ -3910,49 +3910,49 @@
         <v>1.78</v>
       </c>
       <c r="G26" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I26" t="n">
         <v>5.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K26" t="n">
         <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P26" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R26" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="S26" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="U26" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V26" t="n">
         <v>1.23</v>
@@ -3961,7 +3961,7 @@
         <v>2.16</v>
       </c>
       <c r="X26" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y26" t="n">
         <v>19.5</v>
@@ -3973,7 +3973,7 @@
         <v>130</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC26" t="n">
         <v>9.199999999999999</v>
@@ -3997,7 +3997,7 @@
         <v>65</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
         <v>19.5</v>
@@ -4009,10 +4009,10 @@
         <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO26" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -4063,13 +4063,13 @@
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P27" t="n">
         <v>1.85</v>
@@ -4195,7 +4195,7 @@
         <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -4225,7 +4225,7 @@
         <v>2.48</v>
       </c>
       <c r="V28" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W28" t="n">
         <v>1.59</v>
@@ -4315,7 +4315,7 @@
         <v>1.78</v>
       </c>
       <c r="G29" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H29" t="n">
         <v>4.1</v>
@@ -4360,10 +4360,10 @@
         <v>2.22</v>
       </c>
       <c r="V29" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W29" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="X29" t="n">
         <v>26</v>
@@ -4606,7 +4606,7 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="O31" t="n">
         <v>1.35</v>
@@ -4720,7 +4720,7 @@
         <v>1.75</v>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H32" t="n">
         <v>5.7</v>
@@ -4738,7 +4738,7 @@
         <v>1.45</v>
       </c>
       <c r="M32" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N32" t="n">
         <v>2.7</v>
@@ -4747,10 +4747,10 @@
         <v>1.5</v>
       </c>
       <c r="P32" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="R32" t="n">
         <v>1.2</v>
@@ -4855,34 +4855,34 @@
         <v>2.36</v>
       </c>
       <c r="G33" t="n">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="H33" t="n">
         <v>2.84</v>
       </c>
       <c r="I33" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="J33" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="K33" t="n">
         <v>4.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>1.46</v>
+        <v>2.64</v>
       </c>
       <c r="O33" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P33" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="Q33" t="n">
         <v>2.2</v>
@@ -4891,19 +4891,19 @@
         <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>2.22</v>
+        <v>4.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V33" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="W33" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -5011,25 +5011,25 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P34" t="n">
         <v>2.14</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="R34" t="n">
         <v>1.45</v>
       </c>
       <c r="S34" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U34" t="n">
         <v>2.34</v>
@@ -5074,7 +5074,7 @@
         <v>17</v>
       </c>
       <c r="AI34" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ34" t="n">
         <v>36</v>
@@ -5131,10 +5131,10 @@
         <v>4.8</v>
       </c>
       <c r="I35" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
         <v>3.7</v>
@@ -5155,7 +5155,7 @@
         <v>1.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="R35" t="n">
         <v>1.18</v>
@@ -5164,13 +5164,13 @@
         <v>4.9</v>
       </c>
       <c r="T35" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="U35" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="V35" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="W35" t="n">
         <v>1.89</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G36" t="n">
         <v>1.82</v>
@@ -5278,37 +5278,37 @@
         <v>1.22</v>
       </c>
       <c r="M36" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O36" t="n">
         <v>1.16</v>
       </c>
       <c r="P36" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R36" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S36" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T36" t="n">
         <v>1.53</v>
       </c>
       <c r="U36" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="V36" t="n">
         <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X36" t="n">
         <v>32</v>
@@ -5329,13 +5329,13 @@
         <v>11</v>
       </c>
       <c r="AD36" t="n">
-        <v>970</v>
+        <v>360</v>
       </c>
       <c r="AE36" t="n">
         <v>44</v>
       </c>
       <c r="AF36" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG36" t="n">
         <v>10.5</v>
@@ -5347,7 +5347,7 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AK36" t="n">
         <v>15.5</v>
@@ -5359,7 +5359,7 @@
         <v>60</v>
       </c>
       <c r="AN36" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO36" t="n">
         <v>28</v>
@@ -5419,7 +5419,7 @@
         <v>1.57</v>
       </c>
       <c r="O37" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P37" t="n">
         <v>1.56</v>
@@ -5671,7 +5671,7 @@
         <v>3.35</v>
       </c>
       <c r="I39" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J39" t="n">
         <v>3.3</v>
@@ -5686,10 +5686,10 @@
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.6</v>
+        <v>1.92</v>
       </c>
       <c r="O39" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P39" t="n">
         <v>1.9</v>
@@ -5701,7 +5701,7 @@
         <v>1.33</v>
       </c>
       <c r="S39" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T39" t="n">
         <v>1.66</v>
@@ -5941,7 +5941,7 @@
         <v>1.28</v>
       </c>
       <c r="I41" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="J41" t="n">
         <v>5.4</v>
@@ -5956,22 +5956,22 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>2.84</v>
+        <v>5.7</v>
       </c>
       <c r="O41" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P41" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="R41" t="n">
         <v>1.79</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="T41" t="n">
         <v>1.68</v>
@@ -6070,7 +6070,7 @@
         <v>2.8</v>
       </c>
       <c r="G42" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
         <v>2.26</v>
@@ -6097,7 +6097,7 @@
         <v>1.36</v>
       </c>
       <c r="P42" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q42" t="n">
         <v>1.9</v>
@@ -6106,7 +6106,7 @@
         <v>1.3</v>
       </c>
       <c r="S42" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="T42" t="n">
         <v>1.68</v>
@@ -6118,7 +6118,7 @@
         <v>1.63</v>
       </c>
       <c r="W42" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X42" t="n">
         <v>970</v>
@@ -6205,46 +6205,46 @@
         <v>3.9</v>
       </c>
       <c r="G43" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="H43" t="n">
         <v>2.1</v>
       </c>
       <c r="I43" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J43" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K43" t="n">
         <v>3.6</v>
       </c>
       <c r="L43" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="M43" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>3.05</v>
+        <v>1.6</v>
       </c>
       <c r="O43" t="n">
-        <v>1.42</v>
+        <v>1.06</v>
       </c>
       <c r="P43" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R43" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="T43" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U43" t="n">
         <v>1.87</v>
@@ -6253,7 +6253,7 @@
         <v>1.75</v>
       </c>
       <c r="W43" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="X43" t="n">
         <v>970</v>
@@ -6307,7 +6307,7 @@
         <v>85</v>
       </c>
       <c r="AO43" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
@@ -6349,7 +6349,7 @@
         <v>2.52</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K44" t="n">
         <v>3.15</v>
@@ -6358,13 +6358,13 @@
         <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="O44" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P44" t="n">
         <v>1.54</v>
@@ -6373,13 +6373,13 @@
         <v>2.62</v>
       </c>
       <c r="R44" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S44" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="T44" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U44" t="n">
         <v>1.79</v>
@@ -6394,7 +6394,7 @@
         <v>8.4</v>
       </c>
       <c r="Y44" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Z44" t="n">
         <v>15</v>
@@ -6439,7 +6439,7 @@
         <v>200</v>
       </c>
       <c r="AN44" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AO44" t="n">
         <v>44</v>
@@ -6481,7 +6481,7 @@
         <v>2.22</v>
       </c>
       <c r="I45" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J45" t="n">
         <v>3.7</v>
@@ -6520,7 +6520,7 @@
         <v>2.26</v>
       </c>
       <c r="V45" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W45" t="n">
         <v>1.4</v>
@@ -6613,7 +6613,7 @@
         <v>1.68</v>
       </c>
       <c r="H46" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I46" t="n">
         <v>6.8</v>
@@ -6637,7 +6637,7 @@
         <v>1.36</v>
       </c>
       <c r="P46" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q46" t="n">
         <v>2.08</v>
@@ -6793,7 +6793,7 @@
         <v>1.32</v>
       </c>
       <c r="W47" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X47" t="n">
         <v>15</v>
@@ -6844,7 +6844,7 @@
         <v>90</v>
       </c>
       <c r="AN47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO47" t="n">
         <v>46</v>
@@ -6880,7 +6880,7 @@
         <v>1.62</v>
       </c>
       <c r="G48" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H48" t="n">
         <v>5.7</v>
@@ -6910,10 +6910,10 @@
         <v>2.36</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R48" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S48" t="n">
         <v>2.84</v>
@@ -6928,7 +6928,7 @@
         <v>1.2</v>
       </c>
       <c r="W48" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X48" t="n">
         <v>21</v>
@@ -6940,7 +6940,7 @@
         <v>48</v>
       </c>
       <c r="AA48" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB48" t="n">
         <v>10</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G49" t="n">
         <v>2.2</v>
@@ -7102,7 +7102,7 @@
         <v>44</v>
       </c>
       <c r="AJ49" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK49" t="n">
         <v>21</v>
@@ -7150,7 +7150,7 @@
         <v>2.04</v>
       </c>
       <c r="G50" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H50" t="n">
         <v>4.1</v>
@@ -7189,7 +7189,7 @@
         <v>3.9</v>
       </c>
       <c r="T50" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U50" t="n">
         <v>2.04</v>
@@ -7198,10 +7198,10 @@
         <v>1.31</v>
       </c>
       <c r="W50" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="X50" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y50" t="n">
         <v>14</v>
@@ -7210,13 +7210,13 @@
         <v>28</v>
       </c>
       <c r="AA50" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB50" t="n">
         <v>8.4</v>
       </c>
       <c r="AC50" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD50" t="n">
         <v>16.5</v>
@@ -7285,7 +7285,7 @@
         <v>1.21</v>
       </c>
       <c r="G51" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="H51" t="n">
         <v>15</v>
@@ -7306,7 +7306,7 @@
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>2.76</v>
+        <v>6</v>
       </c>
       <c r="O51" t="n">
         <v>1.14</v>
@@ -7318,22 +7318,22 @@
         <v>1.48</v>
       </c>
       <c r="R51" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="S51" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="T51" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V51" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W51" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7420,7 +7420,7 @@
         <v>2.46</v>
       </c>
       <c r="G52" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>3.25</v>
@@ -7444,7 +7444,7 @@
         <v>3.8</v>
       </c>
       <c r="O52" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P52" t="n">
         <v>1.96</v>
@@ -7456,7 +7456,7 @@
         <v>1.36</v>
       </c>
       <c r="S52" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T52" t="n">
         <v>1.78</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I53" t="n">
         <v>2.82</v>
       </c>
-      <c r="G53" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2.5</v>
-      </c>
       <c r="J53" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="K53" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
@@ -7582,13 +7582,13 @@
         <v>1.16</v>
       </c>
       <c r="P53" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q53" t="n">
         <v>1.47</v>
       </c>
       <c r="R53" t="n">
-        <v>1.23</v>
+        <v>1.51</v>
       </c>
       <c r="S53" t="n">
         <v>2.12</v>
@@ -7600,10 +7600,10 @@
         <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="W53" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="X53" t="n">
         <v>38</v>
@@ -7696,7 +7696,7 @@
         <v>9.4</v>
       </c>
       <c r="I54" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J54" t="n">
         <v>4.4</v>
@@ -7735,7 +7735,7 @@
         <v>1.68</v>
       </c>
       <c r="V54" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W54" t="n">
         <v>3.2</v>
@@ -7750,7 +7750,7 @@
         <v>110</v>
       </c>
       <c r="AA54" t="n">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="AB54" t="n">
         <v>7.6</v>
@@ -7762,7 +7762,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AF54" t="n">
         <v>8.199999999999999</v>
@@ -7774,7 +7774,7 @@
         <v>32</v>
       </c>
       <c r="AI54" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AJ54" t="n">
         <v>12.5</v>
@@ -7792,7 +7792,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AO54" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55">
@@ -7822,58 +7822,58 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="G55" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="H55" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="I55" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="J55" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K55" t="n">
-        <v>950</v>
+        <v>4.3</v>
       </c>
       <c r="L55" t="n">
         <v>1.01</v>
       </c>
       <c r="M55" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N55" t="n">
-        <v>3.45</v>
+        <v>1.83</v>
       </c>
       <c r="O55" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P55" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R55" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="S55" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="T55" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="U55" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="V55" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W55" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="X55" t="n">
         <v>14.5</v>
@@ -7960,19 +7960,19 @@
         <v>3.75</v>
       </c>
       <c r="G56" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H56" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="I56" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="J56" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K56" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -7981,16 +7981,16 @@
         <v>1.03</v>
       </c>
       <c r="N56" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O56" t="n">
         <v>1.19</v>
       </c>
       <c r="P56" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R56" t="n">
         <v>1.45</v>
@@ -8005,10 +8005,10 @@
         <v>2.4</v>
       </c>
       <c r="V56" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="W56" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="X56" t="n">
         <v>22</v>
@@ -8227,16 +8227,16 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="G58" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="H58" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="I58" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="J58" t="n">
         <v>3.55</v>
@@ -8305,10 +8305,10 @@
         <v>27</v>
       </c>
       <c r="AF58" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG58" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH58" t="n">
         <v>27</v>
@@ -8317,7 +8317,7 @@
         <v>55</v>
       </c>
       <c r="AJ58" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AK58" t="n">
         <v>100</v>
@@ -8326,10 +8326,10 @@
         <v>110</v>
       </c>
       <c r="AM58" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN58" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AO58" t="n">
         <v>970</v>
@@ -8371,7 +8371,7 @@
         <v>10</v>
       </c>
       <c r="I59" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J59" t="n">
         <v>5.9</v>
@@ -8389,7 +8389,7 @@
         <v>5.6</v>
       </c>
       <c r="O59" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P59" t="n">
         <v>2.56</v>
@@ -8467,7 +8467,7 @@
         <v>4.7</v>
       </c>
       <c r="AO59" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
@@ -8500,7 +8500,7 @@
         <v>2.3</v>
       </c>
       <c r="G60" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>3.65</v>
@@ -8515,13 +8515,13 @@
         <v>3.35</v>
       </c>
       <c r="L60" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="M60" t="n">
         <v>1.11</v>
       </c>
       <c r="N60" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O60" t="n">
         <v>1.53</v>
@@ -8530,7 +8530,7 @@
         <v>1.59</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R60" t="n">
         <v>1.21</v>
@@ -8548,7 +8548,7 @@
         <v>1.35</v>
       </c>
       <c r="W60" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X60" t="n">
         <v>9.6</v>
@@ -8638,7 +8638,7 @@
         <v>1.95</v>
       </c>
       <c r="H61" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I61" t="n">
         <v>4.8</v>
@@ -8677,7 +8677,7 @@
         <v>1.84</v>
       </c>
       <c r="U61" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V61" t="n">
         <v>1.26</v>
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G62" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H62" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="I62" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="J62" t="n">
         <v>3.55</v>
       </c>
       <c r="K62" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -8797,10 +8797,10 @@
         <v>1.28</v>
       </c>
       <c r="P62" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R62" t="n">
         <v>1.32</v>
@@ -8815,7 +8815,7 @@
         <v>1.01</v>
       </c>
       <c r="V62" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="W62" t="n">
         <v>1.22</v>
@@ -8902,16 +8902,16 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G63" t="n">
         <v>2.1</v>
       </c>
       <c r="H63" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J63" t="n">
         <v>3.55</v>
@@ -8929,7 +8929,7 @@
         <v>3.3</v>
       </c>
       <c r="O63" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P63" t="n">
         <v>1.81</v>
@@ -8950,10 +8950,10 @@
         <v>1.99</v>
       </c>
       <c r="V63" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W63" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="X63" t="n">
         <v>13</v>
@@ -8965,7 +8965,7 @@
         <v>34</v>
       </c>
       <c r="AA63" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB63" t="n">
         <v>8.800000000000001</v>
@@ -8974,7 +8974,7 @@
         <v>8.4</v>
       </c>
       <c r="AD63" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AE63" t="n">
         <v>60</v>
@@ -8989,7 +8989,7 @@
         <v>20</v>
       </c>
       <c r="AI63" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ63" t="n">
         <v>25</v>
@@ -9187,7 +9187,7 @@
         <v>5.3</v>
       </c>
       <c r="K65" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L65" t="n">
         <v>1.35</v>
@@ -9352,7 +9352,7 @@
         <v>2</v>
       </c>
       <c r="U66" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V66" t="n">
         <v>1.48</v>
@@ -9478,10 +9478,10 @@
         <v>1.53</v>
       </c>
       <c r="R67" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S67" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T67" t="n">
         <v>1.53</v>
@@ -9496,7 +9496,7 @@
         <v>2.02</v>
       </c>
       <c r="X67" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y67" t="n">
         <v>23</v>
@@ -9712,19 +9712,19 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G69" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H69" t="n">
         <v>4.2</v>
       </c>
       <c r="I69" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J69" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K69" t="n">
         <v>4.2</v>
@@ -9739,31 +9739,31 @@
         <v>4.5</v>
       </c>
       <c r="O69" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P69" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R69" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S69" t="n">
         <v>2.82</v>
       </c>
       <c r="T69" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U69" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V69" t="n">
         <v>1.29</v>
       </c>
       <c r="W69" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X69" t="n">
         <v>23</v>
@@ -9856,7 +9856,7 @@
         <v>3.75</v>
       </c>
       <c r="I70" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J70" t="n">
         <v>3.5</v>
@@ -9865,13 +9865,13 @@
         <v>3.6</v>
       </c>
       <c r="L70" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M70" t="n">
         <v>1.09</v>
       </c>
       <c r="N70" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O70" t="n">
         <v>1.39</v>
@@ -9892,10 +9892,10 @@
         <v>1.89</v>
       </c>
       <c r="U70" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V70" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W70" t="n">
         <v>1.81</v>
@@ -9988,7 +9988,7 @@
         <v>2.22</v>
       </c>
       <c r="H71" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I71" t="n">
         <v>3.85</v>
@@ -9997,7 +9997,7 @@
         <v>3.5</v>
       </c>
       <c r="K71" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L71" t="n">
         <v>1.38</v>
@@ -10033,7 +10033,7 @@
         <v>1.35</v>
       </c>
       <c r="W71" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X71" t="n">
         <v>15.5</v>
@@ -10060,7 +10060,7 @@
         <v>42</v>
       </c>
       <c r="AF71" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG71" t="n">
         <v>10.5</v>
@@ -10126,7 +10126,7 @@
         <v>5.6</v>
       </c>
       <c r="I72" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J72" t="n">
         <v>3.7</v>
@@ -10150,7 +10150,7 @@
         <v>1.72</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R72" t="n">
         <v>1.26</v>
@@ -10189,7 +10189,7 @@
         <v>8.4</v>
       </c>
       <c r="AD72" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE72" t="n">
         <v>130</v>
@@ -10207,7 +10207,7 @@
         <v>130</v>
       </c>
       <c r="AJ72" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK72" t="n">
         <v>23</v>
@@ -10228,7 +10228,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -10243,127 +10243,127 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="G73" t="n">
-        <v>1.93</v>
+        <v>2.24</v>
       </c>
       <c r="H73" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="I73" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="J73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K73" t="n">
         <v>3.55</v>
       </c>
-      <c r="K73" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L73" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M73" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N73" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="O73" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="P73" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="R73" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="S73" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T73" t="n">
         <v>1.89</v>
       </c>
       <c r="U73" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="V73" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="W73" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="X73" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y73" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z73" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AA73" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="AB73" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC73" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD73" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AE73" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AF73" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AG73" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH73" t="n">
         <v>21</v>
       </c>
       <c r="AI73" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ73" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AK73" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AL73" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM73" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AN73" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AO73" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -10378,121 +10378,121 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="G74" t="n">
-        <v>2.22</v>
+        <v>1.91</v>
       </c>
       <c r="H74" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K74" t="n">
         <v>3.8</v>
       </c>
-      <c r="I74" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K74" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L74" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M74" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N74" t="n">
-        <v>3.05</v>
+        <v>1.85</v>
       </c>
       <c r="O74" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="P74" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.2</v>
+        <v>1.33</v>
       </c>
       <c r="R74" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S74" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="T74" t="n">
         <v>1.89</v>
       </c>
       <c r="U74" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="V74" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="W74" t="n">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="X74" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y74" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Z74" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AA74" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AB74" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC74" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD74" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AE74" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AF74" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AG74" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH74" t="n">
         <v>21</v>
       </c>
       <c r="AI74" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ74" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AK74" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AL74" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM74" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN74" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AO74" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75">
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -10540,7 +10540,7 @@
         <v>3.7</v>
       </c>
       <c r="L75" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M75" t="n">
         <v>1.01</v>
@@ -10666,7 +10666,7 @@
         <v>13.5</v>
       </c>
       <c r="I76" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J76" t="n">
         <v>7</v>
@@ -10693,10 +10693,10 @@
         <v>1.47</v>
       </c>
       <c r="R76" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S76" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T76" t="n">
         <v>2.02</v>
@@ -10720,7 +10720,7 @@
         <v>150</v>
       </c>
       <c r="AA76" t="n">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="AB76" t="n">
         <v>11.5</v>
@@ -10729,7 +10729,7 @@
         <v>16</v>
       </c>
       <c r="AD76" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AE76" t="n">
         <v>210</v>
@@ -10744,7 +10744,7 @@
         <v>32</v>
       </c>
       <c r="AI76" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AJ76" t="n">
         <v>9.800000000000001</v>
@@ -10792,16 +10792,16 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G77" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I77" t="n">
         <v>1.8</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1.81</v>
       </c>
       <c r="J77" t="n">
         <v>4.2</v>
@@ -10828,22 +10828,22 @@
         <v>1.7</v>
       </c>
       <c r="R77" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S77" t="n">
         <v>2.78</v>
       </c>
       <c r="T77" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U77" t="n">
         <v>2.36</v>
       </c>
       <c r="V77" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="W77" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X77" t="n">
         <v>19.5</v>
@@ -10855,7 +10855,7 @@
         <v>12</v>
       </c>
       <c r="AA77" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB77" t="n">
         <v>21</v>
@@ -10873,10 +10873,10 @@
         <v>38</v>
       </c>
       <c r="AG77" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI77" t="n">
         <v>26</v>
@@ -10930,19 +10930,19 @@
         <v>4.8</v>
       </c>
       <c r="G78" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H78" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="I78" t="n">
         <v>1.87</v>
       </c>
       <c r="J78" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K78" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L78" t="n">
         <v>1.01</v>
@@ -10951,13 +10951,13 @@
         <v>1.01</v>
       </c>
       <c r="N78" t="n">
-        <v>3.65</v>
+        <v>1.84</v>
       </c>
       <c r="O78" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="P78" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="Q78" t="n">
         <v>1.76</v>
@@ -11206,10 +11206,10 @@
         <v>18</v>
       </c>
       <c r="I80" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J80" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="K80" t="n">
         <v>11</v>
@@ -11227,25 +11227,25 @@
         <v>1.11</v>
       </c>
       <c r="P80" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R80" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="S80" t="n">
         <v>1.9</v>
       </c>
       <c r="T80" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="U80" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="V80" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W80" t="n">
         <v>6.4</v>
@@ -11257,7 +11257,7 @@
         <v>75</v>
       </c>
       <c r="Z80" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AA80" t="n">
         <v>1000</v>
@@ -11272,10 +11272,10 @@
         <v>75</v>
       </c>
       <c r="AE80" t="n">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="AF80" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG80" t="n">
         <v>14</v>
@@ -11284,25 +11284,25 @@
         <v>46</v>
       </c>
       <c r="AI80" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AJ80" t="n">
         <v>9.6</v>
       </c>
       <c r="AK80" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AL80" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM80" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN80" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AO80" t="n">
-        <v>430</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81">
@@ -11332,112 +11332,112 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.04</v>
+        <v>8.4</v>
       </c>
       <c r="G81" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="H81" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="I81" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="J81" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K81" t="n">
-        <v>950</v>
+        <v>5.5</v>
       </c>
       <c r="L81" t="n">
         <v>1.01</v>
       </c>
       <c r="M81" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>4.6</v>
+        <v>1.04</v>
       </c>
       <c r="O81" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P81" t="n">
-        <v>2.24</v>
+        <v>1.45</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.66</v>
+        <v>1.22</v>
       </c>
       <c r="R81" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S81" t="n">
         <v>2.46</v>
       </c>
       <c r="T81" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U81" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V81" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="W81" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="X81" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y81" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z81" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA81" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AB81" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AC81" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD81" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE81" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF81" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AG81" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH81" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI81" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ81" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AK81" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL81" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM81" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN81" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AO81" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="82">
@@ -11473,7 +11473,7 @@
         <v>1.08</v>
       </c>
       <c r="H82" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I82" t="n">
         <v>65</v>
@@ -11482,10 +11482,10 @@
         <v>17.5</v>
       </c>
       <c r="K82" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="L82" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M82" t="n">
         <v>1.02</v>
@@ -11494,13 +11494,13 @@
         <v>7.2</v>
       </c>
       <c r="O82" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P82" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R82" t="n">
         <v>1.82</v>
@@ -11509,7 +11509,7 @@
         <v>2.08</v>
       </c>
       <c r="T82" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="U82" t="n">
         <v>1.42</v>
@@ -11536,7 +11536,7 @@
         <v>10.5</v>
       </c>
       <c r="AC82" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD82" t="n">
         <v>210</v>
@@ -11569,7 +11569,7 @@
         <v>1000</v>
       </c>
       <c r="AN82" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="AO82" t="n">
         <v>1000</v>
@@ -11605,13 +11605,13 @@
         <v>2.2</v>
       </c>
       <c r="G83" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="H83" t="n">
         <v>3</v>
       </c>
       <c r="I83" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J83" t="n">
         <v>3.6</v>
@@ -11650,10 +11650,10 @@
         <v>2.34</v>
       </c>
       <c r="V83" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="W83" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X83" t="n">
         <v>23</v>
@@ -11737,10 +11737,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="G84" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H84" t="n">
         <v>11</v>
@@ -11749,7 +11749,7 @@
         <v>1000</v>
       </c>
       <c r="J84" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="K84" t="n">
         <v>950</v>
@@ -11779,16 +11779,16 @@
         <v>1.72</v>
       </c>
       <c r="T84" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="U84" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V84" t="n">
         <v>1.01</v>
       </c>
       <c r="W84" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="X84" t="n">
         <v>1000</v>
@@ -11881,7 +11881,7 @@
         <v>2.92</v>
       </c>
       <c r="I85" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J85" t="n">
         <v>2.96</v>
@@ -11908,7 +11908,7 @@
         <v>3.15</v>
       </c>
       <c r="R85" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S85" t="n">
         <v>7</v>
@@ -11920,7 +11920,7 @@
         <v>1.69</v>
       </c>
       <c r="V85" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W85" t="n">
         <v>1.47</v>
@@ -12013,10 +12013,10 @@
         <v>2.62</v>
       </c>
       <c r="H86" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I86" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J86" t="n">
         <v>3.05</v>
@@ -12034,13 +12034,13 @@
         <v>2.8</v>
       </c>
       <c r="O86" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P86" t="n">
         <v>1.61</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R86" t="n">
         <v>1.22</v>
@@ -12049,7 +12049,7 @@
         <v>4.9</v>
       </c>
       <c r="T86" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U86" t="n">
         <v>1.87</v>
@@ -12061,19 +12061,19 @@
         <v>1.61</v>
       </c>
       <c r="X86" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y86" t="n">
         <v>10.5</v>
       </c>
       <c r="Z86" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA86" t="n">
         <v>75</v>
       </c>
       <c r="AB86" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC86" t="n">
         <v>7.2</v>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G87" t="n">
         <v>1.54</v>
@@ -12151,13 +12151,13 @@
         <v>6.8</v>
       </c>
       <c r="I87" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J87" t="n">
         <v>4.7</v>
       </c>
       <c r="K87" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L87" t="n">
         <v>1.29</v>
@@ -12181,16 +12181,16 @@
         <v>1.57</v>
       </c>
       <c r="S87" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="T87" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="U87" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V87" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W87" t="n">
         <v>2.84</v>
@@ -12253,7 +12253,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -12268,127 +12268,127 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>CD Nacional Funchal</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="G88" t="n">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="H88" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>12</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N88" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T88" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V88" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W88" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X88" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>300</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB88" t="n">
         <v>13</v>
       </c>
-      <c r="J88" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K88" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L88" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M88" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N88" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P88" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R88" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S88" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T88" t="n">
-        <v>2</v>
-      </c>
-      <c r="U88" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V88" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W88" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="X88" t="n">
+      <c r="AC88" t="n">
         <v>28</v>
       </c>
-      <c r="Y88" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA88" t="n">
-        <v>470</v>
-      </c>
-      <c r="AB88" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC88" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AD88" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>480</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>310</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL88" t="n">
         <v>46</v>
       </c>
-      <c r="AE88" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>44</v>
-      </c>
       <c r="AM88" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="AN88" t="n">
-        <v>5.5</v>
+        <v>2.88</v>
       </c>
       <c r="AO88" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -12403,127 +12403,127 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Hapoel Petach Tikva</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>CD Nacional Funchal</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.14</v>
+        <v>2.04</v>
       </c>
       <c r="G89" t="n">
-        <v>1.16</v>
+        <v>2.22</v>
       </c>
       <c r="H89" t="n">
-        <v>23</v>
+        <v>3.65</v>
       </c>
       <c r="I89" t="n">
-        <v>27</v>
+        <v>4.6</v>
       </c>
       <c r="J89" t="n">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="K89" t="n">
-        <v>12</v>
+        <v>4.3</v>
       </c>
       <c r="L89" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="M89" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>7.4</v>
+        <v>3.65</v>
       </c>
       <c r="O89" t="n">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="P89" t="n">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.37</v>
+        <v>1.96</v>
       </c>
       <c r="R89" t="n">
-        <v>1.91</v>
+        <v>1.35</v>
       </c>
       <c r="S89" t="n">
-        <v>1.92</v>
+        <v>3.3</v>
       </c>
       <c r="T89" t="n">
-        <v>2.28</v>
+        <v>1.75</v>
       </c>
       <c r="U89" t="n">
-        <v>1.65</v>
+        <v>2.12</v>
       </c>
       <c r="V89" t="n">
-        <v>1.04</v>
+        <v>1.3</v>
       </c>
       <c r="W89" t="n">
-        <v>7.2</v>
+        <v>1.81</v>
       </c>
       <c r="X89" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE89" t="n">
         <v>50</v>
       </c>
-      <c r="Y89" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>300</v>
-      </c>
-      <c r="AA89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB89" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC89" t="n">
+      <c r="AF89" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ89" t="n">
         <v>28</v>
       </c>
-      <c r="AD89" t="n">
-        <v>85</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>480</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH89" t="n">
+      <c r="AK89" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO89" t="n">
         <v>55</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>310</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM89" t="n">
-        <v>310</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AO89" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -12538,121 +12538,121 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Hapoel Petach Tikva</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.04</v>
+        <v>1.26</v>
       </c>
       <c r="G90" t="n">
-        <v>2.22</v>
+        <v>1.31</v>
       </c>
       <c r="H90" t="n">
-        <v>3.65</v>
+        <v>12.5</v>
       </c>
       <c r="I90" t="n">
-        <v>4.4</v>
+        <v>16.5</v>
       </c>
       <c r="J90" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="K90" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N90" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V90" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W90" t="n">
         <v>4.3</v>
       </c>
-      <c r="L90" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M90" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N90" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O90" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P90" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R90" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S90" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T90" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U90" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V90" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W90" t="n">
-        <v>1.81</v>
-      </c>
       <c r="X90" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC90" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y90" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB90" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AD90" t="n">
-        <v>16.5</v>
+        <v>55</v>
       </c>
       <c r="AE90" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="AF90" t="n">
-        <v>14.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG90" t="n">
         <v>11.5</v>
       </c>
       <c r="AH90" t="n">
-        <v>18.5</v>
+        <v>40</v>
       </c>
       <c r="AI90" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AJ90" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AK90" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AL90" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AM90" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="AN90" t="n">
-        <v>18.5</v>
+        <v>4.8</v>
       </c>
       <c r="AO90" t="n">
-        <v>55</v>
+        <v>400</v>
       </c>
     </row>
     <row r="91">
@@ -12691,7 +12691,7 @@
         <v>3.85</v>
       </c>
       <c r="I91" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J91" t="n">
         <v>3.7</v>
@@ -12718,10 +12718,10 @@
         <v>1.69</v>
       </c>
       <c r="R91" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S91" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="T91" t="n">
         <v>1.59</v>
@@ -12829,7 +12829,7 @@
         <v>5.1</v>
       </c>
       <c r="J92" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K92" t="n">
         <v>4.9</v>
@@ -12961,7 +12961,7 @@
         <v>6</v>
       </c>
       <c r="I93" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J93" t="n">
         <v>3.55</v>
@@ -12976,31 +12976,31 @@
         <v>1.1</v>
       </c>
       <c r="N93" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="O93" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P93" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R93" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S93" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="T93" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="U93" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="V93" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W93" t="n">
         <v>2.24</v>
@@ -13087,19 +13087,19 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G94" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H94" t="n">
         <v>2.26</v>
       </c>
       <c r="I94" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J94" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K94" t="n">
         <v>4.1</v>
@@ -13126,16 +13126,16 @@
         <v>1.58</v>
       </c>
       <c r="S94" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="T94" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="U94" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V94" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W94" t="n">
         <v>1.42</v>
@@ -13225,25 +13225,25 @@
         <v>2.78</v>
       </c>
       <c r="G95" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
         <v>2.74</v>
       </c>
       <c r="I95" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J95" t="n">
         <v>3.05</v>
       </c>
       <c r="K95" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L95" t="n">
         <v>1.48</v>
       </c>
       <c r="M95" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N95" t="n">
         <v>2.92</v>
@@ -13252,28 +13252,28 @@
         <v>1.43</v>
       </c>
       <c r="P95" t="n">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="Q95" t="n">
         <v>2.28</v>
       </c>
       <c r="R95" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S95" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T95" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U95" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V95" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W95" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X95" t="n">
         <v>11</v>
@@ -13366,7 +13366,7 @@
         <v>1.65</v>
       </c>
       <c r="I96" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J96" t="n">
         <v>4.6</v>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="G97" t="n">
         <v>8.4</v>
@@ -13522,7 +13522,7 @@
         <v>1.37</v>
       </c>
       <c r="P97" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q97" t="n">
         <v>2.06</v>
@@ -13561,7 +13561,7 @@
         <v>22</v>
       </c>
       <c r="AC97" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD97" t="n">
         <v>10.5</v>
@@ -13588,7 +13588,7 @@
         <v>150</v>
       </c>
       <c r="AL97" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AM97" t="n">
         <v>200</v>
@@ -13597,13 +13597,13 @@
         <v>220</v>
       </c>
       <c r="AO97" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -13618,121 +13618,121 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="G98" t="n">
-        <v>2.46</v>
+        <v>3.55</v>
       </c>
       <c r="H98" t="n">
-        <v>3.55</v>
+        <v>2.76</v>
       </c>
       <c r="I98" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J98" t="n">
-        <v>3.2</v>
+        <v>2.58</v>
       </c>
       <c r="K98" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L98" t="n">
-        <v>1.51</v>
+        <v>1.73</v>
       </c>
       <c r="M98" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N98" t="n">
-        <v>3.2</v>
+        <v>1.32</v>
       </c>
       <c r="O98" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T98" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U98" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="V98" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W98" t="n">
         <v>1.44</v>
       </c>
-      <c r="P98" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R98" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S98" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T98" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U98" t="n">
-        <v>2</v>
-      </c>
-      <c r="V98" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W98" t="n">
-        <v>1.68</v>
-      </c>
       <c r="X98" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="Y98" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z98" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA98" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB98" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC98" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD98" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE98" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF98" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG98" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH98" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI98" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ98" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK98" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL98" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM98" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN98" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO98" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="99">
@@ -13753,31 +13753,31 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.43</v>
+        <v>2.18</v>
       </c>
       <c r="G99" t="n">
-        <v>1.71</v>
+        <v>2.56</v>
       </c>
       <c r="H99" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I99" t="n">
         <v>5.7</v>
       </c>
-      <c r="I99" t="n">
-        <v>970</v>
-      </c>
       <c r="J99" t="n">
-        <v>3.7</v>
+        <v>2.36</v>
       </c>
       <c r="K99" t="n">
-        <v>7.8</v>
+        <v>3.75</v>
       </c>
       <c r="L99" t="n">
         <v>1.01</v>
@@ -13786,85 +13786,85 @@
         <v>1.01</v>
       </c>
       <c r="N99" t="n">
-        <v>1.74</v>
+        <v>1.36</v>
       </c>
       <c r="O99" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="P99" t="n">
-        <v>1.74</v>
+        <v>1.36</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.79</v>
+        <v>2.44</v>
       </c>
       <c r="R99" t="n">
         <v>1.13</v>
       </c>
       <c r="S99" t="n">
-        <v>1.79</v>
+        <v>2.44</v>
       </c>
       <c r="T99" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="U99" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="V99" t="n">
-        <v>1.03</v>
+        <v>1.21</v>
       </c>
       <c r="W99" t="n">
-        <v>2.42</v>
+        <v>1.64</v>
       </c>
       <c r="X99" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y99" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z99" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA99" t="n">
         <v>1000</v>
       </c>
       <c r="AB99" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC99" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD99" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE99" t="n">
         <v>1000</v>
       </c>
       <c r="AF99" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG99" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH99" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI99" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ99" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK99" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL99" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM99" t="n">
         <v>1000</v>
       </c>
       <c r="AN99" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO99" t="n">
         <v>1000</v>
@@ -13873,7 +13873,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -13888,127 +13888,127 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Leones FC</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.38</v>
+        <v>1.43</v>
       </c>
       <c r="G100" t="n">
-        <v>2.56</v>
+        <v>1.71</v>
       </c>
       <c r="H100" t="n">
-        <v>3.05</v>
+        <v>5.7</v>
       </c>
       <c r="I100" t="n">
-        <v>3.3</v>
+        <v>970</v>
       </c>
       <c r="J100" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="K100" t="n">
-        <v>3.7</v>
+        <v>7.8</v>
       </c>
       <c r="L100" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M100" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>4.2</v>
+        <v>1.74</v>
       </c>
       <c r="O100" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P100" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="Q100" t="n">
         <v>1.79</v>
       </c>
       <c r="R100" t="n">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
       <c r="S100" t="n">
-        <v>3</v>
+        <v>1.79</v>
       </c>
       <c r="T100" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="U100" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="V100" t="n">
-        <v>1.43</v>
+        <v>1.03</v>
       </c>
       <c r="W100" t="n">
-        <v>1.64</v>
+        <v>2.42</v>
       </c>
       <c r="X100" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Y100" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="Z100" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="AA100" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB100" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="AC100" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AD100" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AE100" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF100" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG100" t="n">
         <v>12</v>
       </c>
       <c r="AH100" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AI100" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AJ100" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AK100" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AL100" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AM100" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN100" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AO100" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -14023,127 +14023,127 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="G101" t="n">
-        <v>3.6</v>
+        <v>2.48</v>
       </c>
       <c r="H101" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="I101" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="J101" t="n">
-        <v>2.46</v>
+        <v>3.2</v>
       </c>
       <c r="K101" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L101" t="n">
-        <v>1.73</v>
+        <v>1.51</v>
       </c>
       <c r="M101" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N101" t="n">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="O101" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P101" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="Q101" t="n">
-        <v>3.25</v>
+        <v>2.34</v>
       </c>
       <c r="R101" t="n">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="S101" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="T101" t="n">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="U101" t="n">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="V101" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="W101" t="n">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="X101" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="Y101" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z101" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA101" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB101" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC101" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD101" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE101" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF101" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG101" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH101" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI101" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ101" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK101" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL101" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM101" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN101" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO101" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -14158,121 +14158,121 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="G102" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H102" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K102" t="n">
         <v>3.65</v>
       </c>
-      <c r="I102" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J102" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="K102" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L102" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M102" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N102" t="n">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="O102" t="n">
-        <v>1.54</v>
+        <v>1.28</v>
       </c>
       <c r="P102" t="n">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="R102" t="n">
-        <v>1.13</v>
+        <v>1.43</v>
       </c>
       <c r="S102" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="T102" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U102" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="V102" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="W102" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X102" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y102" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z102" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA102" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB102" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC102" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD102" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE102" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF102" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG102" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH102" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI102" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ102" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK102" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL102" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM102" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN102" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO102" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -14326,40 +14326,40 @@
         <v>1.05</v>
       </c>
       <c r="N103" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O103" t="n">
         <v>1.3</v>
       </c>
       <c r="P103" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q103" t="n">
         <v>1.86</v>
       </c>
       <c r="R103" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S103" t="n">
         <v>3.3</v>
       </c>
       <c r="T103" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="U103" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="V103" t="n">
         <v>4.7</v>
       </c>
       <c r="W103" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="X103" t="n">
         <v>18.5</v>
       </c>
       <c r="Y103" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Z103" t="n">
         <v>6.4</v>
@@ -14383,7 +14383,7 @@
         <v>190</v>
       </c>
       <c r="AG103" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AH103" t="n">
         <v>60</v>
@@ -14395,16 +14395,16 @@
         <v>1000</v>
       </c>
       <c r="AK103" t="n">
-        <v>660</v>
+        <v>590</v>
       </c>
       <c r="AL103" t="n">
         <v>540</v>
       </c>
       <c r="AM103" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="AN103" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AO103" t="n">
         <v>5.8</v>
@@ -14413,7 +14413,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -14428,127 +14428,127 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Estudiantes de Merida</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Univ Catolica (Chile)</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>4.1</v>
+        <v>2.54</v>
       </c>
       <c r="G104" t="n">
-        <v>5.6</v>
+        <v>2.92</v>
       </c>
       <c r="H104" t="n">
-        <v>1.69</v>
+        <v>2.94</v>
       </c>
       <c r="I104" t="n">
-        <v>2.06</v>
+        <v>3.7</v>
       </c>
       <c r="J104" t="n">
-        <v>3.5</v>
+        <v>2.76</v>
       </c>
       <c r="K104" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L104" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M104" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N104" t="n">
-        <v>1.84</v>
+        <v>2.8</v>
       </c>
       <c r="O104" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="P104" t="n">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="R104" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="S104" t="n">
-        <v>3.2</v>
+        <v>1.02</v>
       </c>
       <c r="T104" t="n">
-        <v>1.76</v>
+        <v>1.91</v>
       </c>
       <c r="U104" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="V104" t="n">
-        <v>1.94</v>
+        <v>1.37</v>
       </c>
       <c r="W104" t="n">
-        <v>1.21</v>
+        <v>1.52</v>
       </c>
       <c r="X104" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y104" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z104" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA104" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB104" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC104" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD104" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE104" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF104" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG104" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH104" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI104" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ104" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK104" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL104" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM104" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN104" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO104" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -14563,31 +14563,31 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Genesis Huracan</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Atletico Choloma</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G105" t="n">
-        <v>1000</v>
+        <v>1.98</v>
       </c>
       <c r="H105" t="n">
-        <v>1.04</v>
+        <v>4.4</v>
       </c>
       <c r="I105" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="J105" t="n">
-        <v>1.02</v>
+        <v>2.72</v>
       </c>
       <c r="K105" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="L105" t="n">
         <v>1.01</v>
@@ -14596,22 +14596,22 @@
         <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>1.24</v>
+        <v>1.74</v>
       </c>
       <c r="O105" t="n">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="P105" t="n">
-        <v>1.24</v>
+        <v>1.73</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.14</v>
+        <v>1.9</v>
       </c>
       <c r="R105" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S105" t="n">
-        <v>1.14</v>
+        <v>3.1</v>
       </c>
       <c r="T105" t="n">
         <v>1.01</v>
@@ -14620,10 +14620,10 @@
         <v>1.01</v>
       </c>
       <c r="V105" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W105" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="X105" t="n">
         <v>1000</v>
@@ -14683,7 +14683,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -14698,127 +14698,127 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Univ Catolica (Chile)</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.04</v>
+        <v>4.4</v>
       </c>
       <c r="G106" t="n">
-        <v>1.98</v>
+        <v>5</v>
       </c>
       <c r="H106" t="n">
-        <v>1.09</v>
+        <v>1.9</v>
       </c>
       <c r="I106" t="n">
-        <v>7.6</v>
+        <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>2.74</v>
+        <v>3.5</v>
       </c>
       <c r="K106" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="L106" t="n">
         <v>1.01</v>
       </c>
       <c r="M106" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N106" t="n">
-        <v>1.72</v>
+        <v>1.97</v>
       </c>
       <c r="O106" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P106" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="Q106" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T106" t="n">
         <v>1.89</v>
       </c>
-      <c r="R106" t="n">
+      <c r="U106" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2</v>
+      </c>
+      <c r="W106" t="n">
         <v>1.25</v>
       </c>
-      <c r="S106" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T106" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U106" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V106" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W106" t="n">
-        <v>2.02</v>
-      </c>
       <c r="X106" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y106" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z106" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA106" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB106" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC106" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD106" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE106" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF106" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG106" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH106" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI106" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ106" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK106" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL106" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM106" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN106" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO106" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -14833,121 +14833,121 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Estudiantes de Merida</t>
+          <t>Genesis Huracan</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2.54</v>
+        <v>1.04</v>
       </c>
       <c r="G107" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="H107" t="n">
-        <v>2.94</v>
+        <v>1.04</v>
       </c>
       <c r="I107" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="J107" t="n">
-        <v>2.76</v>
+        <v>1.02</v>
       </c>
       <c r="K107" t="n">
-        <v>3.75</v>
+        <v>750</v>
       </c>
       <c r="L107" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M107" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N107" t="n">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="O107" t="n">
-        <v>1.46</v>
+        <v>1.14</v>
       </c>
       <c r="P107" t="n">
-        <v>1.61</v>
+        <v>1.24</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.18</v>
+        <v>1.14</v>
       </c>
       <c r="R107" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S107" t="n">
-        <v>3.55</v>
+        <v>1.14</v>
       </c>
       <c r="T107" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="U107" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="V107" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W107" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="X107" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y107" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z107" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA107" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB107" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC107" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD107" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE107" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF107" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG107" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH107" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI107" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ107" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK107" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL107" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM107" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN107" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO107" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="108">
@@ -14977,22 +14977,22 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G108" t="n">
         <v>1.76</v>
       </c>
       <c r="H108" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I108" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J108" t="n">
         <v>3.5</v>
       </c>
       <c r="K108" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L108" t="n">
         <v>1.01</v>
@@ -15001,10 +15001,10 @@
         <v>1.1</v>
       </c>
       <c r="N108" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O108" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P108" t="n">
         <v>1.58</v>
@@ -15016,22 +15016,22 @@
         <v>1.2</v>
       </c>
       <c r="S108" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T108" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U108" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="V108" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W108" t="n">
         <v>2.3</v>
       </c>
       <c r="X108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y108" t="n">
         <v>21</v>
@@ -15040,19 +15040,19 @@
         <v>75</v>
       </c>
       <c r="AA108" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="AB108" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC108" t="n">
         <v>10.5</v>
       </c>
       <c r="AD108" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE108" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF108" t="n">
         <v>10.5</v>
@@ -15064,7 +15064,7 @@
         <v>38</v>
       </c>
       <c r="AI108" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ108" t="n">
         <v>21</v>
@@ -15076,13 +15076,13 @@
         <v>75</v>
       </c>
       <c r="AM108" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AN108" t="n">
         <v>19.5</v>
       </c>
       <c r="AO108" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
     </row>
     <row r="109">
@@ -15115,7 +15115,7 @@
         <v>1.56</v>
       </c>
       <c r="G109" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H109" t="n">
         <v>8.199999999999999</v>
@@ -15124,7 +15124,7 @@
         <v>9.4</v>
       </c>
       <c r="J109" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K109" t="n">
         <v>4.2</v>
@@ -15166,7 +15166,7 @@
         <v>2.62</v>
       </c>
       <c r="X109" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y109" t="n">
         <v>21</v>
@@ -15178,7 +15178,7 @@
         <v>460</v>
       </c>
       <c r="AB109" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AC109" t="n">
         <v>9.800000000000001</v>
@@ -15190,7 +15190,7 @@
         <v>240</v>
       </c>
       <c r="AF109" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG109" t="n">
         <v>11.5</v>
@@ -15202,7 +15202,7 @@
         <v>230</v>
       </c>
       <c r="AJ109" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK109" t="n">
         <v>23</v>
@@ -15406,7 +15406,7 @@
         <v>1.01</v>
       </c>
       <c r="N111" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O111" t="n">
         <v>1.33</v>
@@ -15520,19 +15520,19 @@
         <v>1.58</v>
       </c>
       <c r="G112" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="H112" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I112" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J112" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="K112" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L112" t="n">
         <v>1.01</v>
@@ -15544,19 +15544,19 @@
         <v>1.65</v>
       </c>
       <c r="O112" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P112" t="n">
         <v>1.65</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R112" t="n">
         <v>1.27</v>
       </c>
       <c r="S112" t="n">
-        <v>1.92</v>
+        <v>3</v>
       </c>
       <c r="T112" t="n">
         <v>1.01</v>
@@ -15568,7 +15568,7 @@
         <v>1.13</v>
       </c>
       <c r="W112" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="X112" t="n">
         <v>1000</v>
@@ -15676,7 +15676,7 @@
         <v>1.01</v>
       </c>
       <c r="N113" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O113" t="n">
         <v>1.31</v>
@@ -15763,7 +15763,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -15773,132 +15773,132 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Guarani (Par)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Nublense</t>
+          <t>Rubio Nu</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="G114" t="n">
-        <v>2.1</v>
+        <v>110</v>
       </c>
       <c r="H114" t="n">
-        <v>3.9</v>
+        <v>1.04</v>
       </c>
       <c r="I114" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="J114" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="K114" t="n">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="L114" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M114" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N114" t="n">
-        <v>3.75</v>
+        <v>1.24</v>
       </c>
       <c r="O114" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="P114" t="n">
-        <v>1.95</v>
+        <v>1.24</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.9</v>
+        <v>1.38</v>
       </c>
       <c r="R114" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="S114" t="n">
-        <v>3.3</v>
+        <v>1.38</v>
       </c>
       <c r="T114" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="U114" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="V114" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="W114" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="X114" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y114" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z114" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA114" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB114" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC114" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD114" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE114" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF114" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG114" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH114" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI114" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ114" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK114" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL114" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM114" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN114" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO114" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -15908,132 +15908,132 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>3</v>
+        <v>1.98</v>
       </c>
       <c r="G115" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K115" t="n">
+        <v>4</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S115" t="n">
         <v>3.3</v>
       </c>
-      <c r="H115" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I115" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J115" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K115" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L115" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M115" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N115" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O115" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P115" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R115" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S115" t="n">
-        <v>6</v>
-      </c>
       <c r="T115" t="n">
-        <v>2.2</v>
+        <v>1.79</v>
       </c>
       <c r="U115" t="n">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="V115" t="n">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="W115" t="n">
-        <v>1.43</v>
+        <v>1.92</v>
       </c>
       <c r="X115" t="n">
-        <v>9.4</v>
+        <v>17.5</v>
       </c>
       <c r="Y115" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Z115" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="AA115" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI115" t="n">
         <v>60</v>
       </c>
-      <c r="AB115" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC115" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD115" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE115" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF115" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG115" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH115" t="n">
+      <c r="AJ115" t="n">
         <v>24</v>
       </c>
-      <c r="AI115" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ115" t="n">
+      <c r="AK115" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO115" t="n">
         <v>65</v>
-      </c>
-      <c r="AK115" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL115" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM115" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN115" t="n">
-        <v>70</v>
-      </c>
-      <c r="AO115" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -16043,126 +16043,126 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F116" t="n">
+        <v>3</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K116" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N116" t="n">
         <v>2.46</v>
       </c>
-      <c r="G116" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="H116" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J116" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K116" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L116" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M116" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N116" t="n">
-        <v>1.45</v>
-      </c>
       <c r="O116" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="P116" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="R116" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="S116" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="T116" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="U116" t="n">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="V116" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="W116" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="X116" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="Y116" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z116" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA116" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB116" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC116" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD116" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE116" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF116" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG116" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH116" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI116" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ116" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK116" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL116" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM116" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN116" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO116" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117">
@@ -16183,255 +16183,390 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="G117" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="H117" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I117" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J117" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="K117" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L117" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M117" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N117" t="n">
-        <v>2.92</v>
+        <v>1.53</v>
       </c>
       <c r="O117" t="n">
-        <v>1.44</v>
+        <v>1.02</v>
       </c>
       <c r="P117" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.28</v>
+        <v>2.56</v>
       </c>
       <c r="R117" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="S117" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T117" t="n">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="U117" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="V117" t="n">
         <v>1.37</v>
       </c>
       <c r="W117" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X117" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="Y117" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z117" t="n">
         <v>27</v>
       </c>
       <c r="AA117" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB117" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC117" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD117" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE117" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF117" t="n">
         <v>17</v>
       </c>
       <c r="AG117" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH117" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI117" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL117" t="n">
         <v>75</v>
       </c>
-      <c r="AJ117" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK117" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL117" t="n">
-        <v>60</v>
-      </c>
       <c r="AM117" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="AN117" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AO117" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Ind Medellin</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K118" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N118" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P118" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S118" t="n">
+        <v>4</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V118" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X118" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
           <t>Honduras Liga Nacional</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>2026-02-01</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>Olancho</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>Lobos UPNFM</t>
         </is>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>1.04</v>
       </c>
-      <c r="G118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H118" t="n">
+      <c r="G119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H119" t="n">
         <v>1.04</v>
       </c>
-      <c r="I118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J118" t="n">
+      <c r="I119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J119" t="n">
         <v>1.02</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>710</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>1.01</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>1.01</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P119" t="n">
         <v>1.24</v>
       </c>
-      <c r="O118" t="n">
+      <c r="Q119" t="n">
         <v>1.25</v>
       </c>
-      <c r="P118" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q118" t="n">
+      <c r="R119" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S119" t="n">
         <v>1.25</v>
       </c>
-      <c r="R118" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S118" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T118" t="n">
+      <c r="T119" t="n">
         <v>1.01</v>
       </c>
-      <c r="U118" t="n">
+      <c r="U119" t="n">
         <v>1.01</v>
       </c>
-      <c r="V118" t="n">
+      <c r="V119" t="n">
         <v>1.01</v>
       </c>
-      <c r="W118" t="n">
+      <c r="W119" t="n">
         <v>1.01</v>
       </c>
-      <c r="X118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN118" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO118" t="n">
+      <c r="X119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO119" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G2" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="I2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
         <v>4.5</v>
@@ -700,7 +700,7 @@
         <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
         <v>1.49</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="G3" t="n">
-        <v>970</v>
+        <v>1.12</v>
       </c>
       <c r="H3" t="n">
-        <v>1.01</v>
+        <v>28</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
         <v>15</v>
@@ -841,19 +841,19 @@
         <v>2.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="G4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="I4" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="K4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -964,85 +964,85 @@
         <v>1.03</v>
       </c>
       <c r="O4" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="P4" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="S4" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="V4" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="W4" t="n">
         <v>1.09</v>
       </c>
       <c r="X4" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="Z4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD4" t="n">
         <v>15</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>15.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="n">
         <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AK4" t="n">
         <v>120</v>
       </c>
       <c r="AL4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G5" t="n">
         <v>2.96</v>
@@ -1102,7 +1102,7 @@
         <v>1.34</v>
       </c>
       <c r="P5" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
@@ -1210,31 +1210,31 @@
         <v>2.1</v>
       </c>
       <c r="G6" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>1.93</v>
+        <v>3.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
         <v>1.93</v>
@@ -1243,31 +1243,31 @@
         <v>1.87</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="V6" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W6" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1276,16 +1276,16 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG6" t="n">
         <v>1000</v>
@@ -1294,25 +1294,25 @@
         <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -1345,7 +1345,7 @@
         <v>1.87</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="H7" t="n">
         <v>4.2</v>
@@ -1375,10 +1375,10 @@
         <v>1.88</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S7" t="n">
         <v>3.35</v>
@@ -1390,10 +1390,10 @@
         <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W7" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="X7" t="n">
         <v>17</v>
@@ -1480,7 +1480,7 @@
         <v>1.74</v>
       </c>
       <c r="G8" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
         <v>5.2</v>
@@ -1489,46 +1489,46 @@
         <v>6.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
         <v>3.75</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="U8" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
         <v>1.19</v>
       </c>
       <c r="W8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X8" t="n">
         <v>15</v>
@@ -1537,40 +1537,40 @@
         <v>970</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE8" t="n">
         <v>100</v>
       </c>
       <c r="AF8" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
         <v>970</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ8" t="n">
         <v>22</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
         <v>48</v>
@@ -1579,10 +1579,10 @@
         <v>160</v>
       </c>
       <c r="AN8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
@@ -1615,34 +1615,34 @@
         <v>2.84</v>
       </c>
       <c r="G9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="I9" t="n">
         <v>2.86</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q9" t="n">
         <v>1.79</v>
@@ -1660,7 +1660,7 @@
         <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W9" t="n">
         <v>1.36</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="G10" t="n">
         <v>3.05</v>
       </c>
       <c r="H10" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="J10" t="n">
         <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1783,22 +1783,22 @@
         <v>1.18</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S10" t="n">
         <v>1.01</v>
       </c>
       <c r="T10" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="V10" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X10" t="n">
         <v>25</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G11" t="n">
         <v>4.7</v>
@@ -1891,7 +1891,7 @@
         <v>1.81</v>
       </c>
       <c r="I11" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J11" t="n">
         <v>4.2</v>
@@ -1900,28 +1900,28 @@
         <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>2.48</v>
+        <v>5.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R11" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="T11" t="n">
         <v>1.62</v>
@@ -1966,7 +1966,7 @@
         <v>18.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AI11" t="n">
         <v>27</v>
@@ -1975,7 +1975,7 @@
         <v>110</v>
       </c>
       <c r="AK11" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL11" t="n">
         <v>48</v>
@@ -1987,7 +1987,7 @@
         <v>38</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G12" t="n">
         <v>2.08</v>
       </c>
       <c r="H12" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I12" t="n">
         <v>5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.1</v>
       </c>
       <c r="J12" t="n">
         <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
         <v>1.62</v>
@@ -2059,16 +2059,16 @@
         <v>5.6</v>
       </c>
       <c r="T12" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U12" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X12" t="n">
         <v>8.199999999999999</v>
@@ -2077,7 +2077,7 @@
         <v>12.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
         <v>140</v>
@@ -2086,13 +2086,13 @@
         <v>6.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
         <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF12" t="n">
         <v>10.5</v>
@@ -2101,13 +2101,13 @@
         <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
         <v>110</v>
       </c>
       <c r="AJ12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
         <v>28</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="G13" t="n">
         <v>17</v>
@@ -2164,13 +2164,13 @@
         <v>1.42</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
@@ -2185,7 +2185,7 @@
         <v>1.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R13" t="n">
         <v>1.27</v>
@@ -2200,7 +2200,7 @@
         <v>1.46</v>
       </c>
       <c r="V13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="W13" t="n">
         <v>1.06</v>
@@ -2290,7 +2290,7 @@
         <v>1.6</v>
       </c>
       <c r="G14" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H14" t="n">
         <v>5.3</v>
@@ -2317,28 +2317,28 @@
         <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S14" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="T14" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="U14" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="V14" t="n">
         <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X14" t="n">
         <v>28</v>
@@ -2350,7 +2350,7 @@
         <v>60</v>
       </c>
       <c r="AA14" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB14" t="n">
         <v>970</v>
@@ -2422,55 +2422,55 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G15" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H15" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="I15" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>1.97</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="S15" t="n">
-        <v>2.5</v>
+        <v>2.86</v>
       </c>
       <c r="T15" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="U15" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="V15" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W15" t="n">
         <v>1.54</v>
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G16" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H16" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I16" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="S16" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U16" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W16" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB16" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD16" t="n">
         <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG16" t="n">
         <v>15.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AJ16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK16" t="n">
         <v>36</v>
       </c>
       <c r="AL16" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="G17" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H17" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I17" t="n">
         <v>7.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.27</v>
@@ -2716,22 +2716,22 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q17" t="n">
         <v>1.61</v>
       </c>
       <c r="R17" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="S17" t="n">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="T17" t="n">
         <v>1.66</v>
@@ -2743,61 +2743,61 @@
         <v>1.15</v>
       </c>
       <c r="W17" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -2962,58 +2962,58 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.04</v>
+        <v>2.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="J19" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.42</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="O19" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P19" t="n">
         <v>1.55</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R19" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S19" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="U19" t="n">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="V19" t="n">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="W19" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="X19" t="n">
         <v>970</v>
@@ -3025,7 +3025,7 @@
         <v>970</v>
       </c>
       <c r="AA19" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AB19" t="n">
         <v>970</v>
@@ -3037,37 +3037,37 @@
         <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AF19" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AG19" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL19" t="n">
         <v>60</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>95</v>
-      </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO19" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -3106,13 +3106,13 @@
         <v>2.32</v>
       </c>
       <c r="I20" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J20" t="n">
         <v>3.3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
         <v>1.41</v>
@@ -3127,10 +3127,10 @@
         <v>1.32</v>
       </c>
       <c r="P20" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R20" t="n">
         <v>1.33</v>
@@ -3139,10 +3139,10 @@
         <v>3.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V20" t="n">
         <v>1.63</v>
@@ -3232,58 +3232,58 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.95</v>
       </c>
-      <c r="H21" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="R21" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="S21" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="T21" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U21" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="V21" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W21" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X21" t="n">
         <v>970</v>
@@ -3307,7 +3307,7 @@
         <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF21" t="n">
         <v>27</v>
@@ -3319,22 +3319,22 @@
         <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="n">
         <v>70</v>
       </c>
       <c r="AK21" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL21" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM21" t="n">
         <v>85</v>
       </c>
       <c r="AN21" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AO21" t="n">
         <v>970</v>
@@ -3382,7 +3382,7 @@
         <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
         <v>1.36</v>
@@ -3400,22 +3400,22 @@
         <v>2.16</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S22" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U22" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V22" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W22" t="n">
         <v>1.72</v>
@@ -3505,7 +3505,7 @@
         <v>2.56</v>
       </c>
       <c r="G23" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H23" t="n">
         <v>2.98</v>
@@ -3514,7 +3514,7 @@
         <v>3.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
         <v>3.5</v>
@@ -3523,7 +3523,7 @@
         <v>1.43</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
         <v>3.65</v>
@@ -3532,28 +3532,28 @@
         <v>1.34</v>
       </c>
       <c r="P23" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q23" t="n">
         <v>2.02</v>
       </c>
       <c r="R23" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T23" t="n">
         <v>1.78</v>
       </c>
       <c r="U23" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V23" t="n">
         <v>1.47</v>
       </c>
       <c r="W23" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X23" t="n">
         <v>970</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H24" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I24" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J24" t="n">
         <v>3.7</v>
@@ -3661,22 +3661,22 @@
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P24" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="R24" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="S24" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="T24" t="n">
         <v>1.63</v>
@@ -3685,7 +3685,7 @@
         <v>2.44</v>
       </c>
       <c r="V24" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="W24" t="n">
         <v>1.41</v>
@@ -3778,16 +3778,16 @@
         <v>1.29</v>
       </c>
       <c r="H25" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J25" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="K25" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L25" t="n">
         <v>1.26</v>
@@ -3802,7 +3802,7 @@
         <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="Q25" t="n">
         <v>1.51</v>
@@ -3811,16 +3811,16 @@
         <v>1.74</v>
       </c>
       <c r="S25" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T25" t="n">
         <v>2.02</v>
       </c>
       <c r="U25" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V25" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W25" t="n">
         <v>4.4</v>
@@ -3829,7 +3829,7 @@
         <v>29</v>
       </c>
       <c r="Y25" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z25" t="n">
         <v>130</v>
@@ -3844,10 +3844,10 @@
         <v>15</v>
       </c>
       <c r="AD25" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE25" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF25" t="n">
         <v>8.6</v>
@@ -3859,7 +3859,7 @@
         <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ25" t="n">
         <v>9.800000000000001</v>
@@ -3874,7 +3874,7 @@
         <v>150</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
         <v>200</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="G26" t="n">
         <v>1.85</v>
@@ -3937,13 +3937,13 @@
         <v>1.28</v>
       </c>
       <c r="P26" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q26" t="n">
         <v>1.81</v>
       </c>
       <c r="R26" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S26" t="n">
         <v>3</v>
@@ -4054,13 +4054,13 @@
         <v>5.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K27" t="n">
         <v>4.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M27" t="n">
         <v>1.04</v>
@@ -4072,7 +4072,7 @@
         <v>1.27</v>
       </c>
       <c r="P27" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q27" t="n">
         <v>1.81</v>
@@ -4096,7 +4096,7 @@
         <v>2.22</v>
       </c>
       <c r="X27" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="n">
         <v>22</v>
@@ -4177,25 +4177,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H28" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I28" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J28" t="n">
         <v>3.8</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -4315,91 +4315,91 @@
         <v>1.78</v>
       </c>
       <c r="G29" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I29" t="n">
         <v>4.9</v>
       </c>
       <c r="J29" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K29" t="n">
         <v>4.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="P29" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="R29" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="S29" t="n">
-        <v>2.66</v>
+        <v>3.25</v>
       </c>
       <c r="T29" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="U29" t="n">
-        <v>2.22</v>
+        <v>1.9</v>
       </c>
       <c r="V29" t="n">
         <v>1.25</v>
       </c>
       <c r="W29" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="X29" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA29" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB29" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AC29" t="n">
         <v>970</v>
       </c>
       <c r="AD29" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF29" t="n">
         <v>970</v>
       </c>
       <c r="AG29" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
         <v>970</v>
       </c>
       <c r="AI29" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ29" t="n">
         <v>21</v>
@@ -4408,16 +4408,16 @@
         <v>970</v>
       </c>
       <c r="AL29" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM29" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AN29" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -4738,7 +4738,7 @@
         <v>1.45</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
         <v>2.7</v>
@@ -4759,10 +4759,10 @@
         <v>4.4</v>
       </c>
       <c r="T32" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="U32" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="V32" t="n">
         <v>1.16</v>
@@ -4882,10 +4882,10 @@
         <v>1.43</v>
       </c>
       <c r="P33" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R33" t="n">
         <v>1.18</v>
@@ -4990,10 +4990,10 @@
         <v>2.5</v>
       </c>
       <c r="G34" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H34" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
         <v>3.05</v>
@@ -5002,7 +5002,7 @@
         <v>3.55</v>
       </c>
       <c r="K34" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L34" t="n">
         <v>1.34</v>
@@ -5020,7 +5020,7 @@
         <v>2.14</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R34" t="n">
         <v>1.45</v>
@@ -5029,7 +5029,7 @@
         <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U34" t="n">
         <v>2.34</v>
@@ -5146,7 +5146,7 @@
         <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O35" t="n">
         <v>1.54</v>
@@ -5155,7 +5155,7 @@
         <v>1.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="R35" t="n">
         <v>1.18</v>
@@ -5257,43 +5257,43 @@
         </is>
       </c>
       <c r="F36" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G36" t="n">
         <v>1.79</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.82</v>
       </c>
       <c r="H36" t="n">
         <v>4.5</v>
       </c>
       <c r="I36" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K36" t="n">
         <v>4.7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4.5</v>
       </c>
       <c r="L36" t="n">
         <v>1.22</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N36" t="n">
         <v>6.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P36" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
         <v>1.48</v>
       </c>
       <c r="R36" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S36" t="n">
         <v>2.22</v>
@@ -5305,34 +5305,34 @@
         <v>2.82</v>
       </c>
       <c r="V36" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W36" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="X36" t="n">
         <v>32</v>
       </c>
       <c r="Y36" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Z36" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA36" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AB36" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>360</v>
+        <v>18.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AF36" t="n">
         <v>15</v>
@@ -5410,7 +5410,7 @@
         <v>5.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M37" t="n">
         <v>1.01</v>
@@ -5530,10 +5530,10 @@
         <v>3.8</v>
       </c>
       <c r="G38" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H38" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I38" t="n">
         <v>2.26</v>
@@ -5542,7 +5542,7 @@
         <v>3.25</v>
       </c>
       <c r="K38" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L38" t="n">
         <v>1.47</v>
@@ -5578,7 +5578,7 @@
         <v>1.79</v>
       </c>
       <c r="W38" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X38" t="n">
         <v>14</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="G39" t="n">
         <v>2.5</v>
@@ -5671,7 +5671,7 @@
         <v>3.35</v>
       </c>
       <c r="I39" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J39" t="n">
         <v>3.3</v>
@@ -5686,31 +5686,31 @@
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>1.92</v>
+        <v>3.7</v>
       </c>
       <c r="O39" t="n">
         <v>1.32</v>
       </c>
       <c r="P39" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="R39" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S39" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T39" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U39" t="n">
         <v>2.3</v>
       </c>
       <c r="V39" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W39" t="n">
         <v>1.67</v>
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H42" t="n">
         <v>2.26</v>
@@ -6118,7 +6118,7 @@
         <v>1.63</v>
       </c>
       <c r="W42" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X42" t="n">
         <v>970</v>
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G43" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H43" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I43" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="J43" t="n">
         <v>3.1</v>
       </c>
       <c r="K43" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L43" t="n">
         <v>1.39</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N43" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.06</v>
+        <v>1.43</v>
       </c>
       <c r="P43" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="R43" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S43" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="T43" t="n">
         <v>1.94</v>
@@ -6250,10 +6250,10 @@
         <v>1.87</v>
       </c>
       <c r="V43" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W43" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X43" t="n">
         <v>970</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="G44" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="H44" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="I44" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="J44" t="n">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="K44" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6367,16 +6367,16 @@
         <v>1.53</v>
       </c>
       <c r="P44" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="R44" t="n">
         <v>1.19</v>
       </c>
       <c r="S44" t="n">
-        <v>5.1</v>
+        <v>2.52</v>
       </c>
       <c r="T44" t="n">
         <v>2.16</v>
@@ -6385,7 +6385,7 @@
         <v>1.79</v>
       </c>
       <c r="V44" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="W44" t="n">
         <v>1.35</v>
@@ -6511,7 +6511,7 @@
         <v>1.41</v>
       </c>
       <c r="S45" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T45" t="n">
         <v>1.73</v>
@@ -6616,7 +6616,7 @@
         <v>6</v>
       </c>
       <c r="I46" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J46" t="n">
         <v>3.9</v>
@@ -6640,7 +6640,7 @@
         <v>1.76</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R46" t="n">
         <v>1.29</v>
@@ -6655,7 +6655,7 @@
         <v>1.77</v>
       </c>
       <c r="V46" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W46" t="n">
         <v>2.46</v>
@@ -6757,7 +6757,7 @@
         <v>3.75</v>
       </c>
       <c r="K47" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L47" t="n">
         <v>1.37</v>
@@ -6790,7 +6790,7 @@
         <v>2.22</v>
       </c>
       <c r="V47" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W47" t="n">
         <v>1.92</v>
@@ -6844,7 +6844,7 @@
         <v>90</v>
       </c>
       <c r="AN47" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO47" t="n">
         <v>46</v>
@@ -6883,10 +6883,10 @@
         <v>1.63</v>
       </c>
       <c r="H48" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I48" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J48" t="n">
         <v>4.7</v>
@@ -6904,16 +6904,16 @@
         <v>5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P48" t="n">
         <v>2.36</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R48" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S48" t="n">
         <v>2.84</v>
@@ -6931,7 +6931,7 @@
         <v>2.58</v>
       </c>
       <c r="X48" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y48" t="n">
         <v>23</v>
@@ -6958,7 +6958,7 @@
         <v>10.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH48" t="n">
         <v>19</v>
@@ -6967,7 +6967,7 @@
         <v>60</v>
       </c>
       <c r="AJ48" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK48" t="n">
         <v>15</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G49" t="n">
         <v>2.16</v>
       </c>
-      <c r="G49" t="n">
-        <v>2.2</v>
-      </c>
       <c r="H49" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I49" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J49" t="n">
         <v>3.65</v>
       </c>
       <c r="K49" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L49" t="n">
         <v>1.39</v>
@@ -7039,7 +7039,7 @@
         <v>4.3</v>
       </c>
       <c r="O49" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P49" t="n">
         <v>2.1</v>
@@ -7057,13 +7057,13 @@
         <v>1.73</v>
       </c>
       <c r="U49" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V49" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W49" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="X49" t="n">
         <v>15.5</v>
@@ -7072,10 +7072,10 @@
         <v>15.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA49" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB49" t="n">
         <v>11</v>
@@ -7084,10 +7084,10 @@
         <v>8</v>
       </c>
       <c r="AD49" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE49" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF49" t="n">
         <v>13.5</v>
@@ -7099,10 +7099,10 @@
         <v>16.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ49" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK49" t="n">
         <v>21</v>
@@ -7114,7 +7114,7 @@
         <v>80</v>
       </c>
       <c r="AN49" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO49" t="n">
         <v>38</v>
@@ -7177,7 +7177,7 @@
         <v>1.37</v>
       </c>
       <c r="P50" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q50" t="n">
         <v>2.14</v>
@@ -7186,7 +7186,7 @@
         <v>1.32</v>
       </c>
       <c r="S50" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T50" t="n">
         <v>1.94</v>
@@ -7213,7 +7213,7 @@
         <v>90</v>
       </c>
       <c r="AB50" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC50" t="n">
         <v>7.8</v>
@@ -7285,19 +7285,19 @@
         <v>1.21</v>
       </c>
       <c r="G51" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I51" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J51" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="K51" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
@@ -7306,34 +7306,34 @@
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="O51" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="P51" t="n">
-        <v>2.76</v>
+        <v>2.42</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="R51" t="n">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="S51" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="T51" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="U51" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="V51" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W51" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G53" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H53" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="I53" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="J53" t="n">
         <v>3.35</v>
       </c>
       <c r="K53" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
@@ -7600,10 +7600,10 @@
         <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="W53" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="X53" t="n">
         <v>38</v>
@@ -7699,7 +7699,7 @@
         <v>11.5</v>
       </c>
       <c r="J54" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K54" t="n">
         <v>5.2</v>
@@ -7843,25 +7843,25 @@
         <v>1.01</v>
       </c>
       <c r="M55" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>1.83</v>
+        <v>3.45</v>
       </c>
       <c r="O55" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P55" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="R55" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="S55" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="T55" t="n">
         <v>1.96</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="G56" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H56" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="I56" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="J56" t="n">
         <v>3.75</v>
       </c>
       <c r="K56" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -7999,16 +7999,16 @@
         <v>2.3</v>
       </c>
       <c r="T56" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="U56" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="V56" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="W56" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X56" t="n">
         <v>22</v>
@@ -8107,7 +8107,7 @@
         <v>4.2</v>
       </c>
       <c r="K57" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L57" t="n">
         <v>1.31</v>
@@ -8116,7 +8116,7 @@
         <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O57" t="n">
         <v>1.22</v>
@@ -8242,10 +8242,10 @@
         <v>3.55</v>
       </c>
       <c r="K58" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L58" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M58" t="n">
         <v>1.09</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G59" t="n">
         <v>1.35</v>
@@ -8374,7 +8374,7 @@
         <v>11.5</v>
       </c>
       <c r="J59" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="K59" t="n">
         <v>6.6</v>
@@ -8389,7 +8389,7 @@
         <v>5.6</v>
       </c>
       <c r="O59" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P59" t="n">
         <v>2.56</v>
@@ -8404,13 +8404,13 @@
         <v>2.4</v>
       </c>
       <c r="T59" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U59" t="n">
         <v>1.92</v>
       </c>
       <c r="V59" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W59" t="n">
         <v>3.85</v>
@@ -8419,13 +8419,13 @@
         <v>28</v>
       </c>
       <c r="Y59" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="Z59" t="n">
         <v>110</v>
       </c>
       <c r="AA59" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="AB59" t="n">
         <v>11</v>
@@ -8638,7 +8638,7 @@
         <v>1.95</v>
       </c>
       <c r="H61" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I61" t="n">
         <v>4.8</v>
@@ -8770,7 +8770,7 @@
         <v>4.2</v>
       </c>
       <c r="G62" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H62" t="n">
         <v>1.85</v>
@@ -8791,7 +8791,7 @@
         <v>1.06</v>
       </c>
       <c r="N62" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O62" t="n">
         <v>1.28</v>
@@ -8818,61 +8818,61 @@
         <v>1.98</v>
       </c>
       <c r="W62" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X62" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y62" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA62" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB62" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD62" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE62" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF62" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG62" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH62" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI62" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK62" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL62" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM62" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN62" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO62" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -8902,19 +8902,19 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G63" t="n">
         <v>2.1</v>
       </c>
       <c r="H63" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I63" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J63" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K63" t="n">
         <v>3.75</v>
@@ -8929,7 +8929,7 @@
         <v>3.3</v>
       </c>
       <c r="O63" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P63" t="n">
         <v>1.81</v>
@@ -8950,7 +8950,7 @@
         <v>1.99</v>
       </c>
       <c r="V63" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W63" t="n">
         <v>1.9</v>
@@ -8959,13 +8959,13 @@
         <v>13</v>
       </c>
       <c r="Y63" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA63" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB63" t="n">
         <v>8.800000000000001</v>
@@ -9001,7 +9001,7 @@
         <v>42</v>
       </c>
       <c r="AM63" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN63" t="n">
         <v>18</v>
@@ -9067,7 +9067,7 @@
         <v>1.17</v>
       </c>
       <c r="P64" t="n">
-        <v>2.24</v>
+        <v>1.55</v>
       </c>
       <c r="Q64" t="n">
         <v>1.47</v>
@@ -9205,7 +9205,7 @@
         <v>2.06</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R65" t="n">
         <v>1.41</v>
@@ -9217,7 +9217,7 @@
         <v>2.22</v>
       </c>
       <c r="U65" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V65" t="n">
         <v>1.07</v>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -9316,7 +9316,7 @@
         <v>2.86</v>
       </c>
       <c r="I66" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J66" t="n">
         <v>3.15</v>
@@ -9355,7 +9355,7 @@
         <v>1.75</v>
       </c>
       <c r="V66" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W66" t="n">
         <v>1.5</v>
@@ -9448,7 +9448,7 @@
         <v>1.97</v>
       </c>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I67" t="n">
         <v>4.2</v>
@@ -9457,31 +9457,31 @@
         <v>4.1</v>
       </c>
       <c r="K67" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L67" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M67" t="n">
         <v>1.03</v>
       </c>
       <c r="N67" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O67" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P67" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R67" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="S67" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="T67" t="n">
         <v>1.53</v>
@@ -9520,13 +9520,13 @@
         <v>40</v>
       </c>
       <c r="AF67" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AG67" t="n">
         <v>11.5</v>
       </c>
       <c r="AH67" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI67" t="n">
         <v>40</v>
@@ -9538,16 +9538,16 @@
         <v>18</v>
       </c>
       <c r="AL67" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM67" t="n">
         <v>65</v>
       </c>
       <c r="AN67" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AO67" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G68" t="n">
         <v>2.34</v>
@@ -9586,10 +9586,10 @@
         <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J68" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K68" t="n">
         <v>4.5</v>
@@ -9625,7 +9625,7 @@
         <v>2.72</v>
       </c>
       <c r="V68" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W68" t="n">
         <v>1.74</v>
@@ -9712,10 +9712,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G69" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H69" t="n">
         <v>4.2</v>
@@ -9751,7 +9751,7 @@
         <v>1.5</v>
       </c>
       <c r="S69" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T69" t="n">
         <v>1.69</v>
@@ -9763,7 +9763,7 @@
         <v>1.29</v>
       </c>
       <c r="W69" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X69" t="n">
         <v>23</v>
@@ -9847,16 +9847,16 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G70" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I70" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J70" t="n">
         <v>3.5</v>
@@ -9865,13 +9865,13 @@
         <v>3.6</v>
       </c>
       <c r="L70" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M70" t="n">
         <v>1.09</v>
       </c>
       <c r="N70" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O70" t="n">
         <v>1.39</v>
@@ -9895,10 +9895,10 @@
         <v>2.04</v>
       </c>
       <c r="V70" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W70" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X70" t="n">
         <v>12.5</v>
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G71" t="n">
         <v>2.22</v>
@@ -9997,7 +9997,7 @@
         <v>3.5</v>
       </c>
       <c r="K71" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L71" t="n">
         <v>1.38</v>
@@ -10120,10 +10120,10 @@
         <v>1.78</v>
       </c>
       <c r="G72" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="H72" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I72" t="n">
         <v>5.9</v>
@@ -10150,7 +10150,7 @@
         <v>1.72</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R72" t="n">
         <v>1.26</v>
@@ -10168,7 +10168,7 @@
         <v>1.2</v>
       </c>
       <c r="W72" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="X72" t="n">
         <v>11.5</v>
@@ -10390,7 +10390,7 @@
         <v>1.89</v>
       </c>
       <c r="G74" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H74" t="n">
         <v>4.7</v>
@@ -10399,7 +10399,7 @@
         <v>5.2</v>
       </c>
       <c r="J74" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K74" t="n">
         <v>3.8</v>
@@ -10408,25 +10408,25 @@
         <v>1.01</v>
       </c>
       <c r="M74" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N74" t="n">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="O74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R74" t="n">
         <v>1.33</v>
       </c>
-      <c r="P74" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R74" t="n">
-        <v>1.27</v>
-      </c>
       <c r="S74" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="T74" t="n">
         <v>1.89</v>
@@ -10438,7 +10438,7 @@
         <v>1.25</v>
       </c>
       <c r="W74" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X74" t="n">
         <v>16</v>
@@ -10525,13 +10525,13 @@
         <v>2.52</v>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="H75" t="n">
         <v>2.82</v>
       </c>
       <c r="I75" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="J75" t="n">
         <v>3.15</v>
@@ -10546,34 +10546,34 @@
         <v>1.01</v>
       </c>
       <c r="N75" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="O75" t="n">
         <v>1.35</v>
       </c>
       <c r="P75" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="R75" t="n">
         <v>1.18</v>
       </c>
       <c r="S75" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U75" t="n">
         <v>2.04</v>
       </c>
-      <c r="T75" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U75" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V75" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W75" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X75" t="n">
         <v>17.5</v>
@@ -10669,7 +10669,7 @@
         <v>15.5</v>
       </c>
       <c r="J76" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K76" t="n">
         <v>7.4</v>
@@ -10690,19 +10690,19 @@
         <v>3</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R76" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="S76" t="n">
         <v>2.18</v>
       </c>
       <c r="T76" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U76" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V76" t="n">
         <v>1.07</v>
@@ -10798,7 +10798,7 @@
         <v>5</v>
       </c>
       <c r="H77" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I77" t="n">
         <v>1.8</v>
@@ -10822,7 +10822,7 @@
         <v>1.23</v>
       </c>
       <c r="P77" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q77" t="n">
         <v>1.7</v>
@@ -10834,10 +10834,10 @@
         <v>2.78</v>
       </c>
       <c r="T77" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U77" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V77" t="n">
         <v>2.26</v>
@@ -10861,7 +10861,7 @@
         <v>21</v>
       </c>
       <c r="AC77" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD77" t="n">
         <v>9.800000000000001</v>
@@ -10945,7 +10945,7 @@
         <v>6</v>
       </c>
       <c r="L78" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M78" t="n">
         <v>1.01</v>
@@ -10957,7 +10957,7 @@
         <v>1.01</v>
       </c>
       <c r="P78" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q78" t="n">
         <v>1.76</v>
@@ -11062,22 +11062,22 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="G79" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="H79" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I79" t="n">
         <v>1.32</v>
       </c>
-      <c r="I79" t="n">
-        <v>1.33</v>
-      </c>
       <c r="J79" t="n">
+        <v>6</v>
+      </c>
+      <c r="K79" t="n">
         <v>6.2</v>
-      </c>
-      <c r="K79" t="n">
-        <v>6.4</v>
       </c>
       <c r="L79" t="n">
         <v>1.33</v>
@@ -11107,10 +11107,10 @@
         <v>2.2</v>
       </c>
       <c r="U79" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V79" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="W79" t="n">
         <v>1.08</v>
@@ -11134,7 +11134,7 @@
         <v>13</v>
       </c>
       <c r="AD79" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE79" t="n">
         <v>14</v>
@@ -11203,13 +11203,13 @@
         <v>1.18</v>
       </c>
       <c r="H80" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="I80" t="n">
         <v>21</v>
       </c>
       <c r="J80" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="K80" t="n">
         <v>11</v>
@@ -11335,13 +11335,13 @@
         <v>8.4</v>
       </c>
       <c r="G81" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="H81" t="n">
         <v>1.39</v>
       </c>
       <c r="I81" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="J81" t="n">
         <v>4.9</v>
@@ -11374,16 +11374,16 @@
         <v>2.46</v>
       </c>
       <c r="T81" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="U81" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="V81" t="n">
         <v>3.1</v>
       </c>
       <c r="W81" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="X81" t="n">
         <v>26</v>
@@ -11503,7 +11503,7 @@
         <v>1.42</v>
       </c>
       <c r="R82" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S82" t="n">
         <v>2.08</v>
@@ -11512,7 +11512,7 @@
         <v>3.1</v>
       </c>
       <c r="U82" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="V82" t="n">
         <v>1.01</v>
@@ -11533,10 +11533,10 @@
         <v>1000</v>
       </c>
       <c r="AB82" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC82" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AD82" t="n">
         <v>210</v>
@@ -11605,22 +11605,22 @@
         <v>2.2</v>
       </c>
       <c r="G83" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="H83" t="n">
         <v>3</v>
       </c>
       <c r="I83" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="J83" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K83" t="n">
         <v>4.2</v>
       </c>
       <c r="L83" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M83" t="n">
         <v>1.05</v>
@@ -11650,7 +11650,7 @@
         <v>2.34</v>
       </c>
       <c r="V83" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="W83" t="n">
         <v>1.66</v>
@@ -11740,7 +11740,7 @@
         <v>1.13</v>
       </c>
       <c r="G84" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H84" t="n">
         <v>11</v>
@@ -11749,7 +11749,7 @@
         <v>1000</v>
       </c>
       <c r="J84" t="n">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="K84" t="n">
         <v>950</v>
@@ -11788,7 +11788,7 @@
         <v>1.01</v>
       </c>
       <c r="W84" t="n">
-        <v>4.8</v>
+        <v>1.01</v>
       </c>
       <c r="X84" t="n">
         <v>1000</v>
@@ -11878,10 +11878,10 @@
         <v>3.1</v>
       </c>
       <c r="H85" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I85" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="J85" t="n">
         <v>2.96</v>
@@ -11902,7 +11902,7 @@
         <v>1.69</v>
       </c>
       <c r="P85" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q85" t="n">
         <v>3.15</v>
@@ -11920,10 +11920,10 @@
         <v>1.69</v>
       </c>
       <c r="V85" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W85" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X85" t="n">
         <v>7</v>
@@ -11959,7 +11959,7 @@
         <v>27</v>
       </c>
       <c r="AI85" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ85" t="n">
         <v>60</v>
@@ -12007,16 +12007,16 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="G86" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="H86" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I86" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="J86" t="n">
         <v>3.05</v>
@@ -12028,7 +12028,7 @@
         <v>1.56</v>
       </c>
       <c r="M86" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N86" t="n">
         <v>2.8</v>
@@ -12049,58 +12049,58 @@
         <v>4.9</v>
       </c>
       <c r="T86" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U86" t="n">
         <v>1.87</v>
       </c>
       <c r="V86" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="W86" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="X86" t="n">
         <v>11.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z86" t="n">
         <v>23</v>
       </c>
       <c r="AA86" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB86" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC86" t="n">
         <v>7.2</v>
       </c>
       <c r="AD86" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AE86" t="n">
         <v>55</v>
       </c>
       <c r="AF86" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AG86" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AH86" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI86" t="n">
         <v>75</v>
       </c>
       <c r="AJ86" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AK86" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AL86" t="n">
         <v>60</v>
@@ -12109,10 +12109,10 @@
         <v>190</v>
       </c>
       <c r="AN86" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AO86" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87">
@@ -12172,13 +12172,13 @@
         <v>1.21</v>
       </c>
       <c r="P87" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R87" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S87" t="n">
         <v>2.58</v>
@@ -12286,7 +12286,7 @@
         <v>23</v>
       </c>
       <c r="I88" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J88" t="n">
         <v>10.5</v>
@@ -12313,10 +12313,10 @@
         <v>1.39</v>
       </c>
       <c r="R88" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S88" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="T88" t="n">
         <v>2.3</v>
@@ -12331,7 +12331,7 @@
         <v>7.2</v>
       </c>
       <c r="X88" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y88" t="n">
         <v>80</v>
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G89" t="n">
         <v>2.22</v>
@@ -12427,7 +12427,7 @@
         <v>3.4</v>
       </c>
       <c r="K89" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L89" t="n">
         <v>1.3</v>
@@ -12547,112 +12547,112 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="G90" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="H90" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="I90" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="J90" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="K90" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="L90" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M90" t="n">
         <v>1.03</v>
       </c>
       <c r="N90" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="O90" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P90" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="R90" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="S90" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="T90" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="U90" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="V90" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W90" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="X90" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Y90" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Z90" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AA90" t="n">
         <v>1000</v>
       </c>
       <c r="AB90" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AC90" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD90" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AE90" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AF90" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AG90" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AH90" t="n">
         <v>40</v>
       </c>
       <c r="AI90" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AJ90" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AK90" t="n">
         <v>15</v>
       </c>
       <c r="AL90" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM90" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN90" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AO90" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="91">
@@ -12685,16 +12685,16 @@
         <v>1.86</v>
       </c>
       <c r="G91" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H91" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I91" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J91" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K91" t="n">
         <v>4.8</v>
@@ -12727,13 +12727,13 @@
         <v>1.59</v>
       </c>
       <c r="U91" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V91" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W91" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X91" t="n">
         <v>23</v>
@@ -12817,7 +12817,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G92" t="n">
         <v>2.34</v>
@@ -12826,13 +12826,13 @@
         <v>3.6</v>
       </c>
       <c r="I92" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J92" t="n">
         <v>3.1</v>
       </c>
       <c r="K92" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L92" t="n">
         <v>1.01</v>
@@ -12841,22 +12841,22 @@
         <v>1.01</v>
       </c>
       <c r="N92" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="O92" t="n">
         <v>1.32</v>
       </c>
       <c r="P92" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R92" t="n">
         <v>1.18</v>
       </c>
       <c r="S92" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T92" t="n">
         <v>1.01</v>
@@ -12988,7 +12988,7 @@
         <v>2.32</v>
       </c>
       <c r="R93" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="S93" t="n">
         <v>3.9</v>
@@ -13087,13 +13087,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G94" t="n">
         <v>3.35</v>
       </c>
       <c r="H94" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I94" t="n">
         <v>2.36</v>
@@ -13102,7 +13102,7 @@
         <v>3.75</v>
       </c>
       <c r="K94" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L94" t="n">
         <v>1.29</v>
@@ -13120,7 +13120,7 @@
         <v>2.44</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R94" t="n">
         <v>1.58</v>
@@ -13222,16 +13222,16 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="H95" t="n">
-        <v>2.74</v>
+        <v>2.98</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J95" t="n">
         <v>3.05</v>
@@ -13240,7 +13240,7 @@
         <v>3.35</v>
       </c>
       <c r="L95" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M95" t="n">
         <v>1.1</v>
@@ -13252,7 +13252,7 @@
         <v>1.43</v>
       </c>
       <c r="P95" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q95" t="n">
         <v>2.28</v>
@@ -13264,16 +13264,16 @@
         <v>4.3</v>
       </c>
       <c r="T95" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U95" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V95" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="W95" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="X95" t="n">
         <v>11</v>
@@ -13282,7 +13282,7 @@
         <v>10.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AA95" t="n">
         <v>55</v>
@@ -13297,7 +13297,7 @@
         <v>14</v>
       </c>
       <c r="AE95" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AF95" t="n">
         <v>970</v>
@@ -13327,7 +13327,7 @@
         <v>42</v>
       </c>
       <c r="AO95" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96">
@@ -13393,10 +13393,10 @@
         <v>1.59</v>
       </c>
       <c r="R96" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S96" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T96" t="n">
         <v>1.68</v>
@@ -13498,7 +13498,7 @@
         <v>8.4</v>
       </c>
       <c r="H97" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="I97" t="n">
         <v>1.53</v>
@@ -13507,7 +13507,7 @@
         <v>4.5</v>
       </c>
       <c r="K97" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L97" t="n">
         <v>1.45</v>
@@ -13522,7 +13522,7 @@
         <v>1.37</v>
       </c>
       <c r="P97" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q97" t="n">
         <v>2.06</v>
@@ -13540,7 +13540,7 @@
         <v>1.75</v>
       </c>
       <c r="V97" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="W97" t="n">
         <v>1.13</v>
@@ -13627,22 +13627,22 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G98" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="H98" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I98" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J98" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="K98" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="L98" t="n">
         <v>1.73</v>
@@ -13675,7 +13675,7 @@
         <v>1.45</v>
       </c>
       <c r="V98" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W98" t="n">
         <v>1.44</v>
@@ -13786,13 +13786,13 @@
         <v>1.01</v>
       </c>
       <c r="N99" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="O99" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="P99" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="Q99" t="n">
         <v>2.44</v>
@@ -13930,13 +13930,13 @@
         <v>1.74</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="R100" t="n">
         <v>1.13</v>
       </c>
       <c r="S100" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="T100" t="n">
         <v>1.01</v>
@@ -13951,55 +13951,55 @@
         <v>2.42</v>
       </c>
       <c r="X100" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y100" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z100" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA100" t="n">
         <v>1000</v>
       </c>
       <c r="AB100" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC100" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD100" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE100" t="n">
         <v>1000</v>
       </c>
       <c r="AF100" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG100" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH100" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI100" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ100" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK100" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL100" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM100" t="n">
         <v>1000</v>
       </c>
       <c r="AN100" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO100" t="n">
         <v>1000</v>
@@ -14032,19 +14032,19 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G101" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H101" t="n">
         <v>3.5</v>
       </c>
       <c r="I101" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J101" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K101" t="n">
         <v>3.3</v>
@@ -14065,7 +14065,7 @@
         <v>1.71</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R101" t="n">
         <v>1.27</v>
@@ -14080,7 +14080,7 @@
         <v>2</v>
       </c>
       <c r="V101" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W101" t="n">
         <v>1.68</v>
@@ -14092,7 +14092,7 @@
         <v>11.5</v>
       </c>
       <c r="Z101" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA101" t="n">
         <v>70</v>
@@ -14101,13 +14101,13 @@
         <v>8.6</v>
       </c>
       <c r="AC101" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD101" t="n">
         <v>15</v>
       </c>
       <c r="AE101" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF101" t="n">
         <v>13.5</v>
@@ -14170,13 +14170,13 @@
         <v>2.42</v>
       </c>
       <c r="G102" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H102" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I102" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J102" t="n">
         <v>3.45</v>
@@ -14200,7 +14200,7 @@
         <v>2.1</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R102" t="n">
         <v>1.43</v>
@@ -14212,7 +14212,7 @@
         <v>1.66</v>
       </c>
       <c r="U102" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V102" t="n">
         <v>1.44</v>
@@ -14305,13 +14305,13 @@
         <v>14.5</v>
       </c>
       <c r="G103" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="H103" t="n">
         <v>1.24</v>
       </c>
       <c r="I103" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="J103" t="n">
         <v>6.8</v>
@@ -14335,7 +14335,7 @@
         <v>2.02</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R103" t="n">
         <v>1.38</v>
@@ -14347,13 +14347,13 @@
         <v>2.78</v>
       </c>
       <c r="U103" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="V103" t="n">
         <v>4.7</v>
       </c>
       <c r="W103" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="X103" t="n">
         <v>18.5</v>
@@ -14380,7 +14380,7 @@
         <v>17</v>
       </c>
       <c r="AF103" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AG103" t="n">
         <v>75</v>
@@ -14575,16 +14575,16 @@
         <v>1.09</v>
       </c>
       <c r="G105" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H105" t="n">
         <v>4.4</v>
       </c>
       <c r="I105" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="J105" t="n">
-        <v>2.72</v>
+        <v>3.6</v>
       </c>
       <c r="K105" t="n">
         <v>1000</v>
@@ -14602,7 +14602,7 @@
         <v>1.33</v>
       </c>
       <c r="P105" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q105" t="n">
         <v>1.9</v>
@@ -14710,7 +14710,7 @@
         <v>4.4</v>
       </c>
       <c r="G106" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H106" t="n">
         <v>1.9</v>
@@ -14980,7 +14980,7 @@
         <v>1.64</v>
       </c>
       <c r="G108" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="H108" t="n">
         <v>6.6</v>
@@ -15019,19 +15019,19 @@
         <v>4.8</v>
       </c>
       <c r="T108" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U108" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="V108" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W108" t="n">
         <v>2.3</v>
       </c>
       <c r="X108" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y108" t="n">
         <v>21</v>
@@ -15115,13 +15115,13 @@
         <v>1.56</v>
       </c>
       <c r="G109" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I109" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J109" t="n">
         <v>3.85</v>
@@ -15130,7 +15130,7 @@
         <v>4.2</v>
       </c>
       <c r="L109" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M109" t="n">
         <v>1.1</v>
@@ -15142,10 +15142,10 @@
         <v>1.47</v>
       </c>
       <c r="P109" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="R109" t="n">
         <v>1.22</v>
@@ -15160,10 +15160,10 @@
         <v>1.59</v>
       </c>
       <c r="V109" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W109" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="X109" t="n">
         <v>12.5</v>
@@ -15256,7 +15256,7 @@
         <v>2.24</v>
       </c>
       <c r="I110" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="J110" t="n">
         <v>3.35</v>
@@ -15265,7 +15265,7 @@
         <v>3.55</v>
       </c>
       <c r="L110" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M110" t="n">
         <v>1.08</v>
@@ -15280,7 +15280,7 @@
         <v>1.78</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R110" t="n">
         <v>1.29</v>
@@ -15295,7 +15295,7 @@
         <v>2.02</v>
       </c>
       <c r="V110" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W110" t="n">
         <v>1.36</v>
@@ -15517,22 +15517,22 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="G112" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H112" t="n">
-        <v>5.7</v>
+        <v>1.04</v>
       </c>
       <c r="I112" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J112" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K112" t="n">
-        <v>5.3</v>
+        <v>710</v>
       </c>
       <c r="L112" t="n">
         <v>1.01</v>
@@ -15553,7 +15553,7 @@
         <v>1.94</v>
       </c>
       <c r="R112" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S112" t="n">
         <v>3</v>
@@ -15568,7 +15568,7 @@
         <v>1.13</v>
       </c>
       <c r="W112" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X112" t="n">
         <v>1000</v>
@@ -15796,7 +15796,7 @@
         <v>1.04</v>
       </c>
       <c r="I114" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="J114" t="n">
         <v>1.02</v>
@@ -15811,7 +15811,7 @@
         <v>1.01</v>
       </c>
       <c r="N114" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O114" t="n">
         <v>1.38</v>
@@ -15925,22 +15925,22 @@
         <v>1.98</v>
       </c>
       <c r="G115" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H115" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I115" t="n">
         <v>4.3</v>
       </c>
       <c r="J115" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K115" t="n">
         <v>4</v>
       </c>
       <c r="L115" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M115" t="n">
         <v>1.06</v>
@@ -16057,7 +16057,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G116" t="n">
         <v>3.3</v>
@@ -16066,10 +16066,10 @@
         <v>2.76</v>
       </c>
       <c r="I116" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="J116" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K116" t="n">
         <v>3.15</v>
@@ -16084,7 +16084,7 @@
         <v>2.46</v>
       </c>
       <c r="O116" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P116" t="n">
         <v>1.49</v>
@@ -16105,7 +16105,7 @@
         <v>1.74</v>
       </c>
       <c r="V116" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W116" t="n">
         <v>1.43</v>
@@ -16204,7 +16204,7 @@
         <v>3.7</v>
       </c>
       <c r="J117" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K117" t="n">
         <v>3.4</v>
@@ -16216,16 +16216,16 @@
         <v>1.01</v>
       </c>
       <c r="N117" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="O117" t="n">
         <v>1.02</v>
       </c>
       <c r="P117" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="R117" t="n">
         <v>1.14</v>
@@ -16336,7 +16336,7 @@
         <v>3.3</v>
       </c>
       <c r="I118" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J118" t="n">
         <v>3.15</v>
@@ -16366,7 +16366,7 @@
         <v>1.24</v>
       </c>
       <c r="S118" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T118" t="n">
         <v>1.95</v>
@@ -16375,7 +16375,7 @@
         <v>1.91</v>
       </c>
       <c r="V118" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W118" t="n">
         <v>1.64</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
@@ -700,7 +700,7 @@
         <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
         <v>1.49</v>
@@ -712,7 +712,7 @@
         <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
         <v>2.38</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="G3" t="n">
-        <v>2.06</v>
+        <v>1.11</v>
       </c>
       <c r="H3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>17.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,37 +826,37 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.02</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>4.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.03</v>
+        <v>1.22</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>2.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="U3" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
         <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.94</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -880,10 +880,10 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -892,19 +892,19 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>2.1</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G4" t="n">
         <v>12</v>
@@ -946,10 +946,10 @@
         <v>1.26</v>
       </c>
       <c r="I4" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="J4" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="K4" t="n">
         <v>8.6</v>
@@ -961,31 +961,31 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P4" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="Q4" t="n">
         <v>1.27</v>
       </c>
       <c r="R4" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="S4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="T4" t="n">
         <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="V4" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="W4" t="n">
         <v>1.09</v>
@@ -1000,7 +1000,7 @@
         <v>16.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB4" t="n">
         <v>70</v>
@@ -1042,7 +1042,7 @@
         <v>75</v>
       </c>
       <c r="AO4" t="n">
-        <v>970</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="5">
@@ -1126,7 +1126,7 @@
         <v>1.52</v>
       </c>
       <c r="X5" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
         <v>970</v>
@@ -1219,13 +1219,13 @@
         <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
         <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1240,7 +1240,7 @@
         <v>1.93</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
         <v>1.37</v>
@@ -1252,7 +1252,7 @@
         <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
         <v>1.33</v>
@@ -1351,16 +1351,16 @@
         <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
         <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1372,10 +1372,10 @@
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
         <v>1.34</v>
@@ -1390,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
         <v>2.02</v>
@@ -1489,13 +1489,13 @@
         <v>6.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1519,10 +1519,10 @@
         <v>3.75</v>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>1.76</v>
       </c>
       <c r="V8" t="n">
         <v>1.19</v>
@@ -1612,43 +1612,43 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="G9" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="H9" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="I9" t="n">
-        <v>2.98</v>
+        <v>2.78</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>7.4</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>1.31</v>
+        <v>1.91</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
         <v>2.86</v>
@@ -1660,16 +1660,16 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="W9" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,13 +1678,13 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1750,52 +1750,52 @@
         <v>2.76</v>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H10" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I10" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J10" t="n">
         <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>1.02</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="R10" t="n">
-        <v>1.22</v>
+        <v>1.55</v>
       </c>
       <c r="S10" t="n">
-        <v>1.2</v>
+        <v>2.48</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
         <v>1.5</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="G11" t="n">
         <v>4.7</v>
@@ -1891,7 +1891,7 @@
         <v>1.81</v>
       </c>
       <c r="I11" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J11" t="n">
         <v>4.2</v>
@@ -1921,7 +1921,7 @@
         <v>1.63</v>
       </c>
       <c r="S11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T11" t="n">
         <v>1.62</v>
@@ -1930,7 +1930,7 @@
         <v>2.48</v>
       </c>
       <c r="V11" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
         <v>1.27</v>
@@ -1975,10 +1975,10 @@
         <v>110</v>
       </c>
       <c r="AK11" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL11" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
         <v>70</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G12" t="n">
         <v>2.12</v>
@@ -2026,7 +2026,7 @@
         <v>4.8</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.15</v>
@@ -2041,7 +2041,7 @@
         <v>1.14</v>
       </c>
       <c r="N12" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O12" t="n">
         <v>1.56</v>
@@ -2062,10 +2062,10 @@
         <v>2.26</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
         <v>1.9</v>
@@ -2194,10 +2194,10 @@
         <v>3.9</v>
       </c>
       <c r="T13" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="V13" t="n">
         <v>3.35</v>
@@ -2317,10 +2317,10 @@
         <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="R14" t="n">
         <v>1.57</v>
@@ -2329,7 +2329,7 @@
         <v>2.34</v>
       </c>
       <c r="T14" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U14" t="n">
         <v>2.16</v>
@@ -2344,13 +2344,13 @@
         <v>28</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="n">
         <v>60</v>
       </c>
       <c r="AA14" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB14" t="n">
         <v>970</v>
@@ -2359,7 +2359,7 @@
         <v>970</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
         <v>80</v>
@@ -2374,7 +2374,7 @@
         <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="n">
         <v>970</v>
@@ -2389,7 +2389,7 @@
         <v>95</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO14" t="n">
         <v>75</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G15" t="n">
         <v>2.84</v>
       </c>
       <c r="H15" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I15" t="n">
         <v>2.96</v>
@@ -2440,7 +2440,7 @@
         <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2452,7 +2452,7 @@
         <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q15" t="n">
         <v>1.9</v>
@@ -2491,7 +2491,7 @@
         <v>14.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD15" t="n">
         <v>15.5</v>
@@ -2557,46 +2557,46 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G16" t="n">
         <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I16" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="S16" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T16" t="n">
         <v>1.75</v>
@@ -2611,10 +2611,10 @@
         <v>1.49</v>
       </c>
       <c r="X16" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
         <v>23</v>
@@ -2623,10 +2623,10 @@
         <v>50</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
         <v>15</v>
@@ -2656,13 +2656,13 @@
         <v>48</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AO16" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -2695,7 +2695,7 @@
         <v>1.54</v>
       </c>
       <c r="G17" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H17" t="n">
         <v>5.1</v>
@@ -2704,7 +2704,7 @@
         <v>7.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K17" t="n">
         <v>5.6</v>
@@ -2722,16 +2722,16 @@
         <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R17" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T17" t="n">
         <v>1.66</v>
@@ -2836,7 +2836,7 @@
         <v>2.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J18" t="n">
         <v>3.15</v>
@@ -2845,7 +2845,7 @@
         <v>3.65</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -2875,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W18" t="n">
         <v>1.41</v>
@@ -2992,10 +2992,10 @@
         <v>1.32</v>
       </c>
       <c r="P19" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="R19" t="n">
         <v>1.33</v>
@@ -3004,7 +3004,7 @@
         <v>3.35</v>
       </c>
       <c r="T19" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U19" t="n">
         <v>2.08</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.28</v>
+        <v>2.84</v>
       </c>
       <c r="G20" t="n">
         <v>3.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I20" t="n">
-        <v>3.9</v>
+        <v>2.92</v>
       </c>
       <c r="J20" t="n">
         <v>3.15</v>
@@ -3121,7 +3121,7 @@
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>2.54</v>
+        <v>2.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
@@ -3145,10 +3145,10 @@
         <v>1.95</v>
       </c>
       <c r="V20" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="W20" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X20" t="n">
         <v>970</v>
@@ -3262,19 +3262,19 @@
         <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
         <v>1.86</v>
       </c>
       <c r="R21" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S21" t="n">
         <v>3.15</v>
       </c>
       <c r="T21" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="U21" t="n">
         <v>2.18</v>
@@ -3307,7 +3307,7 @@
         <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF21" t="n">
         <v>27</v>
@@ -3319,7 +3319,7 @@
         <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ21" t="n">
         <v>70</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G22" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
@@ -3379,10 +3379,10 @@
         <v>3.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L22" t="n">
         <v>1.36</v>
@@ -3400,13 +3400,13 @@
         <v>2.16</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R22" t="n">
         <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
         <v>1.68</v>
@@ -3415,10 +3415,10 @@
         <v>2.36</v>
       </c>
       <c r="V22" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W22" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X22" t="n">
         <v>22</v>
@@ -3433,22 +3433,22 @@
         <v>65</v>
       </c>
       <c r="AB22" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE22" t="n">
         <v>42</v>
       </c>
       <c r="AF22" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
         <v>19.5</v>
@@ -3457,16 +3457,16 @@
         <v>50</v>
       </c>
       <c r="AJ22" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK22" t="n">
         <v>28</v>
       </c>
       <c r="AL22" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM22" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN22" t="n">
         <v>18</v>
@@ -3532,7 +3532,7 @@
         <v>1.34</v>
       </c>
       <c r="P23" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q23" t="n">
         <v>2.02</v>
@@ -3547,7 +3547,7 @@
         <v>1.79</v>
       </c>
       <c r="U23" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V23" t="n">
         <v>1.47</v>
@@ -3580,7 +3580,7 @@
         <v>36</v>
       </c>
       <c r="AF23" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
         <v>12.5</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G24" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H24" t="n">
         <v>2.26</v>
@@ -3664,10 +3664,10 @@
         <v>4.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q24" t="n">
         <v>1.73</v>
@@ -3694,7 +3694,7 @@
         <v>19.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
         <v>18</v>
@@ -3709,10 +3709,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF24" t="n">
         <v>27</v>
@@ -3724,7 +3724,7 @@
         <v>15.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ24" t="n">
         <v>55</v>
@@ -3802,13 +3802,13 @@
         <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="Q25" t="n">
         <v>1.52</v>
       </c>
       <c r="R25" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S25" t="n">
         <v>2.3</v>
@@ -3817,7 +3817,7 @@
         <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V25" t="n">
         <v>1.07</v>
@@ -3826,7 +3826,7 @@
         <v>4.4</v>
       </c>
       <c r="X25" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y25" t="n">
         <v>50</v>
@@ -3910,13 +3910,13 @@
         <v>1.76</v>
       </c>
       <c r="G26" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I26" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J26" t="n">
         <v>3.85</v>
@@ -3931,25 +3931,25 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="R26" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S26" t="n">
         <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U26" t="n">
         <v>2.12</v>
@@ -3958,7 +3958,7 @@
         <v>1.23</v>
       </c>
       <c r="W26" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X26" t="n">
         <v>17.5</v>
@@ -4000,19 +4000,19 @@
         <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN26" t="n">
         <v>11</v>
       </c>
       <c r="AO26" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -4060,19 +4060,19 @@
         <v>4.7</v>
       </c>
       <c r="L27" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O27" t="n">
         <v>1.29</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.27</v>
-      </c>
       <c r="P27" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q27" t="n">
         <v>1.85</v>
@@ -4084,10 +4084,10 @@
         <v>3.15</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V27" t="n">
         <v>1.21</v>
@@ -4261,7 +4261,7 @@
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI28" t="n">
         <v>34</v>
@@ -4282,7 +4282,7 @@
         <v>15.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="29">
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G30" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="H30" t="n">
         <v>4.5</v>
@@ -4459,19 +4459,19 @@
         <v>5.3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K30" t="n">
         <v>4.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="O30" t="n">
         <v>1.27</v>
@@ -4480,7 +4480,7 @@
         <v>2.08</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R30" t="n">
         <v>1.39</v>
@@ -4495,10 +4495,10 @@
         <v>2.06</v>
       </c>
       <c r="V30" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W30" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="X30" t="n">
         <v>21</v>
@@ -4531,7 +4531,7 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
         <v>65</v>
@@ -4543,7 +4543,7 @@
         <v>22</v>
       </c>
       <c r="AL30" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM30" t="n">
         <v>130</v>
@@ -4582,61 +4582,61 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="G31" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="H31" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="I31" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>1.09</v>
+        <v>3.25</v>
       </c>
       <c r="O31" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P31" t="n">
-        <v>1.09</v>
+        <v>1.76</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="R31" t="n">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="S31" t="n">
-        <v>1.88</v>
+        <v>3.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V31" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W31" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y31" t="n">
         <v>1000</v>
@@ -4648,10 +4648,10 @@
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -4660,10 +4660,10 @@
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
         <v>1000</v>
@@ -4684,7 +4684,7 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G32" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
         <v>5.7</v>
@@ -4729,13 +4729,13 @@
         <v>7.2</v>
       </c>
       <c r="J32" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M32" t="n">
         <v>1.11</v>
@@ -4759,16 +4759,16 @@
         <v>4.4</v>
       </c>
       <c r="T32" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="U32" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="V32" t="n">
         <v>1.16</v>
       </c>
       <c r="W32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X32" t="n">
         <v>11.5</v>
@@ -4888,7 +4888,7 @@
         <v>2.08</v>
       </c>
       <c r="R33" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S33" t="n">
         <v>3.85</v>
@@ -4999,13 +4999,13 @@
         <v>3.4</v>
       </c>
       <c r="J34" t="n">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="K34" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M34" t="n">
         <v>1.09</v>
@@ -5017,7 +5017,7 @@
         <v>1.48</v>
       </c>
       <c r="P34" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q34" t="n">
         <v>2.44</v>
@@ -5029,10 +5029,10 @@
         <v>4.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U34" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V34" t="n">
         <v>1.42</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="G35" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H35" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K35" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L35" t="n">
         <v>1.35</v>
@@ -5155,7 +5155,7 @@
         <v>2.16</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R35" t="n">
         <v>1.45</v>
@@ -5164,16 +5164,16 @@
         <v>3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U35" t="n">
         <v>2.34</v>
       </c>
       <c r="V35" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W35" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="X35" t="n">
         <v>17.5</v>
@@ -5197,7 +5197,7 @@
         <v>13</v>
       </c>
       <c r="AE35" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AF35" t="n">
         <v>18</v>
@@ -5209,7 +5209,7 @@
         <v>15.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ35" t="n">
         <v>36</v>
@@ -5257,25 +5257,25 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G36" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="H36" t="n">
         <v>4.7</v>
       </c>
       <c r="I36" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="J36" t="n">
         <v>3.05</v>
       </c>
       <c r="K36" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L36" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M36" t="n">
         <v>1.11</v>
@@ -5299,16 +5299,16 @@
         <v>4.9</v>
       </c>
       <c r="T36" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U36" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="V36" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="W36" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="X36" t="n">
         <v>10</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G37" t="n">
         <v>1.79</v>
       </c>
       <c r="H37" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I37" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J37" t="n">
         <v>4.4</v>
       </c>
       <c r="K37" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L37" t="n">
         <v>1.24</v>
@@ -5428,7 +5428,7 @@
         <v>1.48</v>
       </c>
       <c r="R37" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="S37" t="n">
         <v>2.2</v>
@@ -5437,7 +5437,7 @@
         <v>1.53</v>
       </c>
       <c r="U37" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="V37" t="n">
         <v>1.27</v>
@@ -5455,7 +5455,7 @@
         <v>44</v>
       </c>
       <c r="AA37" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB37" t="n">
         <v>15.5</v>
@@ -5470,7 +5470,7 @@
         <v>44</v>
       </c>
       <c r="AF37" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG37" t="n">
         <v>10.5</v>
@@ -5479,7 +5479,7 @@
         <v>16</v>
       </c>
       <c r="AI37" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ37" t="n">
         <v>27</v>
@@ -5527,64 +5527,64 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="G38" t="n">
-        <v>970</v>
+        <v>2.52</v>
       </c>
       <c r="H38" t="n">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>970</v>
+        <v>4.4</v>
       </c>
       <c r="J38" t="n">
-        <v>1.02</v>
+        <v>2.82</v>
       </c>
       <c r="K38" t="n">
-        <v>950</v>
+        <v>3.9</v>
       </c>
       <c r="L38" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>1.25</v>
+        <v>2.92</v>
       </c>
       <c r="O38" t="n">
-        <v>1.02</v>
+        <v>1.44</v>
       </c>
       <c r="P38" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R38" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q38" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S38" t="n">
-        <v>1.44</v>
+        <v>4</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V38" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="W38" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z38" t="n">
         <v>1000</v>
@@ -5593,10 +5593,10 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD38" t="n">
         <v>1000</v>
@@ -5605,10 +5605,10 @@
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH38" t="n">
         <v>1000</v>
@@ -5671,7 +5671,7 @@
         <v>2.12</v>
       </c>
       <c r="I39" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J39" t="n">
         <v>3.25</v>
@@ -5710,7 +5710,7 @@
         <v>1.93</v>
       </c>
       <c r="V39" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W39" t="n">
         <v>1.31</v>
@@ -5719,7 +5719,7 @@
         <v>14</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z39" t="n">
         <v>15.5</v>
@@ -5731,7 +5731,7 @@
         <v>15.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD39" t="n">
         <v>13.5</v>
@@ -5749,7 +5749,7 @@
         <v>24</v>
       </c>
       <c r="AI39" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ39" t="n">
         <v>110</v>
@@ -5758,7 +5758,7 @@
         <v>70</v>
       </c>
       <c r="AL39" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM39" t="n">
         <v>160</v>
@@ -5767,7 +5767,7 @@
         <v>85</v>
       </c>
       <c r="AO39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G40" t="n">
         <v>2.52</v>
       </c>
       <c r="H40" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I40" t="n">
         <v>3.45</v>
       </c>
       <c r="J40" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K40" t="n">
         <v>3.45</v>
@@ -5821,25 +5821,25 @@
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="O40" t="n">
         <v>1.32</v>
       </c>
       <c r="P40" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="R40" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S40" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="T40" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="U40" t="n">
         <v>2.3</v>
@@ -5851,13 +5851,13 @@
         <v>1.66</v>
       </c>
       <c r="X40" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA40" t="n">
         <v>60</v>
@@ -5869,16 +5869,16 @@
         <v>7.8</v>
       </c>
       <c r="AD40" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF40" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AG40" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH40" t="n">
         <v>970</v>
@@ -5932,79 +5932,79 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.74</v>
+        <v>2.98</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="H41" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="I41" t="n">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
       <c r="J41" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K41" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>2.24</v>
+        <v>4.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P41" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="R41" t="n">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="S41" t="n">
-        <v>2.42</v>
+        <v>2.76</v>
       </c>
       <c r="T41" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U41" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="V41" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="W41" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA41" t="n">
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE41" t="n">
         <v>1000</v>
@@ -6013,10 +6013,10 @@
         <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI41" t="n">
         <v>1000</v>
@@ -6037,7 +6037,7 @@
         <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -6082,13 +6082,13 @@
         <v>6</v>
       </c>
       <c r="K42" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="L42" t="n">
         <v>1.19</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N42" t="n">
         <v>5.7</v>
@@ -6100,7 +6100,7 @@
         <v>2.94</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R42" t="n">
         <v>1.79</v>
@@ -6109,7 +6109,7 @@
         <v>2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U42" t="n">
         <v>2</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G43" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H43" t="n">
         <v>2.26</v>
@@ -6217,10 +6217,10 @@
         <v>3.15</v>
       </c>
       <c r="K43" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L43" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M43" t="n">
         <v>1.07</v>
@@ -6232,10 +6232,10 @@
         <v>1.36</v>
       </c>
       <c r="P43" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="R43" t="n">
         <v>1.3</v>
@@ -6244,7 +6244,7 @@
         <v>3.3</v>
       </c>
       <c r="T43" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="U43" t="n">
         <v>2.02</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="G44" t="n">
         <v>4.5</v>
@@ -6352,10 +6352,10 @@
         <v>3.1</v>
       </c>
       <c r="K44" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L44" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="M44" t="n">
         <v>1.1</v>
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G45" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H45" t="n">
         <v>2.44</v>
@@ -6484,7 +6484,7 @@
         <v>2.52</v>
       </c>
       <c r="J45" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
         <v>3.1</v>
@@ -6496,37 +6496,37 @@
         <v>1.13</v>
       </c>
       <c r="N45" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="O45" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="P45" t="n">
         <v>1.54</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="R45" t="n">
         <v>1.19</v>
       </c>
       <c r="S45" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T45" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U45" t="n">
         <v>1.79</v>
       </c>
       <c r="V45" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="W45" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X45" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="Y45" t="n">
         <v>7.4</v>
@@ -6574,10 +6574,10 @@
         <v>200</v>
       </c>
       <c r="AN45" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AO45" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
@@ -6610,10 +6610,10 @@
         <v>3.4</v>
       </c>
       <c r="G46" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H46" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I46" t="n">
         <v>2.26</v>
@@ -6625,7 +6625,7 @@
         <v>3.8</v>
       </c>
       <c r="L46" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M46" t="n">
         <v>1.06</v>
@@ -6673,7 +6673,7 @@
         <v>29</v>
       </c>
       <c r="AB46" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AC46" t="n">
         <v>8.199999999999999</v>
@@ -6742,64 +6742,64 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G47" t="n">
         <v>1.68</v>
       </c>
       <c r="H47" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I47" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J47" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K47" t="n">
         <v>4.3</v>
       </c>
       <c r="L47" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M47" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N47" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="O47" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P47" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R47" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S47" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="T47" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="U47" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="V47" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W47" t="n">
         <v>2.46</v>
       </c>
       <c r="X47" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="Z47" t="n">
         <v>55</v>
@@ -6808,13 +6808,13 @@
         <v>210</v>
       </c>
       <c r="AB47" t="n">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="AC47" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD47" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AE47" t="n">
         <v>110</v>
@@ -6841,10 +6841,10 @@
         <v>48</v>
       </c>
       <c r="AM47" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN47" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AO47" t="n">
         <v>170</v>
@@ -6877,19 +6877,19 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G48" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I48" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J48" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K48" t="n">
         <v>3.85</v>
@@ -6916,19 +6916,19 @@
         <v>1.42</v>
       </c>
       <c r="S48" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T48" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U48" t="n">
         <v>2.24</v>
       </c>
       <c r="V48" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W48" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="X48" t="n">
         <v>15</v>
@@ -6937,7 +6937,7 @@
         <v>15.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA48" t="n">
         <v>80</v>
@@ -6949,10 +6949,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD48" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF48" t="n">
         <v>13</v>
@@ -6967,7 +6967,7 @@
         <v>55</v>
       </c>
       <c r="AJ48" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK48" t="n">
         <v>21</v>
@@ -7039,7 +7039,7 @@
         <v>5</v>
       </c>
       <c r="O49" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P49" t="n">
         <v>2.36</v>
@@ -7054,7 +7054,7 @@
         <v>2.82</v>
       </c>
       <c r="T49" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U49" t="n">
         <v>2.2</v>
@@ -7081,7 +7081,7 @@
         <v>10</v>
       </c>
       <c r="AC49" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD49" t="n">
         <v>22</v>
@@ -7117,7 +7117,7 @@
         <v>7.6</v>
       </c>
       <c r="AO49" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50">
@@ -7153,10 +7153,10 @@
         <v>2.18</v>
       </c>
       <c r="H50" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I50" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.8</v>
       </c>
       <c r="J50" t="n">
         <v>3.65</v>
@@ -7174,7 +7174,7 @@
         <v>4.3</v>
       </c>
       <c r="O50" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P50" t="n">
         <v>2.12</v>
@@ -7195,10 +7195,10 @@
         <v>2.32</v>
       </c>
       <c r="V50" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W50" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X50" t="n">
         <v>15.5</v>
@@ -7216,7 +7216,7 @@
         <v>11</v>
       </c>
       <c r="AC50" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD50" t="n">
         <v>15</v>
@@ -7243,13 +7243,13 @@
         <v>21</v>
       </c>
       <c r="AL50" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM50" t="n">
         <v>80</v>
       </c>
       <c r="AN50" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO50" t="n">
         <v>36</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="G51" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="H51" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I51" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="J51" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K51" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3.65</v>
       </c>
       <c r="L51" t="n">
         <v>1.46</v>
@@ -7309,13 +7309,13 @@
         <v>3.55</v>
       </c>
       <c r="O51" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P51" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R51" t="n">
         <v>1.32</v>
@@ -7324,28 +7324,28 @@
         <v>3.95</v>
       </c>
       <c r="T51" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U51" t="n">
         <v>2.04</v>
       </c>
       <c r="V51" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W51" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="X51" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y51" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA51" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB51" t="n">
         <v>8.4</v>
@@ -7354,25 +7354,25 @@
         <v>7.6</v>
       </c>
       <c r="AD51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE51" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF51" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG51" t="n">
         <v>10.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI51" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ51" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK51" t="n">
         <v>23</v>
@@ -7381,10 +7381,10 @@
         <v>40</v>
       </c>
       <c r="AM51" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN51" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AO51" t="n">
         <v>65</v>
@@ -7435,10 +7435,10 @@
         <v>8</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M52" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N52" t="n">
         <v>5.2</v>
@@ -7447,16 +7447,16 @@
         <v>1.19</v>
       </c>
       <c r="P52" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="R52" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="S52" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="T52" t="n">
         <v>2.28</v>
@@ -7468,7 +7468,7 @@
         <v>1.06</v>
       </c>
       <c r="W52" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X52" t="n">
         <v>32</v>
@@ -7492,7 +7492,7 @@
         <v>75</v>
       </c>
       <c r="AE52" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AF52" t="n">
         <v>9.199999999999999</v>
@@ -7504,7 +7504,7 @@
         <v>48</v>
       </c>
       <c r="AI52" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AJ52" t="n">
         <v>11</v>
@@ -7513,16 +7513,16 @@
         <v>18</v>
       </c>
       <c r="AL52" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM52" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AN52" t="n">
         <v>4.4</v>
       </c>
       <c r="AO52" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
     </row>
     <row r="53">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G53" t="n">
         <v>2.46</v>
@@ -7564,7 +7564,7 @@
         <v>3.3</v>
       </c>
       <c r="J53" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K53" t="n">
         <v>3.5</v>
@@ -7582,7 +7582,7 @@
         <v>1.34</v>
       </c>
       <c r="P53" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q53" t="n">
         <v>2.02</v>
@@ -7591,13 +7591,13 @@
         <v>1.36</v>
       </c>
       <c r="S53" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T53" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U53" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="V53" t="n">
         <v>1.43</v>
@@ -7606,7 +7606,7 @@
         <v>1.68</v>
       </c>
       <c r="X53" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y53" t="n">
         <v>13</v>
@@ -7624,16 +7624,16 @@
         <v>7.6</v>
       </c>
       <c r="AD53" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF53" t="n">
         <v>15.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH53" t="n">
         <v>17.5</v>
@@ -7687,112 +7687,112 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.58</v>
+        <v>2.82</v>
       </c>
       <c r="G54" t="n">
         <v>3.1</v>
       </c>
       <c r="H54" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="I54" t="n">
-        <v>970</v>
+        <v>2.5</v>
       </c>
       <c r="J54" t="n">
-        <v>1.49</v>
+        <v>3.9</v>
       </c>
       <c r="K54" t="n">
         <v>4.3</v>
       </c>
       <c r="L54" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M54" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="O54" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P54" t="n">
-        <v>1.24</v>
+        <v>2.52</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.16</v>
+        <v>1.56</v>
       </c>
       <c r="R54" t="n">
-        <v>1.18</v>
+        <v>1.61</v>
       </c>
       <c r="S54" t="n">
-        <v>1.16</v>
+        <v>2.38</v>
       </c>
       <c r="T54" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="U54" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="V54" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="W54" t="n">
         <v>1.47</v>
       </c>
       <c r="X54" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y54" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC54" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF54" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH54" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN54" t="n">
         <v>1000</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="55">
@@ -7828,19 +7828,19 @@
         <v>1.45</v>
       </c>
       <c r="H55" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I55" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="J55" t="n">
         <v>4.4</v>
       </c>
       <c r="K55" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="L55" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M55" t="n">
         <v>1.06</v>
@@ -7960,22 +7960,22 @@
         <v>1.65</v>
       </c>
       <c r="G56" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H56" t="n">
         <v>6</v>
       </c>
       <c r="I56" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J56" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K56" t="n">
         <v>4.2</v>
       </c>
       <c r="L56" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M56" t="n">
         <v>1.07</v>
@@ -8095,55 +8095,55 @@
         <v>3.8</v>
       </c>
       <c r="G57" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="H57" t="n">
-        <v>1.32</v>
+        <v>1.91</v>
       </c>
       <c r="I57" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="J57" t="n">
-        <v>1.03</v>
+        <v>3.95</v>
       </c>
       <c r="K57" t="n">
         <v>4.4</v>
       </c>
       <c r="L57" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M57" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>1.25</v>
+        <v>4.9</v>
       </c>
       <c r="O57" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P57" t="n">
-        <v>1.25</v>
+        <v>2.34</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.19</v>
+        <v>1.64</v>
       </c>
       <c r="R57" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="S57" t="n">
-        <v>1.19</v>
+        <v>2.62</v>
       </c>
       <c r="T57" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U57" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="V57" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="W57" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="X57" t="n">
         <v>22</v>
@@ -8233,25 +8233,25 @@
         <v>1.74</v>
       </c>
       <c r="H58" t="n">
+        <v>5</v>
+      </c>
+      <c r="I58" t="n">
         <v>5.2</v>
       </c>
-      <c r="I58" t="n">
-        <v>5.3</v>
-      </c>
       <c r="J58" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K58" t="n">
         <v>4.4</v>
       </c>
       <c r="L58" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M58" t="n">
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O58" t="n">
         <v>1.22</v>
@@ -8260,31 +8260,31 @@
         <v>2.44</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R58" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S58" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T58" t="n">
         <v>1.69</v>
       </c>
       <c r="U58" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V58" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W58" t="n">
         <v>2.34</v>
       </c>
       <c r="X58" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y58" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z58" t="n">
         <v>42</v>
@@ -8299,19 +8299,19 @@
         <v>9.6</v>
       </c>
       <c r="AD58" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE58" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF58" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG58" t="n">
         <v>9.6</v>
       </c>
       <c r="AH58" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI58" t="n">
         <v>55</v>
@@ -8320,7 +8320,7 @@
         <v>18</v>
       </c>
       <c r="AK58" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL58" t="n">
         <v>27</v>
@@ -8332,7 +8332,7 @@
         <v>7.8</v>
       </c>
       <c r="AO58" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59">
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G59" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="H59" t="n">
         <v>1.82</v>
       </c>
       <c r="I59" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="J59" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K59" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L59" t="n">
         <v>1.01</v>
@@ -8395,7 +8395,7 @@
         <v>1.73</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="R59" t="n">
         <v>1.27</v>
@@ -8407,10 +8407,10 @@
         <v>2</v>
       </c>
       <c r="U59" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V59" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W59" t="n">
         <v>1.21</v>
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G60" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H60" t="n">
         <v>9.6</v>
       </c>
       <c r="I60" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J60" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K60" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L60" t="n">
         <v>1.27</v>
@@ -8527,13 +8527,13 @@
         <v>1.18</v>
       </c>
       <c r="P60" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q60" t="n">
         <v>1.54</v>
       </c>
       <c r="R60" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S60" t="n">
         <v>2.4</v>
@@ -8542,13 +8542,13 @@
         <v>1.94</v>
       </c>
       <c r="U60" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V60" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W60" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="X60" t="n">
         <v>28</v>
@@ -8560,7 +8560,7 @@
         <v>110</v>
       </c>
       <c r="AA60" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AB60" t="n">
         <v>11</v>
@@ -8572,10 +8572,10 @@
         <v>36</v>
       </c>
       <c r="AE60" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF60" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG60" t="n">
         <v>10.5</v>
@@ -8584,7 +8584,7 @@
         <v>29</v>
       </c>
       <c r="AI60" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ60" t="n">
         <v>11</v>
@@ -8596,13 +8596,13 @@
         <v>34</v>
       </c>
       <c r="AM60" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN60" t="n">
         <v>4.7</v>
       </c>
       <c r="AO60" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61">
@@ -8650,19 +8650,19 @@
         <v>3.25</v>
       </c>
       <c r="L61" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="M61" t="n">
         <v>1.11</v>
       </c>
       <c r="N61" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O61" t="n">
         <v>1.51</v>
       </c>
       <c r="P61" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q61" t="n">
         <v>2.5</v>
@@ -8671,13 +8671,13 @@
         <v>1.21</v>
       </c>
       <c r="S61" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="T61" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U61" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V61" t="n">
         <v>1.33</v>
@@ -8686,10 +8686,10 @@
         <v>1.71</v>
       </c>
       <c r="X61" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y61" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z61" t="n">
         <v>26</v>
@@ -8710,7 +8710,7 @@
         <v>60</v>
       </c>
       <c r="AF61" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG61" t="n">
         <v>12</v>
@@ -8722,7 +8722,7 @@
         <v>80</v>
       </c>
       <c r="AJ61" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK61" t="n">
         <v>32</v>
@@ -8734,7 +8734,7 @@
         <v>210</v>
       </c>
       <c r="AN61" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO61" t="n">
         <v>100</v>
@@ -8767,16 +8767,16 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G62" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H62" t="n">
         <v>4.7</v>
       </c>
       <c r="I62" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J62" t="n">
         <v>3.65</v>
@@ -8794,37 +8794,37 @@
         <v>4</v>
       </c>
       <c r="O62" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P62" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q62" t="n">
         <v>1.96</v>
       </c>
       <c r="R62" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S62" t="n">
         <v>3.4</v>
       </c>
       <c r="T62" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U62" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V62" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W62" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X62" t="n">
         <v>14</v>
       </c>
       <c r="Y62" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z62" t="n">
         <v>34</v>
@@ -8833,10 +8833,10 @@
         <v>100</v>
       </c>
       <c r="AB62" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC62" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD62" t="n">
         <v>17.5</v>
@@ -8845,10 +8845,10 @@
         <v>60</v>
       </c>
       <c r="AF62" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG62" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH62" t="n">
         <v>18</v>
@@ -8863,16 +8863,16 @@
         <v>19</v>
       </c>
       <c r="AL62" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM62" t="n">
         <v>95</v>
       </c>
       <c r="AN62" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO62" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63">
@@ -8911,19 +8911,19 @@
         <v>1.85</v>
       </c>
       <c r="I63" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J63" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K63" t="n">
         <v>4.1</v>
       </c>
       <c r="L63" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M63" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N63" t="n">
         <v>3.6</v>
@@ -8941,19 +8941,19 @@
         <v>1.34</v>
       </c>
       <c r="S63" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="T63" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U63" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V63" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="W63" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="X63" t="n">
         <v>17</v>
@@ -9055,7 +9055,7 @@
         <v>3.75</v>
       </c>
       <c r="L64" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="M64" t="n">
         <v>1.08</v>
@@ -9067,7 +9067,7 @@
         <v>1.36</v>
       </c>
       <c r="P64" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q64" t="n">
         <v>2.04</v>
@@ -9175,13 +9175,13 @@
         <v>1.83</v>
       </c>
       <c r="G65" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="H65" t="n">
         <v>3.95</v>
       </c>
       <c r="I65" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J65" t="n">
         <v>4.1</v>
@@ -9190,16 +9190,16 @@
         <v>5</v>
       </c>
       <c r="L65" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M65" t="n">
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="O65" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P65" t="n">
         <v>2.52</v>
@@ -9208,76 +9208,76 @@
         <v>1.57</v>
       </c>
       <c r="R65" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="S65" t="n">
-        <v>1.57</v>
+        <v>2.14</v>
       </c>
       <c r="T65" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="U65" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="V65" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="W65" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X65" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y65" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z65" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA65" t="n">
         <v>1000</v>
       </c>
       <c r="AB65" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC65" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD65" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE65" t="n">
         <v>1000</v>
       </c>
       <c r="AF65" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG65" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH65" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI65" t="n">
         <v>1000</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK65" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL65" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM65" t="n">
         <v>1000</v>
       </c>
       <c r="AN65" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66">
@@ -9322,7 +9322,7 @@
         <v>5.3</v>
       </c>
       <c r="K66" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L66" t="n">
         <v>1.35</v>
@@ -9331,25 +9331,25 @@
         <v>1.05</v>
       </c>
       <c r="N66" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O66" t="n">
         <v>1.27</v>
       </c>
       <c r="P66" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q66" t="n">
         <v>1.78</v>
       </c>
       <c r="R66" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S66" t="n">
         <v>3</v>
       </c>
       <c r="T66" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U66" t="n">
         <v>1.69</v>
@@ -9376,7 +9376,7 @@
         <v>7.6</v>
       </c>
       <c r="AC66" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD66" t="n">
         <v>48</v>
@@ -9385,7 +9385,7 @@
         <v>290</v>
       </c>
       <c r="AF66" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG66" t="n">
         <v>10.5</v>
@@ -9409,7 +9409,7 @@
         <v>260</v>
       </c>
       <c r="AN66" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO66" t="n">
         <v>460</v>
@@ -9442,22 +9442,22 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="G67" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="H67" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I67" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="J67" t="n">
         <v>3.15</v>
       </c>
       <c r="K67" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L67" t="n">
         <v>1.53</v>
@@ -9466,58 +9466,58 @@
         <v>1.11</v>
       </c>
       <c r="N67" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O67" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P67" t="n">
         <v>1.64</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R67" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S67" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T67" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U67" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V67" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W67" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="X67" t="n">
         <v>10</v>
       </c>
       <c r="Y67" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z67" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AA67" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB67" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AC67" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD67" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE67" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF67" t="n">
         <v>19</v>
@@ -9529,25 +9529,25 @@
         <v>21</v>
       </c>
       <c r="AI67" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ67" t="n">
         <v>65</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>50</v>
       </c>
       <c r="AK67" t="n">
         <v>42</v>
       </c>
       <c r="AL67" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM67" t="n">
         <v>170</v>
       </c>
       <c r="AN67" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO67" t="n">
         <v>44</v>
-      </c>
-      <c r="AO67" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="68">
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G68" t="n">
         <v>1.94</v>
@@ -9595,7 +9595,7 @@
         <v>4.4</v>
       </c>
       <c r="L68" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M68" t="n">
         <v>1.03</v>
@@ -9610,10 +9610,10 @@
         <v>2.62</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R68" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S68" t="n">
         <v>2.36</v>
@@ -9679,7 +9679,7 @@
         <v>60</v>
       </c>
       <c r="AN68" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO68" t="n">
         <v>28</v>
@@ -9718,19 +9718,19 @@
         <v>2.34</v>
       </c>
       <c r="H69" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="I69" t="n">
         <v>3.2</v>
       </c>
       <c r="J69" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K69" t="n">
         <v>4.5</v>
       </c>
       <c r="L69" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M69" t="n">
         <v>1.02</v>
@@ -9742,19 +9742,19 @@
         <v>1.15</v>
       </c>
       <c r="P69" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="Q69" t="n">
         <v>1.47</v>
       </c>
       <c r="R69" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S69" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T69" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="U69" t="n">
         <v>2.72</v>
@@ -9775,7 +9775,7 @@
         <v>29</v>
       </c>
       <c r="AA69" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB69" t="n">
         <v>970</v>
@@ -9847,19 +9847,19 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="G70" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="H70" t="n">
+        <v>4</v>
+      </c>
+      <c r="I70" t="n">
         <v>4.2</v>
       </c>
-      <c r="I70" t="n">
-        <v>4.4</v>
-      </c>
       <c r="J70" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K70" t="n">
         <v>4.2</v>
@@ -9874,13 +9874,13 @@
         <v>4.6</v>
       </c>
       <c r="O70" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P70" t="n">
         <v>2.26</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R70" t="n">
         <v>1.5</v>
@@ -9895,64 +9895,64 @@
         <v>2.32</v>
       </c>
       <c r="V70" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W70" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X70" t="n">
         <v>23</v>
       </c>
       <c r="Y70" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Z70" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA70" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB70" t="n">
         <v>11.5</v>
       </c>
       <c r="AC70" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD70" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AE70" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF70" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG70" t="n">
         <v>11</v>
       </c>
       <c r="AH70" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AI70" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ70" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AK70" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AL70" t="n">
         <v>32</v>
       </c>
       <c r="AM70" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN70" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AO70" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71">
@@ -9982,16 +9982,16 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G71" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H71" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I71" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J71" t="n">
         <v>3.4</v>
@@ -10006,16 +10006,16 @@
         <v>1.09</v>
       </c>
       <c r="N71" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O71" t="n">
         <v>1.39</v>
       </c>
       <c r="P71" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R71" t="n">
         <v>1.3</v>
@@ -10024,43 +10024,43 @@
         <v>4</v>
       </c>
       <c r="T71" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U71" t="n">
         <v>2.04</v>
       </c>
       <c r="V71" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W71" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X71" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y71" t="n">
         <v>13</v>
       </c>
       <c r="Z71" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AA71" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB71" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC71" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD71" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE71" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF71" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG71" t="n">
         <v>11</v>
@@ -10072,22 +10072,22 @@
         <v>65</v>
       </c>
       <c r="AJ71" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK71" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL71" t="n">
         <v>44</v>
       </c>
       <c r="AM71" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN71" t="n">
         <v>21</v>
       </c>
       <c r="AO71" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72">
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G72" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="H72" t="n">
         <v>3.75</v>
       </c>
       <c r="I72" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J72" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K72" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L72" t="n">
         <v>1.38</v>
@@ -10150,13 +10150,13 @@
         <v>2.06</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R72" t="n">
         <v>1.42</v>
       </c>
       <c r="S72" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T72" t="n">
         <v>1.72</v>
@@ -10168,7 +10168,7 @@
         <v>1.35</v>
       </c>
       <c r="W72" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X72" t="n">
         <v>15.5</v>
@@ -10177,7 +10177,7 @@
         <v>15.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA72" t="n">
         <v>70</v>
@@ -10186,10 +10186,10 @@
         <v>11</v>
       </c>
       <c r="AC72" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD72" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE72" t="n">
         <v>42</v>
@@ -10252,22 +10252,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G73" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I73" t="n">
         <v>5.7</v>
       </c>
-      <c r="I73" t="n">
-        <v>6</v>
-      </c>
       <c r="J73" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K73" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L73" t="n">
         <v>1.49</v>
@@ -10294,76 +10294,76 @@
         <v>4.4</v>
       </c>
       <c r="T73" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U73" t="n">
         <v>1.81</v>
       </c>
       <c r="V73" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W73" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="X73" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y73" t="n">
         <v>16</v>
       </c>
       <c r="Z73" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AA73" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AB73" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC73" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD73" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE73" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AF73" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG73" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH73" t="n">
         <v>26</v>
       </c>
       <c r="AI73" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AJ73" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AK73" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL73" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM73" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AN73" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO73" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -10378,127 +10378,127 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="G74" t="n">
-        <v>2.28</v>
+        <v>1.92</v>
       </c>
       <c r="H74" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="I74" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="J74" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K74" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L74" t="n">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="M74" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N74" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="O74" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="P74" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="R74" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="S74" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="T74" t="n">
         <v>1.89</v>
       </c>
       <c r="U74" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="V74" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="W74" t="n">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="X74" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y74" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Z74" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AA74" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AB74" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC74" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD74" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AE74" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AF74" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AG74" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH74" t="n">
         <v>21</v>
       </c>
       <c r="AI74" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ74" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AK74" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AL74" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM74" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN74" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AO74" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -10513,121 +10513,121 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Legia Warsaw</t>
+          <t>AZ Picerno ASD</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.89</v>
+        <v>2.52</v>
       </c>
       <c r="G75" t="n">
-        <v>1.92</v>
+        <v>2.88</v>
       </c>
       <c r="H75" t="n">
-        <v>4.7</v>
+        <v>2.82</v>
       </c>
       <c r="I75" t="n">
-        <v>5.2</v>
+        <v>3.25</v>
       </c>
       <c r="J75" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="K75" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L75" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M75" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N75" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O75" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P75" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R75" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="S75" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T75" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="U75" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="V75" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="W75" t="n">
-        <v>2.08</v>
+        <v>1.53</v>
       </c>
       <c r="X75" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y75" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z75" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AA75" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AB75" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="AC75" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD75" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF75" t="n">
         <v>20</v>
       </c>
-      <c r="AE75" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>11</v>
-      </c>
       <c r="AG75" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AH75" t="n">
         <v>21</v>
       </c>
       <c r="AI75" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ75" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AK75" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AL75" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO75" t="n">
         <v>42</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>95</v>
       </c>
     </row>
     <row r="76">
@@ -10648,127 +10648,127 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>AZ Picerno ASD</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.52</v>
+        <v>2.14</v>
       </c>
       <c r="G76" t="n">
-        <v>2.86</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
-        <v>2.82</v>
+        <v>3.7</v>
       </c>
       <c r="I76" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J76" t="n">
         <v>3.3</v>
       </c>
-      <c r="J76" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K76" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L76" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="M76" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N76" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="O76" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="P76" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="R76" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="S76" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="T76" t="n">
-        <v>1.69</v>
+        <v>1.89</v>
       </c>
       <c r="U76" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V76" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="W76" t="n">
-        <v>1.54</v>
+        <v>1.76</v>
       </c>
       <c r="X76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y76" t="n">
         <v>13</v>
       </c>
       <c r="Z76" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AA76" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE76" t="n">
         <v>60</v>
       </c>
-      <c r="AB76" t="n">
+      <c r="AF76" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG76" t="n">
         <v>12</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>14</v>
       </c>
       <c r="AH76" t="n">
         <v>21</v>
       </c>
       <c r="AI76" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AJ76" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AK76" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AL76" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM76" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AN76" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AO76" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -10783,127 +10783,127 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.26</v>
+        <v>4.9</v>
       </c>
       <c r="G77" t="n">
-        <v>1.27</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
-        <v>13.5</v>
+        <v>1.78</v>
       </c>
       <c r="I77" t="n">
-        <v>15</v>
+        <v>1.79</v>
       </c>
       <c r="J77" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="K77" t="n">
-        <v>7.4</v>
+        <v>4.3</v>
       </c>
       <c r="L77" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N77" t="n">
+        <v>5</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="W77" t="n">
         <v>1.25</v>
       </c>
-      <c r="M77" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N77" t="n">
-        <v>7</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P77" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R77" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="S77" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T77" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U77" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V77" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W77" t="n">
-        <v>4.7</v>
-      </c>
       <c r="X77" t="n">
-        <v>32</v>
+        <v>19.5</v>
       </c>
       <c r="Y77" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK77" t="n">
         <v>55</v>
       </c>
-      <c r="Z77" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>600</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>13</v>
-      </c>
       <c r="AL77" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AM77" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="AN77" t="n">
-        <v>3.65</v>
+        <v>46</v>
       </c>
       <c r="AO77" t="n">
-        <v>200</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -10918,121 +10918,121 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>4.9</v>
+        <v>1.26</v>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>1.27</v>
       </c>
       <c r="H78" t="n">
-        <v>1.77</v>
+        <v>14.5</v>
       </c>
       <c r="I78" t="n">
-        <v>1.78</v>
+        <v>16</v>
       </c>
       <c r="J78" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="K78" t="n">
-        <v>4.3</v>
+        <v>7.4</v>
       </c>
       <c r="L78" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M78" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N78" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="O78" t="n">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="P78" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="R78" t="n">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="S78" t="n">
-        <v>2.78</v>
+        <v>2.18</v>
       </c>
       <c r="T78" t="n">
-        <v>1.7</v>
+        <v>2.04</v>
       </c>
       <c r="U78" t="n">
-        <v>2.36</v>
+        <v>1.91</v>
       </c>
       <c r="V78" t="n">
-        <v>2.28</v>
+        <v>1.06</v>
       </c>
       <c r="W78" t="n">
-        <v>1.25</v>
+        <v>4.8</v>
       </c>
       <c r="X78" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="Y78" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>690</v>
+      </c>
+      <c r="AB78" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z78" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>21</v>
-      </c>
       <c r="AC78" t="n">
-        <v>9.6</v>
+        <v>16</v>
       </c>
       <c r="AD78" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ78" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AE78" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>110</v>
-      </c>
       <c r="AK78" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="AL78" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AM78" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AN78" t="n">
-        <v>46</v>
+        <v>3.6</v>
       </c>
       <c r="AO78" t="n">
-        <v>8.6</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79">
@@ -11062,94 +11062,94 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.04</v>
+        <v>5.5</v>
       </c>
       <c r="G79" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="H79" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="I79" t="n">
-        <v>970</v>
+        <v>1.77</v>
       </c>
       <c r="J79" t="n">
-        <v>1.02</v>
+        <v>3.8</v>
       </c>
       <c r="K79" t="n">
-        <v>800</v>
+        <v>4.5</v>
       </c>
       <c r="L79" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M79" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N79" t="n">
-        <v>1.24</v>
+        <v>3.7</v>
       </c>
       <c r="O79" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P79" t="n">
-        <v>1.24</v>
+        <v>1.81</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="R79" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S79" t="n">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="T79" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U79" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V79" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="W79" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="X79" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y79" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z79" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA79" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AB79" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC79" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD79" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE79" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF79" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG79" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH79" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI79" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ79" t="n">
         <v>1000</v>
@@ -11167,7 +11167,7 @@
         <v>1000</v>
       </c>
       <c r="AO79" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -11200,10 +11200,10 @@
         <v>12.5</v>
       </c>
       <c r="G80" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="H80" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="I80" t="n">
         <v>1.33</v>
@@ -11212,7 +11212,7 @@
         <v>6</v>
       </c>
       <c r="K80" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L80" t="n">
         <v>1.33</v>
@@ -11260,7 +11260,7 @@
         <v>7.6</v>
       </c>
       <c r="AA80" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AB80" t="n">
         <v>38</v>
@@ -11332,31 +11332,31 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G81" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="I81" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="J81" t="n">
         <v>9.4</v>
       </c>
       <c r="K81" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L81" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M81" t="n">
         <v>1.02</v>
       </c>
       <c r="N81" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O81" t="n">
         <v>1.12</v>
@@ -11365,19 +11365,19 @@
         <v>3.35</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="R81" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S81" t="n">
         <v>1.94</v>
       </c>
-      <c r="S81" t="n">
-        <v>1.91</v>
-      </c>
       <c r="T81" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U81" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="V81" t="n">
         <v>1.05</v>
@@ -11386,13 +11386,13 @@
         <v>6</v>
       </c>
       <c r="X81" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y81" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Z81" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AA81" t="n">
         <v>1000</v>
@@ -11401,28 +11401,28 @@
         <v>14</v>
       </c>
       <c r="AC81" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD81" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AE81" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="AF81" t="n">
         <v>10</v>
       </c>
       <c r="AG81" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AI81" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AJ81" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AK81" t="n">
         <v>13.5</v>
@@ -11431,13 +11431,13 @@
         <v>36</v>
       </c>
       <c r="AM81" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AN81" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AO81" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82">
@@ -11473,10 +11473,10 @@
         <v>9.6</v>
       </c>
       <c r="H82" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="I82" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="J82" t="n">
         <v>4.9</v>
@@ -11488,7 +11488,7 @@
         <v>1.28</v>
       </c>
       <c r="M82" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N82" t="n">
         <v>4.5</v>
@@ -11497,19 +11497,19 @@
         <v>1.23</v>
       </c>
       <c r="P82" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="R82" t="n">
         <v>1.49</v>
       </c>
       <c r="S82" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T82" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U82" t="n">
         <v>1.87</v>
@@ -11563,7 +11563,7 @@
         <v>160</v>
       </c>
       <c r="AL82" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AM82" t="n">
         <v>160</v>
@@ -11608,7 +11608,7 @@
         <v>1.08</v>
       </c>
       <c r="H83" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I83" t="n">
         <v>65</v>
@@ -11617,7 +11617,7 @@
         <v>17</v>
       </c>
       <c r="K83" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="L83" t="n">
         <v>1.22</v>
@@ -11626,22 +11626,22 @@
         <v>1.02</v>
       </c>
       <c r="N83" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="O83" t="n">
         <v>1.13</v>
       </c>
       <c r="P83" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q83" t="n">
         <v>1.41</v>
       </c>
       <c r="R83" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="S83" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T83" t="n">
         <v>3.2</v>
@@ -11671,16 +11671,16 @@
         <v>11.5</v>
       </c>
       <c r="AC83" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AD83" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AE83" t="n">
         <v>1000</v>
       </c>
       <c r="AF83" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG83" t="n">
         <v>18.5</v>
@@ -11692,19 +11692,19 @@
         <v>1000</v>
       </c>
       <c r="AJ83" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AK83" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL83" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AM83" t="n">
         <v>1000</v>
       </c>
       <c r="AN83" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="AO83" t="n">
         <v>1000</v>
@@ -11740,22 +11740,22 @@
         <v>2.2</v>
       </c>
       <c r="G84" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H84" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J84" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K84" t="n">
         <v>4.2</v>
       </c>
       <c r="L84" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M84" t="n">
         <v>1.05</v>
@@ -11785,10 +11785,10 @@
         <v>2.34</v>
       </c>
       <c r="V84" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W84" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X84" t="n">
         <v>23</v>
@@ -11872,22 +11872,22 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="G85" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>16.5</v>
       </c>
       <c r="I85" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J85" t="n">
-        <v>6</v>
+        <v>9.4</v>
       </c>
       <c r="K85" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L85" t="n">
         <v>1.01</v>
@@ -11896,34 +11896,34 @@
         <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="O85" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="P85" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.07</v>
+        <v>1.32</v>
       </c>
       <c r="R85" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="S85" t="n">
-        <v>1.27</v>
+        <v>1.85</v>
       </c>
       <c r="T85" t="n">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="U85" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="V85" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="W85" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X85" t="n">
         <v>1000</v>
@@ -11932,49 +11932,49 @@
         <v>1000</v>
       </c>
       <c r="Z85" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AA85" t="n">
         <v>1000</v>
       </c>
       <c r="AB85" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC85" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AD85" t="n">
         <v>1000</v>
       </c>
       <c r="AE85" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AF85" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG85" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH85" t="n">
         <v>1000</v>
       </c>
       <c r="AI85" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ85" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK85" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL85" t="n">
         <v>1000</v>
       </c>
       <c r="AM85" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN85" t="n">
-        <v>1000</v>
+        <v>2.98</v>
       </c>
       <c r="AO85" t="n">
         <v>1000</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G86" t="n">
         <v>3.05</v>
@@ -12019,100 +12019,100 @@
         <v>3.05</v>
       </c>
       <c r="J86" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="K86" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="L86" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="M86" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N86" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="O86" t="n">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="P86" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="Q86" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="R86" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S86" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="T86" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="U86" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="V86" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W86" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X86" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="Y86" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z86" t="n">
         <v>17</v>
       </c>
       <c r="AA86" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB86" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC86" t="n">
         <v>6.8</v>
       </c>
       <c r="AD86" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE86" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AF86" t="n">
         <v>17.5</v>
       </c>
       <c r="AG86" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH86" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI86" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="n">
         <v>60</v>
       </c>
       <c r="AK86" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL86" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AM86" t="n">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="AN86" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO86" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87">
@@ -12142,19 +12142,19 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G87" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H87" t="n">
         <v>3.15</v>
       </c>
       <c r="I87" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J87" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K87" t="n">
         <v>3.15</v>
@@ -12193,10 +12193,10 @@
         <v>1.44</v>
       </c>
       <c r="W87" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X87" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Y87" t="n">
         <v>9.6</v>
@@ -12205,7 +12205,7 @@
         <v>20</v>
       </c>
       <c r="AA87" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AB87" t="n">
         <v>8.6</v>
@@ -12214,13 +12214,13 @@
         <v>7</v>
       </c>
       <c r="AD87" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE87" t="n">
         <v>130</v>
       </c>
       <c r="AF87" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG87" t="n">
         <v>15</v>
@@ -12232,7 +12232,7 @@
         <v>70</v>
       </c>
       <c r="AJ87" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK87" t="n">
         <v>44</v>
@@ -12289,7 +12289,7 @@
         <v>7.6</v>
       </c>
       <c r="J88" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K88" t="n">
         <v>5.2</v>
@@ -12319,7 +12319,7 @@
         <v>2.58</v>
       </c>
       <c r="T88" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="U88" t="n">
         <v>2.12</v>
@@ -12412,22 +12412,22 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="G89" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="H89" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I89" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K89" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="L89" t="n">
         <v>1.21</v>
@@ -12436,7 +12436,7 @@
         <v>1.02</v>
       </c>
       <c r="N89" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O89" t="n">
         <v>1.13</v>
@@ -12454,67 +12454,67 @@
         <v>1.92</v>
       </c>
       <c r="T89" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="U89" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="V89" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W89" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="X89" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Y89" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="Z89" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="AA89" t="n">
         <v>1000</v>
       </c>
       <c r="AB89" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC89" t="n">
         <v>28</v>
       </c>
       <c r="AD89" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AE89" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="AF89" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AG89" t="n">
         <v>14</v>
       </c>
       <c r="AH89" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AI89" t="n">
-        <v>310</v>
+        <v>450</v>
       </c>
       <c r="AJ89" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AK89" t="n">
         <v>15</v>
       </c>
       <c r="AL89" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AM89" t="n">
         <v>310</v>
       </c>
       <c r="AN89" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="AO89" t="n">
         <v>1000</v>
@@ -12556,7 +12556,7 @@
         <v>3.65</v>
       </c>
       <c r="I90" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J90" t="n">
         <v>3.4</v>
@@ -12565,7 +12565,7 @@
         <v>3.85</v>
       </c>
       <c r="L90" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M90" t="n">
         <v>1.07</v>
@@ -12598,7 +12598,7 @@
         <v>1.3</v>
       </c>
       <c r="W90" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X90" t="n">
         <v>15.5</v>
@@ -12682,16 +12682,16 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H91" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I91" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="J91" t="n">
         <v>6.6</v>
@@ -12703,10 +12703,10 @@
         <v>1.24</v>
       </c>
       <c r="M91" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N91" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O91" t="n">
         <v>1.18</v>
@@ -12724,25 +12724,25 @@
         <v>2.34</v>
       </c>
       <c r="T91" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U91" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="V91" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W91" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="X91" t="n">
         <v>29</v>
       </c>
       <c r="Y91" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z91" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AA91" t="n">
         <v>1000</v>
@@ -12751,13 +12751,13 @@
         <v>10.5</v>
       </c>
       <c r="AC91" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD91" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE91" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AF91" t="n">
         <v>8.6</v>
@@ -12769,10 +12769,10 @@
         <v>40</v>
       </c>
       <c r="AI91" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AJ91" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="AK91" t="n">
         <v>14.5</v>
@@ -12781,13 +12781,13 @@
         <v>48</v>
       </c>
       <c r="AM91" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN91" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AO91" t="n">
-        <v>490</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92">
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G92" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H92" t="n">
         <v>3.9</v>
       </c>
       <c r="I92" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J92" t="n">
         <v>3.75</v>
       </c>
       <c r="K92" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="L92" t="n">
         <v>1.29</v>
@@ -12853,22 +12853,22 @@
         <v>1.69</v>
       </c>
       <c r="R92" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S92" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="T92" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="U92" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="V92" t="n">
         <v>1.27</v>
       </c>
       <c r="W92" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="X92" t="n">
         <v>23</v>
@@ -12952,109 +12952,109 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.36</v>
+        <v>1.99</v>
       </c>
       <c r="G93" t="n">
-        <v>970</v>
+        <v>2.24</v>
       </c>
       <c r="H93" t="n">
-        <v>1.36</v>
+        <v>3.7</v>
       </c>
       <c r="I93" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="J93" t="n">
-        <v>1.02</v>
+        <v>3.3</v>
       </c>
       <c r="K93" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L93" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M93" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N93" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O93" t="n">
         <v>1.33</v>
       </c>
-      <c r="O93" t="n">
-        <v>1.32</v>
-      </c>
       <c r="P93" t="n">
-        <v>1.33</v>
+        <v>1.82</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.32</v>
+        <v>1.97</v>
       </c>
       <c r="R93" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="S93" t="n">
-        <v>1.32</v>
+        <v>3.6</v>
       </c>
       <c r="T93" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U93" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V93" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="W93" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="X93" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y93" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z93" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA93" t="n">
         <v>1000</v>
       </c>
       <c r="AB93" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC93" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD93" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE93" t="n">
         <v>1000</v>
       </c>
       <c r="AF93" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG93" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH93" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI93" t="n">
         <v>1000</v>
       </c>
       <c r="AJ93" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK93" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL93" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM93" t="n">
         <v>1000</v>
       </c>
       <c r="AN93" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO93" t="n">
         <v>1000</v>
@@ -13087,79 +13087,79 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.15</v>
+        <v>1.68</v>
       </c>
       <c r="G94" t="n">
-        <v>1000</v>
+        <v>1.84</v>
       </c>
       <c r="H94" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="I94" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="J94" t="n">
-        <v>1.15</v>
+        <v>3.1</v>
       </c>
       <c r="K94" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="L94" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M94" t="n">
         <v>1.1</v>
       </c>
       <c r="N94" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="O94" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P94" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.46</v>
+        <v>2.36</v>
       </c>
       <c r="R94" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="S94" t="n">
-        <v>1.46</v>
+        <v>4.3</v>
       </c>
       <c r="T94" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="U94" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="V94" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="W94" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="X94" t="n">
         <v>12</v>
       </c>
       <c r="Y94" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z94" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA94" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AB94" t="n">
         <v>7.4</v>
       </c>
       <c r="AC94" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD94" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE94" t="n">
         <v>150</v>
@@ -13168,19 +13168,19 @@
         <v>10.5</v>
       </c>
       <c r="AG94" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH94" t="n">
         <v>32</v>
       </c>
       <c r="AI94" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ94" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK94" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL94" t="n">
         <v>65</v>
@@ -13189,7 +13189,7 @@
         <v>250</v>
       </c>
       <c r="AN94" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO94" t="n">
         <v>260</v>
@@ -13222,22 +13222,22 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G95" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H95" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="I95" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J95" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K95" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L95" t="n">
         <v>1.3</v>
@@ -13246,22 +13246,22 @@
         <v>1.04</v>
       </c>
       <c r="N95" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O95" t="n">
         <v>1.2</v>
       </c>
       <c r="P95" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R95" t="n">
         <v>1.59</v>
       </c>
       <c r="S95" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T95" t="n">
         <v>1.56</v>
@@ -13270,61 +13270,61 @@
         <v>2.56</v>
       </c>
       <c r="V95" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W95" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X95" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y95" t="n">
         <v>15.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA95" t="n">
         <v>32</v>
       </c>
       <c r="AB95" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AC95" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD95" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE95" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF95" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG95" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH95" t="n">
         <v>15</v>
       </c>
       <c r="AI95" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK95" t="n">
         <v>30</v>
       </c>
-      <c r="AJ95" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK95" t="n">
+      <c r="AL95" t="n">
         <v>34</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>38</v>
       </c>
       <c r="AM95" t="n">
         <v>60</v>
       </c>
       <c r="AN95" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO95" t="n">
         <v>13</v>
@@ -13357,19 +13357,19 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="G96" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="H96" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I96" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J96" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K96" t="n">
         <v>3.2</v>
@@ -13387,7 +13387,7 @@
         <v>1.44</v>
       </c>
       <c r="P96" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q96" t="n">
         <v>2.3</v>
@@ -13399,22 +13399,22 @@
         <v>4.3</v>
       </c>
       <c r="T96" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="U96" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V96" t="n">
         <v>1.4</v>
       </c>
       <c r="W96" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="X96" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y96" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z96" t="n">
         <v>21</v>
@@ -13423,25 +13423,25 @@
         <v>65</v>
       </c>
       <c r="AB96" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC96" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD96" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE96" t="n">
         <v>50</v>
       </c>
       <c r="AF96" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG96" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH96" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI96" t="n">
         <v>70</v>
@@ -13450,16 +13450,16 @@
         <v>42</v>
       </c>
       <c r="AK96" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL96" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM96" t="n">
         <v>150</v>
       </c>
       <c r="AN96" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AO96" t="n">
         <v>55</v>
@@ -13492,10 +13492,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G97" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H97" t="n">
         <v>1.63</v>
@@ -13522,7 +13522,7 @@
         <v>1.2</v>
       </c>
       <c r="P97" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q97" t="n">
         <v>1.59</v>
@@ -13531,7 +13531,7 @@
         <v>1.64</v>
       </c>
       <c r="S97" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T97" t="n">
         <v>1.68</v>
@@ -13633,7 +13633,7 @@
         <v>8.6</v>
       </c>
       <c r="H98" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="I98" t="n">
         <v>1.52</v>
@@ -13693,7 +13693,7 @@
         <v>13</v>
       </c>
       <c r="AB98" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC98" t="n">
         <v>9.800000000000001</v>
@@ -13717,7 +13717,7 @@
         <v>48</v>
       </c>
       <c r="AJ98" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AK98" t="n">
         <v>150</v>
@@ -13762,25 +13762,25 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.38</v>
+        <v>2.66</v>
       </c>
       <c r="G99" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+      <c r="I99" t="n">
         <v>3.75</v>
       </c>
-      <c r="H99" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I99" t="n">
-        <v>970</v>
-      </c>
       <c r="J99" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="K99" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="L99" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="M99" t="n">
         <v>1.01</v>
@@ -13789,19 +13789,19 @@
         <v>1.32</v>
       </c>
       <c r="O99" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="P99" t="n">
         <v>1.32</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="R99" t="n">
         <v>1.12</v>
       </c>
       <c r="S99" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="T99" t="n">
         <v>1.01</v>
@@ -13810,13 +13810,13 @@
         <v>1.01</v>
       </c>
       <c r="V99" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="W99" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X99" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Y99" t="n">
         <v>1000</v>
@@ -13840,7 +13840,7 @@
         <v>1000</v>
       </c>
       <c r="AF99" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG99" t="n">
         <v>1000</v>
@@ -13897,22 +13897,22 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="G100" t="n">
         <v>2.56</v>
       </c>
       <c r="H100" t="n">
-        <v>1.68</v>
+        <v>3.65</v>
       </c>
       <c r="I100" t="n">
-        <v>970</v>
+        <v>5.8</v>
       </c>
       <c r="J100" t="n">
-        <v>1.66</v>
+        <v>2.3</v>
       </c>
       <c r="K100" t="n">
-        <v>620</v>
+        <v>3.6</v>
       </c>
       <c r="L100" t="n">
         <v>1.01</v>
@@ -13927,16 +13927,16 @@
         <v>1.01</v>
       </c>
       <c r="P100" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R100" t="n">
         <v>1.13</v>
       </c>
       <c r="S100" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="T100" t="n">
         <v>1.01</v>
@@ -13945,7 +13945,7 @@
         <v>1.01</v>
       </c>
       <c r="V100" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="W100" t="n">
         <v>1.64</v>
@@ -14032,58 +14032,58 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="G101" t="n">
-        <v>970</v>
+        <v>1.57</v>
       </c>
       <c r="H101" t="n">
-        <v>1.04</v>
+        <v>5.7</v>
       </c>
       <c r="I101" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J101" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="K101" t="n">
-        <v>910</v>
+        <v>5.3</v>
       </c>
       <c r="L101" t="n">
         <v>1.01</v>
       </c>
       <c r="M101" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N101" t="n">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="O101" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P101" t="n">
         <v>1.91</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.29</v>
+        <v>1.92</v>
       </c>
       <c r="R101" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="S101" t="n">
-        <v>1.29</v>
+        <v>3.1</v>
       </c>
       <c r="T101" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U101" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V101" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W101" t="n">
-        <v>1.01</v>
+        <v>2.74</v>
       </c>
       <c r="X101" t="n">
         <v>970</v>
@@ -14167,112 +14167,112 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="G102" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H102" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I102" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="J102" t="n">
         <v>3.25</v>
       </c>
       <c r="K102" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L102" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="M102" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N102" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="O102" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="P102" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="R102" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="S102" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="T102" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="U102" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="V102" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="W102" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="X102" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y102" t="n">
         <v>11</v>
       </c>
-      <c r="Y102" t="n">
-        <v>12</v>
-      </c>
       <c r="Z102" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA102" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AB102" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AC102" t="n">
         <v>7.2</v>
       </c>
       <c r="AD102" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE102" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AF102" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG102" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH102" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI102" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AJ102" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK102" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN102" t="n">
         <v>26</v>
       </c>
-      <c r="AL102" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM102" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN102" t="n">
-        <v>23</v>
-      </c>
       <c r="AO102" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103">
@@ -14305,10 +14305,10 @@
         <v>2.42</v>
       </c>
       <c r="G103" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H103" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I103" t="n">
         <v>3.3</v>
@@ -14350,10 +14350,10 @@
         <v>2.32</v>
       </c>
       <c r="V103" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W103" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X103" t="n">
         <v>19.5</v>
@@ -14401,10 +14401,10 @@
         <v>36</v>
       </c>
       <c r="AM103" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN103" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO103" t="n">
         <v>32</v>
@@ -14440,16 +14440,16 @@
         <v>14.5</v>
       </c>
       <c r="G104" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="H104" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="I104" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="J104" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K104" t="n">
         <v>7.2</v>
@@ -14461,7 +14461,7 @@
         <v>1.05</v>
       </c>
       <c r="N104" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O104" t="n">
         <v>1.29</v>
@@ -14470,7 +14470,7 @@
         <v>2.02</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R104" t="n">
         <v>1.38</v>
@@ -14482,13 +14482,13 @@
         <v>2.78</v>
       </c>
       <c r="U104" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="V104" t="n">
         <v>4.7</v>
       </c>
       <c r="W104" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="X104" t="n">
         <v>18.5</v>
@@ -14515,7 +14515,7 @@
         <v>17</v>
       </c>
       <c r="AF104" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AG104" t="n">
         <v>75</v>
@@ -14530,7 +14530,7 @@
         <v>1000</v>
       </c>
       <c r="AK104" t="n">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="AL104" t="n">
         <v>540</v>
@@ -14575,7 +14575,7 @@
         <v>2.54</v>
       </c>
       <c r="G105" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="H105" t="n">
         <v>2.94</v>
@@ -14584,16 +14584,16 @@
         <v>3.7</v>
       </c>
       <c r="J105" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="K105" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="L105" t="n">
         <v>1.45</v>
       </c>
       <c r="M105" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N105" t="n">
         <v>2.8</v>
@@ -14605,13 +14605,13 @@
         <v>1.61</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="R105" t="n">
         <v>1.22</v>
       </c>
       <c r="S105" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="T105" t="n">
         <v>1.91</v>
@@ -14620,10 +14620,10 @@
         <v>1.87</v>
       </c>
       <c r="V105" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W105" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="X105" t="n">
         <v>11.5</v>
@@ -14707,31 +14707,31 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.09</v>
+        <v>1.49</v>
       </c>
       <c r="G106" t="n">
-        <v>1000</v>
+        <v>1.9</v>
       </c>
       <c r="H106" t="n">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
       <c r="I106" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="J106" t="n">
-        <v>1.02</v>
+        <v>3.6</v>
       </c>
       <c r="K106" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="L106" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M106" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N106" t="n">
-        <v>1.81</v>
+        <v>3</v>
       </c>
       <c r="O106" t="n">
         <v>1.33</v>
@@ -14740,31 +14740,31 @@
         <v>1.81</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R106" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S106" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="T106" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="U106" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="V106" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="W106" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="X106" t="n">
         <v>1000</v>
       </c>
       <c r="Y106" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z106" t="n">
         <v>1000</v>
@@ -14773,10 +14773,10 @@
         <v>1000</v>
       </c>
       <c r="AB106" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC106" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD106" t="n">
         <v>1000</v>
@@ -14788,7 +14788,7 @@
         <v>1000</v>
       </c>
       <c r="AG106" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH106" t="n">
         <v>1000</v>
@@ -14797,7 +14797,7 @@
         <v>1000</v>
       </c>
       <c r="AJ106" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK106" t="n">
         <v>1000</v>
@@ -14992,7 +14992,7 @@
         <v>1.02</v>
       </c>
       <c r="K108" t="n">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="L108" t="n">
         <v>1.01</v>
@@ -15112,16 +15112,16 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G109" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="H109" t="n">
         <v>6.6</v>
       </c>
       <c r="I109" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="J109" t="n">
         <v>3.5</v>
@@ -15130,7 +15130,7 @@
         <v>3.9</v>
       </c>
       <c r="L109" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M109" t="n">
         <v>1.1</v>
@@ -15142,82 +15142,82 @@
         <v>1.49</v>
       </c>
       <c r="P109" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.49</v>
+        <v>2.42</v>
       </c>
       <c r="R109" t="n">
         <v>1.2</v>
       </c>
       <c r="S109" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="T109" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="U109" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="V109" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W109" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="X109" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y109" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z109" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA109" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB109" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC109" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD109" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE109" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF109" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG109" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH109" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI109" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ109" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK109" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL109" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM109" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN109" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO109" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110">
@@ -15271,7 +15271,7 @@
         <v>1.1</v>
       </c>
       <c r="N110" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O110" t="n">
         <v>1.47</v>
@@ -15313,7 +15313,7 @@
         <v>460</v>
       </c>
       <c r="AB110" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AC110" t="n">
         <v>9.800000000000001</v>
@@ -15394,7 +15394,7 @@
         <v>2.38</v>
       </c>
       <c r="J111" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K111" t="n">
         <v>3.55</v>
@@ -15433,7 +15433,7 @@
         <v>1.72</v>
       </c>
       <c r="W111" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X111" t="n">
         <v>14</v>
@@ -15517,109 +15517,109 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.04</v>
+        <v>1.48</v>
       </c>
       <c r="G112" t="n">
-        <v>1000</v>
+        <v>1.71</v>
       </c>
       <c r="H112" t="n">
-        <v>1.04</v>
+        <v>6.2</v>
       </c>
       <c r="I112" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J112" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="K112" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="L112" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M112" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N112" t="n">
-        <v>1.25</v>
+        <v>3.05</v>
       </c>
       <c r="O112" t="n">
         <v>1.33</v>
       </c>
       <c r="P112" t="n">
-        <v>1.24</v>
+        <v>1.82</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.33</v>
+        <v>1.82</v>
       </c>
       <c r="R112" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="S112" t="n">
-        <v>1.33</v>
+        <v>3.1</v>
       </c>
       <c r="T112" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U112" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V112" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W112" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="X112" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y112" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z112" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA112" t="n">
         <v>1000</v>
       </c>
       <c r="AB112" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC112" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD112" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE112" t="n">
         <v>1000</v>
       </c>
       <c r="AF112" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG112" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH112" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI112" t="n">
         <v>1000</v>
       </c>
       <c r="AJ112" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK112" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL112" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM112" t="n">
         <v>1000</v>
       </c>
       <c r="AN112" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO112" t="n">
         <v>1000</v>
@@ -15661,52 +15661,52 @@
         <v>6.6</v>
       </c>
       <c r="I113" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J113" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K113" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L113" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M113" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N113" t="n">
-        <v>1.25</v>
+        <v>3.4</v>
       </c>
       <c r="O113" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P113" t="n">
-        <v>1.24</v>
+        <v>1.8</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.33</v>
+        <v>2.02</v>
       </c>
       <c r="R113" t="n">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="S113" t="n">
-        <v>1.33</v>
+        <v>3.65</v>
       </c>
       <c r="T113" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U113" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V113" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W113" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="X113" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y113" t="n">
         <v>1000</v>
@@ -15718,28 +15718,28 @@
         <v>1000</v>
       </c>
       <c r="AB113" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC113" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD113" t="n">
         <v>1000</v>
       </c>
       <c r="AE113" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF113" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG113" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH113" t="n">
         <v>1000</v>
       </c>
       <c r="AI113" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ113" t="n">
         <v>1000</v>
@@ -15751,10 +15751,10 @@
         <v>1000</v>
       </c>
       <c r="AM113" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN113" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO113" t="n">
         <v>1000</v>
@@ -15802,7 +15802,7 @@
         <v>1.02</v>
       </c>
       <c r="K114" t="n">
-        <v>740</v>
+        <v>950</v>
       </c>
       <c r="L114" t="n">
         <v>1.01</v>
@@ -15937,7 +15937,7 @@
         <v>1.02</v>
       </c>
       <c r="K115" t="n">
-        <v>110</v>
+        <v>950</v>
       </c>
       <c r="L115" t="n">
         <v>1.01</v>
@@ -16063,7 +16063,7 @@
         <v>2.1</v>
       </c>
       <c r="H116" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I116" t="n">
         <v>4.3</v>
@@ -16123,7 +16123,7 @@
         <v>100</v>
       </c>
       <c r="AB116" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC116" t="n">
         <v>9.800000000000001</v>
@@ -16153,7 +16153,7 @@
         <v>25</v>
       </c>
       <c r="AL116" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM116" t="n">
         <v>120</v>
@@ -16222,10 +16222,10 @@
         <v>1.61</v>
       </c>
       <c r="P117" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="R117" t="n">
         <v>1.17</v>
@@ -16246,7 +16246,7 @@
         <v>1.43</v>
       </c>
       <c r="X117" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="Y117" t="n">
         <v>8</v>
@@ -16313,126 +16313,126 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>22:10:00</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="G118" t="n">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="H118" t="n">
         <v>3.35</v>
       </c>
       <c r="I118" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J118" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K118" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="L118" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M118" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N118" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P118" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R118" t="n">
         <v>1.24</v>
       </c>
-      <c r="O118" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P118" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="R118" t="n">
-        <v>1.13</v>
-      </c>
       <c r="S118" t="n">
-        <v>1.02</v>
+        <v>4</v>
       </c>
       <c r="T118" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="U118" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="V118" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="W118" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="X118" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y118" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z118" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA118" t="n">
         <v>85</v>
       </c>
       <c r="AB118" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC118" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD118" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE118" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF118" t="n">
         <v>17</v>
       </c>
       <c r="AG118" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH118" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI118" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AJ118" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AK118" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AL118" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AM118" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="AN118" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AO118" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119">
@@ -16453,73 +16453,73 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="G119" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="H119" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I119" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J119" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="K119" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L119" t="n">
         <v>1.5</v>
       </c>
       <c r="M119" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N119" t="n">
-        <v>2.92</v>
+        <v>2.62</v>
       </c>
       <c r="O119" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="P119" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="R119" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S119" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="T119" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="U119" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="V119" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="W119" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="X119" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="Y119" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z119" t="n">
         <v>27</v>
@@ -16528,46 +16528,46 @@
         <v>80</v>
       </c>
       <c r="AB119" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC119" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD119" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE119" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF119" t="n">
         <v>17</v>
       </c>
       <c r="AG119" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH119" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI119" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL119" t="n">
         <v>75</v>
       </c>
-      <c r="AJ119" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK119" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL119" t="n">
-        <v>60</v>
-      </c>
       <c r="AM119" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="AN119" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AO119" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120">
@@ -16612,7 +16612,7 @@
         <v>1.02</v>
       </c>
       <c r="K120" t="n">
-        <v>710</v>
+        <v>950</v>
       </c>
       <c r="L120" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="G2" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="I2" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.34</v>
@@ -691,34 +691,34 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="R2" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="T2" t="n">
         <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="W2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -730,22 +730,22 @@
         <v>11.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
         <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="n">
         <v>22</v>
@@ -754,7 +754,7 @@
         <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
         <v>150</v>
@@ -772,7 +772,7 @@
         <v>70</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="3">
@@ -802,109 +802,109 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="H3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I3" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J3" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="K3" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P3" t="n">
         <v>4.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="R3" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="S3" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="T3" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>10</v>
       </c>
-      <c r="X3" t="n">
-        <v>85</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9</v>
-      </c>
       <c r="AK3" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="G4" t="n">
         <v>12</v>
@@ -946,16 +946,16 @@
         <v>1.26</v>
       </c>
       <c r="I4" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="J4" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -967,13 +967,13 @@
         <v>1.08</v>
       </c>
       <c r="P4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="R4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="S4" t="n">
         <v>1.65</v>
@@ -985,7 +985,7 @@
         <v>2.42</v>
       </c>
       <c r="V4" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="W4" t="n">
         <v>1.09</v>
@@ -994,37 +994,37 @@
         <v>70</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AB4" t="n">
         <v>70</v>
       </c>
       <c r="AC4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AF4" t="n">
         <v>120</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>300</v>
@@ -1036,7 +1036,7 @@
         <v>80</v>
       </c>
       <c r="AM4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN4" t="n">
         <v>75</v>
@@ -1078,13 +1078,13 @@
         <v>2.92</v>
       </c>
       <c r="H5" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I5" t="n">
         <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>3.7</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="G6" t="n">
         <v>2.28</v>
@@ -1222,7 +1222,7 @@
         <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
         <v>1.34</v>
@@ -1240,7 +1240,7 @@
         <v>1.93</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
         <v>1.37</v>
@@ -1249,7 +1249,7 @@
         <v>3.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
@@ -1279,7 +1279,7 @@
         <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AE6" t="n">
         <v>50</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G7" t="n">
         <v>1.98</v>
@@ -1351,7 +1351,7 @@
         <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J7" t="n">
         <v>3.45</v>
@@ -1378,19 +1378,19 @@
         <v>1.96</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="T7" t="n">
         <v>1.79</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W7" t="n">
         <v>2.02</v>
@@ -1507,7 +1507,7 @@
         <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q8" t="n">
         <v>2.08</v>
@@ -1522,7 +1522,7 @@
         <v>1.94</v>
       </c>
       <c r="U8" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V8" t="n">
         <v>1.19</v>
@@ -1627,40 +1627,40 @@
         <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P9" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
         <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="S9" t="n">
-        <v>2.86</v>
+        <v>3.35</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="W9" t="n">
         <v>1.39</v>
@@ -1681,7 +1681,7 @@
         <v>15.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD9" t="n">
         <v>14.5</v>
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I10" t="n">
         <v>2.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1780,16 +1780,16 @@
         <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S10" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T10" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="U10" t="n">
         <v>2.46</v>
@@ -1798,7 +1798,7 @@
         <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X10" t="n">
         <v>25</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G11" t="n">
         <v>4.7</v>
       </c>
       <c r="H11" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="I11" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J11" t="n">
         <v>4.2</v>
@@ -1906,31 +1906,31 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
         <v>2.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V11" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="W11" t="n">
         <v>1.27</v>
@@ -1939,7 +1939,7 @@
         <v>24</v>
       </c>
       <c r="Y11" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
         <v>13.5</v>
@@ -1948,10 +1948,10 @@
         <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
         <v>10</v>
@@ -1966,7 +1966,7 @@
         <v>18.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
         <v>27</v>
@@ -1987,7 +1987,7 @@
         <v>38</v>
       </c>
       <c r="AO11" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G12" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I12" t="n">
         <v>4.8</v>
       </c>
-      <c r="I12" t="n">
-        <v>4.9</v>
-      </c>
       <c r="J12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.62</v>
@@ -2050,52 +2050,52 @@
         <v>1.56</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R12" t="n">
         <v>1.2</v>
       </c>
       <c r="S12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="T12" t="n">
         <v>2.26</v>
       </c>
       <c r="U12" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
         <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="X12" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
         <v>140</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE12" t="n">
         <v>85</v>
       </c>
       <c r="AF12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
         <v>11.5</v>
@@ -2107,10 +2107,10 @@
         <v>110</v>
       </c>
       <c r="AJ12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL12" t="n">
         <v>65</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="G13" t="n">
         <v>17</v>
@@ -2167,7 +2167,7 @@
         <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.43</v>
@@ -2248,7 +2248,7 @@
         <v>410</v>
       </c>
       <c r="AL13" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AM13" t="n">
         <v>420</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G14" t="n">
         <v>1.68</v>
@@ -2305,7 +2305,7 @@
         <v>5.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2317,19 +2317,19 @@
         <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S14" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
         <v>2.16</v>
@@ -2464,7 +2464,7 @@
         <v>3.25</v>
       </c>
       <c r="T15" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
         <v>2.22</v>
@@ -2563,7 +2563,7 @@
         <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I16" t="n">
         <v>3</v>
@@ -2599,10 +2599,10 @@
         <v>3.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
         <v>1.51</v>
@@ -2632,13 +2632,13 @@
         <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF16" t="n">
         <v>23</v>
       </c>
       <c r="AG16" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
         <v>20</v>
@@ -2659,7 +2659,7 @@
         <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
         <v>36</v>
@@ -2698,7 +2698,7 @@
         <v>1.65</v>
       </c>
       <c r="H17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I17" t="n">
         <v>7.6</v>
@@ -2731,7 +2731,7 @@
         <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="T17" t="n">
         <v>1.66</v>
@@ -2845,7 +2845,7 @@
         <v>3.65</v>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -2857,7 +2857,7 @@
         <v>1.38</v>
       </c>
       <c r="P18" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q18" t="n">
         <v>2.08</v>
@@ -2995,7 +2995,7 @@
         <v>1.88</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="R19" t="n">
         <v>1.33</v>
@@ -3004,13 +3004,13 @@
         <v>3.35</v>
       </c>
       <c r="T19" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U19" t="n">
         <v>2.08</v>
       </c>
       <c r="V19" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W19" t="n">
         <v>1.4</v>
@@ -3097,40 +3097,40 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H20" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I20" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
         <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M20" t="n">
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P20" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="R20" t="n">
         <v>1.22</v>
@@ -3142,10 +3142,10 @@
         <v>1.89</v>
       </c>
       <c r="U20" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="V20" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W20" t="n">
         <v>1.43</v>
@@ -3235,7 +3235,7 @@
         <v>3.4</v>
       </c>
       <c r="G21" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H21" t="n">
         <v>2.1</v>
@@ -3244,7 +3244,7 @@
         <v>2.28</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K21" t="n">
         <v>3.95</v>
@@ -3268,19 +3268,19 @@
         <v>1.86</v>
       </c>
       <c r="R21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S21" t="n">
         <v>3.15</v>
       </c>
       <c r="T21" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U21" t="n">
         <v>2.18</v>
       </c>
       <c r="V21" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="W21" t="n">
         <v>1.35</v>
@@ -3379,7 +3379,7 @@
         <v>3.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
         <v>3.8</v>
@@ -3388,40 +3388,40 @@
         <v>1.36</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
         <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R22" t="n">
         <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T22" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U22" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V22" t="n">
         <v>1.41</v>
       </c>
       <c r="W22" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="n">
         <v>18</v>
@@ -3433,16 +3433,16 @@
         <v>65</v>
       </c>
       <c r="AB22" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC22" t="n">
         <v>10</v>
       </c>
       <c r="AD22" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF22" t="n">
         <v>19</v>
@@ -3454,10 +3454,10 @@
         <v>19.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK22" t="n">
         <v>28</v>
@@ -3532,7 +3532,7 @@
         <v>1.34</v>
       </c>
       <c r="P23" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q23" t="n">
         <v>2.02</v>
@@ -3547,7 +3547,7 @@
         <v>1.79</v>
       </c>
       <c r="U23" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V23" t="n">
         <v>1.47</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G24" t="n">
         <v>3.4</v>
       </c>
       <c r="H24" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I24" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
         <v>3.85</v>
@@ -3661,28 +3661,28 @@
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O24" t="n">
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R24" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S24" t="n">
         <v>2.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="U24" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="V24" t="n">
         <v>1.75</v>
@@ -3691,7 +3691,7 @@
         <v>1.41</v>
       </c>
       <c r="X24" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="Y24" t="n">
         <v>13</v>
@@ -3700,7 +3700,7 @@
         <v>18</v>
       </c>
       <c r="AA24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB24" t="n">
         <v>17</v>
@@ -3784,7 +3784,7 @@
         <v>14</v>
       </c>
       <c r="J25" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K25" t="n">
         <v>7</v>
@@ -3799,22 +3799,22 @@
         <v>6.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P25" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q25" t="n">
         <v>1.52</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S25" t="n">
         <v>2.3</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U25" t="n">
         <v>1.94</v>
@@ -3823,7 +3823,7 @@
         <v>1.07</v>
       </c>
       <c r="W25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="X25" t="n">
         <v>32</v>
@@ -3859,7 +3859,7 @@
         <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ25" t="n">
         <v>9.800000000000001</v>
@@ -3949,7 +3949,7 @@
         <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U26" t="n">
         <v>2.12</v>
@@ -4060,7 +4060,7 @@
         <v>4.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
@@ -4072,10 +4072,10 @@
         <v>1.29</v>
       </c>
       <c r="P27" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R27" t="n">
         <v>1.39</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H28" t="n">
         <v>2.56</v>
       </c>
-      <c r="G28" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.64</v>
-      </c>
       <c r="I28" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="J28" t="n">
         <v>3.8</v>
@@ -4195,7 +4195,7 @@
         <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -4210,7 +4210,7 @@
         <v>2.42</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R28" t="n">
         <v>1.57</v>
@@ -4219,16 +4219,16 @@
         <v>2.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U28" t="n">
         <v>2.5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W28" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="X28" t="n">
         <v>24</v>
@@ -4240,13 +4240,13 @@
         <v>23</v>
       </c>
       <c r="AA28" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB28" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AC28" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD28" t="n">
         <v>13.5</v>
@@ -4279,7 +4279,7 @@
         <v>60</v>
       </c>
       <c r="AN28" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AO28" t="n">
         <v>17.5</v>
@@ -4450,16 +4450,16 @@
         <v>1.76</v>
       </c>
       <c r="G30" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="H30" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
         <v>4.4</v>
@@ -4480,7 +4480,7 @@
         <v>2.08</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R30" t="n">
         <v>1.39</v>
@@ -4498,7 +4498,7 @@
         <v>1.25</v>
       </c>
       <c r="W30" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X30" t="n">
         <v>21</v>
@@ -4507,52 +4507,52 @@
         <v>970</v>
       </c>
       <c r="Z30" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA30" t="n">
         <v>110</v>
       </c>
       <c r="AB30" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD30" t="n">
         <v>18.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF30" t="n">
         <v>970</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
         <v>65</v>
       </c>
       <c r="AJ30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AL30" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="n">
         <v>130</v>
       </c>
       <c r="AN30" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -4621,7 +4621,7 @@
         <v>1.28</v>
       </c>
       <c r="S31" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T31" t="n">
         <v>1.98</v>
@@ -4720,13 +4720,13 @@
         <v>1.74</v>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="H32" t="n">
         <v>5.7</v>
       </c>
       <c r="I32" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
         <v>3.2</v>
@@ -4735,7 +4735,7 @@
         <v>3.8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="M32" t="n">
         <v>1.11</v>
@@ -4768,7 +4768,7 @@
         <v>1.16</v>
       </c>
       <c r="W32" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X32" t="n">
         <v>11.5</v>
@@ -4870,7 +4870,7 @@
         <v>3.65</v>
       </c>
       <c r="L33" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
@@ -4978,31 +4978,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>Juventus B</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="G34" t="n">
-        <v>2.9</v>
+        <v>2.54</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="K34" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L34" t="n">
         <v>1.44</v>
@@ -5011,88 +5011,88 @@
         <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="O34" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="P34" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="R34" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S34" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="U34" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V34" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="W34" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="X34" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z34" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC34" t="n">
         <v>8.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5137,7 +5137,7 @@
         <v>3.7</v>
       </c>
       <c r="K35" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L35" t="n">
         <v>1.35</v>
@@ -5146,31 +5146,31 @@
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P35" t="n">
         <v>2.16</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R35" t="n">
         <v>1.45</v>
       </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T35" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U35" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V35" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W35" t="n">
         <v>1.66</v>
@@ -5224,10 +5224,10 @@
         <v>75</v>
       </c>
       <c r="AN35" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO35" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="G36" t="n">
         <v>2.12</v>
@@ -5272,10 +5272,10 @@
         <v>3.05</v>
       </c>
       <c r="K36" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L36" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="M36" t="n">
         <v>1.11</v>
@@ -5290,7 +5290,7 @@
         <v>1.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="R36" t="n">
         <v>1.18</v>
@@ -5305,7 +5305,7 @@
         <v>1.65</v>
       </c>
       <c r="V36" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="W36" t="n">
         <v>1.89</v>
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G37" t="n">
         <v>1.78</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1.79</v>
       </c>
       <c r="H37" t="n">
         <v>4.5</v>
@@ -5404,7 +5404,7 @@
         <v>4.6</v>
       </c>
       <c r="J37" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K37" t="n">
         <v>4.7</v>
@@ -5422,13 +5422,13 @@
         <v>1.16</v>
       </c>
       <c r="P37" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="Q37" t="n">
         <v>1.48</v>
       </c>
       <c r="R37" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="S37" t="n">
         <v>2.2</v>
@@ -5437,7 +5437,7 @@
         <v>1.53</v>
       </c>
       <c r="U37" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="V37" t="n">
         <v>1.27</v>
@@ -5494,7 +5494,7 @@
         <v>60</v>
       </c>
       <c r="AN37" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO37" t="n">
         <v>28</v>
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Juventus B</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="G38" t="n">
-        <v>2.52</v>
+        <v>2.9</v>
       </c>
       <c r="H38" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" t="n">
         <v>3.4</v>
       </c>
-      <c r="I38" t="n">
-        <v>4.4</v>
-      </c>
       <c r="J38" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="K38" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="L38" t="n">
         <v>1.44</v>
       </c>
       <c r="M38" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="O38" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P38" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="R38" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U38" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V38" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="W38" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="X38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y38" t="n">
         <v>12</v>
       </c>
-      <c r="Y38" t="n">
-        <v>13</v>
-      </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF38" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AG38" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI38" t="n">
         <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -5674,7 +5674,7 @@
         <v>2.24</v>
       </c>
       <c r="J39" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K39" t="n">
         <v>3.6</v>
@@ -5716,7 +5716,7 @@
         <v>1.31</v>
       </c>
       <c r="X39" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y39" t="n">
         <v>8.6</v>
@@ -5725,7 +5725,7 @@
         <v>15.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB39" t="n">
         <v>15.5</v>
@@ -5734,10 +5734,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD39" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE39" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF39" t="n">
         <v>34</v>
@@ -5800,10 +5800,10 @@
         <v>2.4</v>
       </c>
       <c r="G40" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H40" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I40" t="n">
         <v>3.45</v>
@@ -5848,7 +5848,7 @@
         <v>1.4</v>
       </c>
       <c r="W40" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X40" t="n">
         <v>13.5</v>
@@ -5884,7 +5884,7 @@
         <v>970</v>
       </c>
       <c r="AI40" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ40" t="n">
         <v>34</v>
@@ -5941,16 +5941,16 @@
         <v>2.22</v>
       </c>
       <c r="I41" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="J41" t="n">
         <v>3.55</v>
       </c>
       <c r="K41" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M41" t="n">
         <v>1.05</v>
@@ -5971,7 +5971,7 @@
         <v>1.46</v>
       </c>
       <c r="S41" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T41" t="n">
         <v>1.6</v>
@@ -5980,7 +5980,7 @@
         <v>2.34</v>
       </c>
       <c r="V41" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W41" t="n">
         <v>1.41</v>
@@ -6091,22 +6091,22 @@
         <v>1.02</v>
       </c>
       <c r="N42" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="O42" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P42" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="Q42" t="n">
         <v>1.36</v>
       </c>
       <c r="R42" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="T42" t="n">
         <v>1.81</v>
@@ -6121,22 +6121,22 @@
         <v>1.09</v>
       </c>
       <c r="X42" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y42" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Z42" t="n">
         <v>12.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AB42" t="n">
         <v>55</v>
       </c>
       <c r="AC42" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AD42" t="n">
         <v>970</v>
@@ -6166,13 +6166,13 @@
         <v>130</v>
       </c>
       <c r="AM42" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN42" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AO42" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="43">
@@ -6217,7 +6217,7 @@
         <v>3.15</v>
       </c>
       <c r="K43" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L43" t="n">
         <v>1.44</v>
@@ -6235,13 +6235,13 @@
         <v>1.8</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R43" t="n">
         <v>1.3</v>
       </c>
       <c r="S43" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="T43" t="n">
         <v>1.78</v>
@@ -6253,7 +6253,7 @@
         <v>1.63</v>
       </c>
       <c r="W43" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X43" t="n">
         <v>970</v>
@@ -6337,25 +6337,25 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="G44" t="n">
         <v>4.5</v>
       </c>
       <c r="H44" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I44" t="n">
         <v>2.3</v>
       </c>
       <c r="J44" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K44" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L44" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="M44" t="n">
         <v>1.1</v>
@@ -6367,7 +6367,7 @@
         <v>1.43</v>
       </c>
       <c r="P44" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q44" t="n">
         <v>2.28</v>
@@ -6385,7 +6385,7 @@
         <v>1.87</v>
       </c>
       <c r="V44" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W44" t="n">
         <v>1.29</v>
@@ -6421,7 +6421,7 @@
         <v>970</v>
       </c>
       <c r="AH44" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI44" t="n">
         <v>50</v>
@@ -6478,19 +6478,19 @@
         <v>3.8</v>
       </c>
       <c r="H45" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I45" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="J45" t="n">
         <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M45" t="n">
         <v>1.13</v>
@@ -6499,13 +6499,13 @@
         <v>2.66</v>
       </c>
       <c r="O45" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P45" t="n">
         <v>1.54</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R45" t="n">
         <v>1.19</v>
@@ -6514,13 +6514,13 @@
         <v>5.4</v>
       </c>
       <c r="T45" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U45" t="n">
         <v>1.79</v>
       </c>
       <c r="V45" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W45" t="n">
         <v>1.35</v>
@@ -6634,7 +6634,7 @@
         <v>4</v>
       </c>
       <c r="O46" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P46" t="n">
         <v>2.04</v>
@@ -6661,13 +6661,13 @@
         <v>1.4</v>
       </c>
       <c r="X46" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y46" t="n">
         <v>11</v>
       </c>
       <c r="Z46" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA46" t="n">
         <v>29</v>
@@ -6682,13 +6682,13 @@
         <v>10.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF46" t="n">
         <v>26</v>
       </c>
       <c r="AG46" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH46" t="n">
         <v>17</v>
@@ -6754,7 +6754,7 @@
         <v>6.2</v>
       </c>
       <c r="J47" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K47" t="n">
         <v>4.3</v>
@@ -6763,43 +6763,43 @@
         <v>1.45</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="O47" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P47" t="n">
         <v>1.77</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R47" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S47" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="T47" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="U47" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="V47" t="n">
         <v>1.19</v>
       </c>
       <c r="W47" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="Z47" t="n">
         <v>55</v>
@@ -6808,25 +6808,25 @@
         <v>210</v>
       </c>
       <c r="AB47" t="n">
-        <v>9.4</v>
+        <v>7</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE47" t="n">
         <v>110</v>
       </c>
       <c r="AF47" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG47" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI47" t="n">
         <v>130</v>
@@ -6835,13 +6835,13 @@
         <v>970</v>
       </c>
       <c r="AK47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL47" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM47" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN47" t="n">
         <v>970</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G48" t="n">
         <v>2.1</v>
       </c>
       <c r="H48" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I48" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K48" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3.85</v>
       </c>
       <c r="L48" t="n">
         <v>1.37</v>
@@ -6907,16 +6907,16 @@
         <v>1.3</v>
       </c>
       <c r="P48" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R48" t="n">
         <v>1.42</v>
       </c>
       <c r="S48" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T48" t="n">
         <v>1.76</v>
@@ -6925,10 +6925,10 @@
         <v>2.24</v>
       </c>
       <c r="V48" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W48" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X48" t="n">
         <v>15</v>
@@ -6946,7 +6946,7 @@
         <v>10</v>
       </c>
       <c r="AC48" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD48" t="n">
         <v>15.5</v>
@@ -6976,7 +6976,7 @@
         <v>34</v>
       </c>
       <c r="AM48" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN48" t="n">
         <v>14</v>
@@ -7039,7 +7039,7 @@
         <v>5</v>
       </c>
       <c r="O49" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P49" t="n">
         <v>2.36</v>
@@ -7057,7 +7057,7 @@
         <v>1.78</v>
       </c>
       <c r="U49" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="V49" t="n">
         <v>1.2</v>
@@ -7066,7 +7066,7 @@
         <v>2.58</v>
       </c>
       <c r="X49" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y49" t="n">
         <v>23</v>
@@ -7093,10 +7093,10 @@
         <v>10.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH49" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI49" t="n">
         <v>60</v>
@@ -7108,7 +7108,7 @@
         <v>15</v>
       </c>
       <c r="AL49" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM49" t="n">
         <v>85</v>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G50" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H50" t="n">
         <v>3.7</v>
@@ -7174,7 +7174,7 @@
         <v>4.3</v>
       </c>
       <c r="O50" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P50" t="n">
         <v>2.12</v>
@@ -7183,16 +7183,16 @@
         <v>1.88</v>
       </c>
       <c r="R50" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S50" t="n">
         <v>3.2</v>
       </c>
       <c r="T50" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U50" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V50" t="n">
         <v>1.36</v>
@@ -7243,7 +7243,7 @@
         <v>21</v>
       </c>
       <c r="AL50" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM50" t="n">
         <v>80</v>
@@ -7285,13 +7285,13 @@
         <v>2.12</v>
       </c>
       <c r="G51" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H51" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J51" t="n">
         <v>3.55</v>
@@ -7300,7 +7300,7 @@
         <v>3.6</v>
       </c>
       <c r="L51" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
@@ -7321,7 +7321,7 @@
         <v>1.32</v>
       </c>
       <c r="S51" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T51" t="n">
         <v>1.92</v>
@@ -7330,25 +7330,25 @@
         <v>2.04</v>
       </c>
       <c r="V51" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W51" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="X51" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y51" t="n">
         <v>13</v>
       </c>
-      <c r="Y51" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Z51" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA51" t="n">
         <v>80</v>
       </c>
       <c r="AB51" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC51" t="n">
         <v>7.6</v>
@@ -7372,7 +7372,7 @@
         <v>60</v>
       </c>
       <c r="AJ51" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK51" t="n">
         <v>23</v>
@@ -7384,10 +7384,10 @@
         <v>110</v>
       </c>
       <c r="AN51" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO51" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
@@ -7435,7 +7435,7 @@
         <v>8</v>
       </c>
       <c r="L52" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M52" t="n">
         <v>1.02</v>
@@ -7444,25 +7444,25 @@
         <v>5.2</v>
       </c>
       <c r="O52" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P52" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="Q52" t="n">
         <v>1.55</v>
       </c>
       <c r="R52" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S52" t="n">
         <v>2.4</v>
       </c>
       <c r="T52" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="U52" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V52" t="n">
         <v>1.06</v>
@@ -7477,7 +7477,7 @@
         <v>60</v>
       </c>
       <c r="Z52" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AA52" t="n">
         <v>1000</v>
@@ -7489,10 +7489,10 @@
         <v>20</v>
       </c>
       <c r="AD52" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AE52" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="AF52" t="n">
         <v>9.199999999999999</v>
@@ -7522,7 +7522,7 @@
         <v>4.4</v>
       </c>
       <c r="AO52" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
     </row>
     <row r="53">
@@ -7552,16 +7552,16 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="G53" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="H53" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I53" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J53" t="n">
         <v>3.45</v>
@@ -7576,16 +7576,16 @@
         <v>1.08</v>
       </c>
       <c r="N53" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O53" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P53" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R53" t="n">
         <v>1.36</v>
@@ -7594,16 +7594,16 @@
         <v>3.65</v>
       </c>
       <c r="T53" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U53" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V53" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="W53" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="X53" t="n">
         <v>12.5</v>
@@ -7612,25 +7612,25 @@
         <v>13</v>
       </c>
       <c r="Z53" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA53" t="n">
         <v>60</v>
       </c>
       <c r="AB53" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC53" t="n">
         <v>7.6</v>
       </c>
       <c r="AD53" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE53" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AF53" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG53" t="n">
         <v>11</v>
@@ -7639,13 +7639,13 @@
         <v>17.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ53" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK53" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL53" t="n">
         <v>40</v>
@@ -7654,10 +7654,10 @@
         <v>95</v>
       </c>
       <c r="AN53" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO53" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
@@ -7696,7 +7696,7 @@
         <v>2.3</v>
       </c>
       <c r="I54" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J54" t="n">
         <v>3.9</v>
@@ -7729,13 +7729,13 @@
         <v>2.38</v>
       </c>
       <c r="T54" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U54" t="n">
         <v>2.6</v>
       </c>
       <c r="V54" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W54" t="n">
         <v>1.47</v>
@@ -7747,7 +7747,7 @@
         <v>16</v>
       </c>
       <c r="Z54" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AA54" t="n">
         <v>32</v>
@@ -7822,70 +7822,70 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="G55" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="H55" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="I55" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="J55" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="K55" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L55" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="M55" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O55" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P55" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R55" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S55" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T55" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="U55" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="V55" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W55" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="X55" t="n">
         <v>16</v>
       </c>
       <c r="Y55" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Z55" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AA55" t="n">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="AB55" t="n">
         <v>7.6</v>
@@ -7894,13 +7894,13 @@
         <v>11.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AE55" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="AF55" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG55" t="n">
         <v>11</v>
@@ -7909,10 +7909,10 @@
         <v>32</v>
       </c>
       <c r="AI55" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AJ55" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK55" t="n">
         <v>18</v>
@@ -7921,13 +7921,13 @@
         <v>50</v>
       </c>
       <c r="AM55" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AN55" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO55" t="n">
-        <v>390</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56">
@@ -7960,13 +7960,13 @@
         <v>1.65</v>
       </c>
       <c r="G56" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H56" t="n">
         <v>6</v>
       </c>
       <c r="I56" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J56" t="n">
         <v>3.85</v>
@@ -7975,7 +7975,7 @@
         <v>4.2</v>
       </c>
       <c r="L56" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="M56" t="n">
         <v>1.07</v>
@@ -8035,7 +8035,7 @@
         <v>120</v>
       </c>
       <c r="AF56" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG56" t="n">
         <v>10.5</v>
@@ -8092,13 +8092,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G57" t="n">
         <v>4.2</v>
       </c>
       <c r="H57" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="I57" t="n">
         <v>2.02</v>
@@ -8134,16 +8134,16 @@
         <v>2.62</v>
       </c>
       <c r="T57" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U57" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V57" t="n">
         <v>1.98</v>
       </c>
       <c r="W57" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X57" t="n">
         <v>22</v>
@@ -8227,16 +8227,16 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G58" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="H58" t="n">
         <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J58" t="n">
         <v>4.3</v>
@@ -8278,7 +8278,7 @@
         <v>1.24</v>
       </c>
       <c r="W58" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="X58" t="n">
         <v>21</v>
@@ -8329,7 +8329,7 @@
         <v>75</v>
       </c>
       <c r="AN58" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AO58" t="n">
         <v>48</v>
@@ -8365,22 +8365,22 @@
         <v>4.9</v>
       </c>
       <c r="G59" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H59" t="n">
         <v>1.82</v>
       </c>
       <c r="I59" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="J59" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K59" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L59" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M59" t="n">
         <v>1.09</v>
@@ -8410,7 +8410,7 @@
         <v>1.86</v>
       </c>
       <c r="V59" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="W59" t="n">
         <v>1.21</v>
@@ -8497,19 +8497,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="G60" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H60" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="I60" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J60" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K60" t="n">
         <v>6.6</v>
@@ -8521,46 +8521,46 @@
         <v>1.03</v>
       </c>
       <c r="N60" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O60" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P60" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="R60" t="n">
         <v>1.62</v>
       </c>
       <c r="S60" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T60" t="n">
         <v>1.94</v>
       </c>
       <c r="U60" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V60" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W60" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X60" t="n">
         <v>28</v>
       </c>
       <c r="Y60" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="n">
         <v>110</v>
       </c>
       <c r="AA60" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="AB60" t="n">
         <v>11</v>
@@ -8569,40 +8569,40 @@
         <v>14</v>
       </c>
       <c r="AD60" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE60" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AF60" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG60" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH60" t="n">
         <v>29</v>
       </c>
       <c r="AI60" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ60" t="n">
         <v>11</v>
       </c>
       <c r="AK60" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL60" t="n">
         <v>34</v>
       </c>
       <c r="AM60" t="n">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AN60" t="n">
         <v>4.7</v>
       </c>
       <c r="AO60" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61">
@@ -8635,7 +8635,7 @@
         <v>2.28</v>
       </c>
       <c r="G61" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H61" t="n">
         <v>3.7</v>
@@ -8668,7 +8668,7 @@
         <v>2.5</v>
       </c>
       <c r="R61" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S61" t="n">
         <v>5</v>
@@ -8683,7 +8683,7 @@
         <v>1.33</v>
       </c>
       <c r="W61" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X61" t="n">
         <v>9.6</v>
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="G62" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H62" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I62" t="n">
         <v>4.9</v>
       </c>
       <c r="J62" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K62" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3.75</v>
       </c>
       <c r="L62" t="n">
         <v>1.41</v>
@@ -8815,10 +8815,10 @@
         <v>2.16</v>
       </c>
       <c r="V62" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W62" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="X62" t="n">
         <v>14</v>
@@ -8830,13 +8830,13 @@
         <v>34</v>
       </c>
       <c r="AA62" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB62" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC62" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD62" t="n">
         <v>17.5</v>
@@ -8851,7 +8851,7 @@
         <v>10</v>
       </c>
       <c r="AH62" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI62" t="n">
         <v>65</v>
@@ -8905,7 +8905,7 @@
         <v>4.2</v>
       </c>
       <c r="G63" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
         <v>1.85</v>
@@ -8914,10 +8914,10 @@
         <v>2.02</v>
       </c>
       <c r="J63" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K63" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L63" t="n">
         <v>1.35</v>
@@ -8944,16 +8944,16 @@
         <v>3.1</v>
       </c>
       <c r="T63" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U63" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V63" t="n">
         <v>1.99</v>
       </c>
       <c r="W63" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X63" t="n">
         <v>17</v>
@@ -9037,10 +9037,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H64" t="n">
         <v>3.95</v>
@@ -9082,13 +9082,13 @@
         <v>1.85</v>
       </c>
       <c r="U64" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V64" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W64" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X64" t="n">
         <v>13</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="G65" t="n">
         <v>1.95</v>
@@ -9181,13 +9181,13 @@
         <v>3.95</v>
       </c>
       <c r="I65" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J65" t="n">
         <v>4.1</v>
       </c>
       <c r="K65" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L65" t="n">
         <v>1.24</v>
@@ -9196,7 +9196,7 @@
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O65" t="n">
         <v>1.19</v>
@@ -9208,76 +9208,76 @@
         <v>1.57</v>
       </c>
       <c r="R65" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="S65" t="n">
-        <v>2.14</v>
+        <v>2.42</v>
       </c>
       <c r="T65" t="n">
-        <v>1.39</v>
+        <v>1.59</v>
       </c>
       <c r="U65" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V65" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W65" t="n">
         <v>2.04</v>
       </c>
       <c r="X65" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y65" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z65" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AA65" t="n">
         <v>1000</v>
       </c>
       <c r="AB65" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AC65" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE65" t="n">
         <v>1000</v>
       </c>
       <c r="AF65" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG65" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AH65" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AI65" t="n">
         <v>1000</v>
       </c>
       <c r="AJ65" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK65" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL65" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM65" t="n">
         <v>1000</v>
       </c>
       <c r="AN65" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="AO65" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="66">
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G66" t="n">
         <v>1.36</v>
@@ -9319,7 +9319,7 @@
         <v>14</v>
       </c>
       <c r="J66" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K66" t="n">
         <v>6</v>
@@ -9352,7 +9352,7 @@
         <v>2.24</v>
       </c>
       <c r="U66" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V66" t="n">
         <v>1.07</v>
@@ -9445,7 +9445,7 @@
         <v>2.94</v>
       </c>
       <c r="G67" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H67" t="n">
         <v>2.8</v>
@@ -9454,10 +9454,10 @@
         <v>2.86</v>
       </c>
       <c r="J67" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K67" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L67" t="n">
         <v>1.53</v>
@@ -9466,19 +9466,19 @@
         <v>1.11</v>
       </c>
       <c r="N67" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O67" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P67" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q67" t="n">
         <v>2.42</v>
       </c>
       <c r="R67" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S67" t="n">
         <v>4.8</v>
@@ -9487,19 +9487,19 @@
         <v>2</v>
       </c>
       <c r="U67" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V67" t="n">
         <v>1.53</v>
       </c>
       <c r="W67" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X67" t="n">
         <v>10</v>
       </c>
       <c r="Y67" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z67" t="n">
         <v>18</v>
@@ -9580,7 +9580,7 @@
         <v>1.88</v>
       </c>
       <c r="G68" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H68" t="n">
         <v>4</v>
@@ -9607,28 +9607,28 @@
         <v>1.18</v>
       </c>
       <c r="P68" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R68" t="n">
         <v>1.66</v>
       </c>
       <c r="S68" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="T68" t="n">
         <v>1.56</v>
       </c>
       <c r="U68" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V68" t="n">
         <v>1.31</v>
       </c>
       <c r="W68" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X68" t="n">
         <v>27</v>
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G69" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H69" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="I69" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J69" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K69" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L69" t="n">
         <v>1.22</v>
@@ -9739,31 +9739,31 @@
         <v>6.2</v>
       </c>
       <c r="O69" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P69" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="R69" t="n">
         <v>1.75</v>
       </c>
       <c r="S69" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="T69" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="U69" t="n">
         <v>2.72</v>
       </c>
       <c r="V69" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W69" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="X69" t="n">
         <v>32</v>
@@ -9772,7 +9772,7 @@
         <v>22</v>
       </c>
       <c r="Z69" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA69" t="n">
         <v>50</v>
@@ -9787,7 +9787,7 @@
         <v>15.5</v>
       </c>
       <c r="AE69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF69" t="n">
         <v>21</v>
@@ -9859,7 +9859,7 @@
         <v>4.2</v>
       </c>
       <c r="J70" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K70" t="n">
         <v>4.2</v>
@@ -9871,7 +9871,7 @@
         <v>1.05</v>
       </c>
       <c r="N70" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O70" t="n">
         <v>1.25</v>
@@ -9889,7 +9889,7 @@
         <v>2.84</v>
       </c>
       <c r="T70" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U70" t="n">
         <v>2.32</v>
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G71" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H71" t="n">
         <v>3.75</v>
@@ -9994,7 +9994,7 @@
         <v>3.8</v>
       </c>
       <c r="J71" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K71" t="n">
         <v>3.5</v>
@@ -10033,13 +10033,13 @@
         <v>1.35</v>
       </c>
       <c r="W71" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X71" t="n">
         <v>12</v>
       </c>
       <c r="Y71" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z71" t="n">
         <v>25</v>
@@ -10069,7 +10069,7 @@
         <v>19</v>
       </c>
       <c r="AI71" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ71" t="n">
         <v>28</v>
@@ -10078,13 +10078,13 @@
         <v>25</v>
       </c>
       <c r="AL71" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM71" t="n">
         <v>120</v>
       </c>
       <c r="AN71" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO71" t="n">
         <v>55</v>
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G72" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H72" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I72" t="n">
         <v>3.75</v>
       </c>
-      <c r="I72" t="n">
-        <v>3.85</v>
-      </c>
       <c r="J72" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K72" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3.65</v>
       </c>
       <c r="L72" t="n">
         <v>1.38</v>
@@ -10141,7 +10141,7 @@
         <v>1.06</v>
       </c>
       <c r="N72" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O72" t="n">
         <v>1.29</v>
@@ -10150,34 +10150,34 @@
         <v>2.06</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R72" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S72" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T72" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U72" t="n">
         <v>2.3</v>
       </c>
       <c r="V72" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W72" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X72" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z72" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA72" t="n">
         <v>70</v>
@@ -10186,10 +10186,10 @@
         <v>11</v>
       </c>
       <c r="AC72" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD72" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE72" t="n">
         <v>42</v>
@@ -10261,7 +10261,7 @@
         <v>5.6</v>
       </c>
       <c r="I73" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J73" t="n">
         <v>3.75</v>
@@ -10294,7 +10294,7 @@
         <v>4.4</v>
       </c>
       <c r="T73" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U73" t="n">
         <v>1.81</v>
@@ -10327,7 +10327,7 @@
         <v>23</v>
       </c>
       <c r="AE73" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AF73" t="n">
         <v>9.199999999999999</v>
@@ -10342,7 +10342,7 @@
         <v>110</v>
       </c>
       <c r="AJ73" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK73" t="n">
         <v>22</v>
@@ -10354,7 +10354,7 @@
         <v>180</v>
       </c>
       <c r="AN73" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO73" t="n">
         <v>150</v>
@@ -10399,7 +10399,7 @@
         <v>5.2</v>
       </c>
       <c r="J74" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K74" t="n">
         <v>3.8</v>
@@ -10417,7 +10417,7 @@
         <v>1.35</v>
       </c>
       <c r="P74" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q74" t="n">
         <v>2.04</v>
@@ -10426,13 +10426,13 @@
         <v>1.32</v>
       </c>
       <c r="S74" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T74" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U74" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V74" t="n">
         <v>1.25</v>
@@ -10462,7 +10462,7 @@
         <v>20</v>
       </c>
       <c r="AE74" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF74" t="n">
         <v>11</v>
@@ -10474,22 +10474,22 @@
         <v>21</v>
       </c>
       <c r="AI74" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ74" t="n">
         <v>21</v>
       </c>
       <c r="AK74" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL74" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM74" t="n">
         <v>140</v>
       </c>
       <c r="AN74" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO74" t="n">
         <v>95</v>
@@ -10522,10 +10522,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G75" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H75" t="n">
         <v>2.82</v>
@@ -10534,10 +10534,10 @@
         <v>3.25</v>
       </c>
       <c r="J75" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K75" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L75" t="n">
         <v>1.44</v>
@@ -10552,7 +10552,7 @@
         <v>1.36</v>
       </c>
       <c r="P75" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q75" t="n">
         <v>2.04</v>
@@ -10573,7 +10573,7 @@
         <v>1.45</v>
       </c>
       <c r="W75" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="X75" t="n">
         <v>15</v>
@@ -10582,7 +10582,7 @@
         <v>13</v>
       </c>
       <c r="Z75" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA75" t="n">
         <v>60</v>
@@ -10591,16 +10591,16 @@
         <v>12</v>
       </c>
       <c r="AC75" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD75" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE75" t="n">
         <v>42</v>
       </c>
       <c r="AF75" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG75" t="n">
         <v>14</v>
@@ -10624,10 +10624,10 @@
         <v>120</v>
       </c>
       <c r="AN75" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO75" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76">
@@ -10660,7 +10660,7 @@
         <v>2.14</v>
       </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H76" t="n">
         <v>3.7</v>
@@ -10669,10 +10669,10 @@
         <v>4.2</v>
       </c>
       <c r="J76" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K76" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L76" t="n">
         <v>1.48</v>
@@ -10687,10 +10687,10 @@
         <v>1.42</v>
       </c>
       <c r="P76" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R76" t="n">
         <v>1.26</v>
@@ -10708,7 +10708,7 @@
         <v>1.32</v>
       </c>
       <c r="W76" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X76" t="n">
         <v>13</v>
@@ -10792,16 +10792,16 @@
         </is>
       </c>
       <c r="F77" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G77" t="n">
         <v>4.9</v>
       </c>
-      <c r="G77" t="n">
-        <v>5</v>
-      </c>
       <c r="H77" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I77" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="J77" t="n">
         <v>4.2</v>
@@ -10825,7 +10825,7 @@
         <v>2.36</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R77" t="n">
         <v>1.54</v>
@@ -10840,34 +10840,34 @@
         <v>2.34</v>
       </c>
       <c r="V77" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="W77" t="n">
         <v>1.25</v>
       </c>
       <c r="X77" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y77" t="n">
         <v>11</v>
       </c>
       <c r="Z77" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB77" t="n">
         <v>21</v>
       </c>
       <c r="AC77" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD77" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE77" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF77" t="n">
         <v>40</v>
@@ -10879,13 +10879,13 @@
         <v>17</v>
       </c>
       <c r="AI77" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ77" t="n">
         <v>110</v>
       </c>
       <c r="AK77" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL77" t="n">
         <v>55</v>
@@ -10933,10 +10933,10 @@
         <v>1.27</v>
       </c>
       <c r="H78" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="I78" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J78" t="n">
         <v>7</v>
@@ -10954,31 +10954,31 @@
         <v>7</v>
       </c>
       <c r="O78" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R78" t="n">
         <v>1.81</v>
       </c>
       <c r="S78" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T78" t="n">
         <v>2.04</v>
       </c>
       <c r="U78" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V78" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W78" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="X78" t="n">
         <v>32</v>
@@ -10990,13 +10990,13 @@
         <v>150</v>
       </c>
       <c r="AA78" t="n">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="AB78" t="n">
         <v>11.5</v>
       </c>
       <c r="AC78" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD78" t="n">
         <v>50</v>
@@ -11011,10 +11011,10 @@
         <v>11.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI78" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ78" t="n">
         <v>9.800000000000001</v>
@@ -11029,10 +11029,10 @@
         <v>150</v>
       </c>
       <c r="AN78" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO78" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79">
@@ -11065,7 +11065,7 @@
         <v>5.5</v>
       </c>
       <c r="G79" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H79" t="n">
         <v>1.62</v>
@@ -11074,13 +11074,13 @@
         <v>1.77</v>
       </c>
       <c r="J79" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="K79" t="n">
         <v>4.5</v>
       </c>
       <c r="L79" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M79" t="n">
         <v>1.06</v>
@@ -11092,10 +11092,10 @@
         <v>1.3</v>
       </c>
       <c r="P79" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="R79" t="n">
         <v>1.35</v>
@@ -11104,16 +11104,16 @@
         <v>3.25</v>
       </c>
       <c r="T79" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U79" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V79" t="n">
         <v>2.28</v>
       </c>
       <c r="W79" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X79" t="n">
         <v>18</v>
@@ -11125,7 +11125,7 @@
         <v>11.5</v>
       </c>
       <c r="AA79" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB79" t="n">
         <v>23</v>
@@ -11149,7 +11149,7 @@
         <v>25</v>
       </c>
       <c r="AI79" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ79" t="n">
         <v>1000</v>
@@ -11167,7 +11167,7 @@
         <v>1000</v>
       </c>
       <c r="AO79" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="80">
@@ -11233,13 +11233,13 @@
         <v>1.69</v>
       </c>
       <c r="R80" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S80" t="n">
         <v>2.78</v>
       </c>
       <c r="T80" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U80" t="n">
         <v>1.78</v>
@@ -11260,7 +11260,7 @@
         <v>7.6</v>
       </c>
       <c r="AA80" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB80" t="n">
         <v>38</v>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G81" t="n">
         <v>1.2</v>
@@ -11341,7 +11341,7 @@
         <v>16</v>
       </c>
       <c r="I81" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="J81" t="n">
         <v>9.4</v>
@@ -11356,22 +11356,22 @@
         <v>1.02</v>
       </c>
       <c r="N81" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O81" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P81" t="n">
         <v>3.35</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R81" t="n">
         <v>1.96</v>
       </c>
       <c r="S81" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="T81" t="n">
         <v>2</v>
@@ -11383,16 +11383,16 @@
         <v>1.05</v>
       </c>
       <c r="W81" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X81" t="n">
         <v>55</v>
       </c>
       <c r="Y81" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Z81" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AA81" t="n">
         <v>1000</v>
@@ -11407,7 +11407,7 @@
         <v>60</v>
       </c>
       <c r="AE81" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AF81" t="n">
         <v>10</v>
@@ -11428,16 +11428,16 @@
         <v>13.5</v>
       </c>
       <c r="AL81" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM81" t="n">
         <v>190</v>
       </c>
       <c r="AN81" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO81" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82">
@@ -11473,7 +11473,7 @@
         <v>9.6</v>
       </c>
       <c r="H82" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="I82" t="n">
         <v>1.46</v>
@@ -11497,10 +11497,10 @@
         <v>1.23</v>
       </c>
       <c r="P82" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="R82" t="n">
         <v>1.49</v>
@@ -11608,7 +11608,7 @@
         <v>1.08</v>
       </c>
       <c r="H83" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I83" t="n">
         <v>65</v>
@@ -11635,16 +11635,16 @@
         <v>3.2</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R83" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S83" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T83" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="U83" t="n">
         <v>1.41</v>
@@ -11656,7 +11656,7 @@
         <v>13.5</v>
       </c>
       <c r="X83" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y83" t="n">
         <v>150</v>
@@ -11671,7 +11671,7 @@
         <v>11.5</v>
       </c>
       <c r="AC83" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AD83" t="n">
         <v>220</v>
@@ -11683,7 +11683,7 @@
         <v>7.2</v>
       </c>
       <c r="AG83" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH83" t="n">
         <v>140</v>
@@ -11704,7 +11704,7 @@
         <v>1000</v>
       </c>
       <c r="AN83" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="AO83" t="n">
         <v>1000</v>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G84" t="n">
         <v>2.48</v>
@@ -11746,43 +11746,43 @@
         <v>3</v>
       </c>
       <c r="I84" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J84" t="n">
         <v>3.55</v>
       </c>
-      <c r="J84" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K84" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L84" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M84" t="n">
         <v>1.05</v>
       </c>
       <c r="N84" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O84" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P84" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="R84" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="S84" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="T84" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="U84" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="V84" t="n">
         <v>1.4</v>
@@ -11791,10 +11791,10 @@
         <v>1.68</v>
       </c>
       <c r="X84" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y84" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z84" t="n">
         <v>28</v>
@@ -11803,7 +11803,7 @@
         <v>60</v>
       </c>
       <c r="AB84" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AC84" t="n">
         <v>10.5</v>
@@ -11815,7 +11815,7 @@
         <v>38</v>
       </c>
       <c r="AF84" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AG84" t="n">
         <v>13.5</v>
@@ -11890,7 +11890,7 @@
         <v>12.5</v>
       </c>
       <c r="L85" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="M85" t="n">
         <v>1.01</v>
@@ -12019,10 +12019,10 @@
         <v>3.05</v>
       </c>
       <c r="J86" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K86" t="n">
         <v>2.94</v>
-      </c>
-      <c r="K86" t="n">
-        <v>2.96</v>
       </c>
       <c r="L86" t="n">
         <v>1.73</v>
@@ -12034,10 +12034,10 @@
         <v>2.28</v>
       </c>
       <c r="O86" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="P86" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q86" t="n">
         <v>3.35</v>
@@ -12067,7 +12067,7 @@
         <v>7.4</v>
       </c>
       <c r="Z86" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA86" t="n">
         <v>60</v>
@@ -12082,16 +12082,16 @@
         <v>15.5</v>
       </c>
       <c r="AE86" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF86" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG86" t="n">
         <v>15.5</v>
       </c>
       <c r="AH86" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI86" t="n">
         <v>100</v>
@@ -12106,7 +12106,7 @@
         <v>100</v>
       </c>
       <c r="AM86" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AN86" t="n">
         <v>80</v>
@@ -12172,7 +12172,7 @@
         <v>1.5</v>
       </c>
       <c r="P87" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q87" t="n">
         <v>2.54</v>
@@ -12205,7 +12205,7 @@
         <v>20</v>
       </c>
       <c r="AA87" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="AB87" t="n">
         <v>8.6</v>
@@ -12217,16 +12217,16 @@
         <v>17.5</v>
       </c>
       <c r="AE87" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF87" t="n">
         <v>16.5</v>
       </c>
       <c r="AG87" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH87" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI87" t="n">
         <v>70</v>
@@ -12235,7 +12235,7 @@
         <v>46</v>
       </c>
       <c r="AK87" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL87" t="n">
         <v>60</v>
@@ -12244,7 +12244,7 @@
         <v>190</v>
       </c>
       <c r="AN87" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AO87" t="n">
         <v>60</v>
@@ -12295,7 +12295,7 @@
         <v>5.2</v>
       </c>
       <c r="L88" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M88" t="n">
         <v>1.03</v>
@@ -12319,10 +12319,10 @@
         <v>2.58</v>
       </c>
       <c r="T88" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U88" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V88" t="n">
         <v>1.15</v>
@@ -12418,16 +12418,16 @@
         <v>1.15</v>
       </c>
       <c r="H89" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I89" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J89" t="n">
         <v>11</v>
       </c>
       <c r="K89" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="L89" t="n">
         <v>1.21</v>
@@ -12436,43 +12436,43 @@
         <v>1.02</v>
       </c>
       <c r="N89" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="O89" t="n">
         <v>1.13</v>
       </c>
       <c r="P89" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="R89" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="S89" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T89" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="U89" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="V89" t="n">
         <v>1.03</v>
       </c>
       <c r="W89" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X89" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="Y89" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="Z89" t="n">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="AA89" t="n">
         <v>1000</v>
@@ -12481,13 +12481,13 @@
         <v>12.5</v>
       </c>
       <c r="AC89" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AD89" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AE89" t="n">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="AF89" t="n">
         <v>8.6</v>
@@ -12496,10 +12496,10 @@
         <v>14</v>
       </c>
       <c r="AH89" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AI89" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="AJ89" t="n">
         <v>8.6</v>
@@ -12514,7 +12514,7 @@
         <v>310</v>
       </c>
       <c r="AN89" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="AO89" t="n">
         <v>1000</v>
@@ -12550,7 +12550,7 @@
         <v>2.06</v>
       </c>
       <c r="G90" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H90" t="n">
         <v>3.65</v>
@@ -12598,13 +12598,13 @@
         <v>1.3</v>
       </c>
       <c r="W90" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="X90" t="n">
         <v>15.5</v>
       </c>
       <c r="Y90" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z90" t="n">
         <v>30</v>
@@ -12613,7 +12613,7 @@
         <v>80</v>
       </c>
       <c r="AB90" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC90" t="n">
         <v>8.6</v>
@@ -12625,7 +12625,7 @@
         <v>50</v>
       </c>
       <c r="AF90" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG90" t="n">
         <v>11.5</v>
@@ -12682,10 +12682,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G91" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H91" t="n">
         <v>14</v>
@@ -12703,7 +12703,7 @@
         <v>1.24</v>
       </c>
       <c r="M91" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N91" t="n">
         <v>5.5</v>
@@ -12727,7 +12727,7 @@
         <v>2.14</v>
       </c>
       <c r="U91" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V91" t="n">
         <v>1.06</v>
@@ -12736,7 +12736,7 @@
         <v>4.5</v>
       </c>
       <c r="X91" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y91" t="n">
         <v>50</v>
@@ -12751,7 +12751,7 @@
         <v>10.5</v>
       </c>
       <c r="AC91" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD91" t="n">
         <v>60</v>
@@ -12763,7 +12763,7 @@
         <v>8.6</v>
       </c>
       <c r="AG91" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH91" t="n">
         <v>40</v>
@@ -12778,7 +12778,7 @@
         <v>14.5</v>
       </c>
       <c r="AL91" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM91" t="n">
         <v>230</v>
@@ -12820,13 +12820,13 @@
         <v>1.85</v>
       </c>
       <c r="G92" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H92" t="n">
         <v>3.9</v>
       </c>
       <c r="I92" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J92" t="n">
         <v>3.75</v>
@@ -12844,31 +12844,31 @@
         <v>4.4</v>
       </c>
       <c r="O92" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P92" t="n">
         <v>2.16</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="R92" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S92" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T92" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U92" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V92" t="n">
         <v>1.27</v>
       </c>
       <c r="W92" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="X92" t="n">
         <v>23</v>
@@ -12886,7 +12886,7 @@
         <v>970</v>
       </c>
       <c r="AC92" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD92" t="n">
         <v>20</v>
@@ -12901,7 +12901,7 @@
         <v>970</v>
       </c>
       <c r="AH92" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AI92" t="n">
         <v>60</v>
@@ -12910,7 +12910,7 @@
         <v>26</v>
       </c>
       <c r="AK92" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL92" t="n">
         <v>36</v>
@@ -12952,16 +12952,16 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G93" t="n">
         <v>2.24</v>
       </c>
       <c r="H93" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I93" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J93" t="n">
         <v>3.3</v>
@@ -12970,13 +12970,13 @@
         <v>3.8</v>
       </c>
       <c r="L93" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M93" t="n">
         <v>1.07</v>
       </c>
       <c r="N93" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O93" t="n">
         <v>1.33</v>
@@ -12985,7 +12985,7 @@
         <v>1.82</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="R93" t="n">
         <v>1.31</v>
@@ -12994,13 +12994,13 @@
         <v>3.6</v>
       </c>
       <c r="T93" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U93" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V93" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W93" t="n">
         <v>1.8</v>
@@ -13090,16 +13090,16 @@
         <v>1.68</v>
       </c>
       <c r="G94" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H94" t="n">
         <v>5.9</v>
       </c>
       <c r="I94" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="J94" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K94" t="n">
         <v>3.95</v>
@@ -13111,10 +13111,10 @@
         <v>1.1</v>
       </c>
       <c r="N94" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O94" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P94" t="n">
         <v>1.6</v>
@@ -13126,10 +13126,10 @@
         <v>1.22</v>
       </c>
       <c r="S94" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T94" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U94" t="n">
         <v>1.68</v>
@@ -13144,7 +13144,7 @@
         <v>12</v>
       </c>
       <c r="Y94" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z94" t="n">
         <v>60</v>
@@ -13192,7 +13192,7 @@
         <v>19.5</v>
       </c>
       <c r="AO94" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95">
@@ -13222,10 +13222,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G95" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H95" t="n">
         <v>2.32</v>
@@ -13234,100 +13234,100 @@
         <v>2.38</v>
       </c>
       <c r="J95" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K95" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L95" t="n">
         <v>1.3</v>
       </c>
       <c r="M95" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N95" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O95" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P95" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="Q95" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T95" t="n">
         <v>1.62</v>
       </c>
-      <c r="R95" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S95" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T95" t="n">
-        <v>1.56</v>
-      </c>
       <c r="U95" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V95" t="n">
         <v>1.72</v>
       </c>
       <c r="W95" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X95" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y95" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AA95" t="n">
         <v>32</v>
       </c>
       <c r="AB95" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC95" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD95" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE95" t="n">
         <v>22</v>
       </c>
       <c r="AF95" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG95" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH95" t="n">
         <v>15</v>
       </c>
       <c r="AI95" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ95" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK95" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL95" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM95" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN95" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO95" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
@@ -13360,13 +13360,13 @@
         <v>2.48</v>
       </c>
       <c r="G96" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H96" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I96" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J96" t="n">
         <v>3.1</v>
@@ -13381,16 +13381,16 @@
         <v>1.1</v>
       </c>
       <c r="N96" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O96" t="n">
         <v>1.44</v>
       </c>
       <c r="P96" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R96" t="n">
         <v>1.24</v>
@@ -13399,16 +13399,16 @@
         <v>4.3</v>
       </c>
       <c r="T96" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="U96" t="n">
         <v>1.94</v>
       </c>
       <c r="V96" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W96" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X96" t="n">
         <v>10</v>
@@ -13429,7 +13429,7 @@
         <v>7.2</v>
       </c>
       <c r="AD96" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE96" t="n">
         <v>50</v>
@@ -13459,7 +13459,7 @@
         <v>150</v>
       </c>
       <c r="AN96" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO96" t="n">
         <v>55</v>
@@ -13498,13 +13498,13 @@
         <v>5.8</v>
       </c>
       <c r="H97" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="I97" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="J97" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K97" t="n">
         <v>4.8</v>
@@ -13513,7 +13513,7 @@
         <v>1.29</v>
       </c>
       <c r="M97" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N97" t="n">
         <v>5.7</v>
@@ -13540,10 +13540,10 @@
         <v>2.38</v>
       </c>
       <c r="V97" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="W97" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X97" t="n">
         <v>24</v>
@@ -13555,40 +13555,40 @@
         <v>11.5</v>
       </c>
       <c r="AA97" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB97" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC97" t="n">
         <v>10.5</v>
       </c>
       <c r="AD97" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE97" t="n">
         <v>14.5</v>
       </c>
       <c r="AF97" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG97" t="n">
         <v>21</v>
       </c>
       <c r="AH97" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI97" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ97" t="n">
         <v>130</v>
       </c>
       <c r="AK97" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL97" t="n">
         <v>60</v>
-      </c>
-      <c r="AL97" t="n">
-        <v>55</v>
       </c>
       <c r="AM97" t="n">
         <v>75</v>
@@ -13630,19 +13630,19 @@
         <v>8.4</v>
       </c>
       <c r="G98" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H98" t="n">
         <v>1.5</v>
       </c>
       <c r="I98" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="J98" t="n">
         <v>4.5</v>
       </c>
       <c r="K98" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L98" t="n">
         <v>1.45</v>
@@ -13654,7 +13654,7 @@
         <v>3.65</v>
       </c>
       <c r="O98" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P98" t="n">
         <v>1.9</v>
@@ -13663,7 +13663,7 @@
         <v>2.06</v>
       </c>
       <c r="R98" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S98" t="n">
         <v>3.8</v>
@@ -13675,10 +13675,10 @@
         <v>1.75</v>
       </c>
       <c r="V98" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="W98" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X98" t="n">
         <v>14</v>
@@ -13714,16 +13714,16 @@
         <v>29</v>
       </c>
       <c r="AI98" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ98" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AK98" t="n">
         <v>150</v>
       </c>
       <c r="AL98" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AM98" t="n">
         <v>200</v>
@@ -13732,7 +13732,7 @@
         <v>220</v>
       </c>
       <c r="AO98" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
@@ -13765,19 +13765,19 @@
         <v>2.66</v>
       </c>
       <c r="G99" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="I99" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J99" t="n">
         <v>2.7</v>
       </c>
       <c r="K99" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="L99" t="n">
         <v>1.73</v>
@@ -13786,13 +13786,13 @@
         <v>1.01</v>
       </c>
       <c r="N99" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="O99" t="n">
         <v>1.79</v>
       </c>
       <c r="P99" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q99" t="n">
         <v>3.4</v>
@@ -13804,16 +13804,16 @@
         <v>3.45</v>
       </c>
       <c r="T99" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U99" t="n">
         <v>1.01</v>
       </c>
       <c r="V99" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W99" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X99" t="n">
         <v>7.4</v>
@@ -13840,7 +13840,7 @@
         <v>1000</v>
       </c>
       <c r="AF99" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG99" t="n">
         <v>1000</v>
@@ -13906,10 +13906,10 @@
         <v>3.65</v>
       </c>
       <c r="I100" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="K100" t="n">
         <v>3.6</v>
@@ -13921,22 +13921,22 @@
         <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="O100" t="n">
         <v>1.01</v>
       </c>
       <c r="P100" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.02</v>
+        <v>2.44</v>
       </c>
       <c r="R100" t="n">
         <v>1.13</v>
       </c>
       <c r="S100" t="n">
-        <v>1.54</v>
+        <v>2.44</v>
       </c>
       <c r="T100" t="n">
         <v>1.01</v>
@@ -13945,7 +13945,7 @@
         <v>1.01</v>
       </c>
       <c r="V100" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W100" t="n">
         <v>1.64</v>
@@ -14038,7 +14038,7 @@
         <v>1.57</v>
       </c>
       <c r="H101" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="I101" t="n">
         <v>10</v>
@@ -14047,13 +14047,13 @@
         <v>3.8</v>
       </c>
       <c r="K101" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="L101" t="n">
         <v>1.01</v>
       </c>
       <c r="M101" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N101" t="n">
         <v>3.25</v>
@@ -14167,22 +14167,22 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G102" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="H102" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I102" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J102" t="n">
         <v>3.25</v>
       </c>
       <c r="K102" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L102" t="n">
         <v>1.54</v>
@@ -14191,37 +14191,37 @@
         <v>1.11</v>
       </c>
       <c r="N102" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O102" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P102" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R102" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S102" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T102" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U102" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="V102" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W102" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="X102" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Y102" t="n">
         <v>11</v>
@@ -14233,31 +14233,31 @@
         <v>80</v>
       </c>
       <c r="AB102" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC102" t="n">
         <v>7.2</v>
       </c>
       <c r="AD102" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE102" t="n">
         <v>55</v>
       </c>
       <c r="AF102" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG102" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH102" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI102" t="n">
         <v>75</v>
       </c>
       <c r="AJ102" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK102" t="n">
         <v>28</v>
@@ -14269,10 +14269,10 @@
         <v>150</v>
       </c>
       <c r="AN102" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO102" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103">
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G103" t="n">
         <v>2.5</v>
@@ -14317,7 +14317,7 @@
         <v>3.45</v>
       </c>
       <c r="K103" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L103" t="n">
         <v>1.37</v>
@@ -14335,25 +14335,25 @@
         <v>2.1</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R103" t="n">
         <v>1.44</v>
       </c>
       <c r="S103" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T103" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U103" t="n">
         <v>2.32</v>
       </c>
       <c r="V103" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W103" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X103" t="n">
         <v>19.5</v>
@@ -14362,7 +14362,7 @@
         <v>14.5</v>
       </c>
       <c r="Z103" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA103" t="n">
         <v>55</v>
@@ -14440,7 +14440,7 @@
         <v>14.5</v>
       </c>
       <c r="G104" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="H104" t="n">
         <v>1.25</v>
@@ -14461,28 +14461,28 @@
         <v>1.05</v>
       </c>
       <c r="N104" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O104" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P104" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R104" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S104" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T104" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="U104" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="V104" t="n">
         <v>4.7</v>
@@ -14530,16 +14530,16 @@
         <v>1000</v>
       </c>
       <c r="AK104" t="n">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="AL104" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="AM104" t="n">
         <v>480</v>
       </c>
       <c r="AN104" t="n">
-        <v>990</v>
+        <v>920</v>
       </c>
       <c r="AO104" t="n">
         <v>5.8</v>
@@ -14575,13 +14575,13 @@
         <v>2.54</v>
       </c>
       <c r="G105" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="H105" t="n">
         <v>2.94</v>
       </c>
       <c r="I105" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="J105" t="n">
         <v>2.96</v>
@@ -14707,31 +14707,31 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="G106" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H106" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="I106" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="J106" t="n">
         <v>3.6</v>
       </c>
       <c r="K106" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="L106" t="n">
         <v>1.35</v>
       </c>
       <c r="M106" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N106" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="O106" t="n">
         <v>1.33</v>
@@ -14743,73 +14743,73 @@
         <v>2</v>
       </c>
       <c r="R106" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="S106" t="n">
         <v>3.2</v>
       </c>
       <c r="T106" t="n">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="U106" t="n">
-        <v>1.62</v>
+        <v>1.89</v>
       </c>
       <c r="V106" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="W106" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="X106" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y106" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z106" t="n">
         <v>1000</v>
       </c>
       <c r="AA106" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB106" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC106" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF106" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD106" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF106" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG106" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH106" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI106" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ106" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AK106" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL106" t="n">
         <v>1000</v>
       </c>
       <c r="AM106" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN106" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO106" t="n">
         <v>1000</v>
@@ -14860,7 +14860,7 @@
         <v>3.8</v>
       </c>
       <c r="L107" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M107" t="n">
         <v>1.08</v>
@@ -14887,7 +14887,7 @@
         <v>1.89</v>
       </c>
       <c r="U107" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V107" t="n">
         <v>2</v>
@@ -14932,7 +14932,7 @@
         <v>40</v>
       </c>
       <c r="AJ107" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK107" t="n">
         <v>80</v>
@@ -15112,10 +15112,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G109" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H109" t="n">
         <v>6.6</v>
@@ -15130,7 +15130,7 @@
         <v>3.9</v>
       </c>
       <c r="L109" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="M109" t="n">
         <v>1.1</v>
@@ -15142,22 +15142,22 @@
         <v>1.49</v>
       </c>
       <c r="P109" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R109" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S109" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="T109" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="U109" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="V109" t="n">
         <v>1.14</v>
@@ -15166,7 +15166,7 @@
         <v>2.32</v>
       </c>
       <c r="X109" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y109" t="n">
         <v>18</v>
@@ -15349,7 +15349,7 @@
         <v>350</v>
       </c>
       <c r="AN110" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO110" t="n">
         <v>480</v>
@@ -15652,61 +15652,61 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="G113" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="H113" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="I113" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="J113" t="n">
         <v>3.55</v>
       </c>
       <c r="K113" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L113" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M113" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N113" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O113" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P113" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R113" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S113" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T113" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U113" t="n">
         <v>1.76</v>
       </c>
       <c r="V113" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W113" t="n">
         <v>2.44</v>
       </c>
       <c r="X113" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y113" t="n">
         <v>1000</v>
@@ -15721,16 +15721,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC113" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD113" t="n">
         <v>1000</v>
       </c>
       <c r="AE113" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF113" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG113" t="n">
         <v>12</v>
@@ -15922,22 +15922,22 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="G115" t="n">
-        <v>970</v>
+        <v>2.28</v>
       </c>
       <c r="H115" t="n">
-        <v>1.04</v>
+        <v>4.1</v>
       </c>
       <c r="I115" t="n">
-        <v>980</v>
+        <v>6.6</v>
       </c>
       <c r="J115" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="K115" t="n">
-        <v>950</v>
+        <v>4.3</v>
       </c>
       <c r="L115" t="n">
         <v>1.01</v>
@@ -15946,22 +15946,22 @@
         <v>1.01</v>
       </c>
       <c r="N115" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="O115" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="P115" t="n">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.38</v>
+        <v>2.12</v>
       </c>
       <c r="R115" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S115" t="n">
-        <v>1.38</v>
+        <v>3.7</v>
       </c>
       <c r="T115" t="n">
         <v>1.01</v>
@@ -15970,10 +15970,10 @@
         <v>1.01</v>
       </c>
       <c r="V115" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W115" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="X115" t="n">
         <v>1000</v>
@@ -16192,16 +16192,16 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="G117" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H117" t="n">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="I117" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="J117" t="n">
         <v>2.9</v>
@@ -16240,34 +16240,34 @@
         <v>1.74</v>
       </c>
       <c r="V117" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="W117" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="X117" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="Y117" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z117" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA117" t="n">
         <v>60</v>
       </c>
       <c r="AB117" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC117" t="n">
         <v>7.2</v>
       </c>
       <c r="AD117" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AE117" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF117" t="n">
         <v>970</v>
@@ -16282,7 +16282,7 @@
         <v>75</v>
       </c>
       <c r="AJ117" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK117" t="n">
         <v>55</v>
@@ -16294,7 +16294,7 @@
         <v>250</v>
       </c>
       <c r="AN117" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO117" t="n">
         <v>55</v>
@@ -16336,7 +16336,7 @@
         <v>3.35</v>
       </c>
       <c r="I118" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J118" t="n">
         <v>3.1</v>
@@ -16345,7 +16345,7 @@
         <v>3.45</v>
       </c>
       <c r="L118" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="M118" t="n">
         <v>1.1</v>
@@ -16357,7 +16357,7 @@
         <v>1.44</v>
       </c>
       <c r="P118" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q118" t="n">
         <v>2.28</v>
@@ -16366,7 +16366,7 @@
         <v>1.24</v>
       </c>
       <c r="S118" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T118" t="n">
         <v>1.94</v>
@@ -16375,7 +16375,7 @@
         <v>1.92</v>
       </c>
       <c r="V118" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W118" t="n">
         <v>1.64</v>
@@ -16429,7 +16429,7 @@
         <v>160</v>
       </c>
       <c r="AN118" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO118" t="n">
         <v>70</v>
@@ -16462,16 +16462,16 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G119" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="H119" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I119" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J119" t="n">
         <v>3</v>
@@ -16510,10 +16510,10 @@
         <v>1.77</v>
       </c>
       <c r="V119" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W119" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="X119" t="n">
         <v>9</v>
@@ -16528,7 +16528,7 @@
         <v>80</v>
       </c>
       <c r="AB119" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC119" t="n">
         <v>8.199999999999999</v>
@@ -16540,7 +16540,7 @@
         <v>65</v>
       </c>
       <c r="AF119" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG119" t="n">
         <v>14.5</v>
@@ -16552,10 +16552,10 @@
         <v>95</v>
       </c>
       <c r="AJ119" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK119" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL119" t="n">
         <v>75</v>
@@ -16564,7 +16564,7 @@
         <v>210</v>
       </c>
       <c r="AN119" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO119" t="n">
         <v>90</v>
@@ -16624,19 +16624,19 @@
         <v>1.25</v>
       </c>
       <c r="O120" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P120" t="n">
         <v>1.24</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="R120" t="n">
         <v>1.18</v>
       </c>
       <c r="S120" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="T120" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G2" t="n">
         <v>5.9</v>
       </c>
       <c r="H2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="I2" t="n">
         <v>1.66</v>
@@ -691,25 +691,25 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R2" t="n">
         <v>1.58</v>
       </c>
       <c r="S2" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U2" t="n">
         <v>2.28</v>
@@ -721,7 +721,7 @@
         <v>1.2</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -742,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>48</v>
@@ -751,7 +751,7 @@
         <v>22</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
         <v>27</v>
@@ -763,7 +763,7 @@
         <v>65</v>
       </c>
       <c r="AL2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
         <v>80</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="G3" t="n">
         <v>1.14</v>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="n">
         <v>32</v>
       </c>
       <c r="J3" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="K3" t="n">
         <v>12.5</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.08</v>
@@ -841,13 +841,13 @@
         <v>2.36</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="T3" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
         <v>1.03</v>
@@ -856,10 +856,10 @@
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>38</v>
       </c>
       <c r="AD3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -892,13 +892,13 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK3" t="n">
         <v>15.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
         <v>12</v>
@@ -958,7 +958,7 @@
         <v>1.17</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
         <v>10</v>
@@ -970,7 +970,7 @@
         <v>4.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="R4" t="n">
         <v>2.3</v>
@@ -1009,7 +1009,7 @@
         <v>21</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AK4" t="n">
         <v>120</v>
@@ -1039,7 +1039,7 @@
         <v>75</v>
       </c>
       <c r="AN4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="n">
         <v>2.9</v>
@@ -1075,10 +1075,10 @@
         <v>2.64</v>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I5" t="n">
         <v>3.05</v>
@@ -1114,7 +1114,7 @@
         <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U5" t="n">
         <v>2.12</v>
@@ -1123,7 +1123,7 @@
         <v>1.48</v>
       </c>
       <c r="W5" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
@@ -1216,7 +1216,7 @@
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>3.45</v>
@@ -1225,22 +1225,22 @@
         <v>3.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
         <v>3.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R6" t="n">
         <v>1.37</v>
@@ -1249,13 +1249,13 @@
         <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
         <v>1.78</v>
@@ -1264,22 +1264,22 @@
         <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
         <v>28</v>
       </c>
       <c r="AA6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="n">
         <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AE6" t="n">
         <v>48</v>
@@ -1291,16 +1291,16 @@
         <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
         <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
         <v>42</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H7" t="n">
         <v>4.4</v>
@@ -1354,10 +1354,10 @@
         <v>4.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.41</v>
@@ -1375,13 +1375,13 @@
         <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
         <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
         <v>1.79</v>
@@ -1393,61 +1393,61 @@
         <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X7" t="n">
         <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="n">
         <v>120</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
         <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
         <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H8" t="n">
         <v>5.2</v>
@@ -1489,25 +1489,25 @@
         <v>6.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
         <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q8" t="n">
         <v>2.08</v>
@@ -1516,13 +1516,13 @@
         <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="V8" t="n">
         <v>1.2</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD8" t="n">
         <v>25</v>
@@ -1555,7 +1555,7 @@
         <v>100</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AG8" t="n">
         <v>970</v>
@@ -1570,7 +1570,7 @@
         <v>22</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
         <v>48</v>
@@ -1612,28 +1612,28 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
         <v>3.7</v>
@@ -1642,37 +1642,37 @@
         <v>1.31</v>
       </c>
       <c r="P9" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R9" t="n">
         <v>1.35</v>
       </c>
       <c r="S9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U9" t="n">
         <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>15.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
         <v>14.5</v>
@@ -1696,7 +1696,7 @@
         <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1753,7 +1753,7 @@
         <v>4.7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I10" t="n">
         <v>1.85</v>
@@ -1771,37 +1771,37 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="Q10" t="n">
         <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S10" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U10" t="n">
         <v>2.48</v>
       </c>
-      <c r="T10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.46</v>
-      </c>
       <c r="V10" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="W10" t="n">
         <v>1.27</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
@@ -1810,7 +1810,7 @@
         <v>13.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB10" t="n">
         <v>23</v>
@@ -1822,31 +1822,31 @@
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF10" t="n">
         <v>38</v>
       </c>
       <c r="AG10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ10" t="n">
         <v>90</v>
       </c>
       <c r="AK10" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL10" t="n">
         <v>46</v>
       </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN10" t="n">
         <v>36</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -1906,7 +1906,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O11" t="n">
         <v>1.21</v>
@@ -1918,7 +1918,7 @@
         <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S11" t="n">
         <v>2.54</v>
@@ -1930,13 +1930,13 @@
         <v>2.48</v>
       </c>
       <c r="V11" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
         <v>15.5</v>
@@ -1945,25 +1945,25 @@
         <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AB11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG11" t="n">
         <v>14</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>16</v>
@@ -1972,16 +1972,16 @@
         <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN11" t="n">
         <v>19</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G12" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H12" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I12" t="n">
         <v>4.8</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.05</v>
@@ -2044,10 +2044,10 @@
         <v>2.72</v>
       </c>
       <c r="O12" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P12" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q12" t="n">
         <v>2.74</v>
@@ -2059,16 +2059,16 @@
         <v>5.8</v>
       </c>
       <c r="T12" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="X12" t="n">
         <v>8.199999999999999</v>
@@ -2089,7 +2089,7 @@
         <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE12" t="n">
         <v>85</v>
@@ -2110,19 +2110,19 @@
         <v>26</v>
       </c>
       <c r="AK12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL12" t="n">
         <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="n">
         <v>27</v>
       </c>
       <c r="AO12" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -2197,7 +2197,7 @@
         <v>2.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="V13" t="n">
         <v>3.25</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G14" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="H14" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I14" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>1.26</v>
@@ -2317,16 +2317,16 @@
         <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T14" t="n">
         <v>1.76</v>
@@ -2335,22 +2335,22 @@
         <v>2.16</v>
       </c>
       <c r="V14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W14" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="X14" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z14" t="n">
         <v>60</v>
       </c>
       <c r="AA14" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB14" t="n">
         <v>970</v>
@@ -2359,7 +2359,7 @@
         <v>970</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
         <v>80</v>
@@ -2371,13 +2371,13 @@
         <v>970</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>75</v>
       </c>
       <c r="AJ14" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AK14" t="n">
         <v>970</v>
@@ -2389,10 +2389,10 @@
         <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AO14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G15" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H15" t="n">
         <v>2.74</v>
@@ -2440,28 +2440,28 @@
         <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R15" t="n">
         <v>1.38</v>
       </c>
       <c r="S15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T15" t="n">
         <v>1.76</v>
@@ -2476,37 +2476,37 @@
         <v>1.54</v>
       </c>
       <c r="X15" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
         <v>55</v>
       </c>
       <c r="AB15" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>38</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
         <v>50</v>
@@ -2515,7 +2515,7 @@
         <v>50</v>
       </c>
       <c r="AK15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
         <v>48</v>
@@ -2524,10 +2524,10 @@
         <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="H16" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.43</v>
@@ -2581,19 +2581,19 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R16" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="S16" t="n">
         <v>3.6</v>
@@ -2602,19 +2602,19 @@
         <v>1.79</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
         <v>1.51</v>
       </c>
       <c r="W16" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
         <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
         <v>23</v>
@@ -2626,7 +2626,7 @@
         <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
         <v>15</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G17" t="n">
         <v>1.65</v>
@@ -2710,7 +2710,7 @@
         <v>5.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -2725,7 +2725,7 @@
         <v>2.22</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="R17" t="n">
         <v>1.48</v>
@@ -2743,7 +2743,7 @@
         <v>1.15</v>
       </c>
       <c r="W17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X17" t="n">
         <v>25</v>
@@ -2836,16 +2836,16 @@
         <v>2.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -2854,19 +2854,19 @@
         <v>3.15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P18" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
         <v>1.29</v>
       </c>
       <c r="S18" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="T18" t="n">
         <v>1.83</v>
@@ -2875,52 +2875,52 @@
         <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="W18" t="n">
         <v>1.41</v>
       </c>
       <c r="X18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD18" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y18" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>14</v>
-      </c>
       <c r="AE18" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF18" t="n">
         <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ18" t="n">
         <v>70</v>
       </c>
       <c r="AK18" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL18" t="n">
         <v>65</v>
@@ -2929,7 +2929,7 @@
         <v>130</v>
       </c>
       <c r="AN18" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO18" t="n">
         <v>32</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G19" t="n">
         <v>3.4</v>
@@ -2971,13 +2971,13 @@
         <v>2.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J19" t="n">
         <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
         <v>1.43</v>
@@ -2986,40 +2986,40 @@
         <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O19" t="n">
         <v>1.48</v>
       </c>
       <c r="P19" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="R19" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S19" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T19" t="n">
         <v>1.89</v>
       </c>
       <c r="U19" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V19" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="W19" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X19" t="n">
         <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Z19" t="n">
         <v>970</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.5</v>
       </c>
-      <c r="H20" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
         <v>1.41</v>
@@ -3124,73 +3124,73 @@
         <v>3.55</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R20" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S20" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U20" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V20" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="W20" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X20" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD20" t="n">
         <v>12</v>
       </c>
-      <c r="Z20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AE20" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ20" t="n">
         <v>65</v>
       </c>
       <c r="AK20" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL20" t="n">
         <v>55</v>
@@ -3202,7 +3202,7 @@
         <v>42</v>
       </c>
       <c r="AO20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G21" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H21" t="n">
         <v>2.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L21" t="n">
         <v>1.32</v>
@@ -3265,10 +3265,10 @@
         <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="R21" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="S21" t="n">
         <v>3.15</v>
@@ -3277,10 +3277,10 @@
         <v>1.74</v>
       </c>
       <c r="U21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W21" t="n">
         <v>1.35</v>
@@ -3298,7 +3298,7 @@
         <v>28</v>
       </c>
       <c r="AB21" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AC21" t="n">
         <v>970</v>
@@ -3307,7 +3307,7 @@
         <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
         <v>26</v>
@@ -3325,7 +3325,7 @@
         <v>70</v>
       </c>
       <c r="AK21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL21" t="n">
         <v>48</v>
@@ -3373,7 +3373,7 @@
         <v>2.34</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I22" t="n">
         <v>3.4</v>
@@ -3391,40 +3391,40 @@
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O22" t="n">
         <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R22" t="n">
         <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T22" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U22" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V22" t="n">
         <v>1.41</v>
       </c>
       <c r="W22" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X22" t="n">
         <v>20</v>
       </c>
       <c r="Y22" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z22" t="n">
         <v>30</v>
@@ -3505,13 +3505,13 @@
         <v>2.56</v>
       </c>
       <c r="G23" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J23" t="n">
         <v>3.45</v>
@@ -3526,7 +3526,7 @@
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O23" t="n">
         <v>1.34</v>
@@ -3535,43 +3535,43 @@
         <v>1.93</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R23" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S23" t="n">
         <v>3.6</v>
       </c>
       <c r="T23" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U23" t="n">
         <v>2.2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W23" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="X23" t="n">
         <v>970</v>
       </c>
       <c r="Y23" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="n">
         <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD23" t="n">
         <v>970</v>
@@ -3607,7 +3607,7 @@
         <v>24</v>
       </c>
       <c r="AO23" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
@@ -3640,37 +3640,37 @@
         <v>3.2</v>
       </c>
       <c r="G24" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="I24" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K24" t="n">
         <v>3.8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P24" t="n">
         <v>2.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R24" t="n">
         <v>1.48</v>
@@ -3682,43 +3682,43 @@
         <v>1.66</v>
       </c>
       <c r="U24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V24" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W24" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA24" t="n">
         <v>30</v>
       </c>
       <c r="AB24" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE24" t="n">
         <v>23</v>
       </c>
       <c r="AF24" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG24" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
         <v>15.5</v>
@@ -3730,16 +3730,16 @@
         <v>55</v>
       </c>
       <c r="AK24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="n">
         <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO24" t="n">
         <v>14.5</v>
@@ -3772,25 +3772,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G25" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="H25" t="n">
         <v>5.1</v>
       </c>
       <c r="I25" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J25" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K25" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -3805,7 +3805,7 @@
         <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="R25" t="n">
         <v>1.39</v>
@@ -3823,10 +3823,10 @@
         <v>1.21</v>
       </c>
       <c r="W25" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="X25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y25" t="n">
         <v>22</v>
@@ -3835,7 +3835,7 @@
         <v>50</v>
       </c>
       <c r="AA25" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB25" t="n">
         <v>10.5</v>
@@ -3844,7 +3844,7 @@
         <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE25" t="n">
         <v>85</v>
@@ -3913,13 +3913,13 @@
         <v>1.27</v>
       </c>
       <c r="H26" t="n">
+        <v>14</v>
+      </c>
+      <c r="I26" t="n">
         <v>14.5</v>
       </c>
-      <c r="I26" t="n">
-        <v>15</v>
-      </c>
       <c r="J26" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K26" t="n">
         <v>7.2</v>
@@ -3931,19 +3931,19 @@
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O26" t="n">
         <v>1.16</v>
       </c>
       <c r="P26" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="Q26" t="n">
         <v>1.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="S26" t="n">
         <v>2.26</v>
@@ -3952,7 +3952,7 @@
         <v>2.02</v>
       </c>
       <c r="U26" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V26" t="n">
         <v>1.07</v>
@@ -3997,19 +3997,19 @@
         <v>150</v>
       </c>
       <c r="AJ26" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AK26" t="n">
         <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM26" t="n">
         <v>150</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AO26" t="n">
         <v>200</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="G27" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="H27" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L27" t="n">
         <v>1.36</v>
@@ -4072,7 +4072,7 @@
         <v>1.27</v>
       </c>
       <c r="P27" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q27" t="n">
         <v>1.78</v>
@@ -4084,16 +4084,16 @@
         <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U27" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V27" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W27" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X27" t="n">
         <v>17.5</v>
@@ -4126,7 +4126,7 @@
         <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
         <v>65</v>
@@ -4144,7 +4144,7 @@
         <v>95</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO27" t="n">
         <v>65</v>
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G28" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="H28" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I28" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="J28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K28" t="n">
         <v>4</v>
@@ -4201,34 +4201,34 @@
         <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P28" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R28" t="n">
         <v>1.57</v>
       </c>
       <c r="S28" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T28" t="n">
         <v>1.56</v>
       </c>
       <c r="U28" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="V28" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W28" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="X28" t="n">
         <v>24</v>
@@ -4243,7 +4243,7 @@
         <v>40</v>
       </c>
       <c r="AB28" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC28" t="n">
         <v>9.800000000000001</v>
@@ -4261,7 +4261,7 @@
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AI28" t="n">
         <v>32</v>
@@ -4276,7 +4276,7 @@
         <v>32</v>
       </c>
       <c r="AM28" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN28" t="n">
         <v>17</v>
@@ -4459,7 +4459,7 @@
         <v>1000</v>
       </c>
       <c r="J30" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K30" t="n">
         <v>950</v>
@@ -4471,7 +4471,7 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.24</v>
+        <v>1.03</v>
       </c>
       <c r="O30" t="n">
         <v>1.01</v>
@@ -4594,7 +4594,7 @@
         <v>1000</v>
       </c>
       <c r="J31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K31" t="n">
         <v>950</v>
@@ -4606,7 +4606,7 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.24</v>
+        <v>1.03</v>
       </c>
       <c r="O31" t="n">
         <v>1.01</v>
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G32" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H32" t="n">
         <v>4.6</v>
@@ -4753,16 +4753,16 @@
         <v>1.79</v>
       </c>
       <c r="R32" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="S32" t="n">
         <v>3.05</v>
       </c>
       <c r="T32" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U32" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V32" t="n">
         <v>1.25</v>
@@ -4771,10 +4771,10 @@
         <v>2.16</v>
       </c>
       <c r="X32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y32" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="n">
         <v>40</v>
@@ -4786,7 +4786,7 @@
         <v>10.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD32" t="n">
         <v>18.5</v>
@@ -4852,25 +4852,25 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H33" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M33" t="n">
         <v>1.11</v>
@@ -4891,7 +4891,7 @@
         <v>1.2</v>
       </c>
       <c r="S33" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="T33" t="n">
         <v>2.24</v>
@@ -4900,16 +4900,16 @@
         <v>1.68</v>
       </c>
       <c r="V33" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W33" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="X33" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y33" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z33" t="n">
         <v>60</v>
@@ -4918,7 +4918,7 @@
         <v>260</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC33" t="n">
         <v>9.800000000000001</v>
@@ -4930,10 +4930,10 @@
         <v>150</v>
       </c>
       <c r="AF33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG33" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>13</v>
       </c>
       <c r="AH33" t="n">
         <v>34</v>
@@ -4942,10 +4942,10 @@
         <v>170</v>
       </c>
       <c r="AJ33" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK33" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AL33" t="n">
         <v>70</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G34" t="n">
         <v>2.22</v>
@@ -5002,7 +5002,7 @@
         <v>3.3</v>
       </c>
       <c r="K34" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L34" t="n">
         <v>1.44</v>
@@ -5125,58 +5125,58 @@
         <v>1.67</v>
       </c>
       <c r="G35" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="H35" t="n">
         <v>5.6</v>
       </c>
       <c r="I35" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K35" t="n">
         <v>4.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O35" t="n">
         <v>1.36</v>
       </c>
       <c r="P35" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q35" t="n">
         <v>2.06</v>
       </c>
       <c r="R35" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S35" t="n">
         <v>3.75</v>
       </c>
       <c r="T35" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U35" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V35" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W35" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="X35" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y35" t="n">
         <v>1000</v>
@@ -5188,7 +5188,7 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC35" t="n">
         <v>10</v>
@@ -5200,7 +5200,7 @@
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG35" t="n">
         <v>12</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G36" t="n">
         <v>2.86</v>
@@ -5266,10 +5266,10 @@
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J36" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
         <v>3.3</v>
@@ -5281,7 +5281,7 @@
         <v>1.11</v>
       </c>
       <c r="N36" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O36" t="n">
         <v>1.48</v>
@@ -5296,7 +5296,7 @@
         <v>1.21</v>
       </c>
       <c r="S36" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="T36" t="n">
         <v>2</v>
@@ -5305,10 +5305,10 @@
         <v>1.86</v>
       </c>
       <c r="V36" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W36" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X36" t="n">
         <v>11.5</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="G37" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H37" t="n">
         <v>4.7</v>
       </c>
       <c r="I37" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J37" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="K37" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.24</v>
@@ -5416,40 +5416,40 @@
         <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P37" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q37" t="n">
         <v>1.46</v>
       </c>
       <c r="R37" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="S37" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="T37" t="n">
         <v>1.53</v>
       </c>
       <c r="U37" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="V37" t="n">
         <v>1.26</v>
       </c>
       <c r="W37" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="X37" t="n">
         <v>32</v>
       </c>
       <c r="Y37" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z37" t="n">
         <v>46</v>
@@ -5458,7 +5458,7 @@
         <v>100</v>
       </c>
       <c r="AB37" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC37" t="n">
         <v>11.5</v>
@@ -5467,22 +5467,22 @@
         <v>19</v>
       </c>
       <c r="AE37" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF37" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG37" t="n">
         <v>10.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI37" t="n">
         <v>42</v>
       </c>
       <c r="AJ37" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AK37" t="n">
         <v>15.5</v>
@@ -5491,10 +5491,10 @@
         <v>23</v>
       </c>
       <c r="AM37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN37" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AO37" t="n">
         <v>29</v>
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G38" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H38" t="n">
         <v>4.7</v>
@@ -5542,13 +5542,13 @@
         <v>3.05</v>
       </c>
       <c r="K38" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="L38" t="n">
         <v>1.49</v>
       </c>
       <c r="M38" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N38" t="n">
         <v>2.52</v>
@@ -5566,25 +5566,25 @@
         <v>1.18</v>
       </c>
       <c r="S38" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="T38" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="U38" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="V38" t="n">
         <v>1.21</v>
       </c>
       <c r="W38" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X38" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z38" t="n">
         <v>48</v>
@@ -5596,22 +5596,22 @@
         <v>7.6</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD38" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE38" t="n">
         <v>130</v>
       </c>
       <c r="AF38" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI38" t="n">
         <v>150</v>
@@ -5623,7 +5623,7 @@
         <v>36</v>
       </c>
       <c r="AL38" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM38" t="n">
         <v>290</v>
@@ -5668,7 +5668,7 @@
         <v>6.4</v>
       </c>
       <c r="H39" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="I39" t="n">
         <v>2.16</v>
@@ -5686,7 +5686,7 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.83</v>
+        <v>3.05</v>
       </c>
       <c r="O39" t="n">
         <v>1.28</v>
@@ -5698,16 +5698,16 @@
         <v>1.71</v>
       </c>
       <c r="R39" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S39" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V39" t="n">
         <v>1.86</v>
@@ -5803,7 +5803,7 @@
         <v>2.5</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I40" t="n">
         <v>3.1</v>
@@ -5830,7 +5830,7 @@
         <v>2.16</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R40" t="n">
         <v>1.45</v>
@@ -5848,7 +5848,7 @@
         <v>1.47</v>
       </c>
       <c r="W40" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X40" t="n">
         <v>17.5</v>
@@ -5899,7 +5899,7 @@
         <v>75</v>
       </c>
       <c r="AN40" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO40" t="n">
         <v>25</v>
@@ -5935,7 +5935,7 @@
         <v>2.26</v>
       </c>
       <c r="G41" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="H41" t="n">
         <v>3.45</v>
@@ -5965,7 +5965,7 @@
         <v>1.66</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R41" t="n">
         <v>1.24</v>
@@ -5980,7 +5980,7 @@
         <v>1.9</v>
       </c>
       <c r="V41" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W41" t="n">
         <v>1.65</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G42" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H42" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="I42" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="J42" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K42" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L42" t="n">
         <v>1.47</v>
@@ -6109,19 +6109,19 @@
         <v>4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U42" t="n">
         <v>1.93</v>
       </c>
       <c r="V42" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="W42" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X42" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y42" t="n">
         <v>8.6</v>
@@ -6130,25 +6130,25 @@
         <v>14</v>
       </c>
       <c r="AA42" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB42" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC42" t="n">
         <v>8</v>
       </c>
       <c r="AD42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE42" t="n">
         <v>28</v>
       </c>
       <c r="AF42" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG42" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH42" t="n">
         <v>21</v>
@@ -6157,7 +6157,7 @@
         <v>48</v>
       </c>
       <c r="AJ42" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="n">
         <v>60</v>
@@ -6202,58 +6202,58 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G43" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="H43" t="n">
         <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K43" t="n">
         <v>3.45</v>
       </c>
-      <c r="K43" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L43" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M43" t="n">
         <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O43" t="n">
         <v>1.32</v>
       </c>
       <c r="P43" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R43" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S43" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T43" t="n">
         <v>1.75</v>
       </c>
       <c r="U43" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="V43" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W43" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X43" t="n">
         <v>14</v>
@@ -6274,7 +6274,7 @@
         <v>7.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AE43" t="n">
         <v>38</v>
@@ -6283,13 +6283,13 @@
         <v>16</v>
       </c>
       <c r="AG43" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AI43" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ43" t="n">
         <v>34</v>
@@ -6337,16 +6337,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
         <v>3.45</v>
       </c>
       <c r="H44" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I44" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="J44" t="n">
         <v>3.55</v>
@@ -6355,37 +6355,37 @@
         <v>4.1</v>
       </c>
       <c r="L44" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M44" t="n">
         <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P44" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="R44" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="S44" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="T44" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="U44" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="V44" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="W44" t="n">
         <v>1.41</v>
@@ -6394,22 +6394,22 @@
         <v>22</v>
       </c>
       <c r="Y44" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z44" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA44" t="n">
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC44" t="n">
         <v>10.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE44" t="n">
         <v>1000</v>
@@ -6418,10 +6418,10 @@
         <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
         <v>1000</v>
@@ -6442,7 +6442,7 @@
         <v>1000</v>
       </c>
       <c r="AO44" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
@@ -6475,85 +6475,85 @@
         <v>8.4</v>
       </c>
       <c r="G45" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="H45" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="I45" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="J45" t="n">
         <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L45" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M45" t="n">
         <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="O45" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P45" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="R45" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="S45" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="T45" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="V45" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="W45" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X45" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Y45" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z45" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB45" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AC45" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AE45" t="n">
         <v>970</v>
       </c>
       <c r="AF45" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AG45" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH45" t="n">
         <v>32</v>
@@ -6607,13 +6607,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G46" t="n">
         <v>3.8</v>
       </c>
       <c r="H46" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I46" t="n">
         <v>2.58</v>
@@ -6646,7 +6646,7 @@
         <v>1.3</v>
       </c>
       <c r="S46" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T46" t="n">
         <v>1.78</v>
@@ -6658,7 +6658,7 @@
         <v>1.63</v>
       </c>
       <c r="W46" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X46" t="n">
         <v>970</v>
@@ -6673,7 +6673,7 @@
         <v>42</v>
       </c>
       <c r="AB46" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AC46" t="n">
         <v>9.199999999999999</v>
@@ -6751,7 +6751,7 @@
         <v>2.24</v>
       </c>
       <c r="I47" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J47" t="n">
         <v>3.7</v>
@@ -6766,40 +6766,40 @@
         <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P47" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R47" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S47" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T47" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U47" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="V47" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W47" t="n">
         <v>1.4</v>
       </c>
       <c r="X47" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z47" t="n">
         <v>14.5</v>
@@ -6808,7 +6808,7 @@
         <v>29</v>
       </c>
       <c r="AB47" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AC47" t="n">
         <v>8.199999999999999</v>
@@ -6820,7 +6820,7 @@
         <v>22</v>
       </c>
       <c r="AF47" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AG47" t="n">
         <v>14</v>
@@ -6838,16 +6838,16 @@
         <v>38</v>
       </c>
       <c r="AL47" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM47" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO47" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -6880,7 +6880,7 @@
         <v>3.6</v>
       </c>
       <c r="G48" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H48" t="n">
         <v>2.46</v>
@@ -6895,7 +6895,7 @@
         <v>3.1</v>
       </c>
       <c r="L48" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M48" t="n">
         <v>1.13</v>
@@ -6907,28 +6907,28 @@
         <v>1.57</v>
       </c>
       <c r="P48" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R48" t="n">
         <v>1.19</v>
       </c>
       <c r="S48" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="T48" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="U48" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V48" t="n">
         <v>1.64</v>
       </c>
       <c r="W48" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X48" t="n">
         <v>8.4</v>
@@ -6955,10 +6955,10 @@
         <v>36</v>
       </c>
       <c r="AF48" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG48" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH48" t="n">
         <v>24</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G49" t="n">
         <v>4.5</v>
       </c>
       <c r="H49" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I49" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="J49" t="n">
         <v>3.05</v>
       </c>
       <c r="K49" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L49" t="n">
         <v>1.49</v>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="F50" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G50" t="n">
         <v>1.66</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1.68</v>
       </c>
       <c r="H50" t="n">
         <v>6</v>
@@ -7159,7 +7159,7 @@
         <v>6.2</v>
       </c>
       <c r="J50" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K50" t="n">
         <v>4.3</v>
@@ -7171,46 +7171,46 @@
         <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O50" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P50" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q50" t="n">
         <v>2.18</v>
       </c>
       <c r="R50" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S50" t="n">
         <v>4.2</v>
       </c>
       <c r="T50" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U50" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V50" t="n">
         <v>1.19</v>
       </c>
       <c r="W50" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="X50" t="n">
         <v>14.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Z50" t="n">
         <v>55</v>
       </c>
       <c r="AA50" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AB50" t="n">
         <v>7</v>
@@ -7225,7 +7225,7 @@
         <v>110</v>
       </c>
       <c r="AF50" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG50" t="n">
         <v>10.5</v>
@@ -7252,7 +7252,7 @@
         <v>970</v>
       </c>
       <c r="AO50" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51">
@@ -7291,13 +7291,13 @@
         <v>3.9</v>
       </c>
       <c r="I51" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J51" t="n">
         <v>3.75</v>
       </c>
       <c r="K51" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L51" t="n">
         <v>1.37</v>
@@ -7312,7 +7312,7 @@
         <v>1.3</v>
       </c>
       <c r="P51" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q51" t="n">
         <v>1.89</v>
@@ -7327,7 +7327,7 @@
         <v>1.76</v>
       </c>
       <c r="U51" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V51" t="n">
         <v>1.33</v>
@@ -7348,13 +7348,13 @@
         <v>80</v>
       </c>
       <c r="AB51" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC51" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD51" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE51" t="n">
         <v>44</v>
@@ -7384,7 +7384,7 @@
         <v>85</v>
       </c>
       <c r="AN51" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO51" t="n">
         <v>46</v>
@@ -7435,34 +7435,34 @@
         <v>4.7</v>
       </c>
       <c r="L52" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M52" t="n">
         <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="O52" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P52" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="R52" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S52" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="T52" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="U52" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="V52" t="n">
         <v>1.2</v>
@@ -7471,40 +7471,40 @@
         <v>2.58</v>
       </c>
       <c r="X52" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y52" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z52" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA52" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB52" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC52" t="n">
         <v>10.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE52" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF52" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG52" t="n">
         <v>9.6</v>
       </c>
       <c r="AH52" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI52" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ52" t="n">
         <v>15.5</v>
@@ -7516,13 +7516,13 @@
         <v>26</v>
       </c>
       <c r="AM52" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN52" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AO52" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53">
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G53" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="H53" t="n">
         <v>3.7</v>
@@ -7564,10 +7564,10 @@
         <v>3.75</v>
       </c>
       <c r="J53" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K53" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3.7</v>
       </c>
       <c r="L53" t="n">
         <v>1.39</v>
@@ -7576,7 +7576,7 @@
         <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O53" t="n">
         <v>1.29</v>
@@ -7585,25 +7585,25 @@
         <v>2.12</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R53" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S53" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T53" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U53" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V53" t="n">
         <v>1.36</v>
       </c>
       <c r="W53" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X53" t="n">
         <v>15.5</v>
@@ -7621,10 +7621,10 @@
         <v>11</v>
       </c>
       <c r="AC53" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD53" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE53" t="n">
         <v>40</v>
@@ -7639,10 +7639,10 @@
         <v>16.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ53" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK53" t="n">
         <v>21</v>
@@ -7651,13 +7651,13 @@
         <v>32</v>
       </c>
       <c r="AM53" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN53" t="n">
         <v>14</v>
       </c>
       <c r="AO53" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G54" t="n">
         <v>2.1</v>
       </c>
-      <c r="G54" t="n">
-        <v>2.12</v>
-      </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I54" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J54" t="n">
         <v>3.55</v>
@@ -7711,13 +7711,13 @@
         <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O54" t="n">
         <v>1.37</v>
       </c>
       <c r="P54" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q54" t="n">
         <v>2.14</v>
@@ -7726,7 +7726,7 @@
         <v>1.32</v>
       </c>
       <c r="S54" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T54" t="n">
         <v>1.91</v>
@@ -7735,13 +7735,13 @@
         <v>2.04</v>
       </c>
       <c r="V54" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W54" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X54" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y54" t="n">
         <v>13.5</v>
@@ -7753,13 +7753,13 @@
         <v>85</v>
       </c>
       <c r="AB54" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC54" t="n">
         <v>7.6</v>
       </c>
       <c r="AD54" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE54" t="n">
         <v>50</v>
@@ -7771,13 +7771,13 @@
         <v>10.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI54" t="n">
         <v>65</v>
       </c>
       <c r="AJ54" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK54" t="n">
         <v>22</v>
@@ -7786,10 +7786,10 @@
         <v>40</v>
       </c>
       <c r="AM54" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN54" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO54" t="n">
         <v>60</v>
@@ -7840,7 +7840,7 @@
         <v>8</v>
       </c>
       <c r="L55" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M55" t="n">
         <v>1.02</v>
@@ -7957,10 +7957,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G56" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="H56" t="n">
         <v>3.4</v>
@@ -7969,10 +7969,10 @@
         <v>3.45</v>
       </c>
       <c r="J56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K56" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3.5</v>
       </c>
       <c r="L56" t="n">
         <v>1.44</v>
@@ -7987,19 +7987,19 @@
         <v>1.35</v>
       </c>
       <c r="P56" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q56" t="n">
         <v>2.04</v>
       </c>
       <c r="R56" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S56" t="n">
         <v>3.65</v>
       </c>
       <c r="T56" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U56" t="n">
         <v>2.14</v>
@@ -8008,7 +8008,7 @@
         <v>1.4</v>
       </c>
       <c r="W56" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X56" t="n">
         <v>12.5</v>
@@ -8023,7 +8023,7 @@
         <v>65</v>
       </c>
       <c r="AB56" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC56" t="n">
         <v>7.6</v>
@@ -8041,7 +8041,7 @@
         <v>11</v>
       </c>
       <c r="AH56" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI56" t="n">
         <v>50</v>
@@ -8059,7 +8059,7 @@
         <v>95</v>
       </c>
       <c r="AN56" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO56" t="n">
         <v>40</v>
@@ -8098,7 +8098,7 @@
         <v>3.1</v>
       </c>
       <c r="H57" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I57" t="n">
         <v>2.48</v>
@@ -8110,7 +8110,7 @@
         <v>4.3</v>
       </c>
       <c r="L57" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M57" t="n">
         <v>1.03</v>
@@ -8134,7 +8134,7 @@
         <v>2.38</v>
       </c>
       <c r="T57" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U57" t="n">
         <v>2.62</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G58" t="n">
         <v>1.61</v>
@@ -8236,10 +8236,10 @@
         <v>7.2</v>
       </c>
       <c r="I58" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K58" t="n">
         <v>4.6</v>
@@ -8251,22 +8251,22 @@
         <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O58" t="n">
         <v>1.32</v>
       </c>
       <c r="P58" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R58" t="n">
         <v>1.32</v>
       </c>
       <c r="S58" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T58" t="n">
         <v>2.04</v>
@@ -8275,10 +8275,10 @@
         <v>1.75</v>
       </c>
       <c r="V58" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W58" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="X58" t="n">
         <v>16</v>
@@ -8290,19 +8290,19 @@
         <v>75</v>
       </c>
       <c r="AA58" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AB58" t="n">
         <v>7.6</v>
       </c>
       <c r="AC58" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD58" t="n">
         <v>32</v>
       </c>
       <c r="AE58" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF58" t="n">
         <v>9</v>
@@ -8311,16 +8311,16 @@
         <v>11</v>
       </c>
       <c r="AH58" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI58" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ58" t="n">
         <v>14.5</v>
       </c>
       <c r="AK58" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL58" t="n">
         <v>50</v>
@@ -8329,10 +8329,10 @@
         <v>200</v>
       </c>
       <c r="AN58" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO58" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59">
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G59" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="H59" t="n">
         <v>6</v>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J59" t="n">
         <v>3.85</v>
       </c>
       <c r="K59" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L59" t="n">
         <v>1.41</v>
@@ -8404,16 +8404,16 @@
         <v>3.6</v>
       </c>
       <c r="T59" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U59" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V59" t="n">
         <v>1.16</v>
       </c>
       <c r="W59" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="X59" t="n">
         <v>14.5</v>
@@ -8497,16 +8497,16 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G60" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H60" t="n">
         <v>1.89</v>
       </c>
       <c r="I60" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="J60" t="n">
         <v>4</v>
@@ -8521,37 +8521,37 @@
         <v>1.03</v>
       </c>
       <c r="N60" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O60" t="n">
         <v>1.21</v>
       </c>
       <c r="P60" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q60" t="n">
         <v>1.62</v>
       </c>
       <c r="R60" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S60" t="n">
         <v>2.56</v>
       </c>
       <c r="T60" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U60" t="n">
         <v>2.42</v>
       </c>
       <c r="V60" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W60" t="n">
         <v>1.29</v>
       </c>
       <c r="X60" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y60" t="n">
         <v>12.5</v>
@@ -8575,7 +8575,7 @@
         <v>970</v>
       </c>
       <c r="AF60" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AG60" t="n">
         <v>970</v>
@@ -8587,7 +8587,7 @@
         <v>28</v>
       </c>
       <c r="AJ60" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK60" t="n">
         <v>55</v>
@@ -8602,7 +8602,7 @@
         <v>42</v>
       </c>
       <c r="AO60" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="61">
@@ -8632,19 +8632,19 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G61" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H61" t="n">
         <v>5</v>
       </c>
       <c r="I61" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J61" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K61" t="n">
         <v>4.4</v>
@@ -8665,7 +8665,7 @@
         <v>2.44</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R61" t="n">
         <v>1.57</v>
@@ -8680,10 +8680,10 @@
         <v>2.38</v>
       </c>
       <c r="V61" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W61" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X61" t="n">
         <v>21</v>
@@ -8770,7 +8770,7 @@
         <v>4.9</v>
       </c>
       <c r="G62" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H62" t="n">
         <v>1.81</v>
@@ -8782,7 +8782,7 @@
         <v>3.55</v>
       </c>
       <c r="K62" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L62" t="n">
         <v>1.39</v>
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G63" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H63" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="I63" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J63" t="n">
+        <v>6</v>
+      </c>
+      <c r="K63" t="n">
         <v>6.2</v>
-      </c>
-      <c r="K63" t="n">
-        <v>6.6</v>
       </c>
       <c r="L63" t="n">
         <v>1.27</v>
@@ -8926,49 +8926,49 @@
         <v>1.03</v>
       </c>
       <c r="N63" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="O63" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P63" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="R63" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="S63" t="n">
         <v>2.38</v>
       </c>
       <c r="T63" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="U63" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V63" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W63" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="X63" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y63" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Z63" t="n">
         <v>110</v>
       </c>
       <c r="AA63" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AB63" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC63" t="n">
         <v>14</v>
@@ -8980,13 +8980,13 @@
         <v>160</v>
       </c>
       <c r="AF63" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AG63" t="n">
         <v>10.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI63" t="n">
         <v>120</v>
@@ -8995,19 +8995,19 @@
         <v>11</v>
       </c>
       <c r="AK63" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL63" t="n">
         <v>32</v>
       </c>
       <c r="AM63" t="n">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AN63" t="n">
         <v>4.7</v>
       </c>
       <c r="AO63" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64">
@@ -9040,25 +9040,25 @@
         <v>2.28</v>
       </c>
       <c r="G64" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H64" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="J64" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K64" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L64" t="n">
         <v>1.58</v>
       </c>
       <c r="M64" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N64" t="n">
         <v>2.82</v>
@@ -9067,31 +9067,31 @@
         <v>1.51</v>
       </c>
       <c r="P64" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="R64" t="n">
         <v>1.22</v>
       </c>
       <c r="S64" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T64" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="U64" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V64" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="W64" t="n">
         <v>1.75</v>
       </c>
       <c r="X64" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="Y64" t="n">
         <v>12.5</v>
@@ -9100,34 +9100,34 @@
         <v>26</v>
       </c>
       <c r="AA64" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB64" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC64" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD64" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF64" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG64" t="n">
         <v>12</v>
       </c>
       <c r="AH64" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI64" t="n">
         <v>80</v>
       </c>
       <c r="AJ64" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK64" t="n">
         <v>32</v>
@@ -9136,13 +9136,13 @@
         <v>60</v>
       </c>
       <c r="AM64" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AN64" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AO64" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65">
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G65" t="n">
         <v>1.94</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1.95</v>
       </c>
       <c r="H65" t="n">
         <v>4.7</v>
       </c>
       <c r="I65" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J65" t="n">
         <v>3.6</v>
       </c>
       <c r="K65" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L65" t="n">
         <v>1.41</v>
@@ -9202,7 +9202,7 @@
         <v>1.31</v>
       </c>
       <c r="P65" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q65" t="n">
         <v>1.96</v>
@@ -9211,10 +9211,10 @@
         <v>1.4</v>
       </c>
       <c r="S65" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T65" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U65" t="n">
         <v>2.16</v>
@@ -9223,7 +9223,7 @@
         <v>1.26</v>
       </c>
       <c r="W65" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X65" t="n">
         <v>14</v>
@@ -9238,7 +9238,7 @@
         <v>110</v>
       </c>
       <c r="AB65" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC65" t="n">
         <v>8</v>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -9316,7 +9316,7 @@
         <v>1.85</v>
       </c>
       <c r="I66" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
         <v>3.55</v>
@@ -9331,10 +9331,10 @@
         <v>1.07</v>
       </c>
       <c r="N66" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O66" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P66" t="n">
         <v>1.9</v>
@@ -9343,7 +9343,7 @@
         <v>1.91</v>
       </c>
       <c r="R66" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S66" t="n">
         <v>3.3</v>
@@ -9355,7 +9355,7 @@
         <v>2.04</v>
       </c>
       <c r="V66" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W66" t="n">
         <v>1.25</v>
@@ -9364,43 +9364,43 @@
         <v>17</v>
       </c>
       <c r="Y66" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z66" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AA66" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB66" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC66" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD66" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE66" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF66" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG66" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI66" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ66" t="n">
         <v>120</v>
       </c>
       <c r="AK66" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL66" t="n">
         <v>75</v>
@@ -9412,7 +9412,7 @@
         <v>80</v>
       </c>
       <c r="AO66" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="67">
@@ -9442,22 +9442,22 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G67" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H67" t="n">
         <v>3.95</v>
       </c>
       <c r="I67" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J67" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K67" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L67" t="n">
         <v>1.39</v>
@@ -9472,7 +9472,7 @@
         <v>1.36</v>
       </c>
       <c r="P67" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="Q67" t="n">
         <v>2.06</v>
@@ -9487,13 +9487,13 @@
         <v>1.85</v>
       </c>
       <c r="U67" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V67" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W67" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="X67" t="n">
         <v>13</v>
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G68" t="n">
         <v>1.95</v>
@@ -9595,10 +9595,10 @@
         <v>4.4</v>
       </c>
       <c r="L68" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="M68" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N68" t="n">
         <v>5.5</v>
@@ -9637,7 +9637,7 @@
         <v>1000</v>
       </c>
       <c r="Z68" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA68" t="n">
         <v>1000</v>
@@ -9718,46 +9718,46 @@
         <v>1.35</v>
       </c>
       <c r="H69" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I69" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J69" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="K69" t="n">
         <v>6</v>
       </c>
       <c r="L69" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M69" t="n">
         <v>1.05</v>
       </c>
       <c r="N69" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="O69" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P69" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="R69" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="S69" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T69" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U69" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V69" t="n">
         <v>1.08</v>
@@ -9766,43 +9766,43 @@
         <v>3.85</v>
       </c>
       <c r="X69" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y69" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z69" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AA69" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AB69" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC69" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD69" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE69" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AF69" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG69" t="n">
         <v>10.5</v>
       </c>
       <c r="AH69" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI69" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AJ69" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK69" t="n">
         <v>16</v>
@@ -9811,13 +9811,13 @@
         <v>44</v>
       </c>
       <c r="AM69" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN69" t="n">
         <v>6.8</v>
       </c>
       <c r="AO69" t="n">
-        <v>460</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70">
@@ -9847,37 +9847,37 @@
         </is>
       </c>
       <c r="F70" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I70" t="n">
         <v>2.98</v>
       </c>
-      <c r="G70" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2.84</v>
-      </c>
       <c r="J70" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K70" t="n">
         <v>3.2</v>
-      </c>
-      <c r="K70" t="n">
-        <v>3.3</v>
       </c>
       <c r="L70" t="n">
         <v>1.55</v>
       </c>
       <c r="M70" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N70" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O70" t="n">
         <v>1.5</v>
       </c>
       <c r="P70" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="Q70" t="n">
         <v>2.5</v>
@@ -9886,73 +9886,73 @@
         <v>1.22</v>
       </c>
       <c r="S70" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T70" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U70" t="n">
         <v>1.88</v>
       </c>
       <c r="V70" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="W70" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X70" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y70" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB70" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Z70" t="n">
+      <c r="AC70" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF70" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA70" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>19</v>
-      </c>
       <c r="AG70" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH70" t="n">
         <v>21</v>
       </c>
       <c r="AI70" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ70" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AK70" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL70" t="n">
         <v>65</v>
       </c>
       <c r="AM70" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN70" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO70" t="n">
         <v>50</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="71">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G71" t="n">
         <v>1.95</v>
@@ -10021,13 +10021,13 @@
         <v>1.66</v>
       </c>
       <c r="S71" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T71" t="n">
         <v>1.56</v>
       </c>
       <c r="U71" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="V71" t="n">
         <v>1.31</v>
@@ -10060,7 +10060,7 @@
         <v>40</v>
       </c>
       <c r="AF71" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG71" t="n">
         <v>11</v>
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G72" t="n">
         <v>2.34</v>
       </c>
       <c r="H72" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="I72" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J72" t="n">
         <v>4</v>
       </c>
       <c r="K72" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L72" t="n">
         <v>1.22</v>
@@ -10147,22 +10147,22 @@
         <v>1.17</v>
       </c>
       <c r="P72" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="Q72" t="n">
         <v>1.53</v>
       </c>
       <c r="R72" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="S72" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="T72" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="U72" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="V72" t="n">
         <v>1.47</v>
@@ -10216,10 +10216,10 @@
         <v>27</v>
       </c>
       <c r="AM72" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO72" t="n">
         <v>970</v>
@@ -10252,13 +10252,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G73" t="n">
         <v>1.98</v>
       </c>
       <c r="H73" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I73" t="n">
         <v>4.2</v>
@@ -10267,7 +10267,7 @@
         <v>4</v>
       </c>
       <c r="K73" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L73" t="n">
         <v>1.34</v>
@@ -10276,28 +10276,28 @@
         <v>1.05</v>
       </c>
       <c r="N73" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O73" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P73" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="R73" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S73" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T73" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U73" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V73" t="n">
         <v>1.31</v>
@@ -10306,58 +10306,58 @@
         <v>2.02</v>
       </c>
       <c r="X73" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y73" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z73" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA73" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB73" t="n">
         <v>11.5</v>
       </c>
       <c r="AC73" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG73" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD73" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>11</v>
-      </c>
       <c r="AH73" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI73" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ73" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK73" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL73" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM73" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN73" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO73" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74">
@@ -10393,7 +10393,7 @@
         <v>2.26</v>
       </c>
       <c r="H74" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I74" t="n">
         <v>3.8</v>
@@ -10411,16 +10411,16 @@
         <v>1.09</v>
       </c>
       <c r="N74" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O74" t="n">
         <v>1.39</v>
       </c>
       <c r="P74" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R74" t="n">
         <v>1.31</v>
@@ -10432,7 +10432,7 @@
         <v>1.91</v>
       </c>
       <c r="U74" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V74" t="n">
         <v>1.35</v>
@@ -10522,19 +10522,19 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G75" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
         <v>3.65</v>
       </c>
       <c r="I75" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J75" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K75" t="n">
         <v>3.55</v>
@@ -10549,7 +10549,7 @@
         <v>4.1</v>
       </c>
       <c r="O75" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P75" t="n">
         <v>2.06</v>
@@ -10558,7 +10558,7 @@
         <v>1.88</v>
       </c>
       <c r="R75" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S75" t="n">
         <v>3.2</v>
@@ -10567,13 +10567,13 @@
         <v>1.73</v>
       </c>
       <c r="U75" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V75" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W75" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="X75" t="n">
         <v>14.5</v>
@@ -10585,7 +10585,7 @@
         <v>27</v>
       </c>
       <c r="AA75" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB75" t="n">
         <v>11</v>
@@ -10600,16 +10600,16 @@
         <v>40</v>
       </c>
       <c r="AF75" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG75" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH75" t="n">
         <v>16</v>
       </c>
       <c r="AI75" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ75" t="n">
         <v>28</v>
@@ -10624,7 +10624,7 @@
         <v>80</v>
       </c>
       <c r="AN75" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO75" t="n">
         <v>38</v>
@@ -10657,10 +10657,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G76" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H76" t="n">
         <v>5.6</v>
@@ -10681,19 +10681,19 @@
         <v>1.1</v>
       </c>
       <c r="N76" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O76" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P76" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q76" t="n">
         <v>2.3</v>
       </c>
       <c r="R76" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S76" t="n">
         <v>4.4</v>
@@ -10702,7 +10702,7 @@
         <v>2.14</v>
       </c>
       <c r="U76" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V76" t="n">
         <v>1.21</v>
@@ -10720,7 +10720,7 @@
         <v>42</v>
       </c>
       <c r="AA76" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AB76" t="n">
         <v>7</v>
@@ -10729,10 +10729,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD76" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE76" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF76" t="n">
         <v>9.199999999999999</v>
@@ -10741,25 +10741,25 @@
         <v>10.5</v>
       </c>
       <c r="AH76" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI76" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="n">
         <v>18</v>
       </c>
       <c r="AK76" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL76" t="n">
         <v>48</v>
       </c>
       <c r="AM76" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN76" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO76" t="n">
         <v>150</v>
@@ -10792,22 +10792,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="G77" t="n">
         <v>5.7</v>
       </c>
       <c r="H77" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="I77" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="J77" t="n">
         <v>3.45</v>
       </c>
       <c r="K77" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
@@ -10819,16 +10819,16 @@
         <v>3.1</v>
       </c>
       <c r="O77" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P77" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R77" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S77" t="n">
         <v>4.1</v>
@@ -10840,7 +10840,7 @@
         <v>1.87</v>
       </c>
       <c r="V77" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W77" t="n">
         <v>1.21</v>
@@ -10852,7 +10852,7 @@
         <v>7.6</v>
       </c>
       <c r="Z77" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA77" t="n">
         <v>23</v>
@@ -10945,7 +10945,7 @@
         <v>3.8</v>
       </c>
       <c r="L78" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M78" t="n">
         <v>1.08</v>
@@ -10954,7 +10954,7 @@
         <v>3.5</v>
       </c>
       <c r="O78" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P78" t="n">
         <v>1.9</v>
@@ -11062,10 +11062,10 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G79" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="n">
         <v>3.7</v>
@@ -11074,10 +11074,10 @@
         <v>4.2</v>
       </c>
       <c r="J79" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K79" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L79" t="n">
         <v>1.48</v>
@@ -11113,7 +11113,7 @@
         <v>1.32</v>
       </c>
       <c r="W79" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X79" t="n">
         <v>13</v>
@@ -11149,7 +11149,7 @@
         <v>21</v>
       </c>
       <c r="AI79" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ79" t="n">
         <v>32</v>
@@ -11200,16 +11200,16 @@
         <v>2.52</v>
       </c>
       <c r="G80" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="H80" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I80" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J80" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="K80" t="n">
         <v>3.6</v>
@@ -11236,7 +11236,7 @@
         <v>1.3</v>
       </c>
       <c r="S80" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T80" t="n">
         <v>1.79</v>
@@ -11248,7 +11248,7 @@
         <v>1.45</v>
       </c>
       <c r="W80" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X80" t="n">
         <v>15</v>
@@ -11266,7 +11266,7 @@
         <v>12</v>
       </c>
       <c r="AC80" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD80" t="n">
         <v>15.5</v>
@@ -11299,7 +11299,7 @@
         <v>120</v>
       </c>
       <c r="AN80" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO80" t="n">
         <v>42</v>
@@ -11341,7 +11341,7 @@
         <v>2.62</v>
       </c>
       <c r="I81" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="J81" t="n">
         <v>2.66</v>
@@ -11356,10 +11356,10 @@
         <v>1.01</v>
       </c>
       <c r="N81" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="O81" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P81" t="n">
         <v>1.55</v>
@@ -11380,10 +11380,10 @@
         <v>1.01</v>
       </c>
       <c r="V81" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W81" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X81" t="n">
         <v>1000</v>
@@ -11467,10 +11467,10 @@
         </is>
       </c>
       <c r="F82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G82" t="n">
         <v>1.26</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1.27</v>
       </c>
       <c r="H82" t="n">
         <v>14</v>
@@ -11479,7 +11479,7 @@
         <v>15</v>
       </c>
       <c r="J82" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K82" t="n">
         <v>7.4</v>
@@ -11497,13 +11497,13 @@
         <v>1.16</v>
       </c>
       <c r="P82" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="Q82" t="n">
         <v>1.49</v>
       </c>
       <c r="R82" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="S82" t="n">
         <v>2.22</v>
@@ -11512,13 +11512,13 @@
         <v>2.06</v>
       </c>
       <c r="U82" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V82" t="n">
         <v>1.07</v>
       </c>
       <c r="W82" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X82" t="n">
         <v>32</v>
@@ -11527,7 +11527,7 @@
         <v>55</v>
       </c>
       <c r="Z82" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA82" t="n">
         <v>680</v>
@@ -11536,13 +11536,13 @@
         <v>11</v>
       </c>
       <c r="AC82" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD82" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AE82" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AF82" t="n">
         <v>8.6</v>
@@ -11551,7 +11551,7 @@
         <v>11.5</v>
       </c>
       <c r="AH82" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI82" t="n">
         <v>150</v>
@@ -11602,22 +11602,22 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G83" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H83" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="I83" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="J83" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K83" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L83" t="n">
         <v>1.33</v>
@@ -11626,49 +11626,49 @@
         <v>1.05</v>
       </c>
       <c r="N83" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O83" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P83" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="R83" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S83" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="T83" t="n">
         <v>1.7</v>
       </c>
       <c r="U83" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V83" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="W83" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X83" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y83" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA83" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB83" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC83" t="n">
         <v>9.6</v>
@@ -11683,31 +11683,31 @@
         <v>40</v>
       </c>
       <c r="AG83" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH83" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI83" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ83" t="n">
         <v>110</v>
       </c>
       <c r="AK83" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL83" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM83" t="n">
         <v>70</v>
       </c>
       <c r="AN83" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AO83" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -11746,10 +11746,10 @@
         <v>1.62</v>
       </c>
       <c r="I84" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="J84" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K84" t="n">
         <v>4.5</v>
@@ -11785,7 +11785,7 @@
         <v>1.94</v>
       </c>
       <c r="V84" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="W84" t="n">
         <v>1.16</v>
@@ -11872,10 +11872,10 @@
         </is>
       </c>
       <c r="F85" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G85" t="n">
         <v>13</v>
-      </c>
-      <c r="G85" t="n">
-        <v>13.5</v>
       </c>
       <c r="H85" t="n">
         <v>1.31</v>
@@ -11884,10 +11884,10 @@
         <v>1.32</v>
       </c>
       <c r="J85" t="n">
+        <v>6</v>
+      </c>
+      <c r="K85" t="n">
         <v>6.2</v>
-      </c>
-      <c r="K85" t="n">
-        <v>6.4</v>
       </c>
       <c r="L85" t="n">
         <v>1.33</v>
@@ -11905,13 +11905,13 @@
         <v>2.4</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R85" t="n">
         <v>1.55</v>
       </c>
       <c r="S85" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T85" t="n">
         <v>2.2</v>
@@ -12010,19 +12010,19 @@
         <v>1.18</v>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H86" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="I86" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="J86" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="K86" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="L86" t="n">
         <v>1.21</v>
@@ -12040,31 +12040,31 @@
         <v>3.35</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="R86" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="S86" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T86" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U86" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="V86" t="n">
         <v>1.05</v>
       </c>
       <c r="W86" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X86" t="n">
         <v>55</v>
       </c>
       <c r="Y86" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z86" t="n">
         <v>200</v>
@@ -12073,31 +12073,31 @@
         <v>1000</v>
       </c>
       <c r="AB86" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC86" t="n">
         <v>23</v>
       </c>
       <c r="AD86" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE86" t="n">
         <v>280</v>
       </c>
       <c r="AF86" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG86" t="n">
         <v>12.5</v>
       </c>
       <c r="AH86" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AI86" t="n">
         <v>180</v>
       </c>
       <c r="AJ86" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK86" t="n">
         <v>13.5</v>
@@ -12283,16 +12283,16 @@
         <v>1.08</v>
       </c>
       <c r="H88" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I88" t="n">
         <v>65</v>
       </c>
       <c r="J88" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="K88" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="L88" t="n">
         <v>1.22</v>
@@ -12304,22 +12304,22 @@
         <v>7.6</v>
       </c>
       <c r="O88" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P88" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q88" t="n">
         <v>1.44</v>
       </c>
       <c r="R88" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S88" t="n">
         <v>2.1</v>
       </c>
       <c r="T88" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="U88" t="n">
         <v>1.41</v>
@@ -12331,7 +12331,7 @@
         <v>13.5</v>
       </c>
       <c r="X88" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y88" t="n">
         <v>150</v>
@@ -12343,7 +12343,7 @@
         <v>1000</v>
       </c>
       <c r="AB88" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC88" t="n">
         <v>55</v>
@@ -12355,10 +12355,10 @@
         <v>1000</v>
       </c>
       <c r="AF88" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AG88" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AH88" t="n">
         <v>140</v>
@@ -12367,7 +12367,7 @@
         <v>1000</v>
       </c>
       <c r="AJ88" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AK88" t="n">
         <v>20</v>
@@ -12379,7 +12379,7 @@
         <v>1000</v>
       </c>
       <c r="AN88" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="AO88" t="n">
         <v>1000</v>
@@ -12415,13 +12415,13 @@
         <v>2.22</v>
       </c>
       <c r="G89" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H89" t="n">
         <v>3.05</v>
       </c>
       <c r="I89" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J89" t="n">
         <v>3.55</v>
@@ -12445,7 +12445,7 @@
         <v>2.12</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R89" t="n">
         <v>1.43</v>
@@ -12457,7 +12457,7 @@
         <v>1.64</v>
       </c>
       <c r="U89" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V89" t="n">
         <v>1.4</v>
@@ -12469,10 +12469,10 @@
         <v>21</v>
       </c>
       <c r="Y89" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AA89" t="n">
         <v>60</v>
@@ -12493,7 +12493,7 @@
         <v>17</v>
       </c>
       <c r="AG89" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH89" t="n">
         <v>18</v>
@@ -12502,7 +12502,7 @@
         <v>46</v>
       </c>
       <c r="AJ89" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK89" t="n">
         <v>27</v>
@@ -12514,7 +12514,7 @@
         <v>80</v>
       </c>
       <c r="AN89" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO89" t="n">
         <v>29</v>
@@ -12553,7 +12553,7 @@
         <v>1.2</v>
       </c>
       <c r="H90" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="I90" t="n">
         <v>22</v>
@@ -12574,7 +12574,7 @@
         <v>8</v>
       </c>
       <c r="O90" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P90" t="n">
         <v>3.45</v>
@@ -12586,7 +12586,7 @@
         <v>1.96</v>
       </c>
       <c r="S90" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="T90" t="n">
         <v>1.96</v>
@@ -12607,7 +12607,7 @@
         <v>1000</v>
       </c>
       <c r="Z90" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AA90" t="n">
         <v>1000</v>
@@ -12622,7 +12622,7 @@
         <v>1000</v>
       </c>
       <c r="AE90" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AF90" t="n">
         <v>10</v>
@@ -12634,7 +12634,7 @@
         <v>1000</v>
       </c>
       <c r="AI90" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AJ90" t="n">
         <v>10</v>
@@ -12682,19 +12682,19 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
         <v>3.1</v>
       </c>
       <c r="H91" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3</v>
+      </c>
+      <c r="J91" t="n">
         <v>2.94</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J91" t="n">
-        <v>2.92</v>
       </c>
       <c r="K91" t="n">
         <v>2.96</v>
@@ -12715,10 +12715,10 @@
         <v>1.41</v>
       </c>
       <c r="Q91" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="R91" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S91" t="n">
         <v>7.8</v>
@@ -12733,7 +12733,7 @@
         <v>1.5</v>
       </c>
       <c r="W91" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X91" t="n">
         <v>6.6</v>
@@ -12745,10 +12745,10 @@
         <v>16.5</v>
       </c>
       <c r="AA91" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB91" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC91" t="n">
         <v>6.8</v>
@@ -12760,7 +12760,7 @@
         <v>55</v>
       </c>
       <c r="AF91" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG91" t="n">
         <v>15.5</v>
@@ -12775,7 +12775,7 @@
         <v>60</v>
       </c>
       <c r="AK91" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL91" t="n">
         <v>100</v>
@@ -12787,7 +12787,7 @@
         <v>80</v>
       </c>
       <c r="AO91" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92">
@@ -12817,16 +12817,16 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G92" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="H92" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I92" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J92" t="n">
         <v>3.05</v>
@@ -12850,7 +12850,7 @@
         <v>1.63</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R92" t="n">
         <v>1.22</v>
@@ -12859,28 +12859,28 @@
         <v>5</v>
       </c>
       <c r="T92" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U92" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V92" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W92" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X92" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y92" t="n">
         <v>9.6</v>
       </c>
       <c r="Z92" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AA92" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="AB92" t="n">
         <v>8.6</v>
@@ -12889,10 +12889,10 @@
         <v>7</v>
       </c>
       <c r="AD92" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE92" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF92" t="n">
         <v>16.5</v>
@@ -12907,7 +12907,7 @@
         <v>70</v>
       </c>
       <c r="AJ92" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK92" t="n">
         <v>42</v>
@@ -12916,7 +12916,7 @@
         <v>60</v>
       </c>
       <c r="AM92" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AN92" t="n">
         <v>90</v>
@@ -12955,19 +12955,19 @@
         <v>1.52</v>
       </c>
       <c r="G93" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="H93" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="I93" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J93" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K93" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L93" t="n">
         <v>1.31</v>
@@ -12994,7 +12994,7 @@
         <v>2.56</v>
       </c>
       <c r="T93" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U93" t="n">
         <v>2.14</v>
@@ -13003,16 +13003,16 @@
         <v>1.15</v>
       </c>
       <c r="W93" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="X93" t="n">
         <v>27</v>
       </c>
       <c r="Y93" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z93" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AA93" t="n">
         <v>220</v>
@@ -13021,10 +13021,10 @@
         <v>12.5</v>
       </c>
       <c r="AC93" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD93" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE93" t="n">
         <v>100</v>
@@ -13039,7 +13039,7 @@
         <v>21</v>
       </c>
       <c r="AI93" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ93" t="n">
         <v>14</v>
@@ -13090,19 +13090,19 @@
         <v>1.23</v>
       </c>
       <c r="G94" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H94" t="n">
         <v>14</v>
       </c>
       <c r="I94" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="J94" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K94" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="L94" t="n">
         <v>1.24</v>
@@ -13117,7 +13117,7 @@
         <v>1.18</v>
       </c>
       <c r="P94" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q94" t="n">
         <v>1.55</v>
@@ -13129,19 +13129,19 @@
         <v>2.36</v>
       </c>
       <c r="T94" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="U94" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V94" t="n">
         <v>1.06</v>
       </c>
       <c r="W94" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="X94" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y94" t="n">
         <v>50</v>
@@ -13165,7 +13165,7 @@
         <v>310</v>
       </c>
       <c r="AF94" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG94" t="n">
         <v>12.5</v>
@@ -13183,13 +13183,13 @@
         <v>14.5</v>
       </c>
       <c r="AL94" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM94" t="n">
         <v>230</v>
       </c>
       <c r="AN94" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AO94" t="n">
         <v>420</v>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="G95" t="n">
         <v>1.15</v>
@@ -13237,7 +13237,7 @@
         <v>11</v>
       </c>
       <c r="K95" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="L95" t="n">
         <v>1.21</v>
@@ -13252,16 +13252,16 @@
         <v>1.13</v>
       </c>
       <c r="P95" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q95" t="n">
         <v>1.4</v>
       </c>
       <c r="R95" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="S95" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T95" t="n">
         <v>2.38</v>
@@ -13276,7 +13276,7 @@
         <v>7.8</v>
       </c>
       <c r="X95" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Y95" t="n">
         <v>95</v>
@@ -13306,7 +13306,7 @@
         <v>14</v>
       </c>
       <c r="AH95" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI95" t="n">
         <v>380</v>
@@ -13507,7 +13507,7 @@
         <v>3.75</v>
       </c>
       <c r="K97" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L97" t="n">
         <v>1.29</v>
@@ -13519,25 +13519,25 @@
         <v>4.4</v>
       </c>
       <c r="O97" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P97" t="n">
         <v>2.16</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R97" t="n">
         <v>1.45</v>
       </c>
       <c r="S97" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T97" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U97" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V97" t="n">
         <v>1.29</v>
@@ -13549,22 +13549,22 @@
         <v>23</v>
       </c>
       <c r="Y97" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Z97" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA97" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB97" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD97" t="n">
         <v>970</v>
-      </c>
-      <c r="AC97" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>20</v>
       </c>
       <c r="AE97" t="n">
         <v>55</v>
@@ -13573,16 +13573,16 @@
         <v>970</v>
       </c>
       <c r="AG97" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH97" t="n">
         <v>970</v>
       </c>
-      <c r="AH97" t="n">
-        <v>20</v>
-      </c>
       <c r="AI97" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ97" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK97" t="n">
         <v>23</v>
@@ -13630,16 +13630,16 @@
         <v>2.02</v>
       </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H98" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I98" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J98" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K98" t="n">
         <v>3.8</v>
@@ -13657,10 +13657,10 @@
         <v>1.33</v>
       </c>
       <c r="P98" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R98" t="n">
         <v>1.31</v>
@@ -13669,25 +13669,25 @@
         <v>3.6</v>
       </c>
       <c r="T98" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U98" t="n">
         <v>2.04</v>
       </c>
       <c r="V98" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W98" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="X98" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y98" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Z98" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA98" t="n">
         <v>1000</v>
@@ -13699,40 +13699,40 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD98" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AE98" t="n">
         <v>1000</v>
       </c>
       <c r="AF98" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG98" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH98" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI98" t="n">
         <v>1000</v>
       </c>
       <c r="AJ98" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK98" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL98" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM98" t="n">
         <v>1000</v>
       </c>
       <c r="AN98" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO98" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99">
@@ -13762,25 +13762,25 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G99" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H99" t="n">
         <v>5.8</v>
       </c>
       <c r="I99" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J99" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K99" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L99" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M99" t="n">
         <v>1.1</v>
@@ -13801,7 +13801,7 @@
         <v>1.22</v>
       </c>
       <c r="S99" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="T99" t="n">
         <v>2.2</v>
@@ -13813,7 +13813,7 @@
         <v>1.16</v>
       </c>
       <c r="W99" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X99" t="n">
         <v>12</v>
@@ -13906,43 +13906,43 @@
         <v>2.34</v>
       </c>
       <c r="I100" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J100" t="n">
         <v>3.8</v>
       </c>
       <c r="K100" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L100" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M100" t="n">
         <v>1.05</v>
       </c>
       <c r="N100" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O100" t="n">
         <v>1.23</v>
       </c>
       <c r="P100" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q100" t="n">
         <v>1.7</v>
       </c>
       <c r="R100" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S100" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T100" t="n">
         <v>1.62</v>
       </c>
       <c r="U100" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V100" t="n">
         <v>1.71</v>
@@ -13954,13 +13954,13 @@
         <v>20</v>
       </c>
       <c r="Y100" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z100" t="n">
         <v>16.5</v>
       </c>
       <c r="AA100" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB100" t="n">
         <v>16</v>
@@ -13972,19 +13972,19 @@
         <v>11.5</v>
       </c>
       <c r="AE100" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF100" t="n">
         <v>24</v>
       </c>
       <c r="AG100" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH100" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI100" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ100" t="n">
         <v>55</v>
@@ -14032,16 +14032,16 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G101" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H101" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I101" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J101" t="n">
         <v>3.15</v>
@@ -14053,19 +14053,19 @@
         <v>1.5</v>
       </c>
       <c r="M101" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N101" t="n">
         <v>3</v>
       </c>
       <c r="O101" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P101" t="n">
         <v>1.7</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="R101" t="n">
         <v>1.24</v>
@@ -14074,16 +14074,16 @@
         <v>4.4</v>
       </c>
       <c r="T101" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U101" t="n">
         <v>1.94</v>
       </c>
-      <c r="U101" t="n">
-        <v>1.96</v>
-      </c>
       <c r="V101" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W101" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X101" t="n">
         <v>10</v>
@@ -14191,22 +14191,22 @@
         <v>1.01</v>
       </c>
       <c r="N102" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O102" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="P102" t="n">
         <v>1.24</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="R102" t="n">
         <v>1.18</v>
       </c>
       <c r="S102" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="T102" t="n">
         <v>1.01</v>
@@ -14302,22 +14302,22 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G103" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H103" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="I103" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="J103" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K103" t="n">
         <v>4.6</v>
-      </c>
-      <c r="K103" t="n">
-        <v>4.7</v>
       </c>
       <c r="L103" t="n">
         <v>1.29</v>
@@ -14341,7 +14341,7 @@
         <v>1.64</v>
       </c>
       <c r="S103" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T103" t="n">
         <v>1.68</v>
@@ -14350,10 +14350,10 @@
         <v>2.4</v>
       </c>
       <c r="V103" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="W103" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X103" t="n">
         <v>24</v>
@@ -14365,7 +14365,7 @@
         <v>11.5</v>
       </c>
       <c r="AA103" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB103" t="n">
         <v>26</v>
@@ -14437,10 +14437,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G104" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H104" t="n">
         <v>1.5</v>
@@ -14449,22 +14449,22 @@
         <v>1.51</v>
       </c>
       <c r="J104" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K104" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L104" t="n">
         <v>1.45</v>
       </c>
       <c r="M104" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N104" t="n">
         <v>3.65</v>
       </c>
       <c r="O104" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P104" t="n">
         <v>1.9</v>
@@ -14479,7 +14479,7 @@
         <v>3.8</v>
       </c>
       <c r="T104" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U104" t="n">
         <v>1.75</v>
@@ -14488,7 +14488,7 @@
         <v>2.96</v>
       </c>
       <c r="W104" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X104" t="n">
         <v>14</v>
@@ -14572,13 +14572,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G105" t="n">
-        <v>2.98</v>
+        <v>1000</v>
       </c>
       <c r="H105" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I105" t="n">
         <v>3.7</v>
@@ -14587,19 +14587,19 @@
         <v>2.64</v>
       </c>
       <c r="K105" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L105" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="M105" t="n">
         <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>1.03</v>
+        <v>1.94</v>
       </c>
       <c r="O105" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="P105" t="n">
         <v>1.25</v>
@@ -14620,13 +14620,13 @@
         <v>1.01</v>
       </c>
       <c r="V105" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W105" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X105" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y105" t="n">
         <v>1000</v>
@@ -14716,10 +14716,10 @@
         <v>3.8</v>
       </c>
       <c r="I106" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J106" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="K106" t="n">
         <v>3.45</v>
@@ -14734,19 +14734,19 @@
         <v>1.37</v>
       </c>
       <c r="O106" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="P106" t="n">
         <v>1.37</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="R106" t="n">
         <v>1.13</v>
       </c>
       <c r="S106" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="T106" t="n">
         <v>1.01</v>
@@ -14863,13 +14863,13 @@
         <v>1.01</v>
       </c>
       <c r="M107" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N107" t="n">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="O107" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P107" t="n">
         <v>1.91</v>
@@ -14878,13 +14878,13 @@
         <v>1.92</v>
       </c>
       <c r="R107" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="S107" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="T107" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="U107" t="n">
         <v>1.8</v>
@@ -14983,10 +14983,10 @@
         <v>2.38</v>
       </c>
       <c r="H108" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I108" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J108" t="n">
         <v>3.25</v>
@@ -15004,10 +15004,10 @@
         <v>3.05</v>
       </c>
       <c r="O108" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P108" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q108" t="n">
         <v>2.4</v>
@@ -15025,10 +15025,10 @@
         <v>1.92</v>
       </c>
       <c r="V108" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W108" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X108" t="n">
         <v>10</v>
@@ -15037,10 +15037,10 @@
         <v>11</v>
       </c>
       <c r="Z108" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA108" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB108" t="n">
         <v>8.199999999999999</v>
@@ -15052,7 +15052,7 @@
         <v>16</v>
       </c>
       <c r="AE108" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF108" t="n">
         <v>13</v>
@@ -15112,19 +15112,19 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="H109" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I109" t="n">
         <v>3.2</v>
       </c>
-      <c r="I109" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J109" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K109" t="n">
         <v>3.5</v>
@@ -15142,82 +15142,82 @@
         <v>1.28</v>
       </c>
       <c r="P109" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R109" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S109" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T109" t="n">
         <v>1.68</v>
       </c>
       <c r="U109" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V109" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W109" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X109" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Y109" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z109" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA109" t="n">
         <v>55</v>
       </c>
       <c r="AB109" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC109" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD109" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE109" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AF109" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AG109" t="n">
         <v>12</v>
       </c>
       <c r="AH109" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI109" t="n">
         <v>42</v>
       </c>
       <c r="AJ109" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AK109" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL109" t="n">
         <v>36</v>
       </c>
       <c r="AM109" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN109" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO109" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110">
@@ -15250,10 +15250,10 @@
         <v>15.5</v>
       </c>
       <c r="G110" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="H110" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="I110" t="n">
         <v>1.27</v>
@@ -15262,7 +15262,7 @@
         <v>6.8</v>
       </c>
       <c r="K110" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="L110" t="n">
         <v>1.37</v>
@@ -15271,7 +15271,7 @@
         <v>1.05</v>
       </c>
       <c r="N110" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O110" t="n">
         <v>1.3</v>
@@ -15280,7 +15280,7 @@
         <v>2.04</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R110" t="n">
         <v>1.39</v>
@@ -15289,7 +15289,7 @@
         <v>3.25</v>
       </c>
       <c r="T110" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="U110" t="n">
         <v>1.52</v>
@@ -15301,7 +15301,7 @@
         <v>1.06</v>
       </c>
       <c r="X110" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y110" t="n">
         <v>6.8</v>
@@ -15313,7 +15313,7 @@
         <v>8.6</v>
       </c>
       <c r="AB110" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC110" t="n">
         <v>15.5</v>
@@ -15322,10 +15322,10 @@
         <v>12</v>
       </c>
       <c r="AE110" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF110" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AG110" t="n">
         <v>70</v>
@@ -15334,25 +15334,25 @@
         <v>55</v>
       </c>
       <c r="AI110" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ110" t="n">
         <v>1000</v>
       </c>
       <c r="AK110" t="n">
-        <v>630</v>
+        <v>460</v>
       </c>
       <c r="AL110" t="n">
         <v>360</v>
       </c>
       <c r="AM110" t="n">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="AN110" t="n">
-        <v>1000</v>
+        <v>910</v>
       </c>
       <c r="AO110" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="111">
@@ -15382,16 +15382,16 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G111" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H111" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="J111" t="n">
         <v>3.5</v>
@@ -15412,19 +15412,19 @@
         <v>1.36</v>
       </c>
       <c r="P111" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R111" t="n">
         <v>1.32</v>
       </c>
       <c r="S111" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T111" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U111" t="n">
         <v>2</v>
@@ -15436,19 +15436,19 @@
         <v>1.25</v>
       </c>
       <c r="X111" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y111" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z111" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA111" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB111" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC111" t="n">
         <v>8.199999999999999</v>
@@ -15457,13 +15457,13 @@
         <v>10.5</v>
       </c>
       <c r="AE111" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF111" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG111" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH111" t="n">
         <v>20</v>
@@ -15475,7 +15475,7 @@
         <v>130</v>
       </c>
       <c r="AK111" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL111" t="n">
         <v>70</v>
@@ -15517,16 +15517,16 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G112" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H112" t="n">
         <v>3.2</v>
       </c>
       <c r="I112" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J112" t="n">
         <v>3.35</v>
@@ -15559,16 +15559,16 @@
         <v>1.48</v>
       </c>
       <c r="T112" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U112" t="n">
         <v>1.01</v>
       </c>
       <c r="V112" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W112" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X112" t="n">
         <v>1000</v>
@@ -15652,22 +15652,22 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G113" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H113" t="n">
         <v>5.2</v>
       </c>
       <c r="I113" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="J113" t="n">
         <v>3.6</v>
       </c>
       <c r="K113" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L113" t="n">
         <v>1.35</v>
@@ -15691,40 +15691,40 @@
         <v>1.31</v>
       </c>
       <c r="S113" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="T113" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U113" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V113" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W113" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X113" t="n">
         <v>16.5</v>
       </c>
       <c r="Y113" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z113" t="n">
         <v>1000</v>
       </c>
       <c r="AA113" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB113" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC113" t="n">
         <v>10.5</v>
       </c>
       <c r="AD113" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE113" t="n">
         <v>1000</v>
@@ -15736,7 +15736,7 @@
         <v>12.5</v>
       </c>
       <c r="AH113" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI113" t="n">
         <v>110</v>
@@ -15745,16 +15745,16 @@
         <v>23</v>
       </c>
       <c r="AK113" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL113" t="n">
         <v>1000</v>
       </c>
       <c r="AM113" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN113" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO113" t="n">
         <v>1000</v>
@@ -15796,10 +15796,10 @@
         <v>2.94</v>
       </c>
       <c r="I114" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="J114" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="K114" t="n">
         <v>3.45</v>
@@ -15838,7 +15838,7 @@
         <v>1.4</v>
       </c>
       <c r="W114" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="X114" t="n">
         <v>11.5</v>
@@ -15922,46 +15922,46 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G115" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="H115" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I115" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="J115" t="n">
         <v>3.5</v>
       </c>
       <c r="K115" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L115" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="M115" t="n">
         <v>1.1</v>
       </c>
       <c r="N115" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O115" t="n">
         <v>1.49</v>
       </c>
       <c r="P115" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R115" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S115" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="T115" t="n">
         <v>2.26</v>
@@ -15970,10 +15970,10 @@
         <v>1.65</v>
       </c>
       <c r="V115" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W115" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="X115" t="n">
         <v>10.5</v>
@@ -16000,7 +16000,7 @@
         <v>190</v>
       </c>
       <c r="AF115" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG115" t="n">
         <v>11.5</v>
@@ -16024,7 +16024,7 @@
         <v>310</v>
       </c>
       <c r="AN115" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO115" t="n">
         <v>370</v>
@@ -16060,7 +16060,7 @@
         <v>1.56</v>
       </c>
       <c r="G116" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H116" t="n">
         <v>8.199999999999999</v>
@@ -16069,7 +16069,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J116" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K116" t="n">
         <v>4.1</v>
@@ -16081,7 +16081,7 @@
         <v>1.1</v>
       </c>
       <c r="N116" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O116" t="n">
         <v>1.47</v>
@@ -16108,7 +16108,7 @@
         <v>1.12</v>
       </c>
       <c r="W116" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X116" t="n">
         <v>12.5</v>
@@ -16123,7 +16123,7 @@
         <v>460</v>
       </c>
       <c r="AB116" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AC116" t="n">
         <v>9.800000000000001</v>
@@ -16150,7 +16150,7 @@
         <v>15.5</v>
       </c>
       <c r="AK116" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL116" t="n">
         <v>65</v>
@@ -16195,52 +16195,52 @@
         <v>3.5</v>
       </c>
       <c r="G117" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H117" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I117" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="J117" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K117" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L117" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M117" t="n">
         <v>1.08</v>
       </c>
       <c r="N117" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O117" t="n">
         <v>1.38</v>
       </c>
       <c r="P117" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q117" t="n">
         <v>2.14</v>
       </c>
       <c r="R117" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S117" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T117" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U117" t="n">
         <v>2.02</v>
       </c>
       <c r="V117" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W117" t="n">
         <v>1.37</v>
@@ -16258,7 +16258,7 @@
         <v>36</v>
       </c>
       <c r="AB117" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC117" t="n">
         <v>8.6</v>
@@ -16273,7 +16273,7 @@
         <v>29</v>
       </c>
       <c r="AG117" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH117" t="n">
         <v>21</v>
@@ -16330,7 +16330,7 @@
         <v>1.52</v>
       </c>
       <c r="G118" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="H118" t="n">
         <v>5.6</v>
@@ -16339,7 +16339,7 @@
         <v>9.4</v>
       </c>
       <c r="J118" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K118" t="n">
         <v>4.7</v>
@@ -16348,16 +16348,16 @@
         <v>1.34</v>
       </c>
       <c r="M118" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N118" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="O118" t="n">
         <v>1.33</v>
       </c>
       <c r="P118" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q118" t="n">
         <v>1.33</v>
@@ -16378,7 +16378,7 @@
         <v>1.12</v>
       </c>
       <c r="W118" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="X118" t="n">
         <v>17</v>
@@ -16465,7 +16465,7 @@
         <v>1.6</v>
       </c>
       <c r="G119" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H119" t="n">
         <v>6.2</v>
@@ -16474,28 +16474,28 @@
         <v>7.6</v>
       </c>
       <c r="J119" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K119" t="n">
         <v>4.4</v>
       </c>
       <c r="L119" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="M119" t="n">
         <v>1.08</v>
       </c>
       <c r="N119" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O119" t="n">
         <v>1.36</v>
       </c>
       <c r="P119" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R119" t="n">
         <v>1.3</v>
@@ -16507,13 +16507,13 @@
         <v>2.06</v>
       </c>
       <c r="U119" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V119" t="n">
         <v>1.15</v>
       </c>
       <c r="W119" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X119" t="n">
         <v>15</v>
@@ -16528,10 +16528,10 @@
         <v>1000</v>
       </c>
       <c r="AB119" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AC119" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD119" t="n">
         <v>1000</v>
@@ -16543,13 +16543,13 @@
         <v>10</v>
       </c>
       <c r="AG119" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AH119" t="n">
         <v>1000</v>
       </c>
       <c r="AI119" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ119" t="n">
         <v>1000</v>
@@ -16561,10 +16561,10 @@
         <v>1000</v>
       </c>
       <c r="AM119" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN119" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO119" t="n">
         <v>1000</v>
@@ -16597,46 +16597,46 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="G120" t="n">
-        <v>1000</v>
+        <v>2.1</v>
       </c>
       <c r="H120" t="n">
-        <v>1.04</v>
+        <v>3.65</v>
       </c>
       <c r="I120" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="J120" t="n">
-        <v>1.03</v>
+        <v>2.96</v>
       </c>
       <c r="K120" t="n">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="L120" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M120" t="n">
         <v>1.01</v>
       </c>
       <c r="N120" t="n">
-        <v>1.25</v>
+        <v>1.81</v>
       </c>
       <c r="O120" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P120" t="n">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.31</v>
+        <v>1.89</v>
       </c>
       <c r="R120" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S120" t="n">
-        <v>1.31</v>
+        <v>2.88</v>
       </c>
       <c r="T120" t="n">
         <v>1.01</v>
@@ -16645,10 +16645,10 @@
         <v>1.01</v>
       </c>
       <c r="V120" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="W120" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="X120" t="n">
         <v>1000</v>
@@ -16744,10 +16744,10 @@
         <v>6.6</v>
       </c>
       <c r="J121" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K121" t="n">
-        <v>4.3</v>
+        <v>950</v>
       </c>
       <c r="L121" t="n">
         <v>1.01</v>
@@ -16756,22 +16756,22 @@
         <v>1.01</v>
       </c>
       <c r="N121" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="O121" t="n">
         <v>1.41</v>
       </c>
       <c r="P121" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="R121" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S121" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="T121" t="n">
         <v>1.01</v>
@@ -16867,31 +16867,31 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G122" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H122" t="n">
         <v>3.85</v>
       </c>
       <c r="I122" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J122" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K122" t="n">
         <v>3.95</v>
       </c>
       <c r="L122" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M122" t="n">
         <v>1.06</v>
       </c>
       <c r="N122" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O122" t="n">
         <v>1.31</v>
@@ -16900,34 +16900,34 @@
         <v>1.95</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R122" t="n">
         <v>1.37</v>
       </c>
       <c r="S122" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T122" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U122" t="n">
         <v>2.1</v>
       </c>
       <c r="V122" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W122" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X122" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y122" t="n">
         <v>15</v>
       </c>
       <c r="Z122" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA122" t="n">
         <v>100</v>
@@ -17011,13 +17011,13 @@
         <v>2.62</v>
       </c>
       <c r="I123" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J123" t="n">
         <v>2.9</v>
       </c>
       <c r="K123" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L123" t="n">
         <v>1.62</v>
@@ -17032,7 +17032,7 @@
         <v>1.61</v>
       </c>
       <c r="P123" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="Q123" t="n">
         <v>2.82</v>
@@ -17059,13 +17059,13 @@
         <v>8</v>
       </c>
       <c r="Y123" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z123" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA123" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB123" t="n">
         <v>9</v>
@@ -17137,22 +17137,22 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G124" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="H124" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I124" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="J124" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K124" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L124" t="n">
         <v>1.5</v>
@@ -17161,37 +17161,37 @@
         <v>1.1</v>
       </c>
       <c r="N124" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="O124" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P124" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="R124" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S124" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="T124" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="U124" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V124" t="n">
         <v>1.36</v>
       </c>
       <c r="W124" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="X124" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y124" t="n">
         <v>13</v>
@@ -17206,13 +17206,13 @@
         <v>9.6</v>
       </c>
       <c r="AC124" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD124" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE124" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF124" t="n">
         <v>17</v>
@@ -17224,13 +17224,13 @@
         <v>23</v>
       </c>
       <c r="AI124" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ124" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK124" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL124" t="n">
         <v>60</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="G2" t="n">
         <v>5.9</v>
       </c>
       <c r="H2" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="I2" t="n">
         <v>1.66</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
         <v>4.7</v>
@@ -688,34 +688,34 @@
         <v>1.32</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
         <v>5.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
         <v>1.58</v>
       </c>
       <c r="S2" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T2" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
         <v>1.2</v>
@@ -724,13 +724,13 @@
         <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
         <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB2" t="n">
         <v>25</v>
@@ -742,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF2" t="n">
         <v>48</v>
@@ -751,7 +751,7 @@
         <v>22</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI2" t="n">
         <v>27</v>
@@ -766,7 +766,7 @@
         <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
         <v>65</v>
@@ -802,31 +802,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="G3" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="H3" t="n">
         <v>26</v>
       </c>
       <c r="I3" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="K3" t="n">
         <v>12.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.08</v>
@@ -841,25 +841,25 @@
         <v>2.36</v>
       </c>
       <c r="S3" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="U3" t="n">
         <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="X3" t="n">
         <v>75</v>
       </c>
       <c r="Y3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -871,10 +871,10 @@
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,22 +883,22 @@
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK3" t="n">
         <v>15.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -946,7 +946,7 @@
         <v>1.26</v>
       </c>
       <c r="I4" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="J4" t="n">
         <v>7</v>
@@ -964,7 +964,7 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P4" t="n">
         <v>4.2</v>
@@ -976,7 +976,7 @@
         <v>2.3</v>
       </c>
       <c r="S4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="T4" t="n">
         <v>1.62</v>
@@ -985,7 +985,7 @@
         <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="W4" t="n">
         <v>1.09</v>
@@ -1030,7 +1030,7 @@
         <v>360</v>
       </c>
       <c r="AK4" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AL4" t="n">
         <v>80</v>
@@ -1075,7 +1075,7 @@
         <v>2.64</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H5" t="n">
         <v>2.78</v>
@@ -1132,13 +1132,13 @@
         <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
         <v>48</v>
       </c>
       <c r="AB5" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
         <v>8</v>
@@ -1216,7 +1216,7 @@
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
         <v>3.45</v>
@@ -1240,13 +1240,13 @@
         <v>1.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R6" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
         <v>1.83</v>
@@ -1255,7 +1255,7 @@
         <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W6" t="n">
         <v>1.78</v>
@@ -1264,10 +1264,10 @@
         <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Z6" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AA6" t="n">
         <v>75</v>
@@ -1285,22 +1285,22 @@
         <v>48</v>
       </c>
       <c r="AF6" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
         <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="n">
         <v>42</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="G7" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H7" t="n">
         <v>4.4</v>
@@ -1372,19 +1372,19 @@
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q7" t="n">
         <v>1.96</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
         <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="n">
         <v>2.06</v>
@@ -1393,19 +1393,19 @@
         <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
         <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AA7" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AB7" t="n">
         <v>9.4</v>
@@ -1435,10 +1435,10 @@
         <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
         <v>130</v>
@@ -1447,7 +1447,7 @@
         <v>14.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>1.72</v>
       </c>
       <c r="G8" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
         <v>5.2</v>
@@ -1489,7 +1489,7 @@
         <v>6.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>3.95</v>
@@ -1519,7 +1519,7 @@
         <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="n">
         <v>1.9</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I9" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -1642,10 +1642,10 @@
         <v>1.31</v>
       </c>
       <c r="P9" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="R9" t="n">
         <v>1.35</v>
@@ -1678,13 +1678,13 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
         <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1696,7 +1696,7 @@
         <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G10" t="n">
         <v>4.7</v>
@@ -1771,7 +1771,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
@@ -1789,10 +1789,10 @@
         <v>2.46</v>
       </c>
       <c r="T10" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U10" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="V10" t="n">
         <v>2.16</v>
@@ -1822,13 +1822,13 @@
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF10" t="n">
         <v>38</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
         <v>16</v>
@@ -1849,10 +1849,10 @@
         <v>65</v>
       </c>
       <c r="AN10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO10" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G11" t="n">
         <v>2.96</v>
@@ -1918,7 +1918,7 @@
         <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
         <v>2.54</v>
@@ -1951,7 +1951,7 @@
         <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
         <v>13</v>
@@ -2023,7 +2023,7 @@
         <v>2.18</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I12" t="n">
         <v>4.8</v>
@@ -2041,25 +2041,25 @@
         <v>1.14</v>
       </c>
       <c r="N12" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O12" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P12" t="n">
         <v>1.56</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="R12" t="n">
         <v>1.2</v>
       </c>
       <c r="S12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="T12" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U12" t="n">
         <v>1.76</v>
@@ -2155,19 +2155,19 @@
         <v>11.5</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="I13" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.43</v>
@@ -2176,13 +2176,13 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="n">
         <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q13" t="n">
         <v>2.08</v>
@@ -2200,7 +2200,7 @@
         <v>1.6</v>
       </c>
       <c r="V13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W13" t="n">
         <v>1.07</v>
@@ -2215,10 +2215,10 @@
         <v>8</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
         <v>13.5</v>
@@ -2239,7 +2239,7 @@
         <v>50</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
@@ -2290,19 +2290,19 @@
         <v>1.58</v>
       </c>
       <c r="G14" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H14" t="n">
         <v>5.5</v>
       </c>
       <c r="I14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
         <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.26</v>
@@ -2311,34 +2311,34 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
       </c>
       <c r="P14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S14" t="n">
         <v>2.4</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.36</v>
-      </c>
       <c r="T14" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
         <v>1.18</v>
       </c>
       <c r="W14" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X14" t="n">
         <v>25</v>
@@ -2347,7 +2347,7 @@
         <v>27</v>
       </c>
       <c r="Z14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
         <v>160</v>
@@ -2362,7 +2362,7 @@
         <v>26</v>
       </c>
       <c r="AE14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="n">
         <v>970</v>
@@ -2371,28 +2371,28 @@
         <v>970</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AK14" t="n">
         <v>970</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN14" t="n">
         <v>970</v>
       </c>
       <c r="AO14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2473,7 +2473,7 @@
         <v>1.51</v>
       </c>
       <c r="W15" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X15" t="n">
         <v>15.5</v>
@@ -2710,28 +2710,28 @@
         <v>5.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O17" t="n">
         <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q17" t="n">
         <v>1.59</v>
       </c>
       <c r="R17" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S17" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="T17" t="n">
         <v>1.66</v>
@@ -2752,10 +2752,10 @@
         <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA17" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
@@ -2764,10 +2764,10 @@
         <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF17" t="n">
         <v>12.5</v>
@@ -2776,10 +2776,10 @@
         <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ17" t="n">
         <v>970</v>
@@ -2788,13 +2788,13 @@
         <v>970</v>
       </c>
       <c r="AL17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO17" t="n">
         <v>110</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G18" t="n">
         <v>3.45</v>
@@ -2848,7 +2848,7 @@
         <v>1.45</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
         <v>3.15</v>
@@ -2857,7 +2857,7 @@
         <v>1.39</v>
       </c>
       <c r="P18" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="Q18" t="n">
         <v>2.12</v>
@@ -2899,7 +2899,7 @@
         <v>8</v>
       </c>
       <c r="AD18" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE18" t="n">
         <v>32</v>
@@ -2911,7 +2911,7 @@
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
         <v>50</v>
@@ -2965,13 +2965,13 @@
         <v>2.84</v>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H19" t="n">
         <v>2.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J19" t="n">
         <v>3.25</v>
@@ -2989,7 +2989,7 @@
         <v>2.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P19" t="n">
         <v>1.64</v>
@@ -3010,10 +3010,10 @@
         <v>1.89</v>
       </c>
       <c r="V19" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W19" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X19" t="n">
         <v>970</v>
@@ -3235,7 +3235,7 @@
         <v>3.45</v>
       </c>
       <c r="G21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H21" t="n">
         <v>2.1</v>
@@ -3250,7 +3250,7 @@
         <v>3.95</v>
       </c>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -3283,7 +3283,7 @@
         <v>1.81</v>
       </c>
       <c r="W21" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X21" t="n">
         <v>970</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G22" t="n">
         <v>2.34</v>
@@ -3382,7 +3382,7 @@
         <v>3.65</v>
       </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L22" t="n">
         <v>1.36</v>
@@ -3400,10 +3400,10 @@
         <v>2.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S22" t="n">
         <v>2.96</v>
@@ -3424,7 +3424,7 @@
         <v>20</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z22" t="n">
         <v>30</v>
@@ -3505,109 +3505,109 @@
         <v>2.56</v>
       </c>
       <c r="G23" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H23" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L23" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="O23" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P23" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="R23" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="S23" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="U23" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="V23" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W23" t="n">
         <v>1.63</v>
       </c>
       <c r="X23" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB23" t="n">
         <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>36</v>
       </c>
-      <c r="AF23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ23" t="n">
+      <c r="AK23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL23" t="n">
         <v>38</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AM23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO23" t="n">
         <v>29</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="24">
@@ -3679,13 +3679,13 @@
         <v>2.96</v>
       </c>
       <c r="T24" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U24" t="n">
         <v>2.4</v>
       </c>
       <c r="V24" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W24" t="n">
         <v>1.44</v>
@@ -3775,7 +3775,7 @@
         <v>1.71</v>
       </c>
       <c r="G25" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H25" t="n">
         <v>5.1</v>
@@ -3784,19 +3784,19 @@
         <v>5.7</v>
       </c>
       <c r="J25" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O25" t="n">
         <v>1.29</v>
@@ -3805,16 +3805,16 @@
         <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R25" t="n">
         <v>1.39</v>
       </c>
       <c r="S25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U25" t="n">
         <v>2.04</v>
@@ -3823,22 +3823,22 @@
         <v>1.21</v>
       </c>
       <c r="W25" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="X25" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y25" t="n">
         <v>22</v>
       </c>
       <c r="Z25" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA25" t="n">
         <v>150</v>
       </c>
       <c r="AB25" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC25" t="n">
         <v>10.5</v>
@@ -3865,7 +3865,7 @@
         <v>21</v>
       </c>
       <c r="AK25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="n">
         <v>40</v>
@@ -3874,7 +3874,7 @@
         <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
         <v>95</v>
@@ -3913,10 +3913,10 @@
         <v>1.27</v>
       </c>
       <c r="H26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="I26" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="J26" t="n">
         <v>7</v>
@@ -3943,7 +3943,7 @@
         <v>1.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S26" t="n">
         <v>2.26</v>
@@ -3961,7 +3961,7 @@
         <v>4.7</v>
       </c>
       <c r="X26" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y26" t="n">
         <v>55</v>
@@ -3970,7 +3970,7 @@
         <v>140</v>
       </c>
       <c r="AA26" t="n">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="AB26" t="n">
         <v>11.5</v>
@@ -3982,7 +3982,7 @@
         <v>50</v>
       </c>
       <c r="AE26" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AF26" t="n">
         <v>8.4</v>
@@ -3991,7 +3991,7 @@
         <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI26" t="n">
         <v>150</v>
@@ -4003,7 +4003,7 @@
         <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
         <v>150</v>
@@ -4045,58 +4045,58 @@
         <v>1.81</v>
       </c>
       <c r="G27" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H27" t="n">
         <v>4.9</v>
       </c>
       <c r="I27" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
         <v>4.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W27" t="n">
         <v>2.16</v>
       </c>
-      <c r="Q27" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W27" t="n">
-        <v>2.18</v>
-      </c>
       <c r="X27" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y27" t="n">
         <v>19.5</v>
@@ -4108,7 +4108,7 @@
         <v>130</v>
       </c>
       <c r="AB27" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC27" t="n">
         <v>9.199999999999999</v>
@@ -4141,13 +4141,13 @@
         <v>34</v>
       </c>
       <c r="AM27" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN27" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -4189,13 +4189,13 @@
         <v>2.7</v>
       </c>
       <c r="J28" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K28" t="n">
         <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -4213,10 +4213,10 @@
         <v>1.64</v>
       </c>
       <c r="R28" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S28" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T28" t="n">
         <v>1.56</v>
@@ -4246,7 +4246,7 @@
         <v>19.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD28" t="n">
         <v>13</v>
@@ -4261,7 +4261,7 @@
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI28" t="n">
         <v>32</v>
@@ -4312,64 +4312,64 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="G29" t="n">
-        <v>1000</v>
+        <v>1.55</v>
       </c>
       <c r="H29" t="n">
-        <v>1.04</v>
+        <v>10.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.02</v>
+        <v>3.8</v>
       </c>
       <c r="K29" t="n">
-        <v>950</v>
+        <v>4.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N29" t="n">
-        <v>1.24</v>
+        <v>2.52</v>
       </c>
       <c r="O29" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="P29" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="R29" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W29" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z29" t="n">
         <v>1000</v>
@@ -4378,34 +4378,34 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL29" t="n">
         <v>1000</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4447,112 +4447,112 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.04</v>
+        <v>6</v>
       </c>
       <c r="G30" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="H30" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="I30" t="n">
-        <v>1000</v>
+        <v>1.85</v>
       </c>
       <c r="J30" t="n">
-        <v>1.04</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>950</v>
+        <v>3.65</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N30" t="n">
-        <v>1.03</v>
+        <v>2.48</v>
       </c>
       <c r="O30" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="P30" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="R30" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="S30" t="n">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V30" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="W30" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -4582,100 +4582,100 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.04</v>
+        <v>5.3</v>
       </c>
       <c r="G31" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="H31" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="I31" t="n">
-        <v>1000</v>
+        <v>2.08</v>
       </c>
       <c r="J31" t="n">
-        <v>1.03</v>
+        <v>2.86</v>
       </c>
       <c r="K31" t="n">
-        <v>950</v>
+        <v>3.35</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N31" t="n">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="O31" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="P31" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="R31" t="n">
         <v>1.12</v>
       </c>
       <c r="S31" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="V31" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="W31" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="n">
         <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL31" t="n">
         <v>1000</v>
@@ -4687,7 +4687,7 @@
         <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="G32" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H32" t="n">
         <v>4.6</v>
@@ -4729,10 +4729,10 @@
         <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K32" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L32" t="n">
         <v>1.3</v>
@@ -4741,40 +4741,40 @@
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O32" t="n">
         <v>1.27</v>
       </c>
       <c r="P32" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q32" t="n">
         <v>1.79</v>
       </c>
       <c r="R32" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S32" t="n">
         <v>3.05</v>
       </c>
       <c r="T32" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U32" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V32" t="n">
         <v>1.25</v>
       </c>
       <c r="W32" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="X32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y32" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Z32" t="n">
         <v>40</v>
@@ -4786,7 +4786,7 @@
         <v>10.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AD32" t="n">
         <v>18.5</v>
@@ -4807,7 +4807,7 @@
         <v>65</v>
       </c>
       <c r="AJ32" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK32" t="n">
         <v>970</v>
@@ -4867,10 +4867,10 @@
         <v>3.3</v>
       </c>
       <c r="K33" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="M33" t="n">
         <v>1.11</v>
@@ -4891,13 +4891,13 @@
         <v>1.2</v>
       </c>
       <c r="S33" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T33" t="n">
         <v>2.24</v>
       </c>
       <c r="U33" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="V33" t="n">
         <v>1.17</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G34" t="n">
         <v>2.22</v>
@@ -4996,19 +4996,19 @@
         <v>3.85</v>
       </c>
       <c r="I34" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L34" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N34" t="n">
         <v>3.2</v>
@@ -5020,13 +5020,13 @@
         <v>1.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R34" t="n">
         <v>1.28</v>
       </c>
       <c r="S34" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T34" t="n">
         <v>1.86</v>
@@ -5035,13 +5035,13 @@
         <v>1.97</v>
       </c>
       <c r="V34" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W34" t="n">
         <v>1.81</v>
       </c>
       <c r="X34" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y34" t="n">
         <v>15.5</v>
@@ -5056,7 +5056,7 @@
         <v>9.6</v>
       </c>
       <c r="AC34" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD34" t="n">
         <v>970</v>
@@ -5071,7 +5071,7 @@
         <v>12.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI34" t="n">
         <v>80</v>
@@ -5131,13 +5131,13 @@
         <v>5.6</v>
       </c>
       <c r="I35" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="J35" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K35" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L35" t="n">
         <v>1.38</v>
@@ -5161,7 +5161,7 @@
         <v>1.29</v>
       </c>
       <c r="S35" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T35" t="n">
         <v>1.96</v>
@@ -5179,7 +5179,7 @@
         <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
@@ -5188,10 +5188,10 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC35" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
         <v>1000</v>
@@ -5200,10 +5200,10 @@
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH35" t="n">
         <v>1000</v>
@@ -5224,7 +5224,7 @@
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5281,7 +5281,7 @@
         <v>1.11</v>
       </c>
       <c r="N36" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O36" t="n">
         <v>1.48</v>
@@ -5296,7 +5296,7 @@
         <v>1.21</v>
       </c>
       <c r="S36" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T36" t="n">
         <v>2</v>
@@ -5308,7 +5308,7 @@
         <v>1.44</v>
       </c>
       <c r="W36" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X36" t="n">
         <v>11.5</v>
@@ -5410,34 +5410,34 @@
         <v>4.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="O37" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P37" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R37" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="S37" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="T37" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U37" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="V37" t="n">
         <v>1.26</v>
@@ -5446,49 +5446,49 @@
         <v>2.28</v>
       </c>
       <c r="X37" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y37" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z37" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA37" t="n">
         <v>100</v>
       </c>
       <c r="AB37" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC37" t="n">
         <v>11.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE37" t="n">
         <v>44</v>
       </c>
       <c r="AF37" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG37" t="n">
         <v>10.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI37" t="n">
         <v>42</v>
       </c>
       <c r="AJ37" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AK37" t="n">
         <v>15.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM37" t="n">
         <v>55</v>
@@ -5497,7 +5497,7 @@
         <v>6</v>
       </c>
       <c r="AO37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
@@ -5527,25 +5527,25 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="G38" t="n">
         <v>2.08</v>
       </c>
       <c r="H38" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I38" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J38" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K38" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="M38" t="n">
         <v>1.12</v>
@@ -5566,7 +5566,7 @@
         <v>1.18</v>
       </c>
       <c r="S38" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T38" t="n">
         <v>2.26</v>
@@ -5575,10 +5575,10 @@
         <v>1.67</v>
       </c>
       <c r="V38" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W38" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="X38" t="n">
         <v>9.800000000000001</v>
@@ -5617,7 +5617,7 @@
         <v>150</v>
       </c>
       <c r="AJ38" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK38" t="n">
         <v>36</v>
@@ -5662,112 +5662,112 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="G39" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="H39" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="I39" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="J39" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="K39" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="O39" t="n">
         <v>1.28</v>
       </c>
       <c r="P39" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q39" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q39" t="n">
-        <v>1.71</v>
-      </c>
       <c r="R39" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="S39" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="T39" t="n">
         <v>1.87</v>
       </c>
       <c r="U39" t="n">
-        <v>1.05</v>
+        <v>2.08</v>
       </c>
       <c r="V39" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="W39" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="40">
@@ -5797,25 +5797,25 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H40" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
         <v>3.1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K40" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L40" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M40" t="n">
         <v>1.06</v>
@@ -5830,7 +5830,7 @@
         <v>2.16</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R40" t="n">
         <v>1.45</v>
@@ -5848,13 +5848,13 @@
         <v>1.47</v>
       </c>
       <c r="W40" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="X40" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z40" t="n">
         <v>22</v>
@@ -5863,22 +5863,22 @@
         <v>50</v>
       </c>
       <c r="AB40" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD40" t="n">
         <v>13</v>
       </c>
       <c r="AE40" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF40" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG40" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH40" t="n">
         <v>15.5</v>
@@ -5887,10 +5887,10 @@
         <v>40</v>
       </c>
       <c r="AJ40" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK40" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL40" t="n">
         <v>36</v>
@@ -5899,7 +5899,7 @@
         <v>75</v>
       </c>
       <c r="AN40" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO40" t="n">
         <v>25</v>
@@ -5935,61 +5935,61 @@
         <v>2.26</v>
       </c>
       <c r="G41" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="H41" t="n">
         <v>3.45</v>
       </c>
       <c r="I41" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J41" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="K41" t="n">
         <v>3.45</v>
       </c>
       <c r="L41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O41" t="n">
         <v>1.44</v>
       </c>
-      <c r="M41" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.43</v>
-      </c>
       <c r="P41" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="R41" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="T41" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U41" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V41" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W41" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X41" t="n">
         <v>12.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
         <v>1000</v>
@@ -5998,7 +5998,7 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC41" t="n">
         <v>8.4</v>
@@ -6010,7 +6010,7 @@
         <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
         <v>13.5</v>
@@ -6025,7 +6025,7 @@
         <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL41" t="n">
         <v>1000</v>
@@ -6070,7 +6070,7 @@
         <v>3.7</v>
       </c>
       <c r="G42" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H42" t="n">
         <v>2.16</v>
@@ -6082,7 +6082,7 @@
         <v>3.25</v>
       </c>
       <c r="K42" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L42" t="n">
         <v>1.47</v>
@@ -6097,7 +6097,7 @@
         <v>1.41</v>
       </c>
       <c r="P42" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q42" t="n">
         <v>2.2</v>
@@ -6106,19 +6106,19 @@
         <v>1.26</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T42" t="n">
         <v>1.87</v>
       </c>
       <c r="U42" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="V42" t="n">
         <v>1.77</v>
       </c>
       <c r="W42" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X42" t="n">
         <v>12</v>
@@ -6139,7 +6139,7 @@
         <v>8</v>
       </c>
       <c r="AD42" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE42" t="n">
         <v>28</v>
@@ -6169,10 +6169,10 @@
         <v>160</v>
       </c>
       <c r="AN42" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G43" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J43" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K43" t="n">
         <v>3.45</v>
       </c>
       <c r="L43" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M43" t="n">
         <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O43" t="n">
         <v>1.32</v>
       </c>
       <c r="P43" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q43" t="n">
         <v>1.98</v>
@@ -6241,7 +6241,7 @@
         <v>1.37</v>
       </c>
       <c r="S43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T43" t="n">
         <v>1.75</v>
@@ -6250,10 +6250,10 @@
         <v>2.24</v>
       </c>
       <c r="V43" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W43" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X43" t="n">
         <v>14</v>
@@ -6289,7 +6289,7 @@
         <v>17</v>
       </c>
       <c r="AI43" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ43" t="n">
         <v>34</v>
@@ -6346,22 +6346,22 @@
         <v>2.24</v>
       </c>
       <c r="I44" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="J44" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K44" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L44" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M44" t="n">
         <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O44" t="n">
         <v>1.24</v>
@@ -6373,7 +6373,7 @@
         <v>1.76</v>
       </c>
       <c r="R44" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S44" t="n">
         <v>2.92</v>
@@ -6385,7 +6385,7 @@
         <v>2.26</v>
       </c>
       <c r="V44" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="W44" t="n">
         <v>1.41</v>
@@ -6394,7 +6394,7 @@
         <v>22</v>
       </c>
       <c r="Y44" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z44" t="n">
         <v>1000</v>
@@ -6403,13 +6403,13 @@
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AC44" t="n">
         <v>10.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE44" t="n">
         <v>1000</v>
@@ -6418,7 +6418,7 @@
         <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH44" t="n">
         <v>1000</v>
@@ -6472,79 +6472,79 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H45" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="I45" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="J45" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="K45" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="L45" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="M45" t="n">
         <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="O45" t="n">
         <v>1.16</v>
       </c>
       <c r="P45" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R45" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="S45" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="T45" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U45" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="V45" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="W45" t="n">
         <v>1.09</v>
       </c>
       <c r="X45" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y45" t="n">
         <v>14</v>
       </c>
       <c r="Z45" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA45" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD45" t="n">
         <v>13</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>13.5</v>
       </c>
       <c r="AE45" t="n">
         <v>970</v>
@@ -6556,10 +6556,10 @@
         <v>46</v>
       </c>
       <c r="AH45" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI45" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ45" t="n">
         <v>1000</v>
@@ -6610,16 +6610,16 @@
         <v>3.1</v>
       </c>
       <c r="G46" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H46" t="n">
         <v>2.3</v>
       </c>
       <c r="I46" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J46" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K46" t="n">
         <v>3.65</v>
@@ -6628,7 +6628,7 @@
         <v>1.44</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
         <v>3.35</v>
@@ -6637,7 +6637,7 @@
         <v>1.36</v>
       </c>
       <c r="P46" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q46" t="n">
         <v>2.02</v>
@@ -6646,7 +6646,7 @@
         <v>1.3</v>
       </c>
       <c r="S46" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T46" t="n">
         <v>1.78</v>
@@ -6655,43 +6655,43 @@
         <v>2.02</v>
       </c>
       <c r="V46" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W46" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X46" t="n">
         <v>970</v>
       </c>
       <c r="Y46" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z46" t="n">
         <v>970</v>
       </c>
       <c r="AA46" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB46" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD46" t="n">
         <v>970</v>
       </c>
       <c r="AE46" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF46" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AG46" t="n">
         <v>970</v>
       </c>
       <c r="AH46" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI46" t="n">
         <v>55</v>
@@ -6712,7 +6712,7 @@
         <v>55</v>
       </c>
       <c r="AO46" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G47" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H47" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I47" t="n">
         <v>2.24</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.28</v>
       </c>
       <c r="J47" t="n">
         <v>3.7</v>
@@ -6760,7 +6760,7 @@
         <v>3.8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M47" t="n">
         <v>1.06</v>
@@ -6775,7 +6775,7 @@
         <v>2.1</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R47" t="n">
         <v>1.43</v>
@@ -6790,28 +6790,28 @@
         <v>2.32</v>
       </c>
       <c r="V47" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W47" t="n">
         <v>1.4</v>
       </c>
       <c r="X47" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y47" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z47" t="n">
         <v>14.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB47" t="n">
         <v>15</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD47" t="n">
         <v>10.5</v>
@@ -6829,7 +6829,7 @@
         <v>16.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ47" t="n">
         <v>65</v>
@@ -6895,22 +6895,22 @@
         <v>3.1</v>
       </c>
       <c r="L48" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="M48" t="n">
         <v>1.13</v>
       </c>
       <c r="N48" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O48" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="P48" t="n">
         <v>1.55</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="R48" t="n">
         <v>1.19</v>
@@ -6919,10 +6919,10 @@
         <v>5.6</v>
       </c>
       <c r="T48" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U48" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V48" t="n">
         <v>1.64</v>
@@ -6934,7 +6934,7 @@
         <v>8.4</v>
       </c>
       <c r="Y48" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z48" t="n">
         <v>14.5</v>
@@ -6970,7 +6970,7 @@
         <v>85</v>
       </c>
       <c r="AK48" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL48" t="n">
         <v>85</v>
@@ -6979,7 +6979,7 @@
         <v>200</v>
       </c>
       <c r="AN48" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AO48" t="n">
         <v>40</v>
@@ -7018,7 +7018,7 @@
         <v>4.5</v>
       </c>
       <c r="H49" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I49" t="n">
         <v>2.3</v>
@@ -7036,13 +7036,13 @@
         <v>1.1</v>
       </c>
       <c r="N49" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O49" t="n">
         <v>1.43</v>
       </c>
       <c r="P49" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q49" t="n">
         <v>2.28</v>
@@ -7054,7 +7054,7 @@
         <v>4.3</v>
       </c>
       <c r="T49" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U49" t="n">
         <v>1.87</v>
@@ -7066,7 +7066,7 @@
         <v>1.29</v>
       </c>
       <c r="X49" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Y49" t="n">
         <v>970</v>
@@ -7105,7 +7105,7 @@
         <v>110</v>
       </c>
       <c r="AK49" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL49" t="n">
         <v>85</v>
@@ -7147,19 +7147,19 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G50" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H50" t="n">
         <v>6</v>
       </c>
       <c r="I50" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="J50" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K50" t="n">
         <v>4.3</v>
@@ -7174,37 +7174,37 @@
         <v>3.35</v>
       </c>
       <c r="O50" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P50" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R50" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S50" t="n">
         <v>4.2</v>
       </c>
       <c r="T50" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U50" t="n">
         <v>1.77</v>
       </c>
       <c r="V50" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W50" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X50" t="n">
         <v>14.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z50" t="n">
         <v>55</v>
@@ -7231,7 +7231,7 @@
         <v>10.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AI50" t="n">
         <v>130</v>
@@ -7282,10 +7282,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G51" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
         <v>3.9</v>
@@ -7309,10 +7309,10 @@
         <v>4.1</v>
       </c>
       <c r="O51" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P51" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q51" t="n">
         <v>1.89</v>
@@ -7333,7 +7333,7 @@
         <v>1.33</v>
       </c>
       <c r="W51" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X51" t="n">
         <v>15</v>
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="F52" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G52" t="n">
         <v>1.62</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1.63</v>
       </c>
       <c r="H52" t="n">
         <v>5.8</v>
@@ -7429,10 +7429,10 @@
         <v>5.9</v>
       </c>
       <c r="J52" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K52" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L52" t="n">
         <v>1.32</v>
@@ -7444,7 +7444,7 @@
         <v>5.4</v>
       </c>
       <c r="O52" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P52" t="n">
         <v>2.52</v>
@@ -7453,10 +7453,10 @@
         <v>1.64</v>
       </c>
       <c r="R52" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S52" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T52" t="n">
         <v>1.72</v>
@@ -7468,7 +7468,7 @@
         <v>1.2</v>
       </c>
       <c r="W52" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X52" t="n">
         <v>24</v>
@@ -7477,7 +7477,7 @@
         <v>25</v>
       </c>
       <c r="Z52" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA52" t="n">
         <v>140</v>
@@ -7489,7 +7489,7 @@
         <v>10.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE52" t="n">
         <v>65</v>
@@ -7501,7 +7501,7 @@
         <v>9.6</v>
       </c>
       <c r="AH52" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI52" t="n">
         <v>55</v>
@@ -7513,13 +7513,13 @@
         <v>14</v>
       </c>
       <c r="AL52" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM52" t="n">
         <v>75</v>
       </c>
       <c r="AN52" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO52" t="n">
         <v>60</v>
@@ -7555,7 +7555,7 @@
         <v>2.18</v>
       </c>
       <c r="G53" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H53" t="n">
         <v>3.7</v>
@@ -7576,7 +7576,7 @@
         <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O53" t="n">
         <v>1.29</v>
@@ -7588,7 +7588,7 @@
         <v>1.87</v>
       </c>
       <c r="R53" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S53" t="n">
         <v>3.15</v>
@@ -7603,10 +7603,10 @@
         <v>1.36</v>
       </c>
       <c r="W53" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X53" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y53" t="n">
         <v>15.5</v>
@@ -7615,7 +7615,7 @@
         <v>26</v>
       </c>
       <c r="AA53" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB53" t="n">
         <v>11</v>
@@ -7630,16 +7630,16 @@
         <v>40</v>
       </c>
       <c r="AF53" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG53" t="n">
         <v>10.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI53" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ53" t="n">
         <v>26</v>
@@ -7651,13 +7651,13 @@
         <v>32</v>
       </c>
       <c r="AM53" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN53" t="n">
         <v>14</v>
       </c>
       <c r="AO53" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54">
@@ -7753,7 +7753,7 @@
         <v>85</v>
       </c>
       <c r="AB54" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC54" t="n">
         <v>7.6</v>
@@ -7762,7 +7762,7 @@
         <v>16.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF54" t="n">
         <v>12</v>
@@ -7789,7 +7789,7 @@
         <v>100</v>
       </c>
       <c r="AN54" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO54" t="n">
         <v>60</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G55" t="n">
         <v>1.26</v>
       </c>
       <c r="H55" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I55" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J55" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K55" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L55" t="n">
         <v>1.27</v>
@@ -7849,37 +7849,37 @@
         <v>5.2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P55" t="n">
         <v>2.54</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R55" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S55" t="n">
         <v>2.4</v>
       </c>
       <c r="T55" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="U55" t="n">
         <v>1.67</v>
       </c>
       <c r="V55" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W55" t="n">
         <v>4.8</v>
       </c>
       <c r="X55" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y55" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Z55" t="n">
         <v>200</v>
@@ -7888,43 +7888,43 @@
         <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC55" t="n">
         <v>20</v>
       </c>
       <c r="AD55" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE55" t="n">
         <v>360</v>
       </c>
       <c r="AF55" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG55" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH55" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AI55" t="n">
         <v>260</v>
       </c>
       <c r="AJ55" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK55" t="n">
         <v>18</v>
       </c>
       <c r="AL55" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM55" t="n">
         <v>280</v>
       </c>
       <c r="AN55" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AO55" t="n">
         <v>520</v>
@@ -7960,7 +7960,7 @@
         <v>2.38</v>
       </c>
       <c r="G56" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
         <v>3.4</v>
@@ -8002,13 +8002,13 @@
         <v>1.82</v>
       </c>
       <c r="U56" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V56" t="n">
         <v>1.4</v>
       </c>
       <c r="W56" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X56" t="n">
         <v>12.5</v>
@@ -8020,10 +8020,10 @@
         <v>23</v>
       </c>
       <c r="AA56" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB56" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC56" t="n">
         <v>7.6</v>
@@ -8110,7 +8110,7 @@
         <v>4.3</v>
       </c>
       <c r="L57" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M57" t="n">
         <v>1.03</v>
@@ -8122,13 +8122,13 @@
         <v>1.19</v>
       </c>
       <c r="P57" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q57" t="n">
         <v>1.56</v>
       </c>
       <c r="R57" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S57" t="n">
         <v>2.38</v>
@@ -8236,16 +8236,16 @@
         <v>7.2</v>
       </c>
       <c r="I58" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="J58" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K58" t="n">
         <v>4.6</v>
       </c>
       <c r="L58" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M58" t="n">
         <v>1.07</v>
@@ -8263,22 +8263,22 @@
         <v>1.96</v>
       </c>
       <c r="R58" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S58" t="n">
         <v>3.5</v>
       </c>
       <c r="T58" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U58" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V58" t="n">
         <v>1.13</v>
       </c>
       <c r="W58" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="X58" t="n">
         <v>16</v>
@@ -8296,7 +8296,7 @@
         <v>7.6</v>
       </c>
       <c r="AC58" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD58" t="n">
         <v>32</v>
@@ -8374,7 +8374,7 @@
         <v>7.2</v>
       </c>
       <c r="J59" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K59" t="n">
         <v>4.1</v>
@@ -8401,7 +8401,7 @@
         <v>1.31</v>
       </c>
       <c r="S59" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T59" t="n">
         <v>1.94</v>
@@ -8515,7 +8515,7 @@
         <v>4.3</v>
       </c>
       <c r="L60" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M60" t="n">
         <v>1.03</v>
@@ -8524,19 +8524,19 @@
         <v>5</v>
       </c>
       <c r="O60" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P60" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R60" t="n">
         <v>1.56</v>
       </c>
       <c r="S60" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T60" t="n">
         <v>1.66</v>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G61" t="n">
         <v>1.77</v>
@@ -8656,7 +8656,7 @@
         <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O61" t="n">
         <v>1.22</v>
@@ -8668,7 +8668,7 @@
         <v>1.67</v>
       </c>
       <c r="R61" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S61" t="n">
         <v>2.68</v>
@@ -8737,7 +8737,7 @@
         <v>8</v>
       </c>
       <c r="AO61" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62">
@@ -8776,22 +8776,22 @@
         <v>1.81</v>
       </c>
       <c r="I62" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="J62" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K62" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L62" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M62" t="n">
         <v>1.09</v>
       </c>
       <c r="N62" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O62" t="n">
         <v>1.4</v>
@@ -8815,7 +8815,7 @@
         <v>1.86</v>
       </c>
       <c r="V62" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W62" t="n">
         <v>1.21</v>
@@ -8905,7 +8905,7 @@
         <v>1.34</v>
       </c>
       <c r="G63" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H63" t="n">
         <v>10.5</v>
@@ -8944,19 +8944,19 @@
         <v>2.38</v>
       </c>
       <c r="T63" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U63" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V63" t="n">
         <v>1.09</v>
       </c>
       <c r="W63" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="X63" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y63" t="n">
         <v>44</v>
@@ -8965,7 +8965,7 @@
         <v>110</v>
       </c>
       <c r="AA63" t="n">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="AB63" t="n">
         <v>11</v>
@@ -8980,7 +8980,7 @@
         <v>160</v>
       </c>
       <c r="AF63" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AG63" t="n">
         <v>10.5</v>
@@ -9049,13 +9049,13 @@
         <v>4.2</v>
       </c>
       <c r="J64" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K64" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L64" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="M64" t="n">
         <v>1.12</v>
@@ -9079,7 +9079,7 @@
         <v>5.1</v>
       </c>
       <c r="T64" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U64" t="n">
         <v>1.84</v>
@@ -9091,7 +9091,7 @@
         <v>1.75</v>
       </c>
       <c r="X64" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y64" t="n">
         <v>12.5</v>
@@ -9124,7 +9124,7 @@
         <v>21</v>
       </c>
       <c r="AI64" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ64" t="n">
         <v>32</v>
@@ -9142,7 +9142,7 @@
         <v>34</v>
       </c>
       <c r="AO64" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65">
@@ -9175,13 +9175,13 @@
         <v>1.93</v>
       </c>
       <c r="G65" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H65" t="n">
         <v>4.7</v>
       </c>
       <c r="I65" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J65" t="n">
         <v>3.6</v>
@@ -9199,7 +9199,7 @@
         <v>4</v>
       </c>
       <c r="O65" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P65" t="n">
         <v>2.02</v>
@@ -9223,7 +9223,7 @@
         <v>1.26</v>
       </c>
       <c r="W65" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X65" t="n">
         <v>14</v>
@@ -9337,7 +9337,7 @@
         <v>1.35</v>
       </c>
       <c r="P66" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q66" t="n">
         <v>1.91</v>
@@ -9460,7 +9460,7 @@
         <v>3.65</v>
       </c>
       <c r="L67" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="M67" t="n">
         <v>1.08</v>
@@ -9595,7 +9595,7 @@
         <v>4.4</v>
       </c>
       <c r="L68" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M68" t="n">
         <v>1.03</v>
@@ -9607,7 +9607,7 @@
         <v>1.19</v>
       </c>
       <c r="P68" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q68" t="n">
         <v>1.57</v>
@@ -9724,7 +9724,7 @@
         <v>13</v>
       </c>
       <c r="J69" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K69" t="n">
         <v>6</v>
@@ -9847,112 +9847,112 @@
         </is>
       </c>
       <c r="F70" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H70" t="n">
         <v>2.88</v>
       </c>
-      <c r="G70" t="n">
+      <c r="I70" t="n">
         <v>2.94</v>
       </c>
-      <c r="H70" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2.98</v>
-      </c>
       <c r="J70" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N70" t="n">
         <v>3.2</v>
       </c>
-      <c r="L70" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N70" t="n">
-        <v>2.86</v>
-      </c>
       <c r="O70" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P70" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="R70" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="S70" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="T70" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="U70" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="V70" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W70" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X70" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AA70" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB70" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC70" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD70" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE70" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AF70" t="n">
         <v>17.5</v>
       </c>
       <c r="AG70" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH70" t="n">
         <v>21</v>
       </c>
       <c r="AI70" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ70" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK70" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO70" t="n">
         <v>40</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="71">
@@ -9982,16 +9982,16 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="G71" t="n">
         <v>1.95</v>
       </c>
       <c r="H71" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I71" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J71" t="n">
         <v>4.1</v>
@@ -10027,10 +10027,10 @@
         <v>1.56</v>
       </c>
       <c r="U71" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="V71" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W71" t="n">
         <v>2.04</v>
@@ -10117,19 +10117,19 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G72" t="n">
         <v>2.34</v>
       </c>
       <c r="H72" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I72" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="J72" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K72" t="n">
         <v>4.2</v>
@@ -10138,10 +10138,10 @@
         <v>1.22</v>
       </c>
       <c r="M72" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N72" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="O72" t="n">
         <v>1.17</v>
@@ -10153,25 +10153,25 @@
         <v>1.53</v>
       </c>
       <c r="R72" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="S72" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="T72" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="U72" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="V72" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W72" t="n">
         <v>1.74</v>
       </c>
       <c r="X72" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y72" t="n">
         <v>22</v>
@@ -10183,10 +10183,10 @@
         <v>50</v>
       </c>
       <c r="AB72" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AC72" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD72" t="n">
         <v>15.5</v>
@@ -10195,16 +10195,16 @@
         <v>29</v>
       </c>
       <c r="AF72" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG72" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI72" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ72" t="n">
         <v>32</v>
@@ -10213,7 +10213,7 @@
         <v>22</v>
       </c>
       <c r="AL72" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM72" t="n">
         <v>50</v>
@@ -10222,7 +10222,7 @@
         <v>11</v>
       </c>
       <c r="AO72" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
@@ -10261,10 +10261,10 @@
         <v>4.1</v>
       </c>
       <c r="I73" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K73" t="n">
         <v>4.1</v>
@@ -10291,7 +10291,7 @@
         <v>1.49</v>
       </c>
       <c r="S73" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T73" t="n">
         <v>1.7</v>
@@ -10300,7 +10300,7 @@
         <v>2.36</v>
       </c>
       <c r="V73" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W73" t="n">
         <v>2.02</v>
@@ -10315,7 +10315,7 @@
         <v>32</v>
       </c>
       <c r="AA73" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB73" t="n">
         <v>11.5</v>
@@ -10387,19 +10387,19 @@
         </is>
       </c>
       <c r="F74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G74" t="n">
         <v>2.22</v>
       </c>
-      <c r="G74" t="n">
-        <v>2.26</v>
-      </c>
       <c r="H74" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I74" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J74" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K74" t="n">
         <v>3.5</v>
@@ -10423,7 +10423,7 @@
         <v>2.18</v>
       </c>
       <c r="R74" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S74" t="n">
         <v>4</v>
@@ -10432,13 +10432,13 @@
         <v>1.91</v>
       </c>
       <c r="U74" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V74" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W74" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X74" t="n">
         <v>12</v>
@@ -10477,7 +10477,7 @@
         <v>60</v>
       </c>
       <c r="AJ74" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK74" t="n">
         <v>25</v>
@@ -10489,7 +10489,7 @@
         <v>120</v>
       </c>
       <c r="AN74" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO74" t="n">
         <v>55</v>
@@ -10555,7 +10555,7 @@
         <v>2.06</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R75" t="n">
         <v>1.42</v>
@@ -10576,7 +10576,7 @@
         <v>1.77</v>
       </c>
       <c r="X75" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y75" t="n">
         <v>15</v>
@@ -10597,7 +10597,7 @@
         <v>15</v>
       </c>
       <c r="AE75" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF75" t="n">
         <v>14.5</v>
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G76" t="n">
         <v>1.82</v>
@@ -10666,13 +10666,13 @@
         <v>5.6</v>
       </c>
       <c r="I76" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J76" t="n">
         <v>3.7</v>
       </c>
       <c r="K76" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L76" t="n">
         <v>1.49</v>
@@ -10681,13 +10681,13 @@
         <v>1.1</v>
       </c>
       <c r="N76" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O76" t="n">
         <v>1.43</v>
       </c>
       <c r="P76" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q76" t="n">
         <v>2.3</v>
@@ -10795,13 +10795,13 @@
         <v>4.9</v>
       </c>
       <c r="G77" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="H77" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="I77" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="J77" t="n">
         <v>3.45</v>
@@ -10843,7 +10843,7 @@
         <v>2.06</v>
       </c>
       <c r="W77" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="X77" t="n">
         <v>12</v>
@@ -10864,13 +10864,13 @@
         <v>8.6</v>
       </c>
       <c r="AD77" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE77" t="n">
         <v>24</v>
       </c>
       <c r="AF77" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG77" t="n">
         <v>22</v>
@@ -10939,13 +10939,13 @@
         <v>5.2</v>
       </c>
       <c r="J78" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K78" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L78" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M78" t="n">
         <v>1.08</v>
@@ -10972,10 +10972,10 @@
         <v>1.9</v>
       </c>
       <c r="U78" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V78" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W78" t="n">
         <v>2.08</v>
@@ -11074,7 +11074,7 @@
         <v>4.2</v>
       </c>
       <c r="J79" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K79" t="n">
         <v>3.5</v>
@@ -11260,7 +11260,7 @@
         <v>22</v>
       </c>
       <c r="AA80" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB80" t="n">
         <v>12</v>
@@ -11272,10 +11272,10 @@
         <v>15.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF80" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG80" t="n">
         <v>14</v>
@@ -11284,16 +11284,16 @@
         <v>21</v>
       </c>
       <c r="AI80" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ80" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AK80" t="n">
         <v>36</v>
       </c>
       <c r="AL80" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM80" t="n">
         <v>120</v>
@@ -11302,7 +11302,7 @@
         <v>29</v>
       </c>
       <c r="AO80" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81">
@@ -11380,7 +11380,7 @@
         <v>1.01</v>
       </c>
       <c r="V81" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W81" t="n">
         <v>1.43</v>
@@ -11512,7 +11512,7 @@
         <v>2.06</v>
       </c>
       <c r="U82" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V82" t="n">
         <v>1.07</v>
@@ -11533,16 +11533,16 @@
         <v>680</v>
       </c>
       <c r="AB82" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC82" t="n">
         <v>16</v>
       </c>
       <c r="AD82" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE82" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF82" t="n">
         <v>8.6</v>
@@ -11608,7 +11608,7 @@
         <v>5.1</v>
       </c>
       <c r="H83" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="I83" t="n">
         <v>1.77</v>
@@ -11620,37 +11620,37 @@
         <v>4.3</v>
       </c>
       <c r="L83" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M83" t="n">
         <v>1.05</v>
       </c>
       <c r="N83" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O83" t="n">
         <v>1.22</v>
       </c>
       <c r="P83" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R83" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S83" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T83" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U83" t="n">
         <v>2.38</v>
       </c>
       <c r="V83" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="W83" t="n">
         <v>1.24</v>
@@ -11671,7 +11671,7 @@
         <v>22</v>
       </c>
       <c r="AC83" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD83" t="n">
         <v>9.800000000000001</v>
@@ -11698,13 +11698,13 @@
         <v>55</v>
       </c>
       <c r="AL83" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM83" t="n">
         <v>70</v>
       </c>
       <c r="AN83" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO83" t="n">
         <v>8</v>
@@ -11740,7 +11740,7 @@
         <v>5.5</v>
       </c>
       <c r="G84" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H84" t="n">
         <v>1.62</v>
@@ -11755,7 +11755,7 @@
         <v>4.5</v>
       </c>
       <c r="L84" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M84" t="n">
         <v>1.06</v>
@@ -11770,25 +11770,25 @@
         <v>1.94</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R84" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S84" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T84" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="U84" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V84" t="n">
         <v>2.28</v>
       </c>
       <c r="W84" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X84" t="n">
         <v>18</v>
@@ -11896,7 +11896,7 @@
         <v>1.04</v>
       </c>
       <c r="N85" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O85" t="n">
         <v>1.23</v>
@@ -12040,13 +12040,13 @@
         <v>3.35</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R86" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S86" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T86" t="n">
         <v>2.04</v>
@@ -12187,7 +12187,7 @@
         <v>1.93</v>
       </c>
       <c r="U87" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V87" t="n">
         <v>3.1</v>
@@ -12226,7 +12226,7 @@
         <v>40</v>
       </c>
       <c r="AH87" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI87" t="n">
         <v>38</v>
@@ -12310,16 +12310,16 @@
         <v>3.15</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R88" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S88" t="n">
         <v>2.1</v>
       </c>
       <c r="T88" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="U88" t="n">
         <v>1.41</v>
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G89" t="n">
         <v>2.44</v>
@@ -12430,7 +12430,7 @@
         <v>4.1</v>
       </c>
       <c r="L89" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M89" t="n">
         <v>1.05</v>
@@ -12448,7 +12448,7 @@
         <v>1.75</v>
       </c>
       <c r="R89" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S89" t="n">
         <v>2.9</v>
@@ -12490,7 +12490,7 @@
         <v>38</v>
       </c>
       <c r="AF89" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AG89" t="n">
         <v>12</v>
@@ -12505,7 +12505,7 @@
         <v>32</v>
       </c>
       <c r="AK89" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL89" t="n">
         <v>38</v>
@@ -12550,7 +12550,7 @@
         <v>1.15</v>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H90" t="n">
         <v>17</v>
@@ -12562,28 +12562,28 @@
         <v>9.4</v>
       </c>
       <c r="K90" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="L90" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="M90" t="n">
         <v>1.01</v>
       </c>
       <c r="N90" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O90" t="n">
         <v>1.12</v>
       </c>
       <c r="P90" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q90" t="n">
         <v>1.32</v>
       </c>
       <c r="R90" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="S90" t="n">
         <v>1.89</v>
@@ -12592,7 +12592,7 @@
         <v>1.96</v>
       </c>
       <c r="U90" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V90" t="n">
         <v>1.05</v>
@@ -12622,7 +12622,7 @@
         <v>1000</v>
       </c>
       <c r="AE90" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AF90" t="n">
         <v>10</v>
@@ -12646,7 +12646,7 @@
         <v>1000</v>
       </c>
       <c r="AM90" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN90" t="n">
         <v>2.98</v>
@@ -12697,7 +12697,7 @@
         <v>2.94</v>
       </c>
       <c r="K91" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="L91" t="n">
         <v>1.73</v>
@@ -12823,10 +12823,10 @@
         <v>2.74</v>
       </c>
       <c r="H92" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I92" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J92" t="n">
         <v>3.05</v>
@@ -12835,34 +12835,34 @@
         <v>3.15</v>
       </c>
       <c r="L92" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M92" t="n">
         <v>1.12</v>
       </c>
       <c r="N92" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="O92" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="P92" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R92" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S92" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="T92" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U92" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V92" t="n">
         <v>1.43</v>
@@ -12871,58 +12871,58 @@
         <v>1.57</v>
       </c>
       <c r="X92" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y92" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z92" t="n">
         <v>26</v>
       </c>
       <c r="AA92" t="n">
-        <v>320</v>
+        <v>490</v>
       </c>
       <c r="AB92" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC92" t="n">
         <v>7</v>
       </c>
       <c r="AD92" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE92" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AF92" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG92" t="n">
         <v>13.5</v>
       </c>
       <c r="AH92" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI92" t="n">
         <v>70</v>
       </c>
       <c r="AJ92" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="AK92" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AL92" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO92" t="n">
         <v>60</v>
-      </c>
-      <c r="AM92" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>90</v>
-      </c>
-      <c r="AO92" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="93">
@@ -12952,85 +12952,85 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G93" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="H93" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I93" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J93" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K93" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L93" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M93" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N93" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="O93" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P93" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="R93" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="S93" t="n">
-        <v>2.56</v>
+        <v>2.78</v>
       </c>
       <c r="T93" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="U93" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="V93" t="n">
         <v>1.15</v>
       </c>
       <c r="W93" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="X93" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y93" t="n">
         <v>27</v>
       </c>
-      <c r="Y93" t="n">
-        <v>29</v>
-      </c>
       <c r="Z93" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA93" t="n">
         <v>220</v>
       </c>
       <c r="AB93" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AC93" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD93" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE93" t="n">
         <v>100</v>
       </c>
       <c r="AF93" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG93" t="n">
         <v>10.5</v>
@@ -13039,7 +13039,7 @@
         <v>21</v>
       </c>
       <c r="AI93" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AJ93" t="n">
         <v>14</v>
@@ -13048,16 +13048,16 @@
         <v>15</v>
       </c>
       <c r="AL93" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM93" t="n">
         <v>110</v>
       </c>
       <c r="AN93" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AO93" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94">
@@ -13087,13 +13087,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G94" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H94" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="I94" t="n">
         <v>18.5</v>
@@ -13132,13 +13132,13 @@
         <v>2.22</v>
       </c>
       <c r="U94" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V94" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W94" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X94" t="n">
         <v>29</v>
@@ -13228,16 +13228,16 @@
         <v>1.15</v>
       </c>
       <c r="H95" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I95" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J95" t="n">
         <v>11</v>
       </c>
       <c r="K95" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="L95" t="n">
         <v>1.21</v>
@@ -13252,7 +13252,7 @@
         <v>1.13</v>
       </c>
       <c r="P95" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q95" t="n">
         <v>1.4</v>
@@ -13267,7 +13267,7 @@
         <v>2.38</v>
       </c>
       <c r="U95" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V95" t="n">
         <v>1.03</v>
@@ -13297,7 +13297,7 @@
         <v>120</v>
       </c>
       <c r="AE95" t="n">
-        <v>590</v>
+        <v>1000</v>
       </c>
       <c r="AF95" t="n">
         <v>8.6</v>
@@ -13357,13 +13357,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G96" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H96" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I96" t="n">
         <v>4.3</v>
@@ -13405,10 +13405,10 @@
         <v>2.12</v>
       </c>
       <c r="V96" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W96" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="X96" t="n">
         <v>15.5</v>
@@ -13495,7 +13495,7 @@
         <v>1.87</v>
       </c>
       <c r="G97" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H97" t="n">
         <v>3.95</v>
@@ -13528,7 +13528,7 @@
         <v>1.71</v>
       </c>
       <c r="R97" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S97" t="n">
         <v>2.58</v>
@@ -13543,7 +13543,7 @@
         <v>1.29</v>
       </c>
       <c r="W97" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="X97" t="n">
         <v>23</v>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G98" t="n">
         <v>2.18</v>
@@ -13657,10 +13657,10 @@
         <v>1.33</v>
       </c>
       <c r="P98" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R98" t="n">
         <v>1.31</v>
@@ -13762,10 +13762,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G99" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H99" t="n">
         <v>5.8</v>
@@ -13807,7 +13807,7 @@
         <v>2.2</v>
       </c>
       <c r="U99" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V99" t="n">
         <v>1.16</v>
@@ -13828,10 +13828,10 @@
         <v>260</v>
       </c>
       <c r="AB99" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AC99" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD99" t="n">
         <v>30</v>
@@ -13858,13 +13858,13 @@
         <v>27</v>
       </c>
       <c r="AL99" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM99" t="n">
         <v>250</v>
       </c>
       <c r="AN99" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AO99" t="n">
         <v>250</v>
@@ -13909,7 +13909,7 @@
         <v>2.42</v>
       </c>
       <c r="J100" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K100" t="n">
         <v>3.85</v>
@@ -13936,7 +13936,7 @@
         <v>1.55</v>
       </c>
       <c r="S100" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T100" t="n">
         <v>1.62</v>
@@ -13945,16 +13945,16 @@
         <v>2.58</v>
       </c>
       <c r="V100" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W100" t="n">
         <v>1.45</v>
       </c>
       <c r="X100" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y100" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z100" t="n">
         <v>16.5</v>
@@ -13978,13 +13978,13 @@
         <v>24</v>
       </c>
       <c r="AG100" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH100" t="n">
         <v>16</v>
       </c>
       <c r="AI100" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ100" t="n">
         <v>55</v>
@@ -14059,10 +14059,10 @@
         <v>3</v>
       </c>
       <c r="O101" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P101" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Q101" t="n">
         <v>2.36</v>
@@ -14071,10 +14071,10 @@
         <v>1.24</v>
       </c>
       <c r="S101" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T101" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U101" t="n">
         <v>1.94</v>
@@ -14083,7 +14083,7 @@
         <v>1.4</v>
       </c>
       <c r="W101" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X101" t="n">
         <v>10</v>
@@ -14167,58 +14167,58 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.04</v>
+        <v>1.36</v>
       </c>
       <c r="G102" t="n">
-        <v>1000</v>
+        <v>1.51</v>
       </c>
       <c r="H102" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I102" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="J102" t="n">
-        <v>1.02</v>
+        <v>3.75</v>
       </c>
       <c r="K102" t="n">
-        <v>950</v>
+        <v>6.4</v>
       </c>
       <c r="L102" t="n">
         <v>1.01</v>
       </c>
       <c r="M102" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N102" t="n">
-        <v>1.25</v>
+        <v>1.97</v>
       </c>
       <c r="O102" t="n">
         <v>1.32</v>
       </c>
       <c r="P102" t="n">
-        <v>1.24</v>
+        <v>1.97</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.32</v>
+        <v>1.73</v>
       </c>
       <c r="R102" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S102" t="n">
-        <v>1.32</v>
+        <v>2.88</v>
       </c>
       <c r="T102" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U102" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V102" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W102" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="X102" t="n">
         <v>1000</v>
@@ -14302,22 +14302,22 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="G103" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="H103" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I103" t="n">
         <v>1.64</v>
       </c>
-      <c r="I103" t="n">
-        <v>1.65</v>
-      </c>
       <c r="J103" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K103" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L103" t="n">
         <v>1.29</v>
@@ -14350,7 +14350,7 @@
         <v>2.4</v>
       </c>
       <c r="V103" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="W103" t="n">
         <v>1.2</v>
@@ -14365,10 +14365,10 @@
         <v>11.5</v>
       </c>
       <c r="AA103" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB103" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC103" t="n">
         <v>10.5</v>
@@ -14404,7 +14404,7 @@
         <v>75</v>
       </c>
       <c r="AN103" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO103" t="n">
         <v>6.6</v>
@@ -14446,10 +14446,10 @@
         <v>1.5</v>
       </c>
       <c r="I104" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="J104" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K104" t="n">
         <v>4.7</v>
@@ -14485,7 +14485,7 @@
         <v>1.75</v>
       </c>
       <c r="V104" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="W104" t="n">
         <v>1.13</v>
@@ -14572,61 +14572,61 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="G105" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="H105" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J105" t="n">
         <v>2.74</v>
       </c>
-      <c r="I105" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J105" t="n">
-        <v>2.64</v>
-      </c>
       <c r="K105" t="n">
-        <v>3.8</v>
+        <v>2.92</v>
       </c>
       <c r="L105" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="M105" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="N105" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="O105" t="n">
         <v>1.83</v>
       </c>
       <c r="P105" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="Q105" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R105" t="n">
         <v>1.12</v>
       </c>
       <c r="S105" t="n">
-        <v>3.45</v>
+        <v>7.6</v>
       </c>
       <c r="T105" t="n">
-        <v>1.05</v>
+        <v>2.58</v>
       </c>
       <c r="U105" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="V105" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="W105" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X105" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="Y105" t="n">
         <v>1000</v>
@@ -14641,7 +14641,7 @@
         <v>1000</v>
       </c>
       <c r="AC105" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD105" t="n">
         <v>1000</v>
@@ -14650,7 +14650,7 @@
         <v>1000</v>
       </c>
       <c r="AF105" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG105" t="n">
         <v>1000</v>
@@ -14719,7 +14719,7 @@
         <v>5.9</v>
       </c>
       <c r="J106" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="K106" t="n">
         <v>3.45</v>
@@ -14848,7 +14848,7 @@
         <v>1.57</v>
       </c>
       <c r="H107" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I107" t="n">
         <v>10</v>
@@ -14860,28 +14860,28 @@
         <v>4.8</v>
       </c>
       <c r="L107" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M107" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N107" t="n">
-        <v>1.91</v>
+        <v>3.3</v>
       </c>
       <c r="O107" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P107" t="n">
         <v>1.91</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="R107" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="S107" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="T107" t="n">
         <v>2.16</v>
@@ -14923,7 +14923,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG107" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH107" t="n">
         <v>30</v>
@@ -14977,16 +14977,16 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G108" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H108" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I108" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J108" t="n">
         <v>3.25</v>
@@ -15025,13 +15025,13 @@
         <v>1.92</v>
       </c>
       <c r="V108" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W108" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="X108" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y108" t="n">
         <v>11</v>
@@ -15115,16 +15115,16 @@
         <v>2.54</v>
       </c>
       <c r="G109" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H109" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I109" t="n">
         <v>3.2</v>
       </c>
       <c r="J109" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K109" t="n">
         <v>3.5</v>
@@ -15136,7 +15136,7 @@
         <v>1.06</v>
       </c>
       <c r="N109" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O109" t="n">
         <v>1.28</v>
@@ -15145,13 +15145,13 @@
         <v>2.06</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R109" t="n">
         <v>1.43</v>
       </c>
       <c r="S109" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T109" t="n">
         <v>1.68</v>
@@ -15163,7 +15163,7 @@
         <v>1.45</v>
       </c>
       <c r="W109" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X109" t="n">
         <v>17</v>
@@ -15247,10 +15247,10 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="G110" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="H110" t="n">
         <v>1.26</v>
@@ -15265,34 +15265,34 @@
         <v>7</v>
       </c>
       <c r="L110" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M110" t="n">
         <v>1.05</v>
       </c>
       <c r="N110" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O110" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P110" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R110" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="S110" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T110" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="U110" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="V110" t="n">
         <v>4.7</v>
@@ -15301,13 +15301,13 @@
         <v>1.06</v>
       </c>
       <c r="X110" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="Y110" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z110" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AA110" t="n">
         <v>8.6</v>
@@ -15319,40 +15319,40 @@
         <v>15.5</v>
       </c>
       <c r="AD110" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE110" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF110" t="n">
         <v>180</v>
       </c>
       <c r="AG110" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AH110" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI110" t="n">
         <v>55</v>
       </c>
-      <c r="AI110" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ110" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AK110" t="n">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="AL110" t="n">
         <v>360</v>
       </c>
       <c r="AM110" t="n">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="AN110" t="n">
-        <v>910</v>
+        <v>720</v>
       </c>
       <c r="AO110" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="111">
@@ -15385,16 +15385,16 @@
         <v>4.5</v>
       </c>
       <c r="G111" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H111" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="I111" t="n">
         <v>1.99</v>
       </c>
       <c r="J111" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K111" t="n">
         <v>3.8</v>
@@ -15517,58 +15517,58 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="G112" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="H112" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="I112" t="n">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="J112" t="n">
         <v>3.35</v>
       </c>
       <c r="K112" t="n">
-        <v>950</v>
+        <v>16</v>
       </c>
       <c r="L112" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M112" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N112" t="n">
-        <v>2.06</v>
+        <v>1.03</v>
       </c>
       <c r="O112" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P112" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="R112" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="S112" t="n">
-        <v>1.48</v>
+        <v>2.3</v>
       </c>
       <c r="T112" t="n">
         <v>1.69</v>
       </c>
       <c r="U112" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="V112" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="W112" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="X112" t="n">
         <v>1000</v>
@@ -15709,7 +15709,7 @@
         <v>16.5</v>
       </c>
       <c r="Y113" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z113" t="n">
         <v>1000</v>
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G115" t="n">
         <v>1.73</v>
@@ -15931,10 +15931,10 @@
         <v>7</v>
       </c>
       <c r="I115" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J115" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K115" t="n">
         <v>3.95</v>
@@ -15970,7 +15970,7 @@
         <v>1.65</v>
       </c>
       <c r="V115" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W115" t="n">
         <v>2.36</v>
@@ -16069,7 +16069,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J116" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K116" t="n">
         <v>4.1</v>
@@ -16093,7 +16093,7 @@
         <v>2.46</v>
       </c>
       <c r="R116" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S116" t="n">
         <v>4.8</v>
@@ -16111,7 +16111,7 @@
         <v>2.66</v>
       </c>
       <c r="X116" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y116" t="n">
         <v>21</v>
@@ -16126,7 +16126,7 @@
         <v>6.4</v>
       </c>
       <c r="AC116" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD116" t="n">
         <v>38</v>
@@ -16192,7 +16192,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G117" t="n">
         <v>3.65</v>
@@ -16231,7 +16231,7 @@
         <v>1.3</v>
       </c>
       <c r="S117" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T117" t="n">
         <v>1.88</v>
@@ -16258,7 +16258,7 @@
         <v>36</v>
       </c>
       <c r="AB117" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC117" t="n">
         <v>8.6</v>
@@ -16336,16 +16336,16 @@
         <v>5.6</v>
       </c>
       <c r="I118" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="J118" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K118" t="n">
         <v>4.7</v>
       </c>
       <c r="L118" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M118" t="n">
         <v>1.01</v>
@@ -16375,7 +16375,7 @@
         <v>1.78</v>
       </c>
       <c r="V118" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W118" t="n">
         <v>2.46</v>
@@ -16462,7 +16462,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G119" t="n">
         <v>1.68</v>
@@ -16474,13 +16474,13 @@
         <v>7.6</v>
       </c>
       <c r="J119" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K119" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L119" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M119" t="n">
         <v>1.08</v>
@@ -16525,7 +16525,7 @@
         <v>1000</v>
       </c>
       <c r="AA119" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB119" t="n">
         <v>7.4</v>
@@ -16537,7 +16537,7 @@
         <v>1000</v>
       </c>
       <c r="AE119" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF119" t="n">
         <v>10</v>
@@ -16600,49 +16600,49 @@
         <v>1.87</v>
       </c>
       <c r="G120" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H120" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I120" t="n">
         <v>5.4</v>
       </c>
       <c r="J120" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="K120" t="n">
         <v>4</v>
       </c>
       <c r="L120" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="M120" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N120" t="n">
-        <v>1.81</v>
+        <v>3.1</v>
       </c>
       <c r="O120" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P120" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q120" t="n">
         <v>1.89</v>
       </c>
       <c r="R120" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="S120" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="T120" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U120" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="V120" t="n">
         <v>1.22</v>
@@ -16663,10 +16663,10 @@
         <v>1000</v>
       </c>
       <c r="AB120" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC120" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD120" t="n">
         <v>1000</v>
@@ -16732,112 +16732,112 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="G121" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="H121" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I121" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="J121" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="K121" t="n">
-        <v>950</v>
+        <v>3.65</v>
       </c>
       <c r="L121" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M121" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N121" t="n">
-        <v>1.52</v>
+        <v>2.84</v>
       </c>
       <c r="O121" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P121" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="R121" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S121" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="T121" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="U121" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V121" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="W121" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="X121" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y121" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z121" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA121" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB121" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC121" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD121" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE121" t="n">
         <v>1000</v>
       </c>
       <c r="AF121" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG121" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH121" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI121" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ121" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK121" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL121" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM121" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN121" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO121" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122">
@@ -16870,7 +16870,7 @@
         <v>1.99</v>
       </c>
       <c r="G122" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H122" t="n">
         <v>3.85</v>
@@ -16879,7 +16879,7 @@
         <v>4.2</v>
       </c>
       <c r="J122" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K122" t="n">
         <v>3.95</v>
@@ -16897,7 +16897,7 @@
         <v>1.31</v>
       </c>
       <c r="P122" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q122" t="n">
         <v>1.94</v>
@@ -17008,10 +17008,10 @@
         <v>3.5</v>
       </c>
       <c r="H123" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I123" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J123" t="n">
         <v>2.9</v>
@@ -17050,7 +17050,7 @@
         <v>1.74</v>
       </c>
       <c r="V123" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W123" t="n">
         <v>1.4</v>
@@ -17137,16 +17137,16 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G124" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H124" t="n">
         <v>3.4</v>
       </c>
       <c r="I124" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J124" t="n">
         <v>3.15</v>
@@ -17155,40 +17155,40 @@
         <v>3.5</v>
       </c>
       <c r="L124" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="M124" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N124" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="O124" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="P124" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="R124" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S124" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="T124" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="U124" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V124" t="n">
         <v>1.36</v>
       </c>
       <c r="W124" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X124" t="n">
         <v>12.5</v>
@@ -17200,7 +17200,7 @@
         <v>28</v>
       </c>
       <c r="AA124" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB124" t="n">
         <v>9.6</v>
@@ -17209,16 +17209,16 @@
         <v>7.8</v>
       </c>
       <c r="AD124" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE124" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF124" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG124" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH124" t="n">
         <v>23</v>
@@ -17227,22 +17227,22 @@
         <v>70</v>
       </c>
       <c r="AJ124" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK124" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL124" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO124" t="n">
         <v>60</v>
-      </c>
-      <c r="AM124" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN124" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO124" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="125">
@@ -17272,16 +17272,16 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="G125" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H125" t="n">
         <v>3.55</v>
       </c>
       <c r="I125" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J125" t="n">
         <v>3</v>
@@ -17314,13 +17314,13 @@
         <v>5.3</v>
       </c>
       <c r="T125" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U125" t="n">
         <v>1.77</v>
       </c>
       <c r="V125" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W125" t="n">
         <v>1.66</v>
@@ -17407,112 +17407,112 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.04</v>
+        <v>1.63</v>
       </c>
       <c r="G126" t="n">
-        <v>1000</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
-        <v>1.04</v>
+        <v>4.7</v>
       </c>
       <c r="I126" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="J126" t="n">
-        <v>1.03</v>
+        <v>3.35</v>
       </c>
       <c r="K126" t="n">
-        <v>950</v>
+        <v>4.5</v>
       </c>
       <c r="L126" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M126" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N126" t="n">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="O126" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="P126" t="n">
-        <v>1.24</v>
+        <v>1.9</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.24</v>
+        <v>1.77</v>
       </c>
       <c r="R126" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S126" t="n">
-        <v>1.24</v>
+        <v>2.9</v>
       </c>
       <c r="T126" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U126" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="V126" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W126" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="X126" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y126" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z126" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA126" t="n">
         <v>1000</v>
       </c>
       <c r="AB126" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC126" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD126" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE126" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF126" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG126" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH126" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI126" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ126" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK126" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL126" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM126" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN126" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO126" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Real Espana</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.01</v>
+        <v>990</v>
       </c>
       <c r="H2" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>890</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>1.08</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>100</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -751,13 +751,13 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>1.12</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.4</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.17</v>
+        <v>4.5</v>
       </c>
       <c r="G3" t="n">
-        <v>1.18</v>
+        <v>5.1</v>
       </c>
       <c r="H3" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>990</v>
       </c>
       <c r="J3" t="n">
-        <v>7.4</v>
+        <v>1.31</v>
       </c>
       <c r="K3" t="n">
-        <v>7.8</v>
+        <v>1.33</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,34 +826,34 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.94</v>
+        <v>3.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="S3" t="n">
-        <v>8.6</v>
+        <v>40</v>
       </c>
       <c r="T3" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="W3" t="n">
-        <v>6.4</v>
+        <v>1.22</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,43 +868,43 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.65</v>
+        <v>5.9</v>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.26</v>
+        <v>6.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="K4" t="n">
-        <v>3.45</v>
+        <v>1.48</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.6</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.7</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="S4" t="n">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.78</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="X4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.6</v>
+        <v>1.55</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="AE4" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AF4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>7.4</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AL4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,90 +1058,90 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Universidad de Venezuela</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Trujillanos</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.67</v>
+        <v>3.55</v>
       </c>
       <c r="G5" t="n">
-        <v>1.74</v>
+        <v>3.65</v>
       </c>
       <c r="H5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.2</v>
       </c>
-      <c r="I5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>990</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
         <v>990</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,123 +1193,123 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>22:10:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Real Espana</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CD Motagua</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.04</v>
+        <v>2.44</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
-        <v>1.49</v>
+        <v>1.26</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Guarani (Par)</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Rubio Nu</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.36</v>
+        <v>2.76</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="T7" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="U7" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W7" t="n">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB7" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
         <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK7" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,801 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Lobos UPNFM</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
         <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="S8" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="T8" t="n">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="V8" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="W8" t="n">
-        <v>2.72</v>
+        <v>2.3</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA8" t="n">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC8" t="n">
         <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AK8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="n">
         <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Chilean Primera Division</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-02-01</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Palestino</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Nublense</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-02-01</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Rosario Central</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>River Plate</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S10" t="n">
-        <v>6</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-02-01</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>22:10:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Millonarios</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Ind Medellin</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-02-01</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Llaneros FC</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Aguilas Doradas</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="X12" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-02-01</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Lobos UPNFM</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="X13" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM13" t="n">
         <v>150</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
